--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Bug.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="825">
   <si>
     <t>Title</t>
   </si>
@@ -2547,6 +2547,9 @@
   </si>
   <si>
     <t>2021-05-21T07:48:03Z</t>
+  </si>
+  <si>
+    <t>2021-05-27T13:04:14Z</t>
   </si>
 </sst>
 </file>
@@ -10199,7 +10202,7 @@
       <c r="K2" s="24"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="N2" s="22"/>
       <c r="O2" s="21"/>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Bug.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.udhaya.suriyan\Automation\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126EEFD5-38C5-45C7-98EF-87EFA9D54432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2331B03-5C4E-48B1-9316-F8546DF6B073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="25" r:id="rId1"/>
     <sheet name="Read me" sheetId="24" r:id="rId2"/>
     <sheet name="Bug" sheetId="35" r:id="rId3"/>
-    <sheet name="DataValidation" sheetId="36" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="37" r:id="rId4"/>
+    <sheet name="DataValidation" sheetId="36" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Read me'!$A$19:$C$45</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="862">
   <si>
     <t>Title</t>
   </si>
@@ -303,10 +304,6 @@
   </si>
   <si>
     <t>Technical Attributes Mapped</t>
-  </si>
-  <si>
-    <t>All datetime should be of "yyyy-mm-dd hh:mm:ss.sss" format. 
-Ex: 2019-03-12 22:33:44.123</t>
   </si>
   <si>
     <t>Version No</t>
@@ -1964,9 +1961,6 @@
     <t>source created by and Source Modified by attributes are  introduced in the Iteration entity</t>
   </si>
   <si>
-    <t>Date on which entity was created in the external tool and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
     <t>EPIC</t>
   </si>
   <si>
@@ -2024,9 +2018,51 @@
     <t>Linked[Deliverables].ID</t>
   </si>
   <si>
+    <t>Epic1,Epic2;Story1,Story2;Feature2;Bug1;Epic3;Story3;Feature3</t>
+  </si>
+  <si>
+    <t>Epic1,Epic2;Story1,Story2;Feature2</t>
+  </si>
+  <si>
+    <t>Defect2</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Impedements1</t>
+  </si>
+  <si>
     <t>Parent</t>
   </si>
   <si>
+    <t>Issues1</t>
+  </si>
+  <si>
+    <t>Risk1</t>
+  </si>
+  <si>
+    <t>Deliverable1</t>
+  </si>
+  <si>
+    <t>https://xyz.accenture.com/browse/PUAT1-1467</t>
+  </si>
+  <si>
+    <t>Epic check1.</t>
+  </si>
+  <si>
+    <t>New Attribute Hierarchy</t>
+  </si>
+  <si>
+    <t>abc.d.xyz@mywizard.com</t>
+  </si>
+  <si>
+    <t>2020-02-04T12:47:53Z</t>
+  </si>
+  <si>
+    <t>2020-02-04T12:49:55Z</t>
+  </si>
+  <si>
     <t>Version</t>
   </si>
   <si>
@@ -2064,6 +2100,21 @@
   </si>
   <si>
     <t>Excel updated with sample data</t>
+  </si>
+  <si>
+    <t>Parent;Child;Related;Blocks;Blocked By;Successor;Predecessor</t>
+  </si>
+  <si>
+    <t>Parent;Child;Related</t>
+  </si>
+  <si>
+    <t>Team1</t>
+  </si>
+  <si>
+    <t>New sprint for Test</t>
+  </si>
+  <si>
+    <t>29july_rel_uat</t>
   </si>
   <si>
     <t>Hyperlink were removed for all the entities for External URL,
@@ -2166,10 +2217,6 @@
     <t>CommitedStarton</t>
   </si>
   <si>
-    <t>Committed or Baseline Start date of the entity
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
     <t>Close On (Committed)</t>
   </si>
   <si>
@@ -2184,10 +2231,6 @@
   </si>
   <si>
     <t>TargetStartOn</t>
-  </si>
-  <si>
-    <t>Forecasted or Planned start date of the entity
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
   </si>
   <si>
     <t>Close On (Forecast)</t>
@@ -2222,9 +2265,6 @@
     <t>StartOn</t>
   </si>
   <si>
-    <t>Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
     <t>SeverityUId</t>
   </si>
   <si>
@@ -2245,10 +2285,6 @@
     <t>IdetifiedDate</t>
   </si>
   <si>
-    <t>The date on which the enitity was identified/requested/raised.
-Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ</t>
-  </si>
-  <si>
     <t>Complexity of the Entity.
 Should be mapped with the complexity value from the external tool</t>
   </si>
@@ -2263,9 +2299,6 @@
     <t>00200400-0010-0000-0000-000000000000</t>
   </si>
   <si>
-    <t>Child of</t>
-  </si>
-  <si>
     <t>00200400-0020-0000-0000-000000000000</t>
   </si>
   <si>
@@ -2437,29 +2470,98 @@
     <t>CommittedContingencyEndOn</t>
   </si>
   <si>
-    <t>DateTime (UTC 24hr )
+    <t>TargetContingencyEndOn</t>
+  </si>
+  <si>
+    <t>ActualContingencyEndOn</t>
+  </si>
+  <si>
+    <t>Alphanumeric</t>
+  </si>
+  <si>
+    <t>Story points assigned to the Entity.
+It should be a number or a decimal with only one decimal point.</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Updated read me section for "Story Points"</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>ListOfObject</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Phase and Workstream has been included for "Issue","Risk", "Bug", "Decision" and "Action"</t>
+  </si>
+  <si>
+    <t>Mahendroo Achla</t>
+  </si>
+  <si>
+    <t>Updated the read me section for the line DateFormat from 'All datetime should be of "yyyy-mm-dd hh:mm:ss.sss" format. ' to 'All datetime should be of "YYYY-MM-DDTHH:MM:SSZ" format.'</t>
+  </si>
+  <si>
+    <t>9/11/2021 12:30PM</t>
+  </si>
+  <si>
+    <t>All datetime should be of  format &amp; formula "YYYY-MM-DDTHH:MM:SSZ".</t>
+  </si>
+  <si>
+    <t>Date on which entity was created in the external tool and date format must be YYYY-MM-DDTHH:MM:SSZ &amp; date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Date on which entity was modified in the external tool.User can update the data through this field only with higher difference in Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ &amp; Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ
+Modified on time should be less then or equal to the current UTC time</t>
+  </si>
+  <si>
+    <t>Committed or Baseline Start date of the entity
+Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ &amp; Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Forecasted or Planned start date of the entity
+Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ &amp; &amp; Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ &amp; Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>The date on which the enitity was identified/requested/raised.
+Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ &amp;  Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>The date on which the enitity was identified/requested/raised.
+Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ  &amp; Date Time and and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>DateTime/Date formula (UTC 24hr )
 yyyy-MM-dd'T'HH:mm:ss
 Ex: 2019-12-09T22:08:36</t>
   </si>
   <si>
-    <t>TargetContingencyEndOn</t>
-  </si>
-  <si>
-    <t>ActualContingencyEndOn</t>
-  </si>
-  <si>
-    <t>Alphanumeric</t>
-  </si>
-  <si>
-    <t>Date on which entity was modified in the external tool.User can update the data through this field only with higher difference in Date Time and and date format must be YYYY-MM-DDTHH:MM:SSZ
-Modified on time should be less then or equal to the current UTC time</t>
-  </si>
-  <si>
-    <t>Story points assigned to the Entity.
-It should be a number or a decimal with only one decimal point.</t>
-  </si>
-  <si>
-    <t>Updated read me section for "Story Points"</t>
+    <t>DateTime/Date formula(UTC 24hr )
+yyyy-MM-dd'T'HH:mm:ss
+Ex: 2019-12-09T22:08:36</t>
+  </si>
+  <si>
+    <t>Updated the read me section for the line DateFormat attributes to datetime formula should be  "YYYY-MM-DDTHH:MM:SSZ"</t>
+  </si>
+  <si>
+    <t>Bug_AutomationData_GenericUploader</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Security</t>
   </si>
   <si>
     <t>Lowest</t>
@@ -2477,6 +2579,9 @@
     <t>Triage</t>
   </si>
   <si>
+    <t>Analyze</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -2489,6 +2594,9 @@
     <t>Ready to Migrate</t>
   </si>
   <si>
+    <t>Detailed Technical Design</t>
+  </si>
+  <si>
     <t>Highest</t>
   </si>
   <si>
@@ -2501,65 +2609,72 @@
     <t>Reopened</t>
   </si>
   <si>
+    <t>Component Test</t>
+  </si>
+  <si>
     <t>On Hold</t>
   </si>
   <si>
+    <t>Assembly Test</t>
+  </si>
+  <si>
     <t>Deferred</t>
   </si>
   <si>
+    <t>Integration Test</t>
+  </si>
+  <si>
     <t>Closed</t>
   </si>
   <si>
+    <t>Product Test</t>
+  </si>
+  <si>
     <t>Works As Designed</t>
   </si>
   <si>
+    <t>User Acceptance Test</t>
+  </si>
+  <si>
     <t>Cancelled</t>
   </si>
   <si>
     <t>Duplicate</t>
   </si>
   <si>
+    <t>Production</t>
+  </si>
+  <si>
     <t>Rejected</t>
   </si>
   <si>
-    <t>Bug_AutomationData_GenericUploader</t>
-  </si>
-  <si>
-    <t>BOM</t>
-  </si>
-  <si>
-    <t>BOM-78173</t>
-  </si>
-  <si>
-    <t>2021-05-17T12:35:39Z</t>
-  </si>
-  <si>
-    <t>BOM-78593</t>
-  </si>
-  <si>
-    <t>2021-05-21T07:42:44Z</t>
-  </si>
-  <si>
-    <t>2021-05-21T07:45:01Z</t>
-  </si>
-  <si>
-    <t>2021-05-21T07:47:16Z</t>
-  </si>
-  <si>
-    <t>2021-05-21T07:48:03Z</t>
-  </si>
-  <si>
-    <t>2021-05-27T13:04:14Z</t>
+    <t>BOM-118862</t>
+  </si>
+  <si>
+    <t>2021-08-02T06:12:57Z</t>
+  </si>
+  <si>
+    <t>2021-08-02T06:18:55Z</t>
+  </si>
+  <si>
+    <t>2021-08-02T06:20:03Z</t>
+  </si>
+  <si>
+    <t>2021-08-02T08:22:22Z</t>
+  </si>
+  <si>
+    <t>Security_AutomationData</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\Thh:mm:ss\Z"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2653,6 +2768,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
     <font>
       <i/>
@@ -2922,7 +3042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2979,6 +3099,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3058,9 +3181,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3112,10 +3232,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3145,19 +3265,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3479,447 +3609,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FC6D2C-D26F-4A0D-A230-125B5010EEAF}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="59.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.6640625" collapsed="true"/>
-    <col min="5" max="16384" style="6" width="8.6640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.6328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.36328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.6328125" collapsed="true"/>
+    <col min="5" max="16384" style="6" width="8.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C3" s="11">
         <v>44141</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C4" s="11">
         <v>44171</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>629</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="38.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="38.75" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>634</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="C16" s="29">
+        <v>679</v>
+      </c>
+      <c r="C16" s="30">
         <v>43898</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="C17" s="29">
+        <v>681</v>
+      </c>
+      <c r="C17" s="30">
         <v>43898</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.5">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="C18" s="29">
+        <v>687</v>
+      </c>
+      <c r="C18" s="30">
         <v>43959</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="58">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="C19" s="29">
+        <v>688</v>
+      </c>
+      <c r="C19" s="30">
         <v>43959</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>677</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="78">
         <v>24</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="C25" s="80">
         <v>44113</v>
       </c>
       <c r="D25" s="79" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="E25" s="79" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.5">
       <c r="A26" s="78">
         <v>25</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="D26" s="79" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29">
       <c r="A27" s="78">
         <v>26</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="D27" s="79" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="78">
         <v>27</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="C28" s="80">
         <v>43958</v>
       </c>
       <c r="D28" s="79" t="s">
-        <v>674</v>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C29" s="87">
+        <v>44363</v>
+      </c>
+      <c r="D29" s="88" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.5">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C30" s="87">
+        <v>44393</v>
+      </c>
+      <c r="D30" s="88" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C31" s="87">
+        <v>44403</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -3930,65 +4102,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7364B18-9106-44A1-8915-0903EE156E9A}">
-  <dimension ref="A1:M475"/>
+  <dimension ref="A1:M477"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="39.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="49.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="39.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.36328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="49.6328125" collapsed="true"/>
     <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="6" max="11" customWidth="true" style="3" width="9.33203125" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="9.33203125" collapsed="true"/>
+    <col min="6" max="11" customWidth="true" style="3" width="9.36328125" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.36328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13" ht="13.25" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="I1" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="J1" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="K1" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="L1" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="K1" s="32" t="s">
-        <v>642</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="M1" s="32"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="59" t="s">
         <v>77</v>
       </c>
@@ -4021,13 +4193,13 @@
       </c>
       <c r="M2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="59" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>78</v>
@@ -4058,13 +4230,13 @@
       </c>
       <c r="M3" s="56"/>
     </row>
-    <row r="4" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="25">
       <c r="A4" s="74" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="76" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>78</v>
@@ -4095,12 +4267,12 @@
       </c>
       <c r="M4" s="56"/>
     </row>
-    <row r="5" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="25">
       <c r="A5" s="74" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>78</v>
@@ -4128,21 +4300,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:13" ht="13">
+      <c r="A6" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="60"/>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
       <c r="M6" s="56"/>
     </row>
-    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:13" ht="25">
+      <c r="A7" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="62" t="s">
         <v>81</v>
       </c>
@@ -4175,13 +4347,13 @@
       </c>
       <c r="M7" s="56"/>
     </row>
-    <row r="8" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:13" ht="25">
+      <c r="A8" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="63" t="s">
-        <v>88</v>
+        <v>813</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>78</v>
@@ -4212,13 +4384,13 @@
       </c>
       <c r="M8" s="56"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="63" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>78</v>
@@ -4249,76 +4421,76 @@
       </c>
       <c r="M9" s="56"/>
     </row>
-    <row r="10" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A10" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="43" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>93</v>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.5">
+      <c r="A11" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="B11" s="65" t="s">
+        <v>555</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>592</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.5">
+      <c r="A12" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="66" t="s">
         <v>556</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C12" s="66" t="s">
         <v>593</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>557</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>594</v>
-      </c>
       <c r="D12" s="12" t="s">
         <v>78</v>
       </c>
@@ -4348,15 +4520,15 @@
       </c>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:13" ht="14.5">
+      <c r="A13" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="66" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>78</v>
@@ -4387,15 +4559,15 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:13" ht="14.5">
+      <c r="A14" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>78</v>
@@ -4426,15 +4598,15 @@
       </c>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>617</v>
+    <row r="15" spans="1:13" ht="14.5">
+      <c r="A15" s="47" t="s">
+        <v>616</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>78</v>
@@ -4465,15 +4637,15 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:13" ht="14.5">
+      <c r="A16" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="66" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -4486,15 +4658,15 @@
       <c r="L16" s="2"/>
       <c r="M16" s="57"/>
     </row>
-    <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:13" ht="26">
+      <c r="A17" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="66" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>78</v>
@@ -4523,15 +4695,15 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>687</v>
+    <row r="18" spans="1:13" ht="39">
+      <c r="A18" s="47" t="s">
+        <v>704</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>78</v>
@@ -4560,15 +4732,15 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:13" ht="28.5" customHeight="1">
+      <c r="A19" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>78</v>
@@ -4597,15 +4769,15 @@
       </c>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>688</v>
+    <row r="20" spans="1:13" ht="33.65" customHeight="1">
+      <c r="A20" s="47" t="s">
+        <v>705</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>78</v>
@@ -4634,15 +4806,15 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:13" ht="14.5">
+      <c r="A21" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -4655,54 +4827,54 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>691</v>
+    <row r="22" spans="1:13" ht="14.5">
+      <c r="A22" s="47" t="s">
+        <v>708</v>
       </c>
       <c r="B22" s="66" t="s">
+        <v>560</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>600</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="26">
+      <c r="A23" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="66" t="s">
         <v>561</v>
       </c>
-      <c r="C22" s="66" t="s">
-        <v>601</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>562</v>
-      </c>
       <c r="C23" s="66" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -4715,15 +4887,15 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>692</v>
+    <row r="24" spans="1:13" ht="14.5">
+      <c r="A24" s="47" t="s">
+        <v>709</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>78</v>
@@ -4754,15 +4926,15 @@
       </c>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>693</v>
+    <row r="25" spans="1:13" ht="26">
+      <c r="A25" s="47" t="s">
+        <v>710</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -4775,15 +4947,15 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
-        <v>696</v>
+    <row r="26" spans="1:13" ht="39">
+      <c r="A26" s="47" t="s">
+        <v>713</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>636</v>
+        <v>814</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>78</v>
@@ -4814,15 +4986,15 @@
       </c>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
-        <v>697</v>
+    <row r="27" spans="1:13" ht="26">
+      <c r="A27" s="47" t="s">
+        <v>714</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -4835,54 +5007,54 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
-        <v>700</v>
+    <row r="28" spans="1:13" ht="104">
+      <c r="A28" s="47" t="s">
+        <v>717</v>
       </c>
       <c r="B28" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>815</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" ht="50" customHeight="1">
+      <c r="A29" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="66" t="s">
         <v>565</v>
       </c>
-      <c r="C28" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>566</v>
-      </c>
       <c r="C29" s="66" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>78</v>
@@ -4913,15 +5085,15 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:13" ht="26">
+      <c r="A30" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>78</v>
@@ -4950,15 +5122,15 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
-        <v>701</v>
+    <row r="31" spans="1:13" ht="52">
+      <c r="A31" s="47" t="s">
+        <v>718</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>703</v>
+        <v>816</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -4971,15 +5143,15 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
-        <v>704</v>
+    <row r="32" spans="1:13" ht="39">
+      <c r="A32" s="47" t="s">
+        <v>720</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -4992,15 +5164,15 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>707</v>
+    <row r="33" spans="1:13" ht="52">
+      <c r="A33" s="47" t="s">
+        <v>723</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>709</v>
+        <v>817</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -5013,15 +5185,15 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
-        <v>710</v>
+    <row r="34" spans="1:13" ht="14.15" customHeight="1">
+      <c r="A34" s="47" t="s">
+        <v>725</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -5034,15 +5206,15 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
-        <v>713</v>
+    <row r="35" spans="1:13" ht="14.15" customHeight="1">
+      <c r="A35" s="47" t="s">
+        <v>728</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -5055,15 +5227,15 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
-        <v>716</v>
+    <row r="36" spans="1:13" ht="14.15" customHeight="1">
+      <c r="A36" s="47" t="s">
+        <v>731</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -5076,15 +5248,15 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+    <row r="37" spans="1:13" ht="14.15" customHeight="1">
+      <c r="A37" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="12" t="s">
@@ -5105,15 +5277,15 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+    <row r="38" spans="1:13" ht="39">
+      <c r="A38" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="12" t="s">
@@ -5140,15 +5312,15 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+    <row r="39" spans="1:13" ht="39">
+      <c r="A39" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="12"/>
@@ -5163,15 +5335,15 @@
       <c r="L39" s="2"/>
       <c r="M39" s="57"/>
     </row>
-    <row r="40" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+    <row r="40" spans="1:13" ht="26">
+      <c r="A40" s="47" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="81" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -5188,15 +5360,15 @@
       <c r="L40" s="2"/>
       <c r="M40" s="57"/>
     </row>
-    <row r="41" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+    <row r="41" spans="1:13" ht="26">
+      <c r="A41" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -5213,15 +5385,15 @@
       <c r="L41" s="2"/>
       <c r="M41" s="57"/>
     </row>
-    <row r="42" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+    <row r="42" spans="1:13" ht="39">
+      <c r="A42" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -5236,15 +5408,15 @@
       <c r="L42" s="2"/>
       <c r="M42" s="57"/>
     </row>
-    <row r="43" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
+    <row r="43" spans="1:13" ht="39">
+      <c r="A43" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -5261,15 +5433,15 @@
       <c r="L43" s="2"/>
       <c r="M43" s="57"/>
     </row>
-    <row r="44" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+    <row r="44" spans="1:13" ht="26">
+      <c r="A44" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="81" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -5286,15 +5458,15 @@
       <c r="L44" s="2"/>
       <c r="M44" s="57"/>
     </row>
-    <row r="45" spans="1:13" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46" t="s">
+    <row r="45" spans="1:13" ht="29.75" customHeight="1">
+      <c r="A45" s="47" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -5309,15 +5481,15 @@
       <c r="L45" s="2"/>
       <c r="M45" s="57"/>
     </row>
-    <row r="46" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
+    <row r="46" spans="1:13" ht="35.75" customHeight="1">
+      <c r="A46" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="81" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -5332,15 +5504,15 @@
       <c r="L46" s="2"/>
       <c r="M46" s="57"/>
     </row>
-    <row r="47" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
+    <row r="47" spans="1:13" ht="14.5">
+      <c r="A47" s="49" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="81" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -5355,15 +5527,15 @@
       <c r="L47" s="2"/>
       <c r="M47" s="57"/>
     </row>
-    <row r="48" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
+    <row r="48" spans="1:13" ht="14.5">
+      <c r="A48" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="81" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -5378,15 +5550,15 @@
       <c r="L48" s="2"/>
       <c r="M48" s="57"/>
     </row>
-    <row r="49" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="46" t="s">
-        <v>103</v>
+    <row r="49" spans="1:13" ht="14.5">
+      <c r="A49" s="47" t="s">
+        <v>102</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="C49" s="84" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -5403,15 +5575,15 @@
       <c r="L49" s="2"/>
       <c r="M49" s="57"/>
     </row>
-    <row r="50" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="46" t="s">
+    <row r="50" spans="1:13" ht="39">
+      <c r="A50" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -5428,15 +5600,15 @@
       </c>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
+    <row r="51" spans="1:13" ht="52">
+      <c r="A51" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="66" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>78</v>
@@ -5465,15 +5637,15 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="46" t="s">
-        <v>99</v>
+    <row r="52" spans="1:13" ht="52">
+      <c r="A52" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>78</v>
@@ -5502,15 +5674,15 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
+    <row r="53" spans="1:13" ht="39">
+      <c r="A53" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>78</v>
@@ -5537,15 +5709,15 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
+    <row r="54" spans="1:13" ht="52">
+      <c r="A54" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="66" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>78</v>
@@ -5574,15 +5746,15 @@
       </c>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
+    <row r="55" spans="1:13" ht="26">
+      <c r="A55" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C55" s="66" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>78</v>
@@ -5609,15 +5781,15 @@
       </c>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
+    <row r="56" spans="1:13" ht="39">
+      <c r="A56" s="47" t="s">
         <v>25</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>78</v>
@@ -5634,15 +5806,15 @@
       <c r="L56" s="2"/>
       <c r="M56" s="57"/>
     </row>
-    <row r="57" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="46" t="s">
-        <v>104</v>
+    <row r="57" spans="1:13" ht="26">
+      <c r="A57" s="47" t="s">
+        <v>103</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>78</v>
@@ -5661,15 +5833,15 @@
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
+    <row r="58" spans="1:13" ht="52">
+      <c r="A58" s="47" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>78</v>
@@ -5688,15 +5860,15 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
-        <v>110</v>
+    <row r="59" spans="1:13" ht="14.5">
+      <c r="A59" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>78</v>
@@ -5715,15 +5887,15 @@
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
-        <v>111</v>
+    <row r="60" spans="1:13" ht="26">
+      <c r="A60" s="47" t="s">
+        <v>110</v>
       </c>
       <c r="B60" s="66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="66" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>78</v>
@@ -5742,15 +5914,15 @@
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="46" t="s">
+    <row r="61" spans="1:13" ht="14.5">
+      <c r="A61" s="47" t="s">
         <v>26</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C61" s="66" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>78</v>
@@ -5767,15 +5939,15 @@
       <c r="L61" s="2"/>
       <c r="M61" s="57"/>
     </row>
-    <row r="62" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A62" s="46" t="s">
+    <row r="62" spans="1:13" ht="65">
+      <c r="A62" s="47" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="66" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="66" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>78</v>
@@ -5796,15 +5968,15 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="46" t="s">
+    <row r="63" spans="1:13" ht="26">
+      <c r="A63" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C63" s="66" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>78</v>
@@ -5827,15 +5999,15 @@
       </c>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="46" t="s">
-        <v>724</v>
+    <row r="64" spans="1:13" ht="52">
+      <c r="A64" s="47" t="s">
+        <v>738</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="C64" s="66" t="s">
-        <v>726</v>
+        <v>819</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -5848,15 +6020,15 @@
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="46" t="s">
+    <row r="65" spans="1:13" ht="52">
+      <c r="A65" s="47" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>726</v>
+        <v>820</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>78</v>
@@ -5885,15 +6057,15 @@
       </c>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="46" t="s">
-        <v>584</v>
+    <row r="66" spans="1:13" ht="14.5">
+      <c r="A66" s="47" t="s">
+        <v>583</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>580</v>
-      </c>
-      <c r="C66" s="87" t="s">
-        <v>753</v>
+        <v>579</v>
+      </c>
+      <c r="C66" s="91" t="s">
+        <v>765</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>78</v>
@@ -5922,14 +6094,14 @@
       </c>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="46" t="s">
-        <v>586</v>
+    <row r="67" spans="1:13" ht="14.5">
+      <c r="A67" s="47" t="s">
+        <v>585</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>585</v>
-      </c>
-      <c r="C67" s="88"/>
+        <v>584</v>
+      </c>
+      <c r="C67" s="92"/>
       <c r="D67" s="12" t="s">
         <v>78</v>
       </c>
@@ -5957,15 +6129,15 @@
       </c>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
-        <v>587</v>
+    <row r="68" spans="1:13" ht="14.5">
+      <c r="A68" s="47" t="s">
+        <v>586</v>
       </c>
       <c r="B68" s="66" t="s">
-        <v>581</v>
-      </c>
-      <c r="C68" s="87" t="s">
-        <v>753</v>
+        <v>580</v>
+      </c>
+      <c r="C68" s="91" t="s">
+        <v>765</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>78</v>
@@ -5994,14 +6166,14 @@
       </c>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
-        <v>588</v>
+    <row r="69" spans="1:13" ht="14.5">
+      <c r="A69" s="47" t="s">
+        <v>587</v>
       </c>
       <c r="B69" s="66" t="s">
-        <v>591</v>
-      </c>
-      <c r="C69" s="88"/>
+        <v>590</v>
+      </c>
+      <c r="C69" s="92"/>
       <c r="D69" s="12" t="s">
         <v>78</v>
       </c>
@@ -6029,15 +6201,15 @@
       </c>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
-        <v>589</v>
+    <row r="70" spans="1:13" ht="14.5">
+      <c r="A70" s="47" t="s">
+        <v>588</v>
       </c>
       <c r="B70" s="66" t="s">
-        <v>582</v>
-      </c>
-      <c r="C70" s="87" t="s">
-        <v>753</v>
+        <v>581</v>
+      </c>
+      <c r="C70" s="91" t="s">
+        <v>765</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>78</v>
@@ -6066,14 +6238,14 @@
       </c>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="46" t="s">
-        <v>590</v>
+    <row r="71" spans="1:13" ht="14.5">
+      <c r="A71" s="47" t="s">
+        <v>589</v>
       </c>
       <c r="B71" s="66" t="s">
-        <v>592</v>
-      </c>
-      <c r="C71" s="88"/>
+        <v>591</v>
+      </c>
+      <c r="C71" s="92"/>
       <c r="D71" s="12" t="s">
         <v>78</v>
       </c>
@@ -6101,15 +6273,15 @@
       </c>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="46" t="s">
-        <v>108</v>
+    <row r="72" spans="1:13" ht="26">
+      <c r="A72" s="47" t="s">
+        <v>107</v>
       </c>
       <c r="B72" s="85" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="C72" s="84" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -6124,15 +6296,15 @@
       <c r="L72" s="2"/>
       <c r="M72" s="57"/>
     </row>
-    <row r="73" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
-        <v>109</v>
+    <row r="73" spans="1:13" ht="26">
+      <c r="A73" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="B73" s="85" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="C73" s="84" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6147,15 +6319,15 @@
       <c r="L73" s="2"/>
       <c r="M73" s="57"/>
     </row>
-    <row r="74" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
-        <v>100</v>
+    <row r="74" spans="1:13" ht="14.5">
+      <c r="A74" s="50" t="s">
+        <v>99</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6170,15 +6342,15 @@
       </c>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="49" t="s">
-        <v>101</v>
+    <row r="75" spans="1:13" ht="14.5">
+      <c r="A75" s="50" t="s">
+        <v>100</v>
       </c>
       <c r="B75" s="66" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="C75" s="66" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6193,15 +6365,15 @@
       </c>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
-        <v>102</v>
+    <row r="76" spans="1:13" ht="14.5">
+      <c r="A76" s="50" t="s">
+        <v>101</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="C76" s="66" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -6216,15 +6388,15 @@
       </c>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="49" t="s">
-        <v>105</v>
+    <row r="77" spans="1:13" ht="26">
+      <c r="A77" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="B77" s="84" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="C77" s="84" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -6239,15 +6411,15 @@
       </c>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="49" t="s">
-        <v>547</v>
+    <row r="78" spans="1:13" ht="14.5">
+      <c r="A78" s="50" t="s">
+        <v>546</v>
       </c>
       <c r="B78" s="84" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="C78" s="84" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -6262,15 +6434,15 @@
       </c>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
-        <v>548</v>
+    <row r="79" spans="1:13" ht="65">
+      <c r="A79" s="50" t="s">
+        <v>547</v>
       </c>
       <c r="B79" s="84" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="C79" s="84" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -6285,15 +6457,15 @@
       </c>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="49" t="s">
-        <v>549</v>
+    <row r="80" spans="1:13" ht="14.5">
+      <c r="A80" s="50" t="s">
+        <v>548</v>
       </c>
       <c r="B80" s="84" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="C80" s="84" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -6308,15 +6480,15 @@
       </c>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="49" t="s">
-        <v>106</v>
+    <row r="81" spans="1:13" ht="14.5">
+      <c r="A81" s="50" t="s">
+        <v>105</v>
       </c>
       <c r="B81" s="84" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="C81" s="84" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -6331,15 +6503,15 @@
       </c>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="49" t="s">
-        <v>107</v>
+    <row r="82" spans="1:13" ht="14.5">
+      <c r="A82" s="50" t="s">
+        <v>106</v>
       </c>
       <c r="B82" s="84" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -6354,15 +6526,15 @@
       </c>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
-        <v>550</v>
+    <row r="83" spans="1:13" ht="52">
+      <c r="A83" s="50" t="s">
+        <v>549</v>
       </c>
       <c r="B83" s="84" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="C83" s="84" t="s">
-        <v>788</v>
+        <v>821</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -6377,15 +6549,15 @@
       </c>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="49" t="s">
-        <v>551</v>
+    <row r="84" spans="1:13" ht="52">
+      <c r="A84" s="50" t="s">
+        <v>550</v>
       </c>
       <c r="B84" s="84" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
       <c r="C84" s="84" t="s">
-        <v>788</v>
+        <v>821</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -6400,15 +6572,15 @@
       </c>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="49" t="s">
-        <v>552</v>
+    <row r="85" spans="1:13" ht="52">
+      <c r="A85" s="50" t="s">
+        <v>551</v>
       </c>
       <c r="B85" s="84" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="C85" s="84" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -6423,13 +6595,13 @@
       </c>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="48" t="s">
+    <row r="86" spans="1:13" ht="37.5">
+      <c r="A86" s="49" t="s">
         <v>59</v>
       </c>
       <c r="B86" s="63"/>
       <c r="C86" s="63" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="12" t="s">
@@ -6444,3496 +6616,3573 @@
       <c r="L86" s="2"/>
       <c r="M86" s="57"/>
     </row>
-    <row r="87" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="50" t="s">
+    <row r="87" spans="1:13" ht="26">
+      <c r="A87" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="B87" s="67" t="s">
+        <v>579</v>
+      </c>
+      <c r="C87" s="66" t="s">
+        <v>741</v>
+      </c>
+      <c r="D87" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="57"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="67" t="s">
+        <v>585</v>
+      </c>
+      <c r="B88" s="63" t="s">
         <v>584</v>
       </c>
-      <c r="B87" s="67" t="s">
-        <v>580</v>
-      </c>
-      <c r="C87" s="66" t="s">
-        <v>728</v>
-      </c>
-      <c r="D87" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="E87" s="51"/>
-      <c r="M87" s="56"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="67" t="s">
-        <v>586</v>
-      </c>
-      <c r="B88" s="63" t="s">
-        <v>585</v>
-      </c>
       <c r="C88" s="63" t="s">
-        <v>791</v>
-      </c>
-      <c r="D88" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="M88" s="56"/>
-    </row>
-    <row r="89" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="B89" s="63"/>
-      <c r="C89" s="68" t="s">
-        <v>615</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J89" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K89" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L89" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M89" s="12"/>
-    </row>
-    <row r="90" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="52" t="s">
-        <v>545</v>
-      </c>
-      <c r="B90" s="63"/>
-      <c r="C90" s="68" t="s">
-        <v>606</v>
-      </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
+        <v>802</v>
+      </c>
+      <c r="D88" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="57"/>
+    </row>
+    <row r="89" spans="1:13" ht="13">
+      <c r="A89" s="67" t="s">
+        <v>806</v>
+      </c>
+      <c r="B89" s="63" t="s">
+        <v>806</v>
+      </c>
+      <c r="C89" s="82" t="s">
+        <v>807</v>
+      </c>
+      <c r="D89" s="89"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="J89" s="2"/>
+      <c r="K89" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="L89" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="M89" s="57"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="63" t="s">
+        <v>808</v>
+      </c>
+      <c r="D90" s="89"/>
+      <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="I90" s="89" t="s">
+        <v>78</v>
+      </c>
       <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
+      <c r="K90" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="L90" s="89" t="s">
+        <v>78</v>
+      </c>
       <c r="M90" s="57"/>
     </row>
-    <row r="91" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="29">
       <c r="A91" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="B91" s="63"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="57"/>
-    </row>
-    <row r="92" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="B91" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="C91" s="68" t="s">
+        <v>614</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L91" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M91" s="12"/>
+    </row>
+    <row r="92" spans="1:13" ht="43.5">
       <c r="A92" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="B92" s="63" t="s">
+        <v>544</v>
+      </c>
+      <c r="C92" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="57"/>
+    </row>
+    <row r="93" spans="1:13" ht="14.5">
+      <c r="A93" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="B93" s="63" t="s">
+        <v>545</v>
+      </c>
+      <c r="C93" s="63"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="57"/>
+    </row>
+    <row r="94" spans="1:13" ht="43.5">
+      <c r="A94" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="68" t="s">
+        <v>615</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L94" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M94" s="12"/>
+    </row>
+    <row r="95" spans="1:13" ht="14.5">
+      <c r="A95" s="13"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="67"/>
+      <c r="M95" s="56"/>
+    </row>
+    <row r="96" spans="1:13" ht="13">
+      <c r="A96" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="53"/>
+      <c r="C96" s="67"/>
+      <c r="M96" s="56"/>
+    </row>
+    <row r="97" spans="1:13" ht="13">
+      <c r="A97" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="63"/>
-      <c r="C92" s="68" t="s">
-        <v>616</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J92" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K92" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L92" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M92" s="12"/>
-    </row>
-    <row r="93" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="67"/>
-      <c r="M93" s="56"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94" s="53"/>
-      <c r="C94" s="67"/>
-      <c r="M94" s="56"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B95" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="C95" s="63" t="s">
+      <c r="M97" s="56"/>
+    </row>
+    <row r="98" spans="1:13" ht="13">
+      <c r="A98" s="40"/>
+      <c r="B98" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="M95" s="56"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="39"/>
-      <c r="B96" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96" s="63" t="s">
+      <c r="M98" s="56"/>
+    </row>
+    <row r="99" spans="1:13" ht="13">
+      <c r="A99" s="40"/>
+      <c r="B99" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="M96" s="56"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="39"/>
-      <c r="B97" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C97" s="63" t="s">
+      <c r="M99" s="56"/>
+    </row>
+    <row r="100" spans="1:13" ht="13">
+      <c r="A100" s="40"/>
+      <c r="B100" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="M97" s="56"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
-      <c r="B98" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="C98" s="63" t="s">
+      <c r="M100" s="56"/>
+    </row>
+    <row r="101" spans="1:13" ht="13">
+      <c r="A101" s="40"/>
+      <c r="B101" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="M98" s="56"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
-      <c r="B99" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99" s="63" t="s">
+      <c r="M101" s="56"/>
+    </row>
+    <row r="102" spans="1:13" ht="13">
+      <c r="A102" s="40"/>
+      <c r="B102" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="M99" s="56"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C100" s="63" t="s">
+      <c r="M102" s="56"/>
+    </row>
+    <row r="103" spans="1:13" ht="13">
+      <c r="A103" s="40"/>
+      <c r="B103" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="M100" s="56"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
-      <c r="B101" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C101" s="63" t="s">
+      <c r="M103" s="56"/>
+    </row>
+    <row r="104" spans="1:13" ht="13">
+      <c r="A104" s="40"/>
+      <c r="B104" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="M101" s="56"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
-      <c r="B102" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C102" s="63" t="s">
+      <c r="M104" s="56"/>
+    </row>
+    <row r="105" spans="1:13" ht="13">
+      <c r="A105" s="40"/>
+      <c r="B105" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="M102" s="56"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
-      <c r="B103" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" s="63" t="s">
+      <c r="M105" s="56"/>
+    </row>
+    <row r="106" spans="1:13" ht="13">
+      <c r="A106" s="40"/>
+      <c r="B106" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="M103" s="56"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
-      <c r="B104" s="69" t="s">
+      <c r="M106" s="56"/>
+    </row>
+    <row r="107" spans="1:13" ht="13">
+      <c r="A107" s="40"/>
+      <c r="B107" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="63" t="s">
+      <c r="C107" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="M104" s="56"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
-      <c r="B105" s="69" t="s">
+      <c r="M107" s="56"/>
+    </row>
+    <row r="108" spans="1:13" ht="13">
+      <c r="A108" s="40"/>
+      <c r="B108" s="69" t="s">
+        <v>608</v>
+      </c>
+      <c r="C108" s="63"/>
+      <c r="M108" s="56"/>
+    </row>
+    <row r="109" spans="1:13" ht="13">
+      <c r="A109" s="40"/>
+      <c r="B109" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="63"/>
+      <c r="M109" s="56"/>
+    </row>
+    <row r="110" spans="1:13" ht="13">
+      <c r="A110" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="M110" s="56"/>
+    </row>
+    <row r="111" spans="1:13" ht="13">
+      <c r="A111" s="40"/>
+      <c r="B111" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="M111" s="56"/>
+    </row>
+    <row r="112" spans="1:13" ht="13">
+      <c r="A112" s="40"/>
+      <c r="B112" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="M112" s="56"/>
+    </row>
+    <row r="113" spans="1:13" ht="13">
+      <c r="A113" s="40"/>
+      <c r="B113" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="M113" s="56"/>
+    </row>
+    <row r="114" spans="1:13" ht="13">
+      <c r="A114" s="40"/>
+      <c r="B114" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="M114" s="56"/>
+    </row>
+    <row r="115" spans="1:13" ht="13">
+      <c r="A115" s="40"/>
+      <c r="B115" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="M115" s="56"/>
+    </row>
+    <row r="116" spans="1:13" ht="13">
+      <c r="A116" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="M105" s="56"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
-      <c r="B106" s="69" t="s">
-        <v>609</v>
-      </c>
-      <c r="C106" s="63"/>
-      <c r="M106" s="56"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="39"/>
-      <c r="B107" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C107" s="63"/>
-      <c r="M107" s="56"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C108" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="M108" s="56"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
-      <c r="B109" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="M109" s="56"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
-      <c r="B110" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C110" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="M110" s="56"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
-      <c r="B111" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C111" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="M111" s="56"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="39"/>
-      <c r="B112" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C112" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="M112" s="56"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
-      <c r="B113" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C113" s="63" t="s">
+      <c r="B116" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="C116" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="M113" s="56"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>729</v>
-      </c>
-      <c r="C114" s="63" t="s">
+      <c r="M116" s="56"/>
+    </row>
+    <row r="117" spans="1:13" ht="13">
+      <c r="A117" s="40"/>
+      <c r="B117" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="C117" s="63" t="s">
+        <v>743</v>
+      </c>
+      <c r="M117" s="56"/>
+    </row>
+    <row r="118" spans="1:13" ht="13">
+      <c r="A118" s="40"/>
+      <c r="B118" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="C118" s="63" t="s">
+        <v>744</v>
+      </c>
+      <c r="M118" s="56"/>
+    </row>
+    <row r="119" spans="1:13" ht="13">
+      <c r="A119" s="40"/>
+      <c r="B119" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="C119" s="63" t="s">
+        <v>746</v>
+      </c>
+      <c r="M119" s="56"/>
+    </row>
+    <row r="120" spans="1:13" ht="13">
+      <c r="A120" s="40"/>
+      <c r="B120" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="C120" s="63" t="s">
+        <v>748</v>
+      </c>
+      <c r="M120" s="56"/>
+    </row>
+    <row r="121" spans="1:13" ht="13">
+      <c r="A121" s="40"/>
+      <c r="B121" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="C121" s="63" t="s">
+        <v>750</v>
+      </c>
+      <c r="M121" s="56"/>
+    </row>
+    <row r="122" spans="1:13" ht="13">
+      <c r="A122" s="40"/>
+      <c r="B122" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="C122" s="63" t="s">
+        <v>752</v>
+      </c>
+      <c r="M122" s="56"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="M114" s="56"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
-      <c r="B115" s="16" t="s">
-        <v>656</v>
-      </c>
-      <c r="C115" s="63" t="s">
-        <v>730</v>
-      </c>
-      <c r="M115" s="56"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
-      <c r="B116" s="16" t="s">
-        <v>731</v>
-      </c>
-      <c r="C116" s="63" t="s">
-        <v>732</v>
-      </c>
-      <c r="M116" s="56"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="39"/>
-      <c r="B117" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="C117" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="M117" s="56"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
-      <c r="B118" s="16" t="s">
-        <v>735</v>
-      </c>
-      <c r="C118" s="63" t="s">
-        <v>736</v>
-      </c>
-      <c r="M118" s="56"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
-      <c r="B119" s="16" t="s">
-        <v>737</v>
-      </c>
-      <c r="C119" s="63" t="s">
-        <v>738</v>
-      </c>
-      <c r="M119" s="56"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
-      <c r="B120" s="16" t="s">
-        <v>739</v>
-      </c>
-      <c r="C120" s="63" t="s">
-        <v>740</v>
-      </c>
-      <c r="M120" s="56"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B121" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C121" s="63" t="s">
+      <c r="M123" s="56"/>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="40"/>
+      <c r="B124" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="M121" s="56"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
-      <c r="B122" s="55" t="s">
+      <c r="C124" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C122" s="63" t="s">
+      <c r="M124" s="56"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="40"/>
+      <c r="B125" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="M122" s="56"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
-      <c r="B123" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C123" s="63" t="s">
+      <c r="M125" s="56"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="40"/>
+      <c r="B126" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="M123" s="56"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
-      <c r="B124" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C124" s="63" t="s">
+      <c r="M126" s="56"/>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="40"/>
+      <c r="B127" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="M124" s="56"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
-      <c r="B125" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C125" s="63" t="s">
+      <c r="M127" s="56"/>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="40"/>
+      <c r="B128" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="M125" s="56"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
-      <c r="B126" s="55" t="s">
+      <c r="C128" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="C126" s="63" t="s">
+      <c r="M128" s="56"/>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="40"/>
+      <c r="B129" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="M126" s="56"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
-      <c r="B127" s="55" t="s">
+      <c r="C129" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="C127" s="63" t="s">
+      <c r="M129" s="56"/>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="40"/>
+      <c r="B130" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C130" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="M127" s="56"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
-      <c r="B128" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C128" s="63" t="s">
+      <c r="M130" s="56"/>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="40"/>
+      <c r="B131" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="M128" s="56"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
-      <c r="B129" s="55" t="s">
+      <c r="C131" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C129" s="63" t="s">
+      <c r="M131" s="56"/>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="40"/>
+      <c r="B132" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="M129" s="56"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
-      <c r="B130" s="55" t="s">
+      <c r="C132" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="C130" s="63" t="s">
+      <c r="M132" s="56"/>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="40"/>
+      <c r="B133" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="M130" s="56"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
-      <c r="B131" s="55" t="s">
+      <c r="C133" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="C131" s="63" t="s">
+      <c r="M133" s="56"/>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="40"/>
+      <c r="B134" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="M131" s="56"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="39"/>
-      <c r="B132" s="55" t="s">
+      <c r="C134" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="C132" s="63" t="s">
+      <c r="M134" s="56"/>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="40"/>
+      <c r="B135" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="M132" s="56"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
-      <c r="B133" s="55" t="s">
+      <c r="C135" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="C133" s="63" t="s">
+      <c r="M135" s="56"/>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="40"/>
+      <c r="B136" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="M133" s="56"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
-      <c r="B134" s="55" t="s">
+      <c r="C136" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="C134" s="63" t="s">
+      <c r="M136" s="56"/>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="40"/>
+      <c r="B137" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="M134" s="56"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
-      <c r="B135" s="55" t="s">
+      <c r="C137" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="C135" s="63" t="s">
+      <c r="M137" s="56"/>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="40"/>
+      <c r="B138" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="M135" s="56"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
-      <c r="B136" s="55" t="s">
+      <c r="C138" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="C136" s="63" t="s">
+      <c r="M138" s="56"/>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="40"/>
+      <c r="B139" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="M136" s="56"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
-      <c r="B137" s="55" t="s">
+      <c r="C139" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="C137" s="63" t="s">
+      <c r="M139" s="56"/>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="40"/>
+      <c r="B140" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="M137" s="56"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="39"/>
-      <c r="B138" s="55" t="s">
+      <c r="C140" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="C138" s="63" t="s">
+      <c r="M140" s="56"/>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="40"/>
+      <c r="B141" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="M138" s="56"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
-      <c r="B139" s="55" t="s">
+      <c r="C141" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="C139" s="63" t="s">
+      <c r="M141" s="56"/>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="40"/>
+      <c r="B142" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="M139" s="56"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
-      <c r="B140" s="55" t="s">
+      <c r="C142" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="C140" s="63" t="s">
+      <c r="M142" s="56"/>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="40"/>
+      <c r="B143" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="M140" s="56"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="39"/>
-      <c r="B141" s="55" t="s">
+      <c r="C143" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="C141" s="63" t="s">
+      <c r="M143" s="56"/>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="40"/>
+      <c r="B144" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="M141" s="56"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="39"/>
-      <c r="B142" s="55" t="s">
+      <c r="C144" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="C142" s="63" t="s">
+      <c r="M144" s="56"/>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="40"/>
+      <c r="B145" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="M142" s="56"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="39"/>
-      <c r="B143" s="55" t="s">
+      <c r="C145" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="C143" s="63" t="s">
+      <c r="M145" s="56"/>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="40"/>
+      <c r="B146" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="M143" s="56"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="39"/>
-      <c r="B144" s="55" t="s">
+      <c r="C146" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="C144" s="63" t="s">
+      <c r="M146" s="56"/>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="40"/>
+      <c r="B147" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="M144" s="56"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
-      <c r="B145" s="55" t="s">
+      <c r="C147" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="C145" s="63" t="s">
+      <c r="M147" s="56"/>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="40"/>
+      <c r="B148" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="M145" s="56"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="39"/>
-      <c r="B146" s="55" t="s">
+      <c r="C148" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="C146" s="63" t="s">
+      <c r="M148" s="56"/>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="40"/>
+      <c r="B149" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="M146" s="56"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="39"/>
-      <c r="B147" s="55" t="s">
+      <c r="C149" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="C147" s="63" t="s">
+      <c r="M149" s="56"/>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="40"/>
+      <c r="B150" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="M147" s="56"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="39"/>
-      <c r="B148" s="55" t="s">
+      <c r="C150" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C148" s="63" t="s">
+      <c r="M150" s="56"/>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="40"/>
+      <c r="B151" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="M148" s="56"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="39"/>
-      <c r="B149" s="55" t="s">
+      <c r="C151" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="C149" s="63" t="s">
+      <c r="M151" s="56"/>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="40"/>
+      <c r="B152" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="M149" s="56"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="39"/>
-      <c r="B150" s="55" t="s">
+      <c r="C152" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="C150" s="63" t="s">
+      <c r="M152" s="56"/>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="40"/>
+      <c r="B153" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="M150" s="56"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="39"/>
-      <c r="B151" s="55" t="s">
+      <c r="C153" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="C151" s="63" t="s">
+      <c r="M153" s="56"/>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="40"/>
+      <c r="B154" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C154" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="M151" s="56"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="39"/>
-      <c r="B152" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="C152" s="63" t="s">
+      <c r="M154" s="56"/>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="40"/>
+      <c r="B155" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="M152" s="56"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="39"/>
-      <c r="B153" s="55" t="s">
+      <c r="C155" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="C153" s="63" t="s">
+      <c r="M155" s="56"/>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="40"/>
+      <c r="B156" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="M153" s="56"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="39"/>
-      <c r="B154" s="55" t="s">
+      <c r="C156" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="C154" s="63" t="s">
+      <c r="M156" s="56"/>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="40"/>
+      <c r="B157" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="M154" s="56"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="39"/>
-      <c r="B155" s="55" t="s">
+      <c r="C157" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="C155" s="63" t="s">
+      <c r="M157" s="56"/>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="40"/>
+      <c r="B158" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="M155" s="56"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="39"/>
-      <c r="B156" s="55" t="s">
+      <c r="C158" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="C156" s="63" t="s">
+      <c r="M158" s="56"/>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="40"/>
+      <c r="B159" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="M156" s="56"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="39"/>
-      <c r="B157" s="55" t="s">
+      <c r="C159" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="C157" s="63" t="s">
+      <c r="M159" s="56"/>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="40"/>
+      <c r="B160" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="M157" s="56"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="39"/>
-      <c r="B158" s="55" t="s">
+      <c r="C160" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="C158" s="63" t="s">
+      <c r="M160" s="56"/>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" s="40"/>
+      <c r="B161" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="M158" s="56"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="39"/>
-      <c r="B159" s="55" t="s">
+      <c r="C161" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="C159" s="63" t="s">
+      <c r="M161" s="56"/>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" s="40"/>
+      <c r="B162" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="M159" s="56"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="39"/>
-      <c r="B160" s="55" t="s">
+      <c r="C162" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="C160" s="63" t="s">
+      <c r="M162" s="56"/>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" s="40"/>
+      <c r="B163" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="M160" s="56"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="39"/>
-      <c r="B161" s="55" t="s">
+      <c r="C163" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="C161" s="63" t="s">
+      <c r="M163" s="56"/>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="40"/>
+      <c r="B164" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="M161" s="56"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="39"/>
-      <c r="B162" s="55" t="s">
+      <c r="C164" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="C162" s="63" t="s">
+      <c r="M164" s="56"/>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165" s="40"/>
+      <c r="B165" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="M162" s="56"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="39"/>
-      <c r="B163" s="55" t="s">
+      <c r="C165" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="C163" s="63" t="s">
+      <c r="M165" s="56"/>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166" s="40"/>
+      <c r="B166" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="M163" s="56"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="39"/>
-      <c r="B164" s="55" t="s">
+      <c r="C166" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="C164" s="63" t="s">
+      <c r="M166" s="56"/>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" s="40"/>
+      <c r="B167" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C167" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="M164" s="56"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="39"/>
-      <c r="B165" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C165" s="63" t="s">
+      <c r="M167" s="56"/>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" s="40"/>
+      <c r="B168" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="M165" s="56"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="39"/>
-      <c r="B166" s="55" t="s">
+      <c r="C168" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="C166" s="63" t="s">
+      <c r="M168" s="56"/>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169" s="40"/>
+      <c r="B169" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="M166" s="56"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="39"/>
-      <c r="B167" s="55" t="s">
+      <c r="C169" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="C167" s="63" t="s">
+      <c r="M169" s="56"/>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170" s="40"/>
+      <c r="B170" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="M167" s="56"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="39"/>
-      <c r="B168" s="55" t="s">
+      <c r="C170" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="C168" s="63" t="s">
+      <c r="M170" s="56"/>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" s="40"/>
+      <c r="B171" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="M168" s="56"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="39"/>
-      <c r="B169" s="55" t="s">
+      <c r="C171" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="C169" s="63" t="s">
+      <c r="M171" s="56"/>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" s="40"/>
+      <c r="B172" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="M169" s="56"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="39"/>
-      <c r="B170" s="55" t="s">
+      <c r="C172" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="C170" s="63" t="s">
+      <c r="M172" s="56"/>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" s="40"/>
+      <c r="B173" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="M170" s="56"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="39"/>
-      <c r="B171" s="55" t="s">
+      <c r="C173" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="C171" s="63" t="s">
+      <c r="M173" s="56"/>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="40"/>
+      <c r="B174" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="M171" s="56"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="39"/>
-      <c r="B172" s="55" t="s">
+      <c r="C174" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="C172" s="63" t="s">
+      <c r="M174" s="56"/>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" s="40"/>
+      <c r="B175" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="M172" s="56"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="39"/>
-      <c r="B173" s="55" t="s">
+      <c r="C175" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="C173" s="63" t="s">
+      <c r="M175" s="56"/>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176" s="40"/>
+      <c r="B176" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="M173" s="56"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="39"/>
-      <c r="B174" s="55" t="s">
+      <c r="C176" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="C174" s="63" t="s">
+      <c r="M176" s="56"/>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" s="40"/>
+      <c r="B177" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="M174" s="56"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="39"/>
-      <c r="B175" s="55" t="s">
+      <c r="C177" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="C175" s="63" t="s">
+      <c r="M177" s="56"/>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="40"/>
+      <c r="B178" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="M175" s="56"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="39"/>
-      <c r="B176" s="55" t="s">
+      <c r="C178" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="C176" s="63" t="s">
+      <c r="M178" s="56"/>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="40"/>
+      <c r="B179" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="M176" s="56"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="39"/>
-      <c r="B177" s="55" t="s">
+      <c r="C179" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="C177" s="63" t="s">
+      <c r="M179" s="56"/>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" s="40"/>
+      <c r="B180" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="M177" s="56"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="39"/>
-      <c r="B178" s="55" t="s">
+      <c r="C180" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="C178" s="63" t="s">
+      <c r="M180" s="56"/>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" s="40"/>
+      <c r="B181" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="M178" s="56"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="39"/>
-      <c r="B179" s="55" t="s">
+      <c r="C181" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="C179" s="63" t="s">
+      <c r="M181" s="56"/>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" s="40"/>
+      <c r="B182" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="M179" s="56"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="39"/>
-      <c r="B180" s="55" t="s">
+      <c r="C182" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="C180" s="63" t="s">
+      <c r="M182" s="56"/>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="A183" s="40"/>
+      <c r="B183" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="M180" s="56"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="39"/>
-      <c r="B181" s="55" t="s">
+      <c r="C183" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="C181" s="63" t="s">
+      <c r="M183" s="56"/>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184" s="40"/>
+      <c r="B184" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="M181" s="56"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="39"/>
-      <c r="B182" s="55" t="s">
+      <c r="C184" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="C182" s="63" t="s">
+      <c r="M184" s="56"/>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185" s="40"/>
+      <c r="B185" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="M182" s="56"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" s="39"/>
-      <c r="B183" s="55" t="s">
+      <c r="C185" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="C183" s="63" t="s">
+      <c r="M185" s="56"/>
+    </row>
+    <row r="186" spans="1:13">
+      <c r="A186" s="40"/>
+      <c r="B186" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="M183" s="56"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" s="39"/>
-      <c r="B184" s="55" t="s">
+      <c r="C186" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="C184" s="63" t="s">
+      <c r="M186" s="56"/>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187" s="40"/>
+      <c r="B187" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="M184" s="56"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" s="39"/>
-      <c r="B185" s="55" t="s">
+      <c r="C187" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="C185" s="63" t="s">
+      <c r="M187" s="56"/>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="A188" s="40"/>
+      <c r="B188" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="M185" s="56"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" s="39"/>
-      <c r="B186" s="55" t="s">
+      <c r="C188" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="C186" s="63" t="s">
+      <c r="M188" s="56"/>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="A189" s="40"/>
+      <c r="B189" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="M186" s="56"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187" s="39"/>
-      <c r="B187" s="55" t="s">
+      <c r="C189" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="C187" s="63" t="s">
+      <c r="M189" s="56"/>
+    </row>
+    <row r="190" spans="1:13">
+      <c r="A190" s="40"/>
+      <c r="B190" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="M187" s="56"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="39"/>
-      <c r="B188" s="55" t="s">
+      <c r="C190" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="C188" s="63" t="s">
+      <c r="M190" s="56"/>
+    </row>
+    <row r="191" spans="1:13">
+      <c r="A191" s="40"/>
+      <c r="B191" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="M188" s="56"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="39"/>
-      <c r="B189" s="55" t="s">
+      <c r="C191" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="C189" s="63" t="s">
+      <c r="M191" s="56"/>
+    </row>
+    <row r="192" spans="1:13">
+      <c r="A192" s="40"/>
+      <c r="B192" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="M189" s="56"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="39"/>
-      <c r="B190" s="55" t="s">
+      <c r="C192" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="C190" s="63" t="s">
+      <c r="M192" s="56"/>
+    </row>
+    <row r="193" spans="1:13">
+      <c r="A193" s="40"/>
+      <c r="B193" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="M190" s="56"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" s="39"/>
-      <c r="B191" s="55" t="s">
+      <c r="C193" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="C191" s="63" t="s">
+      <c r="M193" s="56"/>
+    </row>
+    <row r="194" spans="1:13">
+      <c r="A194" s="40"/>
+      <c r="B194" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="M191" s="56"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="39"/>
-      <c r="B192" s="55" t="s">
+      <c r="C194" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="C192" s="63" t="s">
+      <c r="M194" s="56"/>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" s="40"/>
+      <c r="B195" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="M192" s="56"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" s="39"/>
-      <c r="B193" s="55" t="s">
+      <c r="C195" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="C193" s="63" t="s">
+      <c r="M195" s="56"/>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196" s="40"/>
+      <c r="B196" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="M193" s="56"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="39"/>
-      <c r="B194" s="55" t="s">
+      <c r="C196" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="C194" s="63" t="s">
+      <c r="M196" s="56"/>
+    </row>
+    <row r="197" spans="1:13">
+      <c r="A197" s="40"/>
+      <c r="B197" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="M194" s="56"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" s="39"/>
-      <c r="B195" s="55" t="s">
+      <c r="C197" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="C195" s="63" t="s">
+      <c r="M197" s="56"/>
+    </row>
+    <row r="198" spans="1:13">
+      <c r="A198" s="40"/>
+      <c r="B198" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="M195" s="56"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" s="39"/>
-      <c r="B196" s="55" t="s">
+      <c r="C198" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C196" s="63" t="s">
+      <c r="M198" s="56"/>
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" s="40"/>
+      <c r="B199" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="M196" s="56"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197" s="39"/>
-      <c r="B197" s="55" t="s">
+      <c r="C199" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="C197" s="63" t="s">
+      <c r="M199" s="56"/>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="A200" s="40"/>
+      <c r="B200" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="M197" s="56"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198" s="39"/>
-      <c r="B198" s="55" t="s">
+      <c r="C200" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="C198" s="63" t="s">
+      <c r="M200" s="56"/>
+    </row>
+    <row r="201" spans="1:13">
+      <c r="A201" s="40"/>
+      <c r="B201" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="M198" s="56"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199" s="39"/>
-      <c r="B199" s="55" t="s">
+      <c r="C201" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="C199" s="63" t="s">
+      <c r="M201" s="56"/>
+    </row>
+    <row r="202" spans="1:13">
+      <c r="A202" s="40"/>
+      <c r="B202" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="M199" s="56"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" s="39"/>
-      <c r="B200" s="55" t="s">
+      <c r="C202" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="C200" s="63" t="s">
+      <c r="M202" s="56"/>
+    </row>
+    <row r="203" spans="1:13">
+      <c r="A203" s="40"/>
+      <c r="B203" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="M200" s="56"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201" s="39"/>
-      <c r="B201" s="55" t="s">
+      <c r="C203" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="C201" s="63" t="s">
+      <c r="M203" s="56"/>
+    </row>
+    <row r="204" spans="1:13">
+      <c r="A204" s="40"/>
+      <c r="B204" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="M201" s="56"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" s="39"/>
-      <c r="B202" s="55" t="s">
+      <c r="C204" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="C202" s="63" t="s">
+      <c r="M204" s="56"/>
+    </row>
+    <row r="205" spans="1:13">
+      <c r="A205" s="40"/>
+      <c r="B205" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="M202" s="56"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203" s="39"/>
-      <c r="B203" s="55" t="s">
+      <c r="C205" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="C203" s="63" t="s">
+      <c r="M205" s="56"/>
+    </row>
+    <row r="206" spans="1:13">
+      <c r="A206" s="40"/>
+      <c r="B206" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="M203" s="56"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204" s="39"/>
-      <c r="B204" s="55" t="s">
+      <c r="C206" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="C204" s="63" t="s">
+      <c r="M206" s="56"/>
+    </row>
+    <row r="207" spans="1:13">
+      <c r="A207" s="40"/>
+      <c r="B207" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="M204" s="56"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205" s="39"/>
-      <c r="B205" s="55" t="s">
+      <c r="C207" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="C205" s="63" t="s">
+      <c r="M207" s="56"/>
+    </row>
+    <row r="208" spans="1:13">
+      <c r="A208" s="40"/>
+      <c r="B208" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="M205" s="56"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" s="39"/>
-      <c r="B206" s="55" t="s">
+      <c r="C208" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="C206" s="63" t="s">
+      <c r="M208" s="56"/>
+    </row>
+    <row r="209" spans="1:13">
+      <c r="A209" s="40"/>
+      <c r="B209" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="M206" s="56"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207" s="39"/>
-      <c r="B207" s="55" t="s">
+      <c r="C209" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="C207" s="63" t="s">
+      <c r="M209" s="56"/>
+    </row>
+    <row r="210" spans="1:13">
+      <c r="A210" s="40"/>
+      <c r="B210" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="M207" s="56"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208" s="39"/>
-      <c r="B208" s="55" t="s">
+      <c r="C210" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="C208" s="63" t="s">
+      <c r="M210" s="56"/>
+    </row>
+    <row r="211" spans="1:13">
+      <c r="A211" s="40"/>
+      <c r="B211" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="M208" s="56"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" s="39"/>
-      <c r="B209" s="55" t="s">
+      <c r="C211" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="C209" s="63" t="s">
+      <c r="M211" s="56"/>
+    </row>
+    <row r="212" spans="1:13">
+      <c r="A212" s="40"/>
+      <c r="B212" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="C212" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="M209" s="56"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="39"/>
-      <c r="B210" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="C210" s="63" t="s">
+      <c r="M212" s="56"/>
+    </row>
+    <row r="213" spans="1:13">
+      <c r="A213" s="40"/>
+      <c r="B213" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="M210" s="56"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" s="39"/>
-      <c r="B211" s="55" t="s">
+      <c r="C213" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="C211" s="63" t="s">
+      <c r="M213" s="56"/>
+    </row>
+    <row r="214" spans="1:13">
+      <c r="A214" s="40"/>
+      <c r="B214" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="M211" s="56"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" s="39"/>
-      <c r="B212" s="55" t="s">
+      <c r="C214" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="C212" s="63" t="s">
+      <c r="M214" s="56"/>
+    </row>
+    <row r="215" spans="1:13">
+      <c r="A215" s="40"/>
+      <c r="B215" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="M212" s="56"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" s="39"/>
-      <c r="B213" s="55" t="s">
+      <c r="C215" s="63" t="s">
         <v>309</v>
       </c>
-      <c r="C213" s="63" t="s">
+      <c r="M215" s="56"/>
+    </row>
+    <row r="216" spans="1:13">
+      <c r="A216" s="40"/>
+      <c r="B216" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="M213" s="56"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" s="39"/>
-      <c r="B214" s="55" t="s">
+      <c r="C216" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="C214" s="63" t="s">
+      <c r="M216" s="56"/>
+    </row>
+    <row r="217" spans="1:13">
+      <c r="A217" s="40"/>
+      <c r="B217" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="M214" s="56"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" s="39"/>
-      <c r="B215" s="55" t="s">
+      <c r="C217" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="C215" s="63" t="s">
+      <c r="M217" s="56"/>
+    </row>
+    <row r="218" spans="1:13">
+      <c r="A218" s="40"/>
+      <c r="B218" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="M215" s="56"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" s="39"/>
-      <c r="B216" s="55" t="s">
+      <c r="C218" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="C216" s="63" t="s">
+      <c r="M218" s="56"/>
+    </row>
+    <row r="219" spans="1:13">
+      <c r="A219" s="40"/>
+      <c r="B219" s="55" t="s">
         <v>316</v>
       </c>
-      <c r="M216" s="56"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" s="39"/>
-      <c r="B217" s="55" t="s">
+      <c r="C219" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="C217" s="63" t="s">
+      <c r="M219" s="56"/>
+    </row>
+    <row r="220" spans="1:13">
+      <c r="A220" s="40"/>
+      <c r="B220" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="M217" s="56"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" s="39"/>
-      <c r="B218" s="55" t="s">
+      <c r="C220" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="C218" s="63" t="s">
+      <c r="M220" s="56"/>
+    </row>
+    <row r="221" spans="1:13">
+      <c r="A221" s="40"/>
+      <c r="B221" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="M218" s="56"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="39"/>
-      <c r="B219" s="55" t="s">
+      <c r="C221" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="C219" s="63" t="s">
+      <c r="M221" s="56"/>
+    </row>
+    <row r="222" spans="1:13">
+      <c r="A222" s="40"/>
+      <c r="B222" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="M219" s="56"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="39"/>
-      <c r="B220" s="55" t="s">
+      <c r="C222" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="C220" s="63" t="s">
+      <c r="M222" s="56"/>
+    </row>
+    <row r="223" spans="1:13">
+      <c r="A223" s="40"/>
+      <c r="B223" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="M220" s="56"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" s="39"/>
-      <c r="B221" s="55" t="s">
+      <c r="C223" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="C221" s="63" t="s">
+      <c r="M223" s="56"/>
+    </row>
+    <row r="224" spans="1:13">
+      <c r="A224" s="40"/>
+      <c r="B224" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="M221" s="56"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" s="39"/>
-      <c r="B222" s="55" t="s">
+      <c r="C224" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="C222" s="63" t="s">
+      <c r="M224" s="56"/>
+    </row>
+    <row r="225" spans="1:13">
+      <c r="A225" s="40"/>
+      <c r="B225" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="M222" s="56"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="39"/>
-      <c r="B223" s="55" t="s">
+      <c r="C225" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="C223" s="63" t="s">
+      <c r="M225" s="56"/>
+    </row>
+    <row r="226" spans="1:13">
+      <c r="A226" s="40"/>
+      <c r="B226" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="M223" s="56"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="39"/>
-      <c r="B224" s="55" t="s">
+      <c r="C226" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="C224" s="63" t="s">
+      <c r="M226" s="56"/>
+    </row>
+    <row r="227" spans="1:13">
+      <c r="A227" s="40"/>
+      <c r="B227" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="M224" s="56"/>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A225" s="39"/>
-      <c r="B225" s="55" t="s">
+      <c r="C227" s="63" t="s">
         <v>333</v>
       </c>
-      <c r="C225" s="63" t="s">
+      <c r="M227" s="56"/>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="A228" s="40"/>
+      <c r="B228" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="M225" s="56"/>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" s="39"/>
-      <c r="B226" s="55" t="s">
+      <c r="C228" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="C226" s="63" t="s">
+      <c r="M228" s="56"/>
+    </row>
+    <row r="229" spans="1:13">
+      <c r="A229" s="40"/>
+      <c r="B229" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="M226" s="56"/>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227" s="39"/>
-      <c r="B227" s="55" t="s">
+      <c r="C229" s="63" t="s">
         <v>337</v>
       </c>
-      <c r="C227" s="63" t="s">
+      <c r="M229" s="56"/>
+    </row>
+    <row r="230" spans="1:13">
+      <c r="A230" s="40"/>
+      <c r="B230" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="M227" s="56"/>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" s="39"/>
-      <c r="B228" s="55" t="s">
+      <c r="C230" s="63" t="s">
         <v>339</v>
       </c>
-      <c r="C228" s="63" t="s">
+      <c r="M230" s="56"/>
+    </row>
+    <row r="231" spans="1:13">
+      <c r="A231" s="40"/>
+      <c r="B231" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="M228" s="56"/>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229" s="39"/>
-      <c r="B229" s="55" t="s">
+      <c r="C231" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="C229" s="63" t="s">
+      <c r="M231" s="56"/>
+    </row>
+    <row r="232" spans="1:13">
+      <c r="A232" s="40"/>
+      <c r="B232" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="M229" s="56"/>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" s="39"/>
-      <c r="B230" s="55" t="s">
+      <c r="C232" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="C230" s="63" t="s">
+      <c r="M232" s="56"/>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="A233" s="40"/>
+      <c r="B233" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="M230" s="56"/>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231" s="39"/>
-      <c r="B231" s="55" t="s">
+      <c r="C233" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="C231" s="63" t="s">
+      <c r="M233" s="56"/>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="A234" s="40"/>
+      <c r="B234" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="M231" s="56"/>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" s="39"/>
-      <c r="B232" s="55" t="s">
+      <c r="C234" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="C232" s="63" t="s">
+      <c r="M234" s="56"/>
+    </row>
+    <row r="235" spans="1:13">
+      <c r="A235" s="40"/>
+      <c r="B235" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="M232" s="56"/>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233" s="39"/>
-      <c r="B233" s="55" t="s">
+      <c r="C235" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="C233" s="63" t="s">
+      <c r="M235" s="56"/>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" s="40"/>
+      <c r="B236" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="M233" s="56"/>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" s="39"/>
-      <c r="B234" s="55" t="s">
+      <c r="C236" s="63" t="s">
         <v>351</v>
       </c>
-      <c r="C234" s="63" t="s">
+      <c r="M236" s="56"/>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237" s="40"/>
+      <c r="B237" s="55" t="s">
         <v>352</v>
       </c>
-      <c r="M234" s="56"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235" s="39"/>
-      <c r="B235" s="55" t="s">
+      <c r="C237" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="C235" s="63" t="s">
+      <c r="M237" s="56"/>
+    </row>
+    <row r="238" spans="1:13">
+      <c r="A238" s="40"/>
+      <c r="B238" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="M235" s="56"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236" s="39"/>
-      <c r="B236" s="55" t="s">
+      <c r="C238" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="C236" s="63" t="s">
+      <c r="M238" s="56"/>
+    </row>
+    <row r="239" spans="1:13">
+      <c r="A239" s="40"/>
+      <c r="B239" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="M236" s="56"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A237" s="39"/>
-      <c r="B237" s="55" t="s">
+      <c r="C239" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="C237" s="63" t="s">
+      <c r="M239" s="56"/>
+    </row>
+    <row r="240" spans="1:13">
+      <c r="A240" s="40"/>
+      <c r="B240" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="M237" s="56"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238" s="39"/>
-      <c r="B238" s="55" t="s">
+      <c r="C240" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="C238" s="63" t="s">
+      <c r="M240" s="56"/>
+    </row>
+    <row r="241" spans="1:13">
+      <c r="A241" s="40"/>
+      <c r="B241" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="M238" s="56"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239" s="39"/>
-      <c r="B239" s="55" t="s">
+      <c r="C241" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="C239" s="63" t="s">
+      <c r="M241" s="56"/>
+    </row>
+    <row r="242" spans="1:13">
+      <c r="A242" s="40"/>
+      <c r="B242" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="M239" s="56"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" s="39"/>
-      <c r="B240" s="55" t="s">
+      <c r="C242" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="C240" s="63" t="s">
+      <c r="M242" s="56"/>
+    </row>
+    <row r="243" spans="1:13">
+      <c r="A243" s="40"/>
+      <c r="B243" s="55" t="s">
         <v>364</v>
       </c>
-      <c r="M240" s="56"/>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A241" s="39"/>
-      <c r="B241" s="55" t="s">
+      <c r="C243" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="C241" s="63" t="s">
+      <c r="M243" s="56"/>
+    </row>
+    <row r="244" spans="1:13">
+      <c r="A244" s="40"/>
+      <c r="B244" s="55" t="s">
         <v>366</v>
       </c>
-      <c r="M241" s="56"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242" s="39"/>
-      <c r="B242" s="55" t="s">
+      <c r="C244" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="C242" s="63" t="s">
+      <c r="M244" s="56"/>
+    </row>
+    <row r="245" spans="1:13">
+      <c r="A245" s="40"/>
+      <c r="B245" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="M242" s="56"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243" s="39"/>
-      <c r="B243" s="55" t="s">
+      <c r="C245" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="C243" s="63" t="s">
+      <c r="M245" s="56"/>
+    </row>
+    <row r="246" spans="1:13">
+      <c r="A246" s="40"/>
+      <c r="B246" s="55" t="s">
         <v>370</v>
-      </c>
-      <c r="M243" s="56"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" s="39"/>
-      <c r="B244" s="55" t="s">
-        <v>371</v>
-      </c>
-      <c r="C244" s="63"/>
-      <c r="M244" s="56"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A245" s="39"/>
-      <c r="B245" s="55" t="s">
-        <v>372</v>
-      </c>
-      <c r="C245" s="63"/>
-      <c r="M245" s="56"/>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246" s="39"/>
-      <c r="B246" s="55" t="s">
-        <v>373</v>
       </c>
       <c r="C246" s="63"/>
       <c r="M246" s="56"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247" s="39"/>
+    <row r="247" spans="1:13">
+      <c r="A247" s="40"/>
       <c r="B247" s="55" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C247" s="63"/>
       <c r="M247" s="56"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" s="39"/>
+    <row r="248" spans="1:13">
+      <c r="A248" s="40"/>
       <c r="B248" s="55" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C248" s="63"/>
       <c r="M248" s="56"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A249" s="39"/>
+    <row r="249" spans="1:13">
+      <c r="A249" s="40"/>
       <c r="B249" s="55" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C249" s="63"/>
       <c r="M249" s="56"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250" s="39"/>
+    <row r="250" spans="1:13">
+      <c r="A250" s="40"/>
       <c r="B250" s="55" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C250" s="63"/>
       <c r="M250" s="56"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" s="39"/>
+    <row r="251" spans="1:13">
+      <c r="A251" s="40"/>
       <c r="B251" s="55" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C251" s="63"/>
       <c r="M251" s="56"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252" s="39"/>
+    <row r="252" spans="1:13">
+      <c r="A252" s="40"/>
       <c r="B252" s="55" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C252" s="63"/>
       <c r="M252" s="56"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" s="39"/>
+    <row r="253" spans="1:13">
+      <c r="A253" s="40"/>
       <c r="B253" s="55" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C253" s="63"/>
       <c r="M253" s="56"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" s="39"/>
+    <row r="254" spans="1:13">
+      <c r="A254" s="40"/>
       <c r="B254" s="55" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C254" s="63"/>
       <c r="M254" s="56"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" s="39"/>
+    <row r="255" spans="1:13">
+      <c r="A255" s="40"/>
       <c r="B255" s="55" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C255" s="63"/>
       <c r="M255" s="56"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" s="39"/>
+    <row r="256" spans="1:13">
+      <c r="A256" s="40"/>
       <c r="B256" s="55" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C256" s="63"/>
       <c r="M256" s="56"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" s="39"/>
+    <row r="257" spans="1:13">
+      <c r="A257" s="40"/>
       <c r="B257" s="55" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C257" s="63"/>
       <c r="M257" s="56"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258" s="39"/>
+    <row r="258" spans="1:13">
+      <c r="A258" s="40"/>
       <c r="B258" s="55" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C258" s="63"/>
       <c r="M258" s="56"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259" s="39"/>
+    <row r="259" spans="1:13">
+      <c r="A259" s="40"/>
       <c r="B259" s="55" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C259" s="63"/>
       <c r="M259" s="56"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" s="39"/>
+    <row r="260" spans="1:13">
+      <c r="A260" s="40"/>
       <c r="B260" s="55" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C260" s="63"/>
       <c r="M260" s="56"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A261" s="39"/>
+    <row r="261" spans="1:13">
+      <c r="A261" s="40"/>
       <c r="B261" s="55" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C261" s="63"/>
       <c r="M261" s="56"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262" s="39"/>
+    <row r="262" spans="1:13">
+      <c r="A262" s="40"/>
       <c r="B262" s="55" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C262" s="63"/>
       <c r="M262" s="56"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A263" s="39"/>
+    <row r="263" spans="1:13">
+      <c r="A263" s="40"/>
       <c r="B263" s="55" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C263" s="63"/>
       <c r="M263" s="56"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" s="39"/>
+    <row r="264" spans="1:13">
+      <c r="A264" s="40"/>
       <c r="B264" s="55" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C264" s="63"/>
       <c r="M264" s="56"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A265" s="39"/>
+    <row r="265" spans="1:13">
+      <c r="A265" s="40"/>
       <c r="B265" s="55" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C265" s="63"/>
       <c r="M265" s="56"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266" s="39"/>
+    <row r="266" spans="1:13">
+      <c r="A266" s="40"/>
       <c r="B266" s="55" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C266" s="63"/>
       <c r="M266" s="56"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A267" s="39"/>
+    <row r="267" spans="1:13">
+      <c r="A267" s="40"/>
       <c r="B267" s="55" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C267" s="63"/>
       <c r="M267" s="56"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" s="39"/>
+    <row r="268" spans="1:13">
+      <c r="A268" s="40"/>
       <c r="B268" s="55" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C268" s="63"/>
       <c r="M268" s="56"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269" s="39"/>
+    <row r="269" spans="1:13">
+      <c r="A269" s="40"/>
       <c r="B269" s="55" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C269" s="63"/>
       <c r="M269" s="56"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" s="39"/>
+    <row r="270" spans="1:13">
+      <c r="A270" s="40"/>
       <c r="B270" s="55" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C270" s="63"/>
       <c r="M270" s="56"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A271" s="39"/>
+    <row r="271" spans="1:13">
+      <c r="A271" s="40"/>
       <c r="B271" s="55" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C271" s="63"/>
       <c r="M271" s="56"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" s="39"/>
+    <row r="272" spans="1:13">
+      <c r="A272" s="40"/>
       <c r="B272" s="55" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C272" s="63"/>
       <c r="M272" s="56"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A273" s="39"/>
+    <row r="273" spans="1:13">
+      <c r="A273" s="40"/>
       <c r="B273" s="55" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C273" s="63"/>
       <c r="M273" s="56"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274" s="39"/>
+    <row r="274" spans="1:13">
+      <c r="A274" s="40"/>
       <c r="B274" s="55" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C274" s="63"/>
       <c r="M274" s="56"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A275" s="39"/>
+    <row r="275" spans="1:13">
+      <c r="A275" s="40"/>
       <c r="B275" s="55" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C275" s="63"/>
       <c r="M275" s="56"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" s="39"/>
+    <row r="276" spans="1:13">
+      <c r="A276" s="40"/>
       <c r="B276" s="55" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C276" s="63"/>
       <c r="M276" s="56"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277" s="39"/>
+    <row r="277" spans="1:13">
+      <c r="A277" s="40"/>
       <c r="B277" s="55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C277" s="63"/>
       <c r="M277" s="56"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" s="39"/>
+    <row r="278" spans="1:13">
+      <c r="A278" s="40"/>
       <c r="B278" s="55" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C278" s="63"/>
       <c r="M278" s="56"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279" s="39"/>
+    <row r="279" spans="1:13">
+      <c r="A279" s="40"/>
       <c r="B279" s="55" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C279" s="63"/>
       <c r="M279" s="56"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" s="39"/>
+    <row r="280" spans="1:13">
+      <c r="A280" s="40"/>
       <c r="B280" s="55" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C280" s="63"/>
       <c r="M280" s="56"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281" s="39"/>
+    <row r="281" spans="1:13">
+      <c r="A281" s="40"/>
       <c r="B281" s="55" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C281" s="63"/>
       <c r="M281" s="56"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A282" s="39"/>
+    <row r="282" spans="1:13">
+      <c r="A282" s="40"/>
       <c r="B282" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C282" s="63"/>
       <c r="M282" s="56"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A283" s="39"/>
+    <row r="283" spans="1:13">
+      <c r="A283" s="40"/>
       <c r="B283" s="55" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C283" s="63"/>
       <c r="M283" s="56"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" s="39"/>
+    <row r="284" spans="1:13">
+      <c r="A284" s="40"/>
       <c r="B284" s="55" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C284" s="63"/>
       <c r="M284" s="56"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285" s="39"/>
+    <row r="285" spans="1:13">
+      <c r="A285" s="40"/>
       <c r="B285" s="55" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C285" s="63"/>
       <c r="M285" s="56"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" s="39"/>
+    <row r="286" spans="1:13">
+      <c r="A286" s="40"/>
       <c r="B286" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C286" s="63"/>
       <c r="M286" s="56"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A287" s="39"/>
+    <row r="287" spans="1:13">
+      <c r="A287" s="40"/>
       <c r="B287" s="55" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C287" s="63"/>
       <c r="M287" s="56"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" s="39"/>
+    <row r="288" spans="1:13">
+      <c r="A288" s="40"/>
       <c r="B288" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C288" s="63"/>
       <c r="M288" s="56"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A289" s="39"/>
+    <row r="289" spans="1:13">
+      <c r="A289" s="40"/>
       <c r="B289" s="55" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C289" s="63"/>
       <c r="M289" s="56"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A290" s="39"/>
+    <row r="290" spans="1:13">
+      <c r="A290" s="40"/>
       <c r="B290" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C290" s="63"/>
       <c r="M290" s="56"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A291" s="39"/>
+    <row r="291" spans="1:13">
+      <c r="A291" s="40"/>
       <c r="B291" s="55" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C291" s="63"/>
       <c r="M291" s="56"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A292" s="39"/>
+    <row r="292" spans="1:13">
+      <c r="A292" s="40"/>
       <c r="B292" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C292" s="63"/>
       <c r="M292" s="56"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293" s="39"/>
+    <row r="293" spans="1:13">
+      <c r="A293" s="40"/>
       <c r="B293" s="55" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C293" s="63"/>
       <c r="M293" s="56"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A294" s="39"/>
+    <row r="294" spans="1:13">
+      <c r="A294" s="40"/>
       <c r="B294" s="55" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C294" s="63"/>
       <c r="M294" s="56"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A295" s="39"/>
+    <row r="295" spans="1:13">
+      <c r="A295" s="40"/>
       <c r="B295" s="55" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C295" s="63"/>
       <c r="M295" s="56"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" s="39"/>
+    <row r="296" spans="1:13">
+      <c r="A296" s="40"/>
       <c r="B296" s="55" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C296" s="63"/>
       <c r="M296" s="56"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A297" s="39"/>
+    <row r="297" spans="1:13">
+      <c r="A297" s="40"/>
       <c r="B297" s="55" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C297" s="63"/>
       <c r="M297" s="56"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A298" s="39"/>
+    <row r="298" spans="1:13">
+      <c r="A298" s="40"/>
       <c r="B298" s="55" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C298" s="63"/>
       <c r="M298" s="56"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A299" s="39"/>
+    <row r="299" spans="1:13">
+      <c r="A299" s="40"/>
       <c r="B299" s="55" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C299" s="63"/>
       <c r="M299" s="56"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A300" s="39"/>
+    <row r="300" spans="1:13">
+      <c r="A300" s="40"/>
       <c r="B300" s="55" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C300" s="63"/>
       <c r="M300" s="56"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A301" s="39"/>
+    <row r="301" spans="1:13">
+      <c r="A301" s="40"/>
       <c r="B301" s="55" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C301" s="63"/>
       <c r="M301" s="56"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A302" s="39"/>
+    <row r="302" spans="1:13">
+      <c r="A302" s="40"/>
       <c r="B302" s="55" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C302" s="63"/>
       <c r="M302" s="56"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A303" s="39"/>
+    <row r="303" spans="1:13">
+      <c r="A303" s="40"/>
       <c r="B303" s="55" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C303" s="63"/>
       <c r="M303" s="56"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A304" s="39"/>
+    <row r="304" spans="1:13">
+      <c r="A304" s="40"/>
       <c r="B304" s="55" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C304" s="63"/>
       <c r="M304" s="56"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A305" s="39"/>
+    <row r="305" spans="1:13">
+      <c r="A305" s="40"/>
       <c r="B305" s="55" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C305" s="63"/>
       <c r="M305" s="56"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A306" s="39"/>
+    <row r="306" spans="1:13">
+      <c r="A306" s="40"/>
       <c r="B306" s="55" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C306" s="63"/>
       <c r="M306" s="56"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A307" s="39"/>
+    <row r="307" spans="1:13">
+      <c r="A307" s="40"/>
       <c r="B307" s="55" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C307" s="63"/>
       <c r="M307" s="56"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A308" s="39"/>
+    <row r="308" spans="1:13">
+      <c r="A308" s="40"/>
       <c r="B308" s="55" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C308" s="63"/>
       <c r="M308" s="56"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A309" s="39"/>
+    <row r="309" spans="1:13">
+      <c r="A309" s="40"/>
       <c r="B309" s="55" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C309" s="63"/>
       <c r="M309" s="56"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A310" s="39"/>
+    <row r="310" spans="1:13">
+      <c r="A310" s="40"/>
       <c r="B310" s="55" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C310" s="63"/>
       <c r="M310" s="56"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A311" s="39"/>
+    <row r="311" spans="1:13">
+      <c r="A311" s="40"/>
       <c r="B311" s="55" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C311" s="63"/>
       <c r="M311" s="56"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A312" s="39"/>
+    <row r="312" spans="1:13">
+      <c r="A312" s="40"/>
       <c r="B312" s="55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C312" s="63"/>
       <c r="M312" s="56"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A313" s="39"/>
+    <row r="313" spans="1:13">
+      <c r="A313" s="40"/>
       <c r="B313" s="55" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C313" s="63"/>
       <c r="M313" s="56"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A314" s="39"/>
+    <row r="314" spans="1:13">
+      <c r="A314" s="40"/>
       <c r="B314" s="55" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C314" s="63"/>
       <c r="M314" s="56"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A315" s="39"/>
+    <row r="315" spans="1:13">
+      <c r="A315" s="40"/>
       <c r="B315" s="55" t="s">
-        <v>61</v>
+        <v>439</v>
       </c>
       <c r="C315" s="63"/>
       <c r="M315" s="56"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A316" s="39"/>
+    <row r="316" spans="1:13">
+      <c r="A316" s="40"/>
       <c r="B316" s="55" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C316" s="63"/>
       <c r="M316" s="56"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A317" s="39"/>
+    <row r="317" spans="1:13">
+      <c r="A317" s="40"/>
       <c r="B317" s="55" t="s">
-        <v>442</v>
+        <v>61</v>
       </c>
       <c r="C317" s="63"/>
       <c r="M317" s="56"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A318" s="39"/>
+    <row r="318" spans="1:13">
+      <c r="A318" s="40"/>
       <c r="B318" s="55" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="C318" s="63"/>
       <c r="M318" s="56"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A319" s="39"/>
+    <row r="319" spans="1:13">
+      <c r="A319" s="40"/>
       <c r="B319" s="55" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C319" s="63"/>
       <c r="M319" s="56"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A320" s="39"/>
+    <row r="320" spans="1:13">
+      <c r="A320" s="40"/>
       <c r="B320" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C320" s="63"/>
       <c r="M320" s="56"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A321" s="39"/>
+    <row r="321" spans="1:13">
+      <c r="A321" s="40"/>
       <c r="B321" s="55" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C321" s="63"/>
       <c r="M321" s="56"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A322" s="39"/>
+    <row r="322" spans="1:13">
+      <c r="A322" s="40"/>
       <c r="B322" s="55" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C322" s="63"/>
       <c r="M322" s="56"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A323" s="39"/>
+    <row r="323" spans="1:13">
+      <c r="A323" s="40"/>
       <c r="B323" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C323" s="63"/>
       <c r="M323" s="56"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A324" s="39"/>
+    <row r="324" spans="1:13">
+      <c r="A324" s="40"/>
       <c r="B324" s="55" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C324" s="63"/>
       <c r="M324" s="56"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A325" s="39"/>
+    <row r="325" spans="1:13">
+      <c r="A325" s="40"/>
       <c r="B325" s="55" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C325" s="63"/>
       <c r="M325" s="56"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A326" s="39"/>
+    <row r="326" spans="1:13">
+      <c r="A326" s="40"/>
       <c r="B326" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C326" s="63"/>
       <c r="M326" s="56"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A327" s="39"/>
+    <row r="327" spans="1:13">
+      <c r="A327" s="40"/>
       <c r="B327" s="55" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C327" s="63"/>
       <c r="M327" s="56"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A328" s="39"/>
+    <row r="328" spans="1:13">
+      <c r="A328" s="40"/>
       <c r="B328" s="55" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C328" s="63"/>
       <c r="M328" s="56"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A329" s="39"/>
+    <row r="329" spans="1:13">
+      <c r="A329" s="40"/>
       <c r="B329" s="55" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C329" s="63"/>
       <c r="M329" s="56"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A330" s="39"/>
+    <row r="330" spans="1:13">
+      <c r="A330" s="40"/>
       <c r="B330" s="55" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C330" s="63"/>
       <c r="M330" s="56"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A331" s="39"/>
+    <row r="331" spans="1:13">
+      <c r="A331" s="40"/>
       <c r="B331" s="55" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C331" s="63"/>
       <c r="M331" s="56"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A332" s="39"/>
+    <row r="332" spans="1:13">
+      <c r="A332" s="40"/>
       <c r="B332" s="55" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C332" s="63"/>
       <c r="M332" s="56"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A333" s="39"/>
+    <row r="333" spans="1:13">
+      <c r="A333" s="40"/>
       <c r="B333" s="55" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C333" s="63"/>
       <c r="M333" s="56"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A334" s="39"/>
+    <row r="334" spans="1:13">
+      <c r="A334" s="40"/>
       <c r="B334" s="55" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C334" s="63"/>
       <c r="M334" s="56"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A335" s="39"/>
+    <row r="335" spans="1:13">
+      <c r="A335" s="40"/>
       <c r="B335" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C335" s="63"/>
       <c r="M335" s="56"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A336" s="39"/>
+    <row r="336" spans="1:13">
+      <c r="A336" s="40"/>
       <c r="B336" s="55" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C336" s="63"/>
       <c r="M336" s="56"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A337" s="39"/>
+    <row r="337" spans="1:13">
+      <c r="A337" s="40"/>
       <c r="B337" s="55" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C337" s="63"/>
       <c r="M337" s="56"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A338" s="39"/>
+    <row r="338" spans="1:13">
+      <c r="A338" s="40"/>
       <c r="B338" s="55" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C338" s="63"/>
       <c r="M338" s="56"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A339" s="39"/>
+    <row r="339" spans="1:13">
+      <c r="A339" s="40"/>
       <c r="B339" s="55" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C339" s="63"/>
       <c r="M339" s="56"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A340" s="39"/>
+    <row r="340" spans="1:13">
+      <c r="A340" s="40"/>
       <c r="B340" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C340" s="63"/>
       <c r="M340" s="56"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A341" s="39"/>
+    <row r="341" spans="1:13">
+      <c r="A341" s="40"/>
       <c r="B341" s="55" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C341" s="63"/>
       <c r="M341" s="56"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A342" s="39"/>
+    <row r="342" spans="1:13">
+      <c r="A342" s="40"/>
       <c r="B342" s="55" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C342" s="63"/>
       <c r="M342" s="56"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A343" s="39"/>
+    <row r="343" spans="1:13">
+      <c r="A343" s="40"/>
       <c r="B343" s="55" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C343" s="63"/>
       <c r="M343" s="56"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A344" s="39"/>
+    <row r="344" spans="1:13">
+      <c r="A344" s="40"/>
       <c r="B344" s="55" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C344" s="63"/>
       <c r="M344" s="56"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A345" s="39"/>
+    <row r="345" spans="1:13">
+      <c r="A345" s="40"/>
       <c r="B345" s="55" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C345" s="63"/>
       <c r="M345" s="56"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A346" s="39"/>
+    <row r="346" spans="1:13">
+      <c r="A346" s="40"/>
       <c r="B346" s="55" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C346" s="63"/>
       <c r="M346" s="56"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A347" s="39"/>
+    <row r="347" spans="1:13">
+      <c r="A347" s="40"/>
       <c r="B347" s="55" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C347" s="63"/>
       <c r="M347" s="56"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A348" s="39"/>
+    <row r="348" spans="1:13">
+      <c r="A348" s="40"/>
       <c r="B348" s="55" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C348" s="63"/>
       <c r="M348" s="56"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A349" s="39"/>
+    <row r="349" spans="1:13">
+      <c r="A349" s="40"/>
       <c r="B349" s="55" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C349" s="63"/>
       <c r="M349" s="56"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A350" s="39"/>
+    <row r="350" spans="1:13">
+      <c r="A350" s="40"/>
       <c r="B350" s="55" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C350" s="63"/>
       <c r="M350" s="56"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A351" s="39"/>
+    <row r="351" spans="1:13">
+      <c r="A351" s="40"/>
       <c r="B351" s="55" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C351" s="63"/>
       <c r="M351" s="56"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A352" s="39"/>
+    <row r="352" spans="1:13">
+      <c r="A352" s="40"/>
       <c r="B352" s="55" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C352" s="63"/>
       <c r="M352" s="56"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A353" s="39"/>
+    <row r="353" spans="1:13">
+      <c r="A353" s="40"/>
       <c r="B353" s="55" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C353" s="63"/>
       <c r="M353" s="56"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A354" s="39"/>
+    <row r="354" spans="1:13">
+      <c r="A354" s="40"/>
       <c r="B354" s="55" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C354" s="63"/>
       <c r="M354" s="56"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A355" s="39"/>
+    <row r="355" spans="1:13">
+      <c r="A355" s="40"/>
       <c r="B355" s="55" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C355" s="63"/>
       <c r="M355" s="56"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A356" s="39"/>
+    <row r="356" spans="1:13">
+      <c r="A356" s="40"/>
       <c r="B356" s="55" t="s">
-        <v>278</v>
+        <v>477</v>
       </c>
       <c r="C356" s="63"/>
       <c r="M356" s="56"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A357" s="39"/>
+    <row r="357" spans="1:13">
+      <c r="A357" s="40"/>
       <c r="B357" s="55" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C357" s="63"/>
       <c r="M357" s="56"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A358" s="39"/>
+    <row r="358" spans="1:13">
+      <c r="A358" s="40"/>
       <c r="B358" s="55" t="s">
-        <v>481</v>
+        <v>277</v>
       </c>
       <c r="C358" s="63"/>
       <c r="M358" s="56"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A359" s="39"/>
+    <row r="359" spans="1:13">
+      <c r="A359" s="40"/>
       <c r="B359" s="55" t="s">
-        <v>394</v>
+        <v>479</v>
       </c>
       <c r="C359" s="63"/>
       <c r="M359" s="56"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A360" s="39"/>
+    <row r="360" spans="1:13">
+      <c r="A360" s="40"/>
       <c r="B360" s="55" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C360" s="63"/>
       <c r="M360" s="56"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A361" s="39"/>
+    <row r="361" spans="1:13">
+      <c r="A361" s="40"/>
       <c r="B361" s="55" t="s">
-        <v>483</v>
+        <v>393</v>
       </c>
       <c r="C361" s="63"/>
       <c r="M361" s="56"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A362" s="39"/>
+    <row r="362" spans="1:13">
+      <c r="A362" s="40"/>
       <c r="B362" s="55" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C362" s="63"/>
       <c r="M362" s="56"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A363" s="39"/>
+    <row r="363" spans="1:13">
+      <c r="A363" s="40"/>
       <c r="B363" s="55" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C363" s="63"/>
       <c r="M363" s="56"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A364" s="39"/>
+    <row r="364" spans="1:13">
+      <c r="A364" s="40"/>
       <c r="B364" s="55" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C364" s="63"/>
       <c r="M364" s="56"/>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A365" s="39"/>
+    <row r="365" spans="1:13">
+      <c r="A365" s="40"/>
       <c r="B365" s="55" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C365" s="63"/>
       <c r="M365" s="56"/>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A366" s="39"/>
+    <row r="366" spans="1:13">
+      <c r="A366" s="40"/>
       <c r="B366" s="55" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C366" s="63"/>
       <c r="M366" s="56"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A367" s="39"/>
+    <row r="367" spans="1:13">
+      <c r="A367" s="40"/>
       <c r="B367" s="55" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C367" s="63"/>
       <c r="M367" s="56"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A368" s="39"/>
+    <row r="368" spans="1:13">
+      <c r="A368" s="40"/>
       <c r="B368" s="55" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C368" s="63"/>
       <c r="M368" s="56"/>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A369" s="39"/>
+    <row r="369" spans="1:13">
+      <c r="A369" s="40"/>
       <c r="B369" s="55" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C369" s="63"/>
       <c r="M369" s="56"/>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A370" s="39"/>
+    <row r="370" spans="1:13">
+      <c r="A370" s="40"/>
       <c r="B370" s="55" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C370" s="63"/>
       <c r="M370" s="56"/>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A371" s="39"/>
+    <row r="371" spans="1:13">
+      <c r="A371" s="40"/>
       <c r="B371" s="55" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C371" s="63"/>
       <c r="M371" s="56"/>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A372" s="39"/>
+    <row r="372" spans="1:13">
+      <c r="A372" s="40"/>
       <c r="B372" s="55" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C372" s="63"/>
       <c r="M372" s="56"/>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A373" s="39"/>
+    <row r="373" spans="1:13">
+      <c r="A373" s="40"/>
       <c r="B373" s="55" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C373" s="63"/>
       <c r="M373" s="56"/>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A374" s="39"/>
+    <row r="374" spans="1:13">
+      <c r="A374" s="40"/>
       <c r="B374" s="55" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C374" s="63"/>
       <c r="M374" s="56"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A375" s="39"/>
+    <row r="375" spans="1:13">
+      <c r="A375" s="40"/>
       <c r="B375" s="55" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C375" s="63"/>
       <c r="M375" s="56"/>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A376" s="39"/>
+    <row r="376" spans="1:13">
+      <c r="A376" s="40"/>
       <c r="B376" s="55" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C376" s="63"/>
       <c r="M376" s="56"/>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A377" s="39"/>
+    <row r="377" spans="1:13">
+      <c r="A377" s="40"/>
       <c r="B377" s="55" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C377" s="63"/>
       <c r="M377" s="56"/>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A378" s="39"/>
+    <row r="378" spans="1:13">
+      <c r="A378" s="40"/>
       <c r="B378" s="55" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C378" s="63"/>
       <c r="M378" s="56"/>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A379" s="39"/>
+    <row r="379" spans="1:13">
+      <c r="A379" s="40"/>
       <c r="B379" s="55" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C379" s="63"/>
       <c r="M379" s="56"/>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A380" s="39"/>
+    <row r="380" spans="1:13">
+      <c r="A380" s="40"/>
       <c r="B380" s="55" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C380" s="63"/>
       <c r="M380" s="56"/>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A381" s="39"/>
+    <row r="381" spans="1:13">
+      <c r="A381" s="40"/>
       <c r="B381" s="55" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C381" s="63"/>
       <c r="M381" s="56"/>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A382" s="39"/>
+    <row r="382" spans="1:13">
+      <c r="A382" s="40"/>
       <c r="B382" s="55" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C382" s="63"/>
       <c r="M382" s="56"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A383" s="39"/>
+    <row r="383" spans="1:13">
+      <c r="A383" s="40"/>
       <c r="B383" s="55" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C383" s="63"/>
       <c r="M383" s="56"/>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A384" s="39"/>
+    <row r="384" spans="1:13">
+      <c r="A384" s="40"/>
       <c r="B384" s="55" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C384" s="63"/>
       <c r="M384" s="56"/>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A385" s="39"/>
+    <row r="385" spans="1:13">
+      <c r="A385" s="40"/>
       <c r="B385" s="55" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C385" s="63"/>
       <c r="M385" s="56"/>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A386" s="39"/>
+    <row r="386" spans="1:13">
+      <c r="A386" s="40"/>
       <c r="B386" s="55" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C386" s="63"/>
       <c r="M386" s="56"/>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A387" s="39"/>
+    <row r="387" spans="1:13">
+      <c r="A387" s="40"/>
       <c r="B387" s="55" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C387" s="63"/>
       <c r="M387" s="56"/>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A388" s="39"/>
+    <row r="388" spans="1:13">
+      <c r="A388" s="40"/>
       <c r="B388" s="55" t="s">
-        <v>321</v>
+        <v>507</v>
       </c>
       <c r="C388" s="63"/>
       <c r="M388" s="56"/>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A389" s="39"/>
+    <row r="389" spans="1:13">
+      <c r="A389" s="40"/>
       <c r="B389" s="55" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C389" s="63"/>
       <c r="M389" s="56"/>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A390" s="39"/>
+    <row r="390" spans="1:13">
+      <c r="A390" s="40"/>
       <c r="B390" s="55" t="s">
-        <v>511</v>
+        <v>320</v>
       </c>
       <c r="C390" s="63"/>
       <c r="M390" s="56"/>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A391" s="39"/>
+    <row r="391" spans="1:13">
+      <c r="A391" s="40"/>
       <c r="B391" s="55" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C391" s="63"/>
       <c r="M391" s="56"/>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A392" s="39"/>
+    <row r="392" spans="1:13">
+      <c r="A392" s="40"/>
       <c r="B392" s="55" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C392" s="63"/>
       <c r="M392" s="56"/>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A393" s="39"/>
+    <row r="393" spans="1:13">
+      <c r="A393" s="40"/>
       <c r="B393" s="55" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C393" s="63"/>
       <c r="M393" s="56"/>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A394" s="39"/>
+    <row r="394" spans="1:13">
+      <c r="A394" s="40"/>
       <c r="B394" s="55" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C394" s="63"/>
       <c r="M394" s="56"/>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A395" s="39"/>
+    <row r="395" spans="1:13">
+      <c r="A395" s="40"/>
       <c r="B395" s="55" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C395" s="63"/>
       <c r="M395" s="56"/>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A396" s="39"/>
+    <row r="396" spans="1:13">
+      <c r="A396" s="40"/>
       <c r="B396" s="55" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C396" s="63"/>
       <c r="M396" s="56"/>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A397" s="39"/>
+    <row r="397" spans="1:13">
+      <c r="A397" s="40"/>
       <c r="B397" s="55" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C397" s="63"/>
       <c r="M397" s="56"/>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A398" s="39"/>
+    <row r="398" spans="1:13">
+      <c r="A398" s="40"/>
       <c r="B398" s="55" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C398" s="63"/>
       <c r="M398" s="56"/>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A399" s="39"/>
+    <row r="399" spans="1:13">
+      <c r="A399" s="40"/>
       <c r="B399" s="55" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C399" s="63"/>
       <c r="M399" s="56"/>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A400" s="39"/>
+    <row r="400" spans="1:13">
+      <c r="A400" s="40"/>
       <c r="B400" s="55" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C400" s="63"/>
       <c r="M400" s="56"/>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A401" s="39"/>
+    <row r="401" spans="1:13">
+      <c r="A401" s="40"/>
       <c r="B401" s="55" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C401" s="63"/>
       <c r="M401" s="56"/>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A402" s="39"/>
+    <row r="402" spans="1:13">
+      <c r="A402" s="40"/>
       <c r="B402" s="55" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C402" s="63"/>
       <c r="M402" s="56"/>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A403" s="39"/>
+    <row r="403" spans="1:13">
+      <c r="A403" s="40"/>
       <c r="B403" s="55" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C403" s="63"/>
       <c r="M403" s="56"/>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A404" s="39"/>
+    <row r="404" spans="1:13">
+      <c r="A404" s="40"/>
       <c r="B404" s="55" t="s">
-        <v>321</v>
+        <v>522</v>
       </c>
       <c r="C404" s="63"/>
       <c r="M404" s="56"/>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A405" s="39"/>
+    <row r="405" spans="1:13">
+      <c r="A405" s="40"/>
       <c r="B405" s="55" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C405" s="63"/>
       <c r="M405" s="56"/>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A406" s="39"/>
+    <row r="406" spans="1:13">
+      <c r="A406" s="40"/>
       <c r="B406" s="55" t="s">
-        <v>526</v>
+        <v>320</v>
       </c>
       <c r="C406" s="63"/>
       <c r="M406" s="56"/>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A407" s="39"/>
+    <row r="407" spans="1:13">
+      <c r="A407" s="40"/>
       <c r="B407" s="55" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C407" s="63"/>
       <c r="M407" s="56"/>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A408" s="39"/>
+    <row r="408" spans="1:13">
+      <c r="A408" s="40"/>
       <c r="B408" s="55" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C408" s="63"/>
       <c r="M408" s="56"/>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A409" s="39"/>
+    <row r="409" spans="1:13">
+      <c r="A409" s="40"/>
       <c r="B409" s="55" t="s">
-        <v>321</v>
+        <v>526</v>
       </c>
       <c r="C409" s="63"/>
       <c r="M409" s="56"/>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A410" s="39"/>
+    <row r="410" spans="1:13">
+      <c r="A410" s="40"/>
       <c r="B410" s="55" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C410" s="63"/>
       <c r="M410" s="56"/>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A411" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B411" s="70" t="s">
-        <v>31</v>
+    <row r="411" spans="1:13">
+      <c r="A411" s="40"/>
+      <c r="B411" s="55" t="s">
+        <v>320</v>
       </c>
       <c r="C411" s="63"/>
       <c r="M411" s="56"/>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A412" s="17"/>
-      <c r="B412" s="70" t="s">
-        <v>61</v>
+    <row r="412" spans="1:13">
+      <c r="A412" s="40"/>
+      <c r="B412" s="55" t="s">
+        <v>528</v>
       </c>
       <c r="C412" s="63"/>
       <c r="M412" s="56"/>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A413" s="39"/>
+    <row r="413" spans="1:13" ht="13">
+      <c r="A413" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="B413" s="70" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C413" s="63"/>
       <c r="M413" s="56"/>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A414" s="39"/>
+    <row r="414" spans="1:13" ht="13">
+      <c r="A414" s="17"/>
       <c r="B414" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C414" s="63"/>
       <c r="M414" s="56"/>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A415" s="39"/>
+    <row r="415" spans="1:13" ht="13">
+      <c r="A415" s="40"/>
       <c r="B415" s="70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C415" s="63"/>
       <c r="M415" s="56"/>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A416" s="39"/>
+    <row r="416" spans="1:13" ht="13">
+      <c r="A416" s="40"/>
       <c r="B416" s="70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C416" s="63"/>
       <c r="M416" s="56"/>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A417" s="39"/>
+    <row r="417" spans="1:13" ht="13">
+      <c r="A417" s="40"/>
       <c r="B417" s="70" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C417" s="63"/>
       <c r="M417" s="56"/>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A418" s="39"/>
+    <row r="418" spans="1:13" ht="13">
+      <c r="A418" s="40"/>
       <c r="B418" s="70" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C418" s="63"/>
       <c r="M418" s="56"/>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A419" s="39"/>
+    <row r="419" spans="1:13" ht="13">
+      <c r="A419" s="40"/>
       <c r="B419" s="70" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C419" s="63"/>
       <c r="M419" s="56"/>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A420" s="39"/>
+    <row r="420" spans="1:13" ht="13">
+      <c r="A420" s="40"/>
       <c r="B420" s="70" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C420" s="63"/>
       <c r="M420" s="56"/>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A421" s="39"/>
+    <row r="421" spans="1:13" ht="13">
+      <c r="A421" s="40"/>
       <c r="B421" s="70" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C421" s="63"/>
       <c r="M421" s="56"/>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A422" s="39"/>
+    <row r="422" spans="1:13" ht="13">
+      <c r="A422" s="40"/>
       <c r="B422" s="70" t="s">
-        <v>530</v>
+        <v>40</v>
       </c>
       <c r="C422" s="63"/>
       <c r="M422" s="56"/>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A423" s="39"/>
+    <row r="423" spans="1:13" ht="13">
+      <c r="A423" s="40"/>
       <c r="B423" s="70" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C423" s="63"/>
       <c r="M423" s="56"/>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A424" s="39"/>
+    <row r="424" spans="1:13" ht="13">
+      <c r="A424" s="40"/>
       <c r="B424" s="70" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C424" s="63"/>
       <c r="M424" s="56"/>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A425" s="39"/>
+    <row r="425" spans="1:13" ht="13">
+      <c r="A425" s="40"/>
       <c r="B425" s="70" t="s">
-        <v>532</v>
+        <v>49</v>
       </c>
       <c r="C425" s="63"/>
       <c r="M425" s="56"/>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A426" s="39"/>
+    <row r="426" spans="1:13" ht="13">
+      <c r="A426" s="40"/>
       <c r="B426" s="70" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C426" s="63"/>
       <c r="M426" s="56"/>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A427" s="39"/>
+    <row r="427" spans="1:13" ht="13">
+      <c r="A427" s="40"/>
       <c r="B427" s="70" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C427" s="63"/>
       <c r="M427" s="56"/>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A428" s="39"/>
+    <row r="428" spans="1:13" ht="13">
+      <c r="A428" s="40"/>
       <c r="B428" s="70" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C428" s="63"/>
       <c r="M428" s="56"/>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A429" s="39"/>
+    <row r="429" spans="1:13" ht="13">
+      <c r="A429" s="40"/>
       <c r="B429" s="70" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C429" s="63"/>
       <c r="M429" s="56"/>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A430" s="39"/>
+    <row r="430" spans="1:13" ht="13">
+      <c r="A430" s="40"/>
       <c r="B430" s="70" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C430" s="63"/>
       <c r="M430" s="56"/>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A431" s="39"/>
+    <row r="431" spans="1:13" ht="13">
+      <c r="A431" s="40"/>
       <c r="B431" s="70" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C431" s="63"/>
       <c r="M431" s="56"/>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A432" s="39"/>
+    <row r="432" spans="1:13" ht="13">
+      <c r="A432" s="40"/>
       <c r="B432" s="70" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C432" s="63"/>
       <c r="M432" s="56"/>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A433" s="39"/>
+    <row r="433" spans="1:13" ht="13">
+      <c r="A433" s="40"/>
       <c r="B433" s="70" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C433" s="63"/>
       <c r="M433" s="56"/>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A434" s="39"/>
+    <row r="434" spans="1:13" ht="13">
+      <c r="A434" s="40"/>
       <c r="B434" s="70" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C434" s="63"/>
       <c r="M434" s="56"/>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A435" s="39"/>
+    <row r="435" spans="1:13" ht="13">
+      <c r="A435" s="40"/>
       <c r="B435" s="70" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C435" s="63"/>
       <c r="M435" s="56"/>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A436" s="63" t="s">
+    <row r="436" spans="1:13" ht="13">
+      <c r="A436" s="40"/>
+      <c r="B436" s="70" t="s">
+        <v>540</v>
+      </c>
+      <c r="C436" s="63"/>
+      <c r="M436" s="56"/>
+    </row>
+    <row r="437" spans="1:13" ht="13">
+      <c r="A437" s="40"/>
+      <c r="B437" s="70" t="s">
+        <v>541</v>
+      </c>
+      <c r="C437" s="63"/>
+      <c r="M437" s="56"/>
+    </row>
+    <row r="438" spans="1:13" ht="13">
+      <c r="A438" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B436" s="70" t="s">
+      <c r="B438" s="70" t="s">
         <v>32</v>
-      </c>
-      <c r="C436" s="67"/>
-      <c r="M436" s="56"/>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A437" s="67"/>
-      <c r="B437" s="70" t="s">
-        <v>543</v>
-      </c>
-      <c r="C437" s="67"/>
-      <c r="M437" s="56"/>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A438" s="67"/>
-      <c r="B438" s="70" t="s">
-        <v>48</v>
       </c>
       <c r="C438" s="67"/>
       <c r="M438" s="56"/>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A439" s="67" t="s">
-        <v>741</v>
-      </c>
-      <c r="B439" s="67"/>
+    <row r="439" spans="1:13" ht="13">
+      <c r="A439" s="67"/>
+      <c r="B439" s="70" t="s">
+        <v>542</v>
+      </c>
       <c r="C439" s="67"/>
       <c r="M439" s="56"/>
     </row>
-    <row r="440" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" ht="13">
       <c r="A440" s="67"/>
-      <c r="B440" s="71" t="s">
-        <v>742</v>
+      <c r="B440" s="70" t="s">
+        <v>48</v>
       </c>
       <c r="C440" s="67"/>
       <c r="M440" s="56"/>
     </row>
-    <row r="441" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A441" s="67"/>
-      <c r="B441" s="71" t="s">
-        <v>61</v>
-      </c>
+    <row r="441" spans="1:13">
+      <c r="A441" s="67" t="s">
+        <v>753</v>
+      </c>
+      <c r="B441" s="67"/>
       <c r="C441" s="67"/>
       <c r="M441" s="56"/>
     </row>
-    <row r="442" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" ht="13">
       <c r="A442" s="67"/>
       <c r="B442" s="71" t="s">
-        <v>35</v>
+        <v>754</v>
       </c>
       <c r="C442" s="67"/>
       <c r="M442" s="56"/>
     </row>
-    <row r="443" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" ht="13">
       <c r="A443" s="67"/>
       <c r="B443" s="71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C443" s="67"/>
       <c r="M443" s="56"/>
     </row>
-    <row r="444" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" ht="13">
       <c r="A444" s="67"/>
       <c r="B444" s="71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C444" s="67"/>
       <c r="M444" s="56"/>
     </row>
-    <row r="445" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" ht="13">
       <c r="A445" s="67"/>
       <c r="B445" s="71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C445" s="67"/>
       <c r="M445" s="56"/>
     </row>
-    <row r="446" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" ht="13">
       <c r="A446" s="67"/>
       <c r="B446" s="71" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C446" s="67"/>
       <c r="M446" s="56"/>
     </row>
-    <row r="447" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" ht="13">
       <c r="A447" s="67"/>
       <c r="B447" s="71" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C447" s="67"/>
       <c r="M447" s="56"/>
     </row>
-    <row r="448" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" ht="13">
       <c r="A448" s="67"/>
-      <c r="B448" s="72" t="s">
-        <v>37</v>
+      <c r="B448" s="71" t="s">
+        <v>64</v>
       </c>
       <c r="C448" s="67"/>
       <c r="M448" s="56"/>
     </row>
-    <row r="449" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" ht="13">
       <c r="A449" s="67"/>
-      <c r="B449" s="72" t="s">
-        <v>40</v>
+      <c r="B449" s="71" t="s">
+        <v>54</v>
       </c>
       <c r="C449" s="67"/>
       <c r="M449" s="56"/>
     </row>
-    <row r="450" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" ht="13">
       <c r="A450" s="67"/>
       <c r="B450" s="72" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C450" s="67"/>
       <c r="M450" s="56"/>
     </row>
-    <row r="451" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" ht="13">
       <c r="A451" s="67"/>
       <c r="B451" s="72" t="s">
-        <v>530</v>
+        <v>40</v>
       </c>
       <c r="C451" s="67"/>
       <c r="M451" s="56"/>
     </row>
-    <row r="452" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" ht="13">
       <c r="A452" s="67"/>
       <c r="B452" s="72" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C452" s="67"/>
       <c r="M452" s="56"/>
     </row>
-    <row r="453" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" ht="13">
       <c r="A453" s="67"/>
       <c r="B453" s="72" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C453" s="67"/>
       <c r="M453" s="56"/>
     </row>
-    <row r="454" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" ht="13">
       <c r="A454" s="67"/>
       <c r="B454" s="72" t="s">
-        <v>532</v>
+        <v>49</v>
       </c>
       <c r="C454" s="67"/>
       <c r="M454" s="56"/>
     </row>
-    <row r="455" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" ht="13">
       <c r="A455" s="67"/>
       <c r="B455" s="72" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C455" s="67"/>
       <c r="M455" s="56"/>
     </row>
-    <row r="456" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" ht="13">
       <c r="A456" s="67"/>
       <c r="B456" s="72" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C456" s="67"/>
       <c r="M456" s="56"/>
     </row>
-    <row r="457" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" ht="13">
       <c r="A457" s="67"/>
       <c r="B457" s="72" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C457" s="67"/>
       <c r="M457" s="56"/>
     </row>
-    <row r="458" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" ht="13">
       <c r="A458" s="67"/>
       <c r="B458" s="72" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C458" s="67"/>
       <c r="M458" s="56"/>
     </row>
-    <row r="459" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" ht="13">
       <c r="A459" s="67"/>
       <c r="B459" s="72" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C459" s="67"/>
       <c r="M459" s="56"/>
     </row>
-    <row r="460" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" ht="13">
       <c r="A460" s="67"/>
       <c r="B460" s="72" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C460" s="67"/>
       <c r="M460" s="56"/>
     </row>
-    <row r="461" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" ht="13">
       <c r="A461" s="67"/>
       <c r="B461" s="72" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C461" s="67"/>
       <c r="M461" s="56"/>
     </row>
-    <row r="462" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" ht="13">
       <c r="A462" s="67"/>
       <c r="B462" s="72" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C462" s="67"/>
       <c r="M462" s="56"/>
     </row>
-    <row r="463" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" ht="13">
       <c r="A463" s="67"/>
       <c r="B463" s="72" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C463" s="67"/>
       <c r="M463" s="56"/>
     </row>
-    <row r="464" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" ht="13">
       <c r="A464" s="67"/>
       <c r="B464" s="72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C464" s="67"/>
       <c r="M464" s="56"/>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A465" s="73" t="s">
-        <v>743</v>
-      </c>
-      <c r="B465" s="67"/>
+    <row r="465" spans="1:13" ht="13">
+      <c r="A465" s="67"/>
+      <c r="B465" s="72" t="s">
+        <v>540</v>
+      </c>
       <c r="C465" s="67"/>
       <c r="M465" s="56"/>
     </row>
-    <row r="466" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" ht="13">
       <c r="A466" s="67"/>
-      <c r="B466" s="67" t="s">
-        <v>744</v>
+      <c r="B466" s="72" t="s">
+        <v>541</v>
       </c>
       <c r="C466" s="67"/>
       <c r="M466" s="56"/>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A467" s="67"/>
+    <row r="467" spans="1:13">
+      <c r="A467" s="73" t="s">
+        <v>755</v>
+      </c>
       <c r="B467" s="67"/>
       <c r="C467" s="67"/>
       <c r="M467" s="56"/>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" ht="37.5">
       <c r="A468" s="67"/>
-      <c r="B468" s="67"/>
+      <c r="B468" s="67" t="s">
+        <v>756</v>
+      </c>
       <c r="C468" s="67"/>
       <c r="M468" s="56"/>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13">
       <c r="A469" s="67"/>
       <c r="B469" s="67"/>
       <c r="C469" s="67"/>
       <c r="M469" s="56"/>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13">
       <c r="A470" s="67"/>
       <c r="B470" s="67"/>
       <c r="C470" s="67"/>
       <c r="M470" s="56"/>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13">
       <c r="A471" s="67"/>
       <c r="B471" s="67"/>
       <c r="C471" s="67"/>
       <c r="M471" s="56"/>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13">
       <c r="A472" s="67"/>
       <c r="B472" s="67"/>
       <c r="C472" s="67"/>
       <c r="M472" s="56"/>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13">
       <c r="A473" s="67"/>
       <c r="B473" s="67"/>
       <c r="C473" s="67"/>
       <c r="M473" s="56"/>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13">
       <c r="A474" s="67"/>
       <c r="B474" s="67"/>
       <c r="C474" s="67"/>
       <c r="M474" s="56"/>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13">
       <c r="A475" s="67"/>
       <c r="B475" s="67"/>
       <c r="C475" s="67"/>
       <c r="M475" s="56"/>
+    </row>
+    <row r="476" spans="1:13">
+      <c r="A476" s="67"/>
+      <c r="B476" s="67"/>
+      <c r="C476" s="67"/>
+      <c r="M476" s="56"/>
+    </row>
+    <row r="477" spans="1:13">
+      <c r="A477" s="67"/>
+      <c r="B477" s="67"/>
+      <c r="C477" s="67"/>
+      <c r="M477" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9948,72 +10197,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1209F63-9D26-47E3-9B22-A0E9D0C538F7}">
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BH5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="9.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="15" max="16" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="9.6328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.54296875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="26" max="27" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="86" width="10.6640625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" width="8.36328125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="86" width="10.6328125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.6328125" collapsed="true"/>
     <col min="34" max="34" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
     <col min="35" max="35" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="25.54296875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="26.08984375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="40" max="41" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="16.36328125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="15.08984375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="23.6328125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="22.90625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="20.36328125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60">
       <c r="A1" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>0</v>
@@ -10022,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>3</v>
@@ -10079,7 +10329,7 @@
         <v>14</v>
       </c>
       <c r="X1" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y1" s="19" t="s">
         <v>15</v>
@@ -10109,145 +10359,372 @@
         <v>29</v>
       </c>
       <c r="AH1" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AI1" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AK1" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AL1" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AM1" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="AM1" s="19" t="s">
-        <v>590</v>
-      </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AN1" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="AR1" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AS1" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="AT1" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AU1" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AV1" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="AW1" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="AR1" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AX1" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AY1" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="AU1" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="AV1" s="10" t="s">
+      <c r="BA1" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="BB1" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="AW1" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AX1" s="10" t="s">
+      <c r="BC1" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="BD1" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="AY1" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BE1" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="BF1" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="BA1" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BG1" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="BD1" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="BE1" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="BF1" s="20"/>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BH1" s="20"/>
+    </row>
+    <row r="2" spans="1:60">
       <c r="A2" s="22" t="s">
-        <v>819</v>
-      </c>
-      <c r="B2" s="24"/>
+        <v>856</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>663</v>
+      </c>
       <c r="C2" s="22" t="s">
-        <v>815</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="28" t="s">
-        <v>816</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="21"/>
+        <v>824</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>666</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>666</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>666</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>666</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>666</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>667</v>
+      </c>
       <c r="M2" s="21" t="s">
-        <v>824</v>
+        <v>860</v>
       </c>
       <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
+      <c r="O2" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>288000</v>
+      </c>
+      <c r="R2" s="22">
+        <v>288000</v>
+      </c>
+      <c r="S2" s="22">
+        <v>288000</v>
+      </c>
+      <c r="T2" s="22">
+        <v>288000</v>
+      </c>
+      <c r="U2" s="22">
+        <v>288000</v>
+      </c>
+      <c r="V2" s="22">
+        <v>288000</v>
+      </c>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
-      <c r="AC2" s="23"/>
+      <c r="AC2" s="23" t="s">
+        <v>804</v>
+      </c>
       <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="22"/>
-      <c r="BD2" s="22"/>
-      <c r="BE2" s="22"/>
+      <c r="AE2" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="22">
+        <v>87</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="AH2" s="22">
+        <v>876</v>
+      </c>
+      <c r="AI2" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ2" s="22">
+        <v>212</v>
+      </c>
+      <c r="AK2" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="AL2" s="22">
+        <v>14539</v>
+      </c>
+      <c r="AM2" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>826</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>861</v>
+      </c>
+      <c r="AP2" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="AR2" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="AS2" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="AT2" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="AU2" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="AW2" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="AX2" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="AY2" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="AZ2" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="BB2" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="BC2" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="BD2" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="BE2" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="BF2" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="BG2" s="22" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60">
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="22"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="22"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+      <c r="BD3" s="22"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
+    </row>
+    <row r="4" spans="1:60">
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22"/>
+      <c r="BG4" s="22"/>
+    </row>
+    <row r="5" spans="1:60">
+      <c r="AG5" s="90"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -10259,7 +10736,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>DataValidation!$H$1:$H$13</xm:f>
@@ -10296,6 +10773,12 @@
           </x14:formula1>
           <xm:sqref>AA2:AA1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000007000000}">
+          <x14:formula1>
+            <xm:f>DataValidation!$K$1:$K$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>AN2:AN1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -10303,16 +10786,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7F0999-735F-4483-BF36-D5264FA0C061}">
-  <dimension ref="E1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9351DC6-7947-4883-99D7-03DA521CFDDE}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7F0999-735F-4483-BF36-D5264FA0C061}">
+  <dimension ref="E1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="5:11">
       <c r="E1" t="s">
-        <v>795</v>
+        <v>828</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -10321,38 +10823,44 @@
         <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>796</v>
+        <v>829</v>
       </c>
       <c r="I1" t="s">
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="5:11">
       <c r="E2" t="s">
-        <v>798</v>
+        <v>831</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H2" t="s">
-        <v>799</v>
+        <v>832</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+      <c r="K2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11">
       <c r="E3" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -10361,55 +10869,64 @@
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.3">
+        <v>834</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="5:11">
       <c r="E4" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
+        <v>836</v>
+      </c>
+      <c r="K4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11">
       <c r="E5" t="s">
-        <v>804</v>
+        <v>839</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>805</v>
+        <v>840</v>
       </c>
       <c r="I5" t="s">
         <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11">
       <c r="F6" t="s">
         <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>807</v>
+        <v>842</v>
       </c>
       <c r="I6" t="s">
         <v>47</v>
@@ -10417,119 +10934,140 @@
       <c r="J6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11">
       <c r="F7" t="s">
         <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+      <c r="K7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11">
       <c r="F8" t="s">
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="K8" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11">
       <c r="F9" t="s">
         <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+      <c r="K9" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11">
       <c r="F10" t="s">
         <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+      <c r="K10" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11">
       <c r="F11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H11" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
+        <v>852</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11">
       <c r="F12" t="s">
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+      <c r="K12" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11">
       <c r="F13" t="s">
+        <v>530</v>
+      </c>
+      <c r="H13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11">
+      <c r="F14" t="s">
         <v>531</v>
       </c>
-      <c r="H13" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F14" t="s">
+    </row>
+    <row r="15" spans="5:11">
+      <c r="F15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F15" t="s">
+    <row r="16" spans="5:11">
+      <c r="F16" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" t="s">
+    <row r="20" spans="6:6">
+      <c r="F20" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
+    <row r="21" spans="6:6">
+      <c r="F21" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
+    <row r="22" spans="6:6">
+      <c r="F22" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F22" t="s">
+    <row r="23" spans="6:6">
+      <c r="F23" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F23" t="s">
+    <row r="24" spans="6:6">
+      <c r="F24" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F24" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:6">
       <c r="F25" t="s">
         <v>31</v>
       </c>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Bug.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.udhaya.suriyan\Automation\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2331B03-5C4E-48B1-9316-F8546DF6B073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AFF574-549F-45D5-BB82-C57D207C9041}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="25" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="841">
   <si>
     <t>Title</t>
   </si>
@@ -2018,51 +2018,12 @@
     <t>Linked[Deliverables].ID</t>
   </si>
   <si>
-    <t>Epic1,Epic2;Story1,Story2;Feature2;Bug1;Epic3;Story3;Feature3</t>
-  </si>
-  <si>
-    <t>Epic1,Epic2;Story1,Story2;Feature2</t>
-  </si>
-  <si>
-    <t>Defect2</t>
-  </si>
-  <si>
     <t>Child</t>
   </si>
   <si>
-    <t>Impedements1</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
-    <t>Issues1</t>
-  </si>
-  <si>
-    <t>Risk1</t>
-  </si>
-  <si>
-    <t>Deliverable1</t>
-  </si>
-  <si>
-    <t>https://xyz.accenture.com/browse/PUAT1-1467</t>
-  </si>
-  <si>
-    <t>Epic check1.</t>
-  </si>
-  <si>
-    <t>New Attribute Hierarchy</t>
-  </si>
-  <si>
-    <t>abc.d.xyz@mywizard.com</t>
-  </si>
-  <si>
-    <t>2020-02-04T12:47:53Z</t>
-  </si>
-  <si>
-    <t>2020-02-04T12:49:55Z</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -2100,21 +2061,6 @@
   </si>
   <si>
     <t>Excel updated with sample data</t>
-  </si>
-  <si>
-    <t>Parent;Child;Related;Blocks;Blocked By;Successor;Predecessor</t>
-  </si>
-  <si>
-    <t>Parent;Child;Related</t>
-  </si>
-  <si>
-    <t>Team1</t>
-  </si>
-  <si>
-    <t>New sprint for Test</t>
-  </si>
-  <si>
-    <t>29july_rel_uat</t>
   </si>
   <si>
     <t>Hyperlink were removed for all the entities for External URL,
@@ -2483,9 +2429,6 @@
 It should be a number or a decimal with only one decimal point.</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Updated read me section for "Story Points"</t>
   </si>
   <si>
@@ -2552,115 +2495,109 @@
     <t>Updated the read me section for the line DateFormat attributes to datetime formula should be  "YYYY-MM-DDTHH:MM:SSZ"</t>
   </si>
   <si>
+    <t>Lowest</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Very Low</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Triage</t>
+  </si>
+  <si>
+    <t>Analyze</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Ready to Migrate</t>
+  </si>
+  <si>
+    <t>Detailed Technical Design</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Retest</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>Reopened</t>
+  </si>
+  <si>
+    <t>Component Test</t>
+  </si>
+  <si>
+    <t>On Hold</t>
+  </si>
+  <si>
+    <t>Assembly Test</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t>Integration Test</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Product Test</t>
+  </si>
+  <si>
+    <t>Works As Designed</t>
+  </si>
+  <si>
+    <t>User Acceptance Test</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>BOM-119693</t>
+  </si>
+  <si>
+    <t>heyy</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>2021-08-13T13:03:51Z</t>
+  </si>
+  <si>
+    <t>testuser01art@ds.dev.accenture.com</t>
+  </si>
+  <si>
     <t>Bug_AutomationData_GenericUploader</t>
   </si>
   <si>
-    <t>BOM</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Lowest</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Very Low</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Triage</t>
-  </si>
-  <si>
-    <t>Analyze</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Resolve</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Ready to Migrate</t>
-  </si>
-  <si>
-    <t>Detailed Technical Design</t>
-  </si>
-  <si>
-    <t>Highest</t>
-  </si>
-  <si>
-    <t>Retest</t>
-  </si>
-  <si>
-    <t>Very High</t>
-  </si>
-  <si>
-    <t>Reopened</t>
-  </si>
-  <si>
-    <t>Component Test</t>
-  </si>
-  <si>
-    <t>On Hold</t>
-  </si>
-  <si>
-    <t>Assembly Test</t>
-  </si>
-  <si>
-    <t>Deferred</t>
-  </si>
-  <si>
-    <t>Integration Test</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Product Test</t>
-  </si>
-  <si>
-    <t>Works As Designed</t>
-  </si>
-  <si>
-    <t>User Acceptance Test</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>Duplicate</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>BOM-118862</t>
-  </si>
-  <si>
-    <t>2021-08-02T06:12:57Z</t>
-  </si>
-  <si>
-    <t>2021-08-02T06:18:55Z</t>
-  </si>
-  <si>
-    <t>2021-08-02T06:20:03Z</t>
-  </si>
-  <si>
-    <t>2021-08-02T08:22:22Z</t>
+    <t>2021-08-13T05:32:46Z</t>
   </si>
   <si>
     <t>Security_AutomationData</t>
@@ -2770,11 +2707,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
@@ -2784,6 +2716,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3038,9 +2978,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3099,9 +3040,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3232,10 +3170,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3265,16 +3203,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3288,6 +3226,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3295,7 +3234,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -3615,33 +3555,33 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.6328125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="59.453125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.36328125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.6328125" collapsed="true"/>
-    <col min="5" max="16384" style="6" width="8.6328125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.6640625" collapsed="true"/>
+    <col min="5" max="16384" style="6" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="27" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3655,7 +3595,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -3669,7 +3609,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3683,7 +3623,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3697,7 +3637,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3711,7 +3651,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3725,7 +3665,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3739,7 +3679,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38.75" customHeight="1">
+    <row r="9" spans="1:5" ht="38.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -3753,7 +3693,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -3767,7 +3707,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3781,317 +3721,317 @@
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>553</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="C16" s="30">
+        <v>666</v>
+      </c>
+      <c r="C16" s="29">
         <v>43898</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>553</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="C17" s="30">
+        <v>668</v>
+      </c>
+      <c r="C17" s="29">
         <v>43898</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>553</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.5">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="C18" s="30">
+        <v>669</v>
+      </c>
+      <c r="C18" s="29">
         <v>43959</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>553</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="58">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="C19" s="30">
+        <v>670</v>
+      </c>
+      <c r="C19" s="29">
         <v>43959</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>553</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>694</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29">
+        <v>679</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>676</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="29">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="78">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="77">
         <v>24</v>
       </c>
-      <c r="B25" s="77" t="s">
-        <v>759</v>
-      </c>
-      <c r="C25" s="80">
+      <c r="B25" s="76" t="s">
+        <v>741</v>
+      </c>
+      <c r="C25" s="79">
         <v>44113</v>
       </c>
-      <c r="D25" s="79" t="s">
-        <v>694</v>
-      </c>
-      <c r="E25" s="79" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="43.5">
-      <c r="A26" s="78">
+      <c r="D25" s="78" t="s">
+        <v>676</v>
+      </c>
+      <c r="E25" s="78" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="77">
         <v>25</v>
       </c>
-      <c r="B26" s="77" t="s">
-        <v>761</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>762</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="29">
-      <c r="A27" s="78">
+      <c r="B26" s="76" t="s">
+        <v>743</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>744</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="77">
         <v>26</v>
       </c>
-      <c r="B27" s="77" t="s">
-        <v>766</v>
-      </c>
-      <c r="C27" s="79" t="s">
-        <v>767</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="78">
+      <c r="B27" s="76" t="s">
+        <v>748</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>749</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="77">
         <v>27</v>
       </c>
-      <c r="B28" s="77" t="s">
-        <v>805</v>
-      </c>
-      <c r="C28" s="80">
+      <c r="B28" s="76" t="s">
+        <v>786</v>
+      </c>
+      <c r="C28" s="79">
         <v>43958</v>
       </c>
-      <c r="D28" s="79" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29">
+      <c r="D28" s="78" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="C29" s="87">
+        <v>790</v>
+      </c>
+      <c r="C29" s="86">
         <v>44363</v>
       </c>
-      <c r="D29" s="88" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="43.5">
+      <c r="D29" s="87" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="C30" s="87">
+        <v>792</v>
+      </c>
+      <c r="C30" s="86">
         <v>44393</v>
       </c>
-      <c r="D30" s="88" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="29">
+      <c r="D30" s="87" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="C31" s="87">
+        <v>804</v>
+      </c>
+      <c r="C31" s="86">
         <v>44403</v>
       </c>
-      <c r="D31" s="88" t="s">
-        <v>810</v>
+      <c r="D31" s="87" t="s">
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -4109,59 +4049,59 @@
       <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="39.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.36328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="49.6328125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="39.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="49.6640625" collapsed="true"/>
     <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="6" max="11" customWidth="true" style="3" width="9.36328125" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="9.36328125" collapsed="true"/>
+    <col min="6" max="11" customWidth="true" style="3" width="9.33203125" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.25" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>635</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>636</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>637</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>638</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>640</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>641</v>
       </c>
-      <c r="M1" s="33"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="34" t="s">
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="58" t="s">
         <v>77</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -4191,15 +4131,15 @@
       <c r="L2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="56"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="36" t="s">
+      <c r="M2" s="55"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="59" t="s">
-        <v>702</v>
+      <c r="B3" s="34"/>
+      <c r="C3" s="58" t="s">
+        <v>684</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>78</v>
@@ -4228,15 +4168,15 @@
       <c r="L3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="56"/>
-    </row>
-    <row r="4" spans="1:13" ht="25">
-      <c r="A4" s="74" t="s">
-        <v>757</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76" t="s">
-        <v>758</v>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>739</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75" t="s">
+        <v>740</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>78</v>
@@ -4265,14 +4205,14 @@
       <c r="L4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="56"/>
-    </row>
-    <row r="5" spans="1:13" ht="25">
-      <c r="A5" s="74" t="s">
-        <v>763</v>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>745</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>78</v>
@@ -4300,22 +4240,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="M6" s="56"/>
-    </row>
-    <row r="7" spans="1:13" ht="25">
-      <c r="A7" s="39" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="M6" s="55"/>
+    </row>
+    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="62" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="61" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -4345,15 +4285,15 @@
       <c r="L7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="56"/>
-    </row>
-    <row r="8" spans="1:13" ht="25">
-      <c r="A8" s="40" t="s">
+      <c r="M7" s="55"/>
+    </row>
+    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="63" t="s">
-        <v>813</v>
+      <c r="B8" s="39"/>
+      <c r="C8" s="62" t="s">
+        <v>794</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>78</v>
@@ -4382,15 +4322,15 @@
       <c r="L8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="56"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="41" t="s">
+      <c r="M8" s="55"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="63" t="s">
-        <v>703</v>
+      <c r="B9" s="40"/>
+      <c r="C9" s="62" t="s">
+        <v>685</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>78</v>
@@ -4419,37 +4359,37 @@
       <c r="L9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="56"/>
-    </row>
-    <row r="10" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A10" s="42" t="s">
+      <c r="M9" s="55"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.5">
-      <c r="A11" s="46" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="64" t="s">
         <v>592</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -4481,14 +4421,14 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="14.5">
-      <c r="A12" s="47" t="s">
+    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>556</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="65" t="s">
         <v>593</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -4520,14 +4460,14 @@
       </c>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="14.5">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>594</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -4559,14 +4499,14 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="14.5">
-      <c r="A14" s="47" t="s">
+    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="65" t="s">
         <v>595</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -4598,14 +4538,14 @@
       </c>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="14.5">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="65" t="s">
         <v>616</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="65" t="s">
         <v>619</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -4637,14 +4577,14 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="14.5">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="65" t="s">
         <v>618</v>
       </c>
       <c r="D16" s="12"/>
@@ -4656,16 +4596,16 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="57"/>
-    </row>
-    <row r="17" spans="1:13" ht="26">
-      <c r="A17" s="47" t="s">
+      <c r="M16" s="56"/>
+    </row>
+    <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="65" t="s">
         <v>596</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -4695,14 +4635,14 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="39">
-      <c r="A18" s="47" t="s">
-        <v>704</v>
-      </c>
-      <c r="B18" s="66" t="s">
+    <row r="18" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
+        <v>686</v>
+      </c>
+      <c r="B18" s="65" t="s">
         <v>557</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="65" t="s">
         <v>597</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -4732,14 +4672,14 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A19" s="47" t="s">
+    <row r="19" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="65" t="s">
         <v>558</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="65" t="s">
         <v>598</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -4769,14 +4709,14 @@
       </c>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="33.65" customHeight="1">
-      <c r="A20" s="47" t="s">
-        <v>705</v>
-      </c>
-      <c r="B20" s="66" t="s">
+    <row r="20" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="B20" s="65" t="s">
         <v>559</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="65" t="s">
         <v>599</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -4806,15 +4746,15 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="14.5">
-      <c r="A21" s="47" t="s">
+    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="66" t="s">
-        <v>706</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>707</v>
+      <c r="B21" s="65" t="s">
+        <v>688</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>689</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -4827,14 +4767,14 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="14.5">
-      <c r="A22" s="47" t="s">
-        <v>708</v>
-      </c>
-      <c r="B22" s="66" t="s">
+    <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>690</v>
+      </c>
+      <c r="B22" s="65" t="s">
         <v>560</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="65" t="s">
         <v>600</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -4866,14 +4806,14 @@
       </c>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="26">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>561</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="65" t="s">
         <v>582</v>
       </c>
       <c r="D23" s="12"/>
@@ -4887,14 +4827,14 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="14.5">
-      <c r="A24" s="47" t="s">
-        <v>709</v>
-      </c>
-      <c r="B24" s="66" t="s">
+    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>691</v>
+      </c>
+      <c r="B24" s="65" t="s">
         <v>562</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="65" t="s">
         <v>601</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -4926,15 +4866,15 @@
       </c>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="26">
-      <c r="A25" s="47" t="s">
-        <v>710</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>711</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>712</v>
+    <row r="25" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>692</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>693</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>694</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -4947,15 +4887,15 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="39">
-      <c r="A26" s="47" t="s">
-        <v>713</v>
-      </c>
-      <c r="B26" s="66" t="s">
+    <row r="26" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>695</v>
+      </c>
+      <c r="B26" s="65" t="s">
         <v>563</v>
       </c>
-      <c r="C26" s="66" t="s">
-        <v>814</v>
+      <c r="C26" s="65" t="s">
+        <v>795</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>78</v>
@@ -4986,15 +4926,15 @@
       </c>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="26">
-      <c r="A27" s="47" t="s">
-        <v>714</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>715</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>716</v>
+    <row r="27" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>696</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>697</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>698</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -5007,15 +4947,15 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="104">
-      <c r="A28" s="47" t="s">
-        <v>717</v>
-      </c>
-      <c r="B28" s="66" t="s">
+    <row r="28" spans="1:13" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>699</v>
+      </c>
+      <c r="B28" s="65" t="s">
         <v>564</v>
       </c>
-      <c r="C28" s="66" t="s">
-        <v>815</v>
+      <c r="C28" s="65" t="s">
+        <v>796</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>78</v>
@@ -5046,15 +4986,15 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="50" customHeight="1">
-      <c r="A29" s="47" t="s">
+    <row r="29" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="65" t="s">
         <v>565</v>
       </c>
-      <c r="C29" s="66" t="s">
-        <v>768</v>
+      <c r="C29" s="65" t="s">
+        <v>750</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>78</v>
@@ -5085,14 +5025,14 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="26">
-      <c r="A30" s="47" t="s">
+    <row r="30" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="65" t="s">
         <v>578</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="65" t="s">
         <v>602</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -5122,15 +5062,15 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="52">
-      <c r="A31" s="47" t="s">
-        <v>718</v>
-      </c>
-      <c r="B31" s="66" t="s">
-        <v>719</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>816</v>
+    <row r="31" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
+        <v>700</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>701</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>797</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -5143,15 +5083,15 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="39">
-      <c r="A32" s="47" t="s">
-        <v>720</v>
-      </c>
-      <c r="B32" s="66" t="s">
-        <v>721</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>722</v>
+    <row r="32" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
+        <v>702</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>703</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>704</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -5164,15 +5104,15 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="52">
-      <c r="A33" s="47" t="s">
-        <v>723</v>
-      </c>
-      <c r="B33" s="66" t="s">
-        <v>724</v>
-      </c>
-      <c r="C33" s="66" t="s">
-        <v>817</v>
+    <row r="33" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>705</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>706</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>798</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -5185,15 +5125,15 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="14.15" customHeight="1">
-      <c r="A34" s="47" t="s">
-        <v>725</v>
-      </c>
-      <c r="B34" s="66" t="s">
-        <v>726</v>
-      </c>
-      <c r="C34" s="66" t="s">
-        <v>727</v>
+    <row r="34" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
+        <v>707</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>708</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>709</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -5206,15 +5146,15 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" ht="14.15" customHeight="1">
-      <c r="A35" s="47" t="s">
-        <v>728</v>
-      </c>
-      <c r="B35" s="66" t="s">
-        <v>729</v>
-      </c>
-      <c r="C35" s="66" t="s">
-        <v>730</v>
+    <row r="35" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>711</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>712</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -5227,15 +5167,15 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" ht="14.15" customHeight="1">
-      <c r="A36" s="47" t="s">
-        <v>731</v>
-      </c>
-      <c r="B36" s="66" t="s">
+    <row r="36" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="B36" s="65" t="s">
         <v>578</v>
       </c>
-      <c r="C36" s="66" t="s">
-        <v>732</v>
+      <c r="C36" s="65" t="s">
+        <v>714</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -5248,15 +5188,15 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" ht="14.15" customHeight="1">
-      <c r="A37" s="47" t="s">
+    <row r="37" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="66" t="s">
-        <v>733</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>818</v>
+      <c r="B37" s="65" t="s">
+        <v>715</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>799</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="12" t="s">
@@ -5277,15 +5217,15 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" ht="39">
-      <c r="A38" s="47" t="s">
+    <row r="38" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="66" t="s">
-        <v>726</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>818</v>
+      <c r="B38" s="65" t="s">
+        <v>708</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>799</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="12" t="s">
@@ -5312,15 +5252,15 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" ht="39">
-      <c r="A39" s="47" t="s">
+    <row r="39" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="66" t="s">
-        <v>733</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>818</v>
+      <c r="B39" s="65" t="s">
+        <v>715</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>799</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="12"/>
@@ -5333,17 +5273,17 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="57"/>
-    </row>
-    <row r="40" spans="1:13" ht="26">
-      <c r="A40" s="47" t="s">
+      <c r="M39" s="56"/>
+    </row>
+    <row r="40" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="81" t="s">
-        <v>769</v>
-      </c>
-      <c r="C40" s="82" t="s">
-        <v>770</v>
+      <c r="B40" s="80" t="s">
+        <v>751</v>
+      </c>
+      <c r="C40" s="81" t="s">
+        <v>752</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -5358,17 +5298,17 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="57"/>
-    </row>
-    <row r="41" spans="1:13" ht="26">
-      <c r="A41" s="47" t="s">
+      <c r="M40" s="56"/>
+    </row>
+    <row r="41" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="81" t="s">
-        <v>771</v>
-      </c>
-      <c r="C41" s="82" t="s">
-        <v>770</v>
+      <c r="B41" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="C41" s="81" t="s">
+        <v>752</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -5383,17 +5323,17 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="57"/>
-    </row>
-    <row r="42" spans="1:13" ht="39">
-      <c r="A42" s="47" t="s">
+      <c r="M41" s="56"/>
+    </row>
+    <row r="42" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="66" t="s">
-        <v>772</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>818</v>
+      <c r="B42" s="65" t="s">
+        <v>754</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>799</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -5406,17 +5346,17 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="57"/>
-    </row>
-    <row r="43" spans="1:13" ht="39">
-      <c r="A43" s="47" t="s">
+      <c r="M42" s="56"/>
+    </row>
+    <row r="43" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="66" t="s">
-        <v>773</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>818</v>
+      <c r="B43" s="65" t="s">
+        <v>755</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>799</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -5431,17 +5371,17 @@
         <v>78</v>
       </c>
       <c r="L43" s="2"/>
-      <c r="M43" s="57"/>
-    </row>
-    <row r="44" spans="1:13" ht="26">
-      <c r="A44" s="47" t="s">
+      <c r="M43" s="56"/>
+    </row>
+    <row r="44" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="81" t="s">
-        <v>774</v>
-      </c>
-      <c r="C44" s="82" t="s">
-        <v>770</v>
+      <c r="B44" s="80" t="s">
+        <v>756</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>752</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -5456,17 +5396,17 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="57"/>
-    </row>
-    <row r="45" spans="1:13" ht="29.75" customHeight="1">
-      <c r="A45" s="47" t="s">
+      <c r="M44" s="56"/>
+    </row>
+    <row r="45" spans="1:13" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="83" t="s">
-        <v>775</v>
-      </c>
-      <c r="C45" s="82" t="s">
-        <v>770</v>
+      <c r="B45" s="82" t="s">
+        <v>757</v>
+      </c>
+      <c r="C45" s="81" t="s">
+        <v>752</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -5479,17 +5419,17 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="57"/>
-    </row>
-    <row r="46" spans="1:13" ht="35.75" customHeight="1">
-      <c r="A46" s="47" t="s">
+      <c r="M45" s="56"/>
+    </row>
+    <row r="46" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="81" t="s">
-        <v>776</v>
-      </c>
-      <c r="C46" s="82" t="s">
-        <v>737</v>
+      <c r="B46" s="80" t="s">
+        <v>758</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>719</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -5502,17 +5442,17 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="57"/>
-    </row>
-    <row r="47" spans="1:13" ht="14.5">
-      <c r="A47" s="49" t="s">
+      <c r="M46" s="56"/>
+    </row>
+    <row r="47" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="81" t="s">
-        <v>777</v>
-      </c>
-      <c r="C47" s="82" t="s">
-        <v>737</v>
+      <c r="B47" s="80" t="s">
+        <v>759</v>
+      </c>
+      <c r="C47" s="81" t="s">
+        <v>719</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -5525,17 +5465,17 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="57"/>
-    </row>
-    <row r="48" spans="1:13" ht="14.5">
-      <c r="A48" s="47" t="s">
+      <c r="M47" s="56"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="81" t="s">
-        <v>778</v>
-      </c>
-      <c r="C48" s="82" t="s">
-        <v>737</v>
+      <c r="B48" s="80" t="s">
+        <v>760</v>
+      </c>
+      <c r="C48" s="81" t="s">
+        <v>719</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -5548,17 +5488,17 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="57"/>
-    </row>
-    <row r="49" spans="1:13" ht="14.5">
-      <c r="A49" s="47" t="s">
+      <c r="M48" s="56"/>
+    </row>
+    <row r="49" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="66" t="s">
-        <v>779</v>
-      </c>
-      <c r="C49" s="84" t="s">
-        <v>737</v>
+      <c r="B49" s="65" t="s">
+        <v>761</v>
+      </c>
+      <c r="C49" s="83" t="s">
+        <v>719</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -5573,17 +5513,17 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="57"/>
-    </row>
-    <row r="50" spans="1:13" ht="39">
-      <c r="A50" s="47" t="s">
+      <c r="M49" s="56"/>
+    </row>
+    <row r="50" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="66" t="s">
-        <v>734</v>
-      </c>
-      <c r="C50" s="66" t="s">
-        <v>735</v>
+      <c r="B50" s="65" t="s">
+        <v>716</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>717</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -5600,14 +5540,14 @@
       </c>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" ht="52">
-      <c r="A51" s="47" t="s">
+    <row r="51" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="65" t="s">
         <v>576</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="65" t="s">
         <v>603</v>
       </c>
       <c r="D51" s="12" t="s">
@@ -5637,14 +5577,14 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" ht="52">
-      <c r="A52" s="47" t="s">
+    <row r="52" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="65" t="s">
         <v>577</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="65" t="s">
         <v>604</v>
       </c>
       <c r="D52" s="12" t="s">
@@ -5674,14 +5614,14 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" ht="39">
-      <c r="A53" s="47" t="s">
+    <row r="53" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="65" t="s">
         <v>566</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="65" t="s">
         <v>605</v>
       </c>
       <c r="D53" s="12" t="s">
@@ -5709,14 +5649,14 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" ht="52">
-      <c r="A54" s="47" t="s">
+    <row r="54" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="65" t="s">
         <v>567</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="65" t="s">
         <v>606</v>
       </c>
       <c r="D54" s="12" t="s">
@@ -5746,14 +5686,14 @@
       </c>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" ht="26">
-      <c r="A55" s="47" t="s">
+    <row r="55" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="65" t="s">
         <v>568</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="65" t="s">
         <v>607</v>
       </c>
       <c r="D55" s="12" t="s">
@@ -5781,15 +5721,15 @@
       </c>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" ht="39">
-      <c r="A56" s="47" t="s">
+    <row r="56" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="65" t="s">
         <v>575</v>
       </c>
-      <c r="C56" s="66" t="s">
-        <v>803</v>
+      <c r="C56" s="65" t="s">
+        <v>785</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>78</v>
@@ -5804,17 +5744,17 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="57"/>
-    </row>
-    <row r="57" spans="1:13" ht="26">
-      <c r="A57" s="47" t="s">
+      <c r="M56" s="56"/>
+    </row>
+    <row r="57" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="65" t="s">
         <v>569</v>
       </c>
-      <c r="C57" s="66" t="s">
-        <v>736</v>
+      <c r="C57" s="65" t="s">
+        <v>718</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>78</v>
@@ -5833,14 +5773,14 @@
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" ht="52">
-      <c r="A58" s="47" t="s">
+    <row r="58" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="66" t="s">
+      <c r="B58" s="65" t="s">
         <v>570</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="65" t="s">
         <v>609</v>
       </c>
       <c r="D58" s="12" t="s">
@@ -5860,15 +5800,15 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" ht="14.5">
-      <c r="A59" s="47" t="s">
+    <row r="59" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="65" t="s">
         <v>571</v>
       </c>
-      <c r="C59" s="66" t="s">
-        <v>737</v>
+      <c r="C59" s="65" t="s">
+        <v>719</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>78</v>
@@ -5887,14 +5827,14 @@
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" ht="26">
-      <c r="A60" s="47" t="s">
+    <row r="60" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="65" t="s">
         <v>610</v>
       </c>
       <c r="D60" s="12" t="s">
@@ -5914,14 +5854,14 @@
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" ht="14.5">
-      <c r="A61" s="47" t="s">
+    <row r="61" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="66" t="s">
+      <c r="B61" s="65" t="s">
         <v>573</v>
       </c>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="65" t="s">
         <v>611</v>
       </c>
       <c r="D61" s="12" t="s">
@@ -5937,16 +5877,16 @@
       <c r="J61" s="12"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="57"/>
-    </row>
-    <row r="62" spans="1:13" ht="65">
-      <c r="A62" s="47" t="s">
+      <c r="M61" s="56"/>
+    </row>
+    <row r="62" spans="1:13" ht="69" x14ac:dyDescent="0.25">
+      <c r="A62" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="65" t="s">
         <v>612</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -5968,14 +5908,14 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" ht="26">
-      <c r="A63" s="47" t="s">
+    <row r="63" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="65" t="s">
         <v>572</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="65" t="s">
         <v>613</v>
       </c>
       <c r="D63" s="12" t="s">
@@ -5999,15 +5939,15 @@
       </c>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" ht="52">
-      <c r="A64" s="47" t="s">
-        <v>738</v>
-      </c>
-      <c r="B64" s="66" t="s">
-        <v>739</v>
-      </c>
-      <c r="C64" s="66" t="s">
-        <v>819</v>
+    <row r="64" spans="1:13" ht="69" x14ac:dyDescent="0.25">
+      <c r="A64" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="B64" s="65" t="s">
+        <v>721</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>800</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -6020,15 +5960,15 @@
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" ht="52">
-      <c r="A65" s="47" t="s">
+    <row r="65" spans="1:13" ht="69" x14ac:dyDescent="0.25">
+      <c r="A65" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="65" t="s">
         <v>574</v>
       </c>
-      <c r="C65" s="66" t="s">
-        <v>820</v>
+      <c r="C65" s="65" t="s">
+        <v>801</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>78</v>
@@ -6057,15 +5997,15 @@
       </c>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" ht="14.5">
-      <c r="A66" s="47" t="s">
+    <row r="66" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="46" t="s">
         <v>583</v>
       </c>
-      <c r="B66" s="66" t="s">
+      <c r="B66" s="65" t="s">
         <v>579</v>
       </c>
       <c r="C66" s="91" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>78</v>
@@ -6094,11 +6034,11 @@
       </c>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" ht="14.5">
-      <c r="A67" s="47" t="s">
+    <row r="67" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="46" t="s">
         <v>585</v>
       </c>
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="65" t="s">
         <v>584</v>
       </c>
       <c r="C67" s="92"/>
@@ -6129,15 +6069,15 @@
       </c>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" ht="14.5">
-      <c r="A68" s="47" t="s">
+    <row r="68" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="46" t="s">
         <v>586</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="65" t="s">
         <v>580</v>
       </c>
       <c r="C68" s="91" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>78</v>
@@ -6166,11 +6106,11 @@
       </c>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" ht="14.5">
-      <c r="A69" s="47" t="s">
+    <row r="69" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="46" t="s">
         <v>587</v>
       </c>
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="65" t="s">
         <v>590</v>
       </c>
       <c r="C69" s="92"/>
@@ -6201,15 +6141,15 @@
       </c>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" ht="14.5">
-      <c r="A70" s="47" t="s">
+    <row r="70" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="46" t="s">
         <v>588</v>
       </c>
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="65" t="s">
         <v>581</v>
       </c>
       <c r="C70" s="91" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>78</v>
@@ -6238,11 +6178,11 @@
       </c>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" ht="14.5">
-      <c r="A71" s="47" t="s">
+    <row r="71" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="46" t="s">
         <v>589</v>
       </c>
-      <c r="B71" s="66" t="s">
+      <c r="B71" s="65" t="s">
         <v>591</v>
       </c>
       <c r="C71" s="92"/>
@@ -6273,15 +6213,15 @@
       </c>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" ht="26">
-      <c r="A72" s="47" t="s">
+    <row r="72" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="85" t="s">
-        <v>780</v>
-      </c>
-      <c r="C72" s="84" t="s">
-        <v>736</v>
+      <c r="B72" s="84" t="s">
+        <v>762</v>
+      </c>
+      <c r="C72" s="83" t="s">
+        <v>718</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -6294,17 +6234,17 @@
         <v>78</v>
       </c>
       <c r="L72" s="2"/>
-      <c r="M72" s="57"/>
-    </row>
-    <row r="73" spans="1:13" ht="26">
-      <c r="A73" s="50" t="s">
+      <c r="M72" s="56"/>
+    </row>
+    <row r="73" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="85" t="s">
-        <v>781</v>
-      </c>
-      <c r="C73" s="84" t="s">
-        <v>736</v>
+      <c r="B73" s="84" t="s">
+        <v>763</v>
+      </c>
+      <c r="C73" s="83" t="s">
+        <v>718</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6317,17 +6257,17 @@
         <v>78</v>
       </c>
       <c r="L73" s="2"/>
-      <c r="M73" s="57"/>
-    </row>
-    <row r="74" spans="1:13" ht="14.5">
-      <c r="A74" s="50" t="s">
+      <c r="M73" s="56"/>
+    </row>
+    <row r="74" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A74" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="66" t="s">
-        <v>782</v>
-      </c>
-      <c r="C74" s="66" t="s">
-        <v>783</v>
+      <c r="B74" s="65" t="s">
+        <v>764</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>765</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6342,15 +6282,15 @@
       </c>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" ht="14.5">
-      <c r="A75" s="50" t="s">
+    <row r="75" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="66" t="s">
-        <v>784</v>
-      </c>
-      <c r="C75" s="66" t="s">
-        <v>783</v>
+      <c r="B75" s="65" t="s">
+        <v>766</v>
+      </c>
+      <c r="C75" s="65" t="s">
+        <v>765</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6365,15 +6305,15 @@
       </c>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" ht="14.5">
-      <c r="A76" s="50" t="s">
+    <row r="76" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="66" t="s">
-        <v>785</v>
-      </c>
-      <c r="C76" s="66" t="s">
-        <v>786</v>
+      <c r="B76" s="65" t="s">
+        <v>767</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>768</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -6388,15 +6328,15 @@
       </c>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" ht="26">
-      <c r="A77" s="50" t="s">
+    <row r="77" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="84" t="s">
-        <v>787</v>
-      </c>
-      <c r="C77" s="84" t="s">
-        <v>788</v>
+      <c r="B77" s="83" t="s">
+        <v>769</v>
+      </c>
+      <c r="C77" s="83" t="s">
+        <v>770</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -6411,15 +6351,15 @@
       </c>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" ht="14.5">
-      <c r="A78" s="50" t="s">
+    <row r="78" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="49" t="s">
         <v>546</v>
       </c>
-      <c r="B78" s="84" t="s">
-        <v>789</v>
-      </c>
-      <c r="C78" s="84" t="s">
-        <v>790</v>
+      <c r="B78" s="83" t="s">
+        <v>771</v>
+      </c>
+      <c r="C78" s="83" t="s">
+        <v>772</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -6434,15 +6374,15 @@
       </c>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" ht="65">
-      <c r="A79" s="50" t="s">
+    <row r="79" spans="1:13" ht="69" x14ac:dyDescent="0.25">
+      <c r="A79" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="B79" s="84" t="s">
-        <v>791</v>
-      </c>
-      <c r="C79" s="84" t="s">
-        <v>792</v>
+      <c r="B79" s="83" t="s">
+        <v>773</v>
+      </c>
+      <c r="C79" s="83" t="s">
+        <v>774</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -6457,15 +6397,15 @@
       </c>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" ht="14.5">
-      <c r="A80" s="50" t="s">
+    <row r="80" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A80" s="49" t="s">
         <v>548</v>
       </c>
-      <c r="B80" s="84" t="s">
-        <v>793</v>
-      </c>
-      <c r="C80" s="84" t="s">
-        <v>794</v>
+      <c r="B80" s="83" t="s">
+        <v>775</v>
+      </c>
+      <c r="C80" s="83" t="s">
+        <v>776</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -6480,15 +6420,15 @@
       </c>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" ht="14.5">
-      <c r="A81" s="50" t="s">
+    <row r="81" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B81" s="84" t="s">
-        <v>795</v>
-      </c>
-      <c r="C81" s="84" t="s">
-        <v>796</v>
+      <c r="B81" s="83" t="s">
+        <v>777</v>
+      </c>
+      <c r="C81" s="83" t="s">
+        <v>778</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -6503,15 +6443,15 @@
       </c>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" ht="14.5">
-      <c r="A82" s="50" t="s">
+    <row r="82" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B82" s="84" t="s">
-        <v>797</v>
-      </c>
-      <c r="C82" s="66" t="s">
-        <v>798</v>
+      <c r="B82" s="83" t="s">
+        <v>779</v>
+      </c>
+      <c r="C82" s="65" t="s">
+        <v>780</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -6526,15 +6466,15 @@
       </c>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" ht="52">
-      <c r="A83" s="50" t="s">
+    <row r="83" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="49" t="s">
         <v>549</v>
       </c>
-      <c r="B83" s="84" t="s">
-        <v>799</v>
-      </c>
-      <c r="C83" s="84" t="s">
-        <v>821</v>
+      <c r="B83" s="83" t="s">
+        <v>781</v>
+      </c>
+      <c r="C83" s="83" t="s">
+        <v>802</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -6549,15 +6489,15 @@
       </c>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" ht="52">
-      <c r="A84" s="50" t="s">
+    <row r="84" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="49" t="s">
         <v>550</v>
       </c>
-      <c r="B84" s="84" t="s">
-        <v>800</v>
-      </c>
-      <c r="C84" s="84" t="s">
-        <v>821</v>
+      <c r="B84" s="83" t="s">
+        <v>782</v>
+      </c>
+      <c r="C84" s="83" t="s">
+        <v>802</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -6572,15 +6512,15 @@
       </c>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" ht="52">
-      <c r="A85" s="50" t="s">
+    <row r="85" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="49" t="s">
         <v>551</v>
       </c>
-      <c r="B85" s="84" t="s">
-        <v>801</v>
-      </c>
-      <c r="C85" s="84" t="s">
-        <v>822</v>
+      <c r="B85" s="83" t="s">
+        <v>783</v>
+      </c>
+      <c r="C85" s="83" t="s">
+        <v>803</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -6595,13 +6535,13 @@
       </c>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" ht="37.5">
-      <c r="A86" s="49" t="s">
+    <row r="86" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="63" t="s">
-        <v>740</v>
+      <c r="B86" s="62"/>
+      <c r="C86" s="62" t="s">
+        <v>722</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="12" t="s">
@@ -6614,19 +6554,19 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="57"/>
-    </row>
-    <row r="87" spans="1:13" ht="26">
-      <c r="A87" s="51" t="s">
+      <c r="M86" s="56"/>
+    </row>
+    <row r="87" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="50" t="s">
         <v>583</v>
       </c>
-      <c r="B87" s="67" t="s">
+      <c r="B87" s="66" t="s">
         <v>579</v>
       </c>
-      <c r="C87" s="66" t="s">
-        <v>741</v>
-      </c>
-      <c r="D87" s="89" t="s">
+      <c r="C87" s="65" t="s">
+        <v>723</v>
+      </c>
+      <c r="D87" s="88" t="s">
         <v>78</v>
       </c>
       <c r="E87" s="12"/>
@@ -6637,19 +6577,19 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="57"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="67" t="s">
+      <c r="M87" s="56"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="66" t="s">
         <v>585</v>
       </c>
-      <c r="B88" s="63" t="s">
+      <c r="B88" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="C88" s="63" t="s">
-        <v>802</v>
-      </c>
-      <c r="D88" s="89" t="s">
+      <c r="C88" s="62" t="s">
+        <v>784</v>
+      </c>
+      <c r="D88" s="88" t="s">
         <v>78</v>
       </c>
       <c r="E88" s="2"/>
@@ -6660,70 +6600,70 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-      <c r="M88" s="57"/>
-    </row>
-    <row r="89" spans="1:13" ht="13">
-      <c r="A89" s="67" t="s">
-        <v>806</v>
-      </c>
-      <c r="B89" s="63" t="s">
-        <v>806</v>
-      </c>
-      <c r="C89" s="82" t="s">
-        <v>807</v>
-      </c>
-      <c r="D89" s="89"/>
+      <c r="M88" s="56"/>
+    </row>
+    <row r="89" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="66" t="s">
+        <v>787</v>
+      </c>
+      <c r="B89" s="62" t="s">
+        <v>787</v>
+      </c>
+      <c r="C89" s="81" t="s">
+        <v>788</v>
+      </c>
+      <c r="D89" s="88"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="89" t="s">
+      <c r="I89" s="88" t="s">
         <v>78</v>
       </c>
       <c r="J89" s="2"/>
-      <c r="K89" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="L89" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="M89" s="57"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="67" t="s">
+      <c r="K89" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="L89" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="M89" s="56"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B90" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C90" s="63" t="s">
-        <v>808</v>
-      </c>
-      <c r="D90" s="89"/>
+      <c r="C90" s="62" t="s">
+        <v>789</v>
+      </c>
+      <c r="D90" s="88"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="89" t="s">
+      <c r="I90" s="88" t="s">
         <v>78</v>
       </c>
       <c r="J90" s="2"/>
-      <c r="K90" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="L90" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="M90" s="57"/>
-    </row>
-    <row r="91" spans="1:13" ht="29">
-      <c r="A91" s="52" t="s">
+      <c r="K90" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="L90" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="M90" s="56"/>
+    </row>
+    <row r="91" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="51" t="s">
         <v>543</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B91" s="62" t="s">
         <v>543</v>
       </c>
-      <c r="C91" s="68" t="s">
+      <c r="C91" s="67" t="s">
         <v>614</v>
       </c>
       <c r="D91" s="12" t="s">
@@ -6755,14 +6695,14 @@
       </c>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" ht="43.5">
-      <c r="A92" s="52" t="s">
+    <row r="92" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="51" t="s">
         <v>544</v>
       </c>
-      <c r="B92" s="63" t="s">
+      <c r="B92" s="62" t="s">
         <v>544</v>
       </c>
-      <c r="C92" s="68" t="s">
+      <c r="C92" s="67" t="s">
         <v>605</v>
       </c>
       <c r="D92" s="12"/>
@@ -6774,16 +6714,16 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-      <c r="M92" s="57"/>
-    </row>
-    <row r="93" spans="1:13" ht="14.5">
-      <c r="A93" s="52" t="s">
+      <c r="M92" s="56"/>
+    </row>
+    <row r="93" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="51" t="s">
         <v>545</v>
       </c>
-      <c r="B93" s="63" t="s">
+      <c r="B93" s="62" t="s">
         <v>545</v>
       </c>
-      <c r="C93" s="63"/>
+      <c r="C93" s="62"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="2"/>
@@ -6793,16 +6733,16 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="57"/>
-    </row>
-    <row r="94" spans="1:13" ht="43.5">
-      <c r="A94" s="52" t="s">
+      <c r="M93" s="56"/>
+    </row>
+    <row r="94" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="63" t="s">
+      <c r="B94" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C94" s="68" t="s">
+      <c r="C94" s="67" t="s">
         <v>615</v>
       </c>
       <c r="D94" s="12" t="s">
@@ -6834,3355 +6774,3355 @@
       </c>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" ht="14.5">
+    <row r="95" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="67"/>
-      <c r="M95" s="56"/>
-    </row>
-    <row r="96" spans="1:13" ht="13">
-      <c r="A96" s="54" t="s">
+      <c r="B95" s="52"/>
+      <c r="C95" s="66"/>
+      <c r="M95" s="55"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="53"/>
-      <c r="C96" s="67"/>
-      <c r="M96" s="56"/>
-    </row>
-    <row r="97" spans="1:13" ht="13">
-      <c r="A97" s="40" t="s">
+      <c r="B96" s="52"/>
+      <c r="C96" s="66"/>
+      <c r="M96" s="55"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B97" s="69" t="s">
+      <c r="B97" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C97" s="63" t="s">
+      <c r="C97" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="M97" s="56"/>
-    </row>
-    <row r="98" spans="1:13" ht="13">
-      <c r="A98" s="40"/>
-      <c r="B98" s="69" t="s">
+      <c r="M97" s="55"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="39"/>
+      <c r="B98" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="63" t="s">
+      <c r="C98" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="M98" s="56"/>
-    </row>
-    <row r="99" spans="1:13" ht="13">
-      <c r="A99" s="40"/>
-      <c r="B99" s="69" t="s">
+      <c r="M98" s="55"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="39"/>
+      <c r="B99" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="63" t="s">
+      <c r="C99" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="M99" s="56"/>
-    </row>
-    <row r="100" spans="1:13" ht="13">
-      <c r="A100" s="40"/>
-      <c r="B100" s="69" t="s">
+      <c r="M99" s="55"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="39"/>
+      <c r="B100" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="63" t="s">
+      <c r="C100" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="M100" s="56"/>
-    </row>
-    <row r="101" spans="1:13" ht="13">
-      <c r="A101" s="40"/>
-      <c r="B101" s="69" t="s">
+      <c r="M100" s="55"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="39"/>
+      <c r="B101" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C101" s="63" t="s">
+      <c r="C101" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="M101" s="56"/>
-    </row>
-    <row r="102" spans="1:13" ht="13">
-      <c r="A102" s="40"/>
-      <c r="B102" s="69" t="s">
+      <c r="M101" s="55"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="39"/>
+      <c r="B102" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="63" t="s">
+      <c r="C102" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="M102" s="56"/>
-    </row>
-    <row r="103" spans="1:13" ht="13">
-      <c r="A103" s="40"/>
-      <c r="B103" s="69" t="s">
+      <c r="M102" s="55"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="39"/>
+      <c r="B103" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C103" s="63" t="s">
+      <c r="C103" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="M103" s="56"/>
-    </row>
-    <row r="104" spans="1:13" ht="13">
-      <c r="A104" s="40"/>
-      <c r="B104" s="69" t="s">
+      <c r="M103" s="55"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="39"/>
+      <c r="B104" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="63" t="s">
+      <c r="C104" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="M104" s="56"/>
-    </row>
-    <row r="105" spans="1:13" ht="13">
-      <c r="A105" s="40"/>
-      <c r="B105" s="69" t="s">
+      <c r="M104" s="55"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="39"/>
+      <c r="B105" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="63" t="s">
+      <c r="C105" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="M105" s="56"/>
-    </row>
-    <row r="106" spans="1:13" ht="13">
-      <c r="A106" s="40"/>
-      <c r="B106" s="69" t="s">
+      <c r="M105" s="55"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="39"/>
+      <c r="B106" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="63" t="s">
+      <c r="C106" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="M106" s="56"/>
-    </row>
-    <row r="107" spans="1:13" ht="13">
-      <c r="A107" s="40"/>
-      <c r="B107" s="69" t="s">
+      <c r="M106" s="55"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="39"/>
+      <c r="B107" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C107" s="63" t="s">
+      <c r="C107" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="M107" s="56"/>
-    </row>
-    <row r="108" spans="1:13" ht="13">
-      <c r="A108" s="40"/>
-      <c r="B108" s="69" t="s">
+      <c r="M107" s="55"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="39"/>
+      <c r="B108" s="68" t="s">
         <v>608</v>
       </c>
-      <c r="C108" s="63"/>
-      <c r="M108" s="56"/>
-    </row>
-    <row r="109" spans="1:13" ht="13">
-      <c r="A109" s="40"/>
-      <c r="B109" s="69" t="s">
+      <c r="C108" s="62"/>
+      <c r="M108" s="55"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="39"/>
+      <c r="B109" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C109" s="63"/>
-      <c r="M109" s="56"/>
-    </row>
-    <row r="110" spans="1:13" ht="13">
-      <c r="A110" s="40" t="s">
+      <c r="C109" s="62"/>
+      <c r="M109" s="55"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="63" t="s">
+      <c r="C110" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="M110" s="56"/>
-    </row>
-    <row r="111" spans="1:13" ht="13">
-      <c r="A111" s="40"/>
+      <c r="M110" s="55"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="39"/>
       <c r="B111" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="63" t="s">
+      <c r="C111" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="M111" s="56"/>
-    </row>
-    <row r="112" spans="1:13" ht="13">
-      <c r="A112" s="40"/>
+      <c r="M111" s="55"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="39"/>
       <c r="B112" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C112" s="63" t="s">
+      <c r="C112" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="M112" s="56"/>
-    </row>
-    <row r="113" spans="1:13" ht="13">
-      <c r="A113" s="40"/>
+      <c r="M112" s="55"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="39"/>
       <c r="B113" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C113" s="63" t="s">
+      <c r="C113" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="M113" s="56"/>
-    </row>
-    <row r="114" spans="1:13" ht="13">
-      <c r="A114" s="40"/>
+      <c r="M113" s="55"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="39"/>
       <c r="B114" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C114" s="63" t="s">
+      <c r="C114" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="M114" s="56"/>
-    </row>
-    <row r="115" spans="1:13" ht="13">
-      <c r="A115" s="40"/>
+      <c r="M114" s="55"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="39"/>
       <c r="B115" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="63" t="s">
+      <c r="C115" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="M115" s="56"/>
-    </row>
-    <row r="116" spans="1:13" ht="13">
-      <c r="A116" s="40" t="s">
+      <c r="M115" s="55"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="39" t="s">
         <v>113</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>742</v>
-      </c>
-      <c r="C116" s="63" t="s">
+        <v>724</v>
+      </c>
+      <c r="C116" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="M116" s="56"/>
-    </row>
-    <row r="117" spans="1:13" ht="13">
-      <c r="A117" s="40"/>
+      <c r="M116" s="55"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="39"/>
       <c r="B117" s="16" t="s">
-        <v>659</v>
-      </c>
-      <c r="C117" s="63" t="s">
-        <v>743</v>
-      </c>
-      <c r="M117" s="56"/>
-    </row>
-    <row r="118" spans="1:13" ht="13">
-      <c r="A118" s="40"/>
+        <v>655</v>
+      </c>
+      <c r="C117" s="62" t="s">
+        <v>725</v>
+      </c>
+      <c r="M117" s="55"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="39"/>
       <c r="B118" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="C118" s="63" t="s">
-        <v>744</v>
-      </c>
-      <c r="M118" s="56"/>
-    </row>
-    <row r="119" spans="1:13" ht="13">
-      <c r="A119" s="40"/>
+        <v>654</v>
+      </c>
+      <c r="C118" s="62" t="s">
+        <v>726</v>
+      </c>
+      <c r="M118" s="55"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="39"/>
       <c r="B119" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="C119" s="63" t="s">
-        <v>746</v>
-      </c>
-      <c r="M119" s="56"/>
-    </row>
-    <row r="120" spans="1:13" ht="13">
-      <c r="A120" s="40"/>
+        <v>727</v>
+      </c>
+      <c r="C119" s="62" t="s">
+        <v>728</v>
+      </c>
+      <c r="M119" s="55"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="39"/>
       <c r="B120" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="C120" s="63" t="s">
-        <v>748</v>
-      </c>
-      <c r="M120" s="56"/>
-    </row>
-    <row r="121" spans="1:13" ht="13">
-      <c r="A121" s="40"/>
+        <v>729</v>
+      </c>
+      <c r="C120" s="62" t="s">
+        <v>730</v>
+      </c>
+      <c r="M120" s="55"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="39"/>
       <c r="B121" s="16" t="s">
-        <v>749</v>
-      </c>
-      <c r="C121" s="63" t="s">
-        <v>750</v>
-      </c>
-      <c r="M121" s="56"/>
-    </row>
-    <row r="122" spans="1:13" ht="13">
-      <c r="A122" s="40"/>
+        <v>731</v>
+      </c>
+      <c r="C121" s="62" t="s">
+        <v>732</v>
+      </c>
+      <c r="M121" s="55"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="39"/>
       <c r="B122" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="C122" s="63" t="s">
-        <v>752</v>
-      </c>
-      <c r="M122" s="56"/>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="40" t="s">
+        <v>733</v>
+      </c>
+      <c r="C122" s="62" t="s">
+        <v>734</v>
+      </c>
+      <c r="M122" s="55"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B123" s="55" t="s">
+      <c r="B123" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C123" s="63" t="s">
+      <c r="C123" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="M123" s="56"/>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="40"/>
-      <c r="B124" s="55" t="s">
+      <c r="M123" s="55"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="39"/>
+      <c r="B124" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="C124" s="63" t="s">
+      <c r="C124" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="M124" s="56"/>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="40"/>
-      <c r="B125" s="55" t="s">
+      <c r="M124" s="55"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="39"/>
+      <c r="B125" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C125" s="63" t="s">
+      <c r="C125" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="M125" s="56"/>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="40"/>
-      <c r="B126" s="55" t="s">
+      <c r="M125" s="55"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="39"/>
+      <c r="B126" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C126" s="63" t="s">
+      <c r="C126" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="M126" s="56"/>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="A127" s="40"/>
-      <c r="B127" s="55" t="s">
+      <c r="M126" s="55"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="39"/>
+      <c r="B127" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C127" s="63" t="s">
+      <c r="C127" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="M127" s="56"/>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="40"/>
-      <c r="B128" s="55" t="s">
+      <c r="M127" s="55"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="39"/>
+      <c r="B128" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C128" s="63" t="s">
+      <c r="C128" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="M128" s="56"/>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="A129" s="40"/>
-      <c r="B129" s="55" t="s">
+      <c r="M128" s="55"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="39"/>
+      <c r="B129" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C129" s="63" t="s">
+      <c r="C129" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="M129" s="56"/>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="A130" s="40"/>
-      <c r="B130" s="55" t="s">
+      <c r="M129" s="55"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="39"/>
+      <c r="B130" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C130" s="63" t="s">
+      <c r="C130" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="M130" s="56"/>
-    </row>
-    <row r="131" spans="1:13">
-      <c r="A131" s="40"/>
-      <c r="B131" s="55" t="s">
+      <c r="M130" s="55"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="39"/>
+      <c r="B131" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C131" s="63" t="s">
+      <c r="C131" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="M131" s="56"/>
-    </row>
-    <row r="132" spans="1:13">
-      <c r="A132" s="40"/>
-      <c r="B132" s="55" t="s">
+      <c r="M131" s="55"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="39"/>
+      <c r="B132" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C132" s="63" t="s">
+      <c r="C132" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="M132" s="56"/>
-    </row>
-    <row r="133" spans="1:13">
-      <c r="A133" s="40"/>
-      <c r="B133" s="55" t="s">
+      <c r="M132" s="55"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="39"/>
+      <c r="B133" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C133" s="63" t="s">
+      <c r="C133" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="M133" s="56"/>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134" s="40"/>
-      <c r="B134" s="55" t="s">
+      <c r="M133" s="55"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="39"/>
+      <c r="B134" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C134" s="63" t="s">
+      <c r="C134" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="M134" s="56"/>
-    </row>
-    <row r="135" spans="1:13">
-      <c r="A135" s="40"/>
-      <c r="B135" s="55" t="s">
+      <c r="M134" s="55"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="39"/>
+      <c r="B135" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="C135" s="63" t="s">
+      <c r="C135" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="M135" s="56"/>
-    </row>
-    <row r="136" spans="1:13">
-      <c r="A136" s="40"/>
-      <c r="B136" s="55" t="s">
+      <c r="M135" s="55"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="39"/>
+      <c r="B136" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C136" s="63" t="s">
+      <c r="C136" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="M136" s="56"/>
-    </row>
-    <row r="137" spans="1:13">
-      <c r="A137" s="40"/>
-      <c r="B137" s="55" t="s">
+      <c r="M136" s="55"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="39"/>
+      <c r="B137" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="C137" s="63" t="s">
+      <c r="C137" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="M137" s="56"/>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138" s="40"/>
-      <c r="B138" s="55" t="s">
+      <c r="M137" s="55"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="39"/>
+      <c r="B138" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="63" t="s">
+      <c r="C138" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="M138" s="56"/>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139" s="40"/>
-      <c r="B139" s="55" t="s">
+      <c r="M138" s="55"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="39"/>
+      <c r="B139" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C139" s="63" t="s">
+      <c r="C139" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="M139" s="56"/>
-    </row>
-    <row r="140" spans="1:13">
-      <c r="A140" s="40"/>
-      <c r="B140" s="55" t="s">
+      <c r="M139" s="55"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="39"/>
+      <c r="B140" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C140" s="63" t="s">
+      <c r="C140" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="M140" s="56"/>
-    </row>
-    <row r="141" spans="1:13">
-      <c r="A141" s="40"/>
-      <c r="B141" s="55" t="s">
+      <c r="M140" s="55"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="39"/>
+      <c r="B141" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C141" s="63" t="s">
+      <c r="C141" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="M141" s="56"/>
-    </row>
-    <row r="142" spans="1:13">
-      <c r="A142" s="40"/>
-      <c r="B142" s="55" t="s">
+      <c r="M141" s="55"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="39"/>
+      <c r="B142" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="C142" s="63" t="s">
+      <c r="C142" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="M142" s="56"/>
-    </row>
-    <row r="143" spans="1:13">
-      <c r="A143" s="40"/>
-      <c r="B143" s="55" t="s">
+      <c r="M142" s="55"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="39"/>
+      <c r="B143" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C143" s="63" t="s">
+      <c r="C143" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="M143" s="56"/>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144" s="40"/>
-      <c r="B144" s="55" t="s">
+      <c r="M143" s="55"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="39"/>
+      <c r="B144" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="C144" s="63" t="s">
+      <c r="C144" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="M144" s="56"/>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145" s="40"/>
-      <c r="B145" s="55" t="s">
+      <c r="M144" s="55"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="39"/>
+      <c r="B145" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C145" s="63" t="s">
+      <c r="C145" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="M145" s="56"/>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146" s="40"/>
-      <c r="B146" s="55" t="s">
+      <c r="M145" s="55"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="39"/>
+      <c r="B146" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="C146" s="63" t="s">
+      <c r="C146" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="M146" s="56"/>
-    </row>
-    <row r="147" spans="1:13">
-      <c r="A147" s="40"/>
-      <c r="B147" s="55" t="s">
+      <c r="M146" s="55"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="39"/>
+      <c r="B147" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="C147" s="63" t="s">
+      <c r="C147" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="M147" s="56"/>
-    </row>
-    <row r="148" spans="1:13">
-      <c r="A148" s="40"/>
-      <c r="B148" s="55" t="s">
+      <c r="M147" s="55"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="39"/>
+      <c r="B148" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C148" s="63" t="s">
+      <c r="C148" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="M148" s="56"/>
-    </row>
-    <row r="149" spans="1:13">
-      <c r="A149" s="40"/>
-      <c r="B149" s="55" t="s">
+      <c r="M148" s="55"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="39"/>
+      <c r="B149" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="C149" s="63" t="s">
+      <c r="C149" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="M149" s="56"/>
-    </row>
-    <row r="150" spans="1:13">
-      <c r="A150" s="40"/>
-      <c r="B150" s="55" t="s">
+      <c r="M149" s="55"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="39"/>
+      <c r="B150" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="C150" s="63" t="s">
+      <c r="C150" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="M150" s="56"/>
-    </row>
-    <row r="151" spans="1:13">
-      <c r="A151" s="40"/>
-      <c r="B151" s="55" t="s">
+      <c r="M150" s="55"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="39"/>
+      <c r="B151" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="C151" s="63" t="s">
+      <c r="C151" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="M151" s="56"/>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="40"/>
-      <c r="B152" s="55" t="s">
+      <c r="M151" s="55"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="39"/>
+      <c r="B152" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="C152" s="63" t="s">
+      <c r="C152" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="M152" s="56"/>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="40"/>
-      <c r="B153" s="55" t="s">
+      <c r="M152" s="55"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" s="39"/>
+      <c r="B153" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="C153" s="63" t="s">
+      <c r="C153" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="M153" s="56"/>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="40"/>
-      <c r="B154" s="55" t="s">
+      <c r="M153" s="55"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" s="39"/>
+      <c r="B154" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C154" s="63" t="s">
+      <c r="C154" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="M154" s="56"/>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="40"/>
-      <c r="B155" s="55" t="s">
+      <c r="M154" s="55"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="39"/>
+      <c r="B155" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="C155" s="63" t="s">
+      <c r="C155" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="M155" s="56"/>
-    </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="40"/>
-      <c r="B156" s="55" t="s">
+      <c r="M155" s="55"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="39"/>
+      <c r="B156" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="C156" s="63" t="s">
+      <c r="C156" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="M156" s="56"/>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="40"/>
-      <c r="B157" s="55" t="s">
+      <c r="M156" s="55"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="39"/>
+      <c r="B157" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="C157" s="63" t="s">
+      <c r="C157" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="M157" s="56"/>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="40"/>
-      <c r="B158" s="55" t="s">
+      <c r="M157" s="55"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="39"/>
+      <c r="B158" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="C158" s="63" t="s">
+      <c r="C158" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="M158" s="56"/>
-    </row>
-    <row r="159" spans="1:13">
-      <c r="A159" s="40"/>
-      <c r="B159" s="55" t="s">
+      <c r="M158" s="55"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" s="39"/>
+      <c r="B159" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="C159" s="63" t="s">
+      <c r="C159" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="M159" s="56"/>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="40"/>
-      <c r="B160" s="55" t="s">
+      <c r="M159" s="55"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" s="39"/>
+      <c r="B160" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="C160" s="63" t="s">
+      <c r="C160" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="M160" s="56"/>
-    </row>
-    <row r="161" spans="1:13">
-      <c r="A161" s="40"/>
-      <c r="B161" s="55" t="s">
+      <c r="M160" s="55"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" s="39"/>
+      <c r="B161" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="C161" s="63" t="s">
+      <c r="C161" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="M161" s="56"/>
-    </row>
-    <row r="162" spans="1:13">
-      <c r="A162" s="40"/>
-      <c r="B162" s="55" t="s">
+      <c r="M161" s="55"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" s="39"/>
+      <c r="B162" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="C162" s="63" t="s">
+      <c r="C162" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="M162" s="56"/>
-    </row>
-    <row r="163" spans="1:13">
-      <c r="A163" s="40"/>
-      <c r="B163" s="55" t="s">
+      <c r="M162" s="55"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" s="39"/>
+      <c r="B163" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="C163" s="63" t="s">
+      <c r="C163" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="M163" s="56"/>
-    </row>
-    <row r="164" spans="1:13">
-      <c r="A164" s="40"/>
-      <c r="B164" s="55" t="s">
+      <c r="M163" s="55"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" s="39"/>
+      <c r="B164" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="C164" s="63" t="s">
+      <c r="C164" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="M164" s="56"/>
-    </row>
-    <row r="165" spans="1:13">
-      <c r="A165" s="40"/>
-      <c r="B165" s="55" t="s">
+      <c r="M164" s="55"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" s="39"/>
+      <c r="B165" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="C165" s="63" t="s">
+      <c r="C165" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="M165" s="56"/>
-    </row>
-    <row r="166" spans="1:13">
-      <c r="A166" s="40"/>
-      <c r="B166" s="55" t="s">
+      <c r="M165" s="55"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" s="39"/>
+      <c r="B166" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="C166" s="63" t="s">
+      <c r="C166" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="M166" s="56"/>
-    </row>
-    <row r="167" spans="1:13">
-      <c r="A167" s="40"/>
-      <c r="B167" s="55" t="s">
+      <c r="M166" s="55"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="39"/>
+      <c r="B167" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C167" s="63" t="s">
+      <c r="C167" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="M167" s="56"/>
-    </row>
-    <row r="168" spans="1:13">
-      <c r="A168" s="40"/>
-      <c r="B168" s="55" t="s">
+      <c r="M167" s="55"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="39"/>
+      <c r="B168" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C168" s="63" t="s">
+      <c r="C168" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="M168" s="56"/>
-    </row>
-    <row r="169" spans="1:13">
-      <c r="A169" s="40"/>
-      <c r="B169" s="55" t="s">
+      <c r="M168" s="55"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="39"/>
+      <c r="B169" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C169" s="63" t="s">
+      <c r="C169" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="M169" s="56"/>
-    </row>
-    <row r="170" spans="1:13">
-      <c r="A170" s="40"/>
-      <c r="B170" s="55" t="s">
+      <c r="M169" s="55"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="39"/>
+      <c r="B170" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="C170" s="63" t="s">
+      <c r="C170" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="M170" s="56"/>
-    </row>
-    <row r="171" spans="1:13">
-      <c r="A171" s="40"/>
-      <c r="B171" s="55" t="s">
+      <c r="M170" s="55"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" s="39"/>
+      <c r="B171" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="C171" s="63" t="s">
+      <c r="C171" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="M171" s="56"/>
-    </row>
-    <row r="172" spans="1:13">
-      <c r="A172" s="40"/>
-      <c r="B172" s="55" t="s">
+      <c r="M171" s="55"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="39"/>
+      <c r="B172" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="C172" s="63" t="s">
+      <c r="C172" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="M172" s="56"/>
-    </row>
-    <row r="173" spans="1:13">
-      <c r="A173" s="40"/>
-      <c r="B173" s="55" t="s">
+      <c r="M172" s="55"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" s="39"/>
+      <c r="B173" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="C173" s="63" t="s">
+      <c r="C173" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="M173" s="56"/>
-    </row>
-    <row r="174" spans="1:13">
-      <c r="A174" s="40"/>
-      <c r="B174" s="55" t="s">
+      <c r="M173" s="55"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" s="39"/>
+      <c r="B174" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="C174" s="63" t="s">
+      <c r="C174" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="M174" s="56"/>
-    </row>
-    <row r="175" spans="1:13">
-      <c r="A175" s="40"/>
-      <c r="B175" s="55" t="s">
+      <c r="M174" s="55"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" s="39"/>
+      <c r="B175" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="C175" s="63" t="s">
+      <c r="C175" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="M175" s="56"/>
-    </row>
-    <row r="176" spans="1:13">
-      <c r="A176" s="40"/>
-      <c r="B176" s="55" t="s">
+      <c r="M175" s="55"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" s="39"/>
+      <c r="B176" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="C176" s="63" t="s">
+      <c r="C176" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="M176" s="56"/>
-    </row>
-    <row r="177" spans="1:13">
-      <c r="A177" s="40"/>
-      <c r="B177" s="55" t="s">
+      <c r="M176" s="55"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="39"/>
+      <c r="B177" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="C177" s="63" t="s">
+      <c r="C177" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="M177" s="56"/>
-    </row>
-    <row r="178" spans="1:13">
-      <c r="A178" s="40"/>
-      <c r="B178" s="55" t="s">
+      <c r="M177" s="55"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="39"/>
+      <c r="B178" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="C178" s="63" t="s">
+      <c r="C178" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="M178" s="56"/>
-    </row>
-    <row r="179" spans="1:13">
-      <c r="A179" s="40"/>
-      <c r="B179" s="55" t="s">
+      <c r="M178" s="55"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="39"/>
+      <c r="B179" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="C179" s="63" t="s">
+      <c r="C179" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="M179" s="56"/>
-    </row>
-    <row r="180" spans="1:13">
-      <c r="A180" s="40"/>
-      <c r="B180" s="55" t="s">
+      <c r="M179" s="55"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="39"/>
+      <c r="B180" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="C180" s="63" t="s">
+      <c r="C180" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="M180" s="56"/>
-    </row>
-    <row r="181" spans="1:13">
-      <c r="A181" s="40"/>
-      <c r="B181" s="55" t="s">
+      <c r="M180" s="55"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" s="39"/>
+      <c r="B181" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="C181" s="63" t="s">
+      <c r="C181" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="M181" s="56"/>
-    </row>
-    <row r="182" spans="1:13">
-      <c r="A182" s="40"/>
-      <c r="B182" s="55" t="s">
+      <c r="M181" s="55"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="39"/>
+      <c r="B182" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C182" s="63" t="s">
+      <c r="C182" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="M182" s="56"/>
-    </row>
-    <row r="183" spans="1:13">
-      <c r="A183" s="40"/>
-      <c r="B183" s="55" t="s">
+      <c r="M182" s="55"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="39"/>
+      <c r="B183" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="C183" s="63" t="s">
+      <c r="C183" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="M183" s="56"/>
-    </row>
-    <row r="184" spans="1:13">
-      <c r="A184" s="40"/>
-      <c r="B184" s="55" t="s">
+      <c r="M183" s="55"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" s="39"/>
+      <c r="B184" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="C184" s="63" t="s">
+      <c r="C184" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="M184" s="56"/>
-    </row>
-    <row r="185" spans="1:13">
-      <c r="A185" s="40"/>
-      <c r="B185" s="55" t="s">
+      <c r="M184" s="55"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="39"/>
+      <c r="B185" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="C185" s="63" t="s">
+      <c r="C185" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="M185" s="56"/>
-    </row>
-    <row r="186" spans="1:13">
-      <c r="A186" s="40"/>
-      <c r="B186" s="55" t="s">
+      <c r="M185" s="55"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="39"/>
+      <c r="B186" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="C186" s="63" t="s">
+      <c r="C186" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="M186" s="56"/>
-    </row>
-    <row r="187" spans="1:13">
-      <c r="A187" s="40"/>
-      <c r="B187" s="55" t="s">
+      <c r="M186" s="55"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" s="39"/>
+      <c r="B187" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C187" s="63" t="s">
+      <c r="C187" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="M187" s="56"/>
-    </row>
-    <row r="188" spans="1:13">
-      <c r="A188" s="40"/>
-      <c r="B188" s="55" t="s">
+      <c r="M187" s="55"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" s="39"/>
+      <c r="B188" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="C188" s="63" t="s">
+      <c r="C188" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="M188" s="56"/>
-    </row>
-    <row r="189" spans="1:13">
-      <c r="A189" s="40"/>
-      <c r="B189" s="55" t="s">
+      <c r="M188" s="55"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" s="39"/>
+      <c r="B189" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="C189" s="63" t="s">
+      <c r="C189" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="M189" s="56"/>
-    </row>
-    <row r="190" spans="1:13">
-      <c r="A190" s="40"/>
-      <c r="B190" s="55" t="s">
+      <c r="M189" s="55"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" s="39"/>
+      <c r="B190" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="C190" s="63" t="s">
+      <c r="C190" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="M190" s="56"/>
-    </row>
-    <row r="191" spans="1:13">
-      <c r="A191" s="40"/>
-      <c r="B191" s="55" t="s">
+      <c r="M190" s="55"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" s="39"/>
+      <c r="B191" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="C191" s="63" t="s">
+      <c r="C191" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="M191" s="56"/>
-    </row>
-    <row r="192" spans="1:13">
-      <c r="A192" s="40"/>
-      <c r="B192" s="55" t="s">
+      <c r="M191" s="55"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" s="39"/>
+      <c r="B192" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="C192" s="63" t="s">
+      <c r="C192" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="M192" s="56"/>
-    </row>
-    <row r="193" spans="1:13">
-      <c r="A193" s="40"/>
-      <c r="B193" s="55" t="s">
+      <c r="M192" s="55"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" s="39"/>
+      <c r="B193" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="C193" s="63" t="s">
+      <c r="C193" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="M193" s="56"/>
-    </row>
-    <row r="194" spans="1:13">
-      <c r="A194" s="40"/>
-      <c r="B194" s="55" t="s">
+      <c r="M193" s="55"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" s="39"/>
+      <c r="B194" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="C194" s="63" t="s">
+      <c r="C194" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="M194" s="56"/>
-    </row>
-    <row r="195" spans="1:13">
-      <c r="A195" s="40"/>
-      <c r="B195" s="55" t="s">
+      <c r="M194" s="55"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" s="39"/>
+      <c r="B195" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="C195" s="63" t="s">
+      <c r="C195" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="M195" s="56"/>
-    </row>
-    <row r="196" spans="1:13">
-      <c r="A196" s="40"/>
-      <c r="B196" s="55" t="s">
+      <c r="M195" s="55"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" s="39"/>
+      <c r="B196" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="C196" s="63" t="s">
+      <c r="C196" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="M196" s="56"/>
-    </row>
-    <row r="197" spans="1:13">
-      <c r="A197" s="40"/>
-      <c r="B197" s="55" t="s">
+      <c r="M196" s="55"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" s="39"/>
+      <c r="B197" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C197" s="63" t="s">
+      <c r="C197" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="M197" s="56"/>
-    </row>
-    <row r="198" spans="1:13">
-      <c r="A198" s="40"/>
-      <c r="B198" s="55" t="s">
+      <c r="M197" s="55"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" s="39"/>
+      <c r="B198" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="C198" s="63" t="s">
+      <c r="C198" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="M198" s="56"/>
-    </row>
-    <row r="199" spans="1:13">
-      <c r="A199" s="40"/>
-      <c r="B199" s="55" t="s">
+      <c r="M198" s="55"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" s="39"/>
+      <c r="B199" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="C199" s="63" t="s">
+      <c r="C199" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="M199" s="56"/>
-    </row>
-    <row r="200" spans="1:13">
-      <c r="A200" s="40"/>
-      <c r="B200" s="55" t="s">
+      <c r="M199" s="55"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" s="39"/>
+      <c r="B200" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="C200" s="63" t="s">
+      <c r="C200" s="62" t="s">
         <v>280</v>
       </c>
-      <c r="M200" s="56"/>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="A201" s="40"/>
-      <c r="B201" s="55" t="s">
+      <c r="M200" s="55"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" s="39"/>
+      <c r="B201" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="C201" s="63" t="s">
+      <c r="C201" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="M201" s="56"/>
-    </row>
-    <row r="202" spans="1:13">
-      <c r="A202" s="40"/>
-      <c r="B202" s="55" t="s">
+      <c r="M201" s="55"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" s="39"/>
+      <c r="B202" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="C202" s="63" t="s">
+      <c r="C202" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="M202" s="56"/>
-    </row>
-    <row r="203" spans="1:13">
-      <c r="A203" s="40"/>
-      <c r="B203" s="55" t="s">
+      <c r="M202" s="55"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" s="39"/>
+      <c r="B203" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="C203" s="63" t="s">
+      <c r="C203" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="M203" s="56"/>
-    </row>
-    <row r="204" spans="1:13">
-      <c r="A204" s="40"/>
-      <c r="B204" s="55" t="s">
+      <c r="M203" s="55"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" s="39"/>
+      <c r="B204" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="C204" s="63" t="s">
+      <c r="C204" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="M204" s="56"/>
-    </row>
-    <row r="205" spans="1:13">
-      <c r="A205" s="40"/>
-      <c r="B205" s="55" t="s">
+      <c r="M204" s="55"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205" s="39"/>
+      <c r="B205" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="C205" s="63" t="s">
+      <c r="C205" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="M205" s="56"/>
-    </row>
-    <row r="206" spans="1:13">
-      <c r="A206" s="40"/>
-      <c r="B206" s="55" t="s">
+      <c r="M205" s="55"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" s="39"/>
+      <c r="B206" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="C206" s="63" t="s">
+      <c r="C206" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="M206" s="56"/>
-    </row>
-    <row r="207" spans="1:13">
-      <c r="A207" s="40"/>
-      <c r="B207" s="55" t="s">
+      <c r="M206" s="55"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" s="39"/>
+      <c r="B207" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="C207" s="63" t="s">
+      <c r="C207" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="M207" s="56"/>
-    </row>
-    <row r="208" spans="1:13">
-      <c r="A208" s="40"/>
-      <c r="B208" s="55" t="s">
+      <c r="M207" s="55"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" s="39"/>
+      <c r="B208" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="C208" s="63" t="s">
+      <c r="C208" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="M208" s="56"/>
-    </row>
-    <row r="209" spans="1:13">
-      <c r="A209" s="40"/>
-      <c r="B209" s="55" t="s">
+      <c r="M208" s="55"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" s="39"/>
+      <c r="B209" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="C209" s="63" t="s">
+      <c r="C209" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="M209" s="56"/>
-    </row>
-    <row r="210" spans="1:13">
-      <c r="A210" s="40"/>
-      <c r="B210" s="55" t="s">
+      <c r="M209" s="55"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" s="39"/>
+      <c r="B210" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="C210" s="63" t="s">
+      <c r="C210" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="M210" s="56"/>
-    </row>
-    <row r="211" spans="1:13">
-      <c r="A211" s="40"/>
-      <c r="B211" s="55" t="s">
+      <c r="M210" s="55"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" s="39"/>
+      <c r="B211" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="C211" s="63" t="s">
+      <c r="C211" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="M211" s="56"/>
-    </row>
-    <row r="212" spans="1:13">
-      <c r="A212" s="40"/>
-      <c r="B212" s="55" t="s">
+      <c r="M211" s="55"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" s="39"/>
+      <c r="B212" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="C212" s="63" t="s">
+      <c r="C212" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="M212" s="56"/>
-    </row>
-    <row r="213" spans="1:13">
-      <c r="A213" s="40"/>
-      <c r="B213" s="55" t="s">
+      <c r="M212" s="55"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213" s="39"/>
+      <c r="B213" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="C213" s="63" t="s">
+      <c r="C213" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="M213" s="56"/>
-    </row>
-    <row r="214" spans="1:13">
-      <c r="A214" s="40"/>
-      <c r="B214" s="55" t="s">
+      <c r="M213" s="55"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214" s="39"/>
+      <c r="B214" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="C214" s="63" t="s">
+      <c r="C214" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="M214" s="56"/>
-    </row>
-    <row r="215" spans="1:13">
-      <c r="A215" s="40"/>
-      <c r="B215" s="55" t="s">
+      <c r="M214" s="55"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215" s="39"/>
+      <c r="B215" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="C215" s="63" t="s">
+      <c r="C215" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="M215" s="56"/>
-    </row>
-    <row r="216" spans="1:13">
-      <c r="A216" s="40"/>
-      <c r="B216" s="55" t="s">
+      <c r="M215" s="55"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216" s="39"/>
+      <c r="B216" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="C216" s="63" t="s">
+      <c r="C216" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="M216" s="56"/>
-    </row>
-    <row r="217" spans="1:13">
-      <c r="A217" s="40"/>
-      <c r="B217" s="55" t="s">
+      <c r="M216" s="55"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217" s="39"/>
+      <c r="B217" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="C217" s="63" t="s">
+      <c r="C217" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="M217" s="56"/>
-    </row>
-    <row r="218" spans="1:13">
-      <c r="A218" s="40"/>
-      <c r="B218" s="55" t="s">
+      <c r="M217" s="55"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218" s="39"/>
+      <c r="B218" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="C218" s="63" t="s">
+      <c r="C218" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="M218" s="56"/>
-    </row>
-    <row r="219" spans="1:13">
-      <c r="A219" s="40"/>
-      <c r="B219" s="55" t="s">
+      <c r="M218" s="55"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219" s="39"/>
+      <c r="B219" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="C219" s="63" t="s">
+      <c r="C219" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="M219" s="56"/>
-    </row>
-    <row r="220" spans="1:13">
-      <c r="A220" s="40"/>
-      <c r="B220" s="55" t="s">
+      <c r="M219" s="55"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" s="39"/>
+      <c r="B220" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="C220" s="63" t="s">
+      <c r="C220" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="M220" s="56"/>
-    </row>
-    <row r="221" spans="1:13">
-      <c r="A221" s="40"/>
-      <c r="B221" s="55" t="s">
+      <c r="M220" s="55"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" s="39"/>
+      <c r="B221" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="C221" s="63" t="s">
+      <c r="C221" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="M221" s="56"/>
-    </row>
-    <row r="222" spans="1:13">
-      <c r="A222" s="40"/>
-      <c r="B222" s="55" t="s">
+      <c r="M221" s="55"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" s="39"/>
+      <c r="B222" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="C222" s="63" t="s">
+      <c r="C222" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="M222" s="56"/>
-    </row>
-    <row r="223" spans="1:13">
-      <c r="A223" s="40"/>
-      <c r="B223" s="55" t="s">
+      <c r="M222" s="55"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" s="39"/>
+      <c r="B223" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="C223" s="63" t="s">
+      <c r="C223" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="M223" s="56"/>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224" s="40"/>
-      <c r="B224" s="55" t="s">
+      <c r="M223" s="55"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" s="39"/>
+      <c r="B224" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="C224" s="63" t="s">
+      <c r="C224" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="M224" s="56"/>
-    </row>
-    <row r="225" spans="1:13">
-      <c r="A225" s="40"/>
-      <c r="B225" s="55" t="s">
+      <c r="M224" s="55"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225" s="39"/>
+      <c r="B225" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C225" s="63" t="s">
+      <c r="C225" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="M225" s="56"/>
-    </row>
-    <row r="226" spans="1:13">
-      <c r="A226" s="40"/>
-      <c r="B226" s="55" t="s">
+      <c r="M225" s="55"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" s="39"/>
+      <c r="B226" s="54" t="s">
         <v>330</v>
       </c>
-      <c r="C226" s="63" t="s">
+      <c r="C226" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="M226" s="56"/>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="A227" s="40"/>
-      <c r="B227" s="55" t="s">
+      <c r="M226" s="55"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" s="39"/>
+      <c r="B227" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="63" t="s">
+      <c r="C227" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="M227" s="56"/>
-    </row>
-    <row r="228" spans="1:13">
-      <c r="A228" s="40"/>
-      <c r="B228" s="55" t="s">
+      <c r="M227" s="55"/>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" s="39"/>
+      <c r="B228" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="C228" s="63" t="s">
+      <c r="C228" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="M228" s="56"/>
-    </row>
-    <row r="229" spans="1:13">
-      <c r="A229" s="40"/>
-      <c r="B229" s="55" t="s">
+      <c r="M228" s="55"/>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229" s="39"/>
+      <c r="B229" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="C229" s="63" t="s">
+      <c r="C229" s="62" t="s">
         <v>337</v>
       </c>
-      <c r="M229" s="56"/>
-    </row>
-    <row r="230" spans="1:13">
-      <c r="A230" s="40"/>
-      <c r="B230" s="55" t="s">
+      <c r="M229" s="55"/>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" s="39"/>
+      <c r="B230" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="C230" s="63" t="s">
+      <c r="C230" s="62" t="s">
         <v>339</v>
       </c>
-      <c r="M230" s="56"/>
-    </row>
-    <row r="231" spans="1:13">
-      <c r="A231" s="40"/>
-      <c r="B231" s="55" t="s">
+      <c r="M230" s="55"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231" s="39"/>
+      <c r="B231" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="C231" s="63" t="s">
+      <c r="C231" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="M231" s="56"/>
-    </row>
-    <row r="232" spans="1:13">
-      <c r="A232" s="40"/>
-      <c r="B232" s="55" t="s">
+      <c r="M231" s="55"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232" s="39"/>
+      <c r="B232" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="C232" s="63" t="s">
+      <c r="C232" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="M232" s="56"/>
-    </row>
-    <row r="233" spans="1:13">
-      <c r="A233" s="40"/>
-      <c r="B233" s="55" t="s">
+      <c r="M232" s="55"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A233" s="39"/>
+      <c r="B233" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="C233" s="63" t="s">
+      <c r="C233" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="M233" s="56"/>
-    </row>
-    <row r="234" spans="1:13">
-      <c r="A234" s="40"/>
-      <c r="B234" s="55" t="s">
+      <c r="M233" s="55"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234" s="39"/>
+      <c r="B234" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="C234" s="63" t="s">
+      <c r="C234" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="M234" s="56"/>
-    </row>
-    <row r="235" spans="1:13">
-      <c r="A235" s="40"/>
-      <c r="B235" s="55" t="s">
+      <c r="M234" s="55"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" s="39"/>
+      <c r="B235" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="C235" s="63" t="s">
+      <c r="C235" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="M235" s="56"/>
-    </row>
-    <row r="236" spans="1:13">
-      <c r="A236" s="40"/>
-      <c r="B236" s="55" t="s">
+      <c r="M235" s="55"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" s="39"/>
+      <c r="B236" s="54" t="s">
         <v>350</v>
       </c>
-      <c r="C236" s="63" t="s">
+      <c r="C236" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="M236" s="56"/>
-    </row>
-    <row r="237" spans="1:13">
-      <c r="A237" s="40"/>
-      <c r="B237" s="55" t="s">
+      <c r="M236" s="55"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237" s="39"/>
+      <c r="B237" s="54" t="s">
         <v>352</v>
       </c>
-      <c r="C237" s="63" t="s">
+      <c r="C237" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="M237" s="56"/>
-    </row>
-    <row r="238" spans="1:13">
-      <c r="A238" s="40"/>
-      <c r="B238" s="55" t="s">
+      <c r="M237" s="55"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238" s="39"/>
+      <c r="B238" s="54" t="s">
         <v>354</v>
       </c>
-      <c r="C238" s="63" t="s">
+      <c r="C238" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="M238" s="56"/>
-    </row>
-    <row r="239" spans="1:13">
-      <c r="A239" s="40"/>
-      <c r="B239" s="55" t="s">
+      <c r="M238" s="55"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239" s="39"/>
+      <c r="B239" s="54" t="s">
         <v>356</v>
       </c>
-      <c r="C239" s="63" t="s">
+      <c r="C239" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="M239" s="56"/>
-    </row>
-    <row r="240" spans="1:13">
-      <c r="A240" s="40"/>
-      <c r="B240" s="55" t="s">
+      <c r="M239" s="55"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240" s="39"/>
+      <c r="B240" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="C240" s="63" t="s">
+      <c r="C240" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="M240" s="56"/>
-    </row>
-    <row r="241" spans="1:13">
-      <c r="A241" s="40"/>
-      <c r="B241" s="55" t="s">
+      <c r="M240" s="55"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A241" s="39"/>
+      <c r="B241" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="C241" s="63" t="s">
+      <c r="C241" s="62" t="s">
         <v>361</v>
       </c>
-      <c r="M241" s="56"/>
-    </row>
-    <row r="242" spans="1:13">
-      <c r="A242" s="40"/>
-      <c r="B242" s="55" t="s">
+      <c r="M241" s="55"/>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242" s="39"/>
+      <c r="B242" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="C242" s="63" t="s">
+      <c r="C242" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="M242" s="56"/>
-    </row>
-    <row r="243" spans="1:13">
-      <c r="A243" s="40"/>
-      <c r="B243" s="55" t="s">
+      <c r="M242" s="55"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243" s="39"/>
+      <c r="B243" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="C243" s="63" t="s">
+      <c r="C243" s="62" t="s">
         <v>365</v>
       </c>
-      <c r="M243" s="56"/>
-    </row>
-    <row r="244" spans="1:13">
-      <c r="A244" s="40"/>
-      <c r="B244" s="55" t="s">
+      <c r="M243" s="55"/>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" s="39"/>
+      <c r="B244" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="C244" s="63" t="s">
+      <c r="C244" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="M244" s="56"/>
-    </row>
-    <row r="245" spans="1:13">
-      <c r="A245" s="40"/>
-      <c r="B245" s="55" t="s">
+      <c r="M244" s="55"/>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245" s="39"/>
+      <c r="B245" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="C245" s="63" t="s">
+      <c r="C245" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="M245" s="56"/>
-    </row>
-    <row r="246" spans="1:13">
-      <c r="A246" s="40"/>
-      <c r="B246" s="55" t="s">
+      <c r="M245" s="55"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246" s="39"/>
+      <c r="B246" s="54" t="s">
         <v>370</v>
       </c>
-      <c r="C246" s="63"/>
-      <c r="M246" s="56"/>
-    </row>
-    <row r="247" spans="1:13">
-      <c r="A247" s="40"/>
-      <c r="B247" s="55" t="s">
+      <c r="C246" s="62"/>
+      <c r="M246" s="55"/>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" s="39"/>
+      <c r="B247" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="C247" s="63"/>
-      <c r="M247" s="56"/>
-    </row>
-    <row r="248" spans="1:13">
-      <c r="A248" s="40"/>
-      <c r="B248" s="55" t="s">
+      <c r="C247" s="62"/>
+      <c r="M247" s="55"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" s="39"/>
+      <c r="B248" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C248" s="63"/>
-      <c r="M248" s="56"/>
-    </row>
-    <row r="249" spans="1:13">
-      <c r="A249" s="40"/>
-      <c r="B249" s="55" t="s">
+      <c r="C248" s="62"/>
+      <c r="M248" s="55"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249" s="39"/>
+      <c r="B249" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="C249" s="63"/>
-      <c r="M249" s="56"/>
-    </row>
-    <row r="250" spans="1:13">
-      <c r="A250" s="40"/>
-      <c r="B250" s="55" t="s">
+      <c r="C249" s="62"/>
+      <c r="M249" s="55"/>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250" s="39"/>
+      <c r="B250" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="C250" s="63"/>
-      <c r="M250" s="56"/>
-    </row>
-    <row r="251" spans="1:13">
-      <c r="A251" s="40"/>
-      <c r="B251" s="55" t="s">
+      <c r="C250" s="62"/>
+      <c r="M250" s="55"/>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251" s="39"/>
+      <c r="B251" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="C251" s="63"/>
-      <c r="M251" s="56"/>
-    </row>
-    <row r="252" spans="1:13">
-      <c r="A252" s="40"/>
-      <c r="B252" s="55" t="s">
+      <c r="C251" s="62"/>
+      <c r="M251" s="55"/>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" s="39"/>
+      <c r="B252" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="C252" s="63"/>
-      <c r="M252" s="56"/>
-    </row>
-    <row r="253" spans="1:13">
-      <c r="A253" s="40"/>
-      <c r="B253" s="55" t="s">
+      <c r="C252" s="62"/>
+      <c r="M252" s="55"/>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253" s="39"/>
+      <c r="B253" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="C253" s="63"/>
-      <c r="M253" s="56"/>
-    </row>
-    <row r="254" spans="1:13">
-      <c r="A254" s="40"/>
-      <c r="B254" s="55" t="s">
+      <c r="C253" s="62"/>
+      <c r="M253" s="55"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254" s="39"/>
+      <c r="B254" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="C254" s="63"/>
-      <c r="M254" s="56"/>
-    </row>
-    <row r="255" spans="1:13">
-      <c r="A255" s="40"/>
-      <c r="B255" s="55" t="s">
+      <c r="C254" s="62"/>
+      <c r="M254" s="55"/>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A255" s="39"/>
+      <c r="B255" s="54" t="s">
         <v>379</v>
       </c>
-      <c r="C255" s="63"/>
-      <c r="M255" s="56"/>
-    </row>
-    <row r="256" spans="1:13">
-      <c r="A256" s="40"/>
-      <c r="B256" s="55" t="s">
+      <c r="C255" s="62"/>
+      <c r="M255" s="55"/>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256" s="39"/>
+      <c r="B256" s="54" t="s">
         <v>380</v>
       </c>
-      <c r="C256" s="63"/>
-      <c r="M256" s="56"/>
-    </row>
-    <row r="257" spans="1:13">
-      <c r="A257" s="40"/>
-      <c r="B257" s="55" t="s">
+      <c r="C256" s="62"/>
+      <c r="M256" s="55"/>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A257" s="39"/>
+      <c r="B257" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="C257" s="63"/>
-      <c r="M257" s="56"/>
-    </row>
-    <row r="258" spans="1:13">
-      <c r="A258" s="40"/>
-      <c r="B258" s="55" t="s">
+      <c r="C257" s="62"/>
+      <c r="M257" s="55"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" s="39"/>
+      <c r="B258" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="C258" s="63"/>
-      <c r="M258" s="56"/>
-    </row>
-    <row r="259" spans="1:13">
-      <c r="A259" s="40"/>
-      <c r="B259" s="55" t="s">
+      <c r="C258" s="62"/>
+      <c r="M258" s="55"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" s="39"/>
+      <c r="B259" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="C259" s="63"/>
-      <c r="M259" s="56"/>
-    </row>
-    <row r="260" spans="1:13">
-      <c r="A260" s="40"/>
-      <c r="B260" s="55" t="s">
+      <c r="C259" s="62"/>
+      <c r="M259" s="55"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260" s="39"/>
+      <c r="B260" s="54" t="s">
         <v>384</v>
       </c>
-      <c r="C260" s="63"/>
-      <c r="M260" s="56"/>
-    </row>
-    <row r="261" spans="1:13">
-      <c r="A261" s="40"/>
-      <c r="B261" s="55" t="s">
+      <c r="C260" s="62"/>
+      <c r="M260" s="55"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A261" s="39"/>
+      <c r="B261" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="C261" s="63"/>
-      <c r="M261" s="56"/>
-    </row>
-    <row r="262" spans="1:13">
-      <c r="A262" s="40"/>
-      <c r="B262" s="55" t="s">
+      <c r="C261" s="62"/>
+      <c r="M261" s="55"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A262" s="39"/>
+      <c r="B262" s="54" t="s">
         <v>386</v>
       </c>
-      <c r="C262" s="63"/>
-      <c r="M262" s="56"/>
-    </row>
-    <row r="263" spans="1:13">
-      <c r="A263" s="40"/>
-      <c r="B263" s="55" t="s">
+      <c r="C262" s="62"/>
+      <c r="M262" s="55"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A263" s="39"/>
+      <c r="B263" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="C263" s="63"/>
-      <c r="M263" s="56"/>
-    </row>
-    <row r="264" spans="1:13">
-      <c r="A264" s="40"/>
-      <c r="B264" s="55" t="s">
+      <c r="C263" s="62"/>
+      <c r="M263" s="55"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264" s="39"/>
+      <c r="B264" s="54" t="s">
         <v>388</v>
       </c>
-      <c r="C264" s="63"/>
-      <c r="M264" s="56"/>
-    </row>
-    <row r="265" spans="1:13">
-      <c r="A265" s="40"/>
-      <c r="B265" s="55" t="s">
+      <c r="C264" s="62"/>
+      <c r="M264" s="55"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A265" s="39"/>
+      <c r="B265" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="C265" s="63"/>
-      <c r="M265" s="56"/>
-    </row>
-    <row r="266" spans="1:13">
-      <c r="A266" s="40"/>
-      <c r="B266" s="55" t="s">
+      <c r="C265" s="62"/>
+      <c r="M265" s="55"/>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A266" s="39"/>
+      <c r="B266" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="C266" s="63"/>
-      <c r="M266" s="56"/>
-    </row>
-    <row r="267" spans="1:13">
-      <c r="A267" s="40"/>
-      <c r="B267" s="55" t="s">
+      <c r="C266" s="62"/>
+      <c r="M266" s="55"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A267" s="39"/>
+      <c r="B267" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="C267" s="63"/>
-      <c r="M267" s="56"/>
-    </row>
-    <row r="268" spans="1:13">
-      <c r="A268" s="40"/>
-      <c r="B268" s="55" t="s">
+      <c r="C267" s="62"/>
+      <c r="M267" s="55"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A268" s="39"/>
+      <c r="B268" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="C268" s="63"/>
-      <c r="M268" s="56"/>
-    </row>
-    <row r="269" spans="1:13">
-      <c r="A269" s="40"/>
-      <c r="B269" s="55" t="s">
+      <c r="C268" s="62"/>
+      <c r="M268" s="55"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A269" s="39"/>
+      <c r="B269" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="C269" s="63"/>
-      <c r="M269" s="56"/>
-    </row>
-    <row r="270" spans="1:13">
-      <c r="A270" s="40"/>
-      <c r="B270" s="55" t="s">
+      <c r="C269" s="62"/>
+      <c r="M269" s="55"/>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A270" s="39"/>
+      <c r="B270" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="C270" s="63"/>
-      <c r="M270" s="56"/>
-    </row>
-    <row r="271" spans="1:13">
-      <c r="A271" s="40"/>
-      <c r="B271" s="55" t="s">
+      <c r="C270" s="62"/>
+      <c r="M270" s="55"/>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A271" s="39"/>
+      <c r="B271" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="C271" s="63"/>
-      <c r="M271" s="56"/>
-    </row>
-    <row r="272" spans="1:13">
-      <c r="A272" s="40"/>
-      <c r="B272" s="55" t="s">
+      <c r="C271" s="62"/>
+      <c r="M271" s="55"/>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272" s="39"/>
+      <c r="B272" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="C272" s="63"/>
-      <c r="M272" s="56"/>
-    </row>
-    <row r="273" spans="1:13">
-      <c r="A273" s="40"/>
-      <c r="B273" s="55" t="s">
+      <c r="C272" s="62"/>
+      <c r="M272" s="55"/>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A273" s="39"/>
+      <c r="B273" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="C273" s="63"/>
-      <c r="M273" s="56"/>
-    </row>
-    <row r="274" spans="1:13">
-      <c r="A274" s="40"/>
-      <c r="B274" s="55" t="s">
+      <c r="C273" s="62"/>
+      <c r="M273" s="55"/>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A274" s="39"/>
+      <c r="B274" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="C274" s="63"/>
-      <c r="M274" s="56"/>
-    </row>
-    <row r="275" spans="1:13">
-      <c r="A275" s="40"/>
-      <c r="B275" s="55" t="s">
+      <c r="C274" s="62"/>
+      <c r="M274" s="55"/>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A275" s="39"/>
+      <c r="B275" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="C275" s="63"/>
-      <c r="M275" s="56"/>
-    </row>
-    <row r="276" spans="1:13">
-      <c r="A276" s="40"/>
-      <c r="B276" s="55" t="s">
+      <c r="C275" s="62"/>
+      <c r="M275" s="55"/>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276" s="39"/>
+      <c r="B276" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="C276" s="63"/>
-      <c r="M276" s="56"/>
-    </row>
-    <row r="277" spans="1:13">
-      <c r="A277" s="40"/>
-      <c r="B277" s="55" t="s">
+      <c r="C276" s="62"/>
+      <c r="M276" s="55"/>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A277" s="39"/>
+      <c r="B277" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="C277" s="63"/>
-      <c r="M277" s="56"/>
-    </row>
-    <row r="278" spans="1:13">
-      <c r="A278" s="40"/>
-      <c r="B278" s="55" t="s">
+      <c r="C277" s="62"/>
+      <c r="M277" s="55"/>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A278" s="39"/>
+      <c r="B278" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="C278" s="63"/>
-      <c r="M278" s="56"/>
-    </row>
-    <row r="279" spans="1:13">
-      <c r="A279" s="40"/>
-      <c r="B279" s="55" t="s">
+      <c r="C278" s="62"/>
+      <c r="M278" s="55"/>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A279" s="39"/>
+      <c r="B279" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="C279" s="63"/>
-      <c r="M279" s="56"/>
-    </row>
-    <row r="280" spans="1:13">
-      <c r="A280" s="40"/>
-      <c r="B280" s="55" t="s">
+      <c r="C279" s="62"/>
+      <c r="M279" s="55"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280" s="39"/>
+      <c r="B280" s="54" t="s">
         <v>404</v>
       </c>
-      <c r="C280" s="63"/>
-      <c r="M280" s="56"/>
-    </row>
-    <row r="281" spans="1:13">
-      <c r="A281" s="40"/>
-      <c r="B281" s="55" t="s">
+      <c r="C280" s="62"/>
+      <c r="M280" s="55"/>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A281" s="39"/>
+      <c r="B281" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="C281" s="63"/>
-      <c r="M281" s="56"/>
-    </row>
-    <row r="282" spans="1:13">
-      <c r="A282" s="40"/>
-      <c r="B282" s="55" t="s">
+      <c r="C281" s="62"/>
+      <c r="M281" s="55"/>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A282" s="39"/>
+      <c r="B282" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="C282" s="63"/>
-      <c r="M282" s="56"/>
-    </row>
-    <row r="283" spans="1:13">
-      <c r="A283" s="40"/>
-      <c r="B283" s="55" t="s">
+      <c r="C282" s="62"/>
+      <c r="M282" s="55"/>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283" s="39"/>
+      <c r="B283" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="C283" s="63"/>
-      <c r="M283" s="56"/>
-    </row>
-    <row r="284" spans="1:13">
-      <c r="A284" s="40"/>
-      <c r="B284" s="55" t="s">
+      <c r="C283" s="62"/>
+      <c r="M283" s="55"/>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A284" s="39"/>
+      <c r="B284" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="C284" s="63"/>
-      <c r="M284" s="56"/>
-    </row>
-    <row r="285" spans="1:13">
-      <c r="A285" s="40"/>
-      <c r="B285" s="55" t="s">
+      <c r="C284" s="62"/>
+      <c r="M284" s="55"/>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A285" s="39"/>
+      <c r="B285" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="C285" s="63"/>
-      <c r="M285" s="56"/>
-    </row>
-    <row r="286" spans="1:13">
-      <c r="A286" s="40"/>
-      <c r="B286" s="55" t="s">
+      <c r="C285" s="62"/>
+      <c r="M285" s="55"/>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286" s="39"/>
+      <c r="B286" s="54" t="s">
         <v>410</v>
       </c>
-      <c r="C286" s="63"/>
-      <c r="M286" s="56"/>
-    </row>
-    <row r="287" spans="1:13">
-      <c r="A287" s="40"/>
-      <c r="B287" s="55" t="s">
+      <c r="C286" s="62"/>
+      <c r="M286" s="55"/>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" s="39"/>
+      <c r="B287" s="54" t="s">
         <v>411</v>
       </c>
-      <c r="C287" s="63"/>
-      <c r="M287" s="56"/>
-    </row>
-    <row r="288" spans="1:13">
-      <c r="A288" s="40"/>
-      <c r="B288" s="55" t="s">
+      <c r="C287" s="62"/>
+      <c r="M287" s="55"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" s="39"/>
+      <c r="B288" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="C288" s="63"/>
-      <c r="M288" s="56"/>
-    </row>
-    <row r="289" spans="1:13">
-      <c r="A289" s="40"/>
-      <c r="B289" s="55" t="s">
+      <c r="C288" s="62"/>
+      <c r="M288" s="55"/>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289" s="39"/>
+      <c r="B289" s="54" t="s">
         <v>413</v>
       </c>
-      <c r="C289" s="63"/>
-      <c r="M289" s="56"/>
-    </row>
-    <row r="290" spans="1:13">
-      <c r="A290" s="40"/>
-      <c r="B290" s="55" t="s">
+      <c r="C289" s="62"/>
+      <c r="M289" s="55"/>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290" s="39"/>
+      <c r="B290" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="C290" s="63"/>
-      <c r="M290" s="56"/>
-    </row>
-    <row r="291" spans="1:13">
-      <c r="A291" s="40"/>
-      <c r="B291" s="55" t="s">
+      <c r="C290" s="62"/>
+      <c r="M290" s="55"/>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291" s="39"/>
+      <c r="B291" s="54" t="s">
         <v>415</v>
       </c>
-      <c r="C291" s="63"/>
-      <c r="M291" s="56"/>
-    </row>
-    <row r="292" spans="1:13">
-      <c r="A292" s="40"/>
-      <c r="B292" s="55" t="s">
+      <c r="C291" s="62"/>
+      <c r="M291" s="55"/>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" s="39"/>
+      <c r="B292" s="54" t="s">
         <v>416</v>
       </c>
-      <c r="C292" s="63"/>
-      <c r="M292" s="56"/>
-    </row>
-    <row r="293" spans="1:13">
-      <c r="A293" s="40"/>
-      <c r="B293" s="55" t="s">
+      <c r="C292" s="62"/>
+      <c r="M292" s="55"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293" s="39"/>
+      <c r="B293" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="C293" s="63"/>
-      <c r="M293" s="56"/>
-    </row>
-    <row r="294" spans="1:13">
-      <c r="A294" s="40"/>
-      <c r="B294" s="55" t="s">
+      <c r="C293" s="62"/>
+      <c r="M293" s="55"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A294" s="39"/>
+      <c r="B294" s="54" t="s">
         <v>418</v>
       </c>
-      <c r="C294" s="63"/>
-      <c r="M294" s="56"/>
-    </row>
-    <row r="295" spans="1:13">
-      <c r="A295" s="40"/>
-      <c r="B295" s="55" t="s">
+      <c r="C294" s="62"/>
+      <c r="M294" s="55"/>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A295" s="39"/>
+      <c r="B295" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="C295" s="63"/>
-      <c r="M295" s="56"/>
-    </row>
-    <row r="296" spans="1:13">
-      <c r="A296" s="40"/>
-      <c r="B296" s="55" t="s">
+      <c r="C295" s="62"/>
+      <c r="M295" s="55"/>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296" s="39"/>
+      <c r="B296" s="54" t="s">
         <v>420</v>
       </c>
-      <c r="C296" s="63"/>
-      <c r="M296" s="56"/>
-    </row>
-    <row r="297" spans="1:13">
-      <c r="A297" s="40"/>
-      <c r="B297" s="55" t="s">
+      <c r="C296" s="62"/>
+      <c r="M296" s="55"/>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A297" s="39"/>
+      <c r="B297" s="54" t="s">
         <v>421</v>
       </c>
-      <c r="C297" s="63"/>
-      <c r="M297" s="56"/>
-    </row>
-    <row r="298" spans="1:13">
-      <c r="A298" s="40"/>
-      <c r="B298" s="55" t="s">
+      <c r="C297" s="62"/>
+      <c r="M297" s="55"/>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298" s="39"/>
+      <c r="B298" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="C298" s="63"/>
-      <c r="M298" s="56"/>
-    </row>
-    <row r="299" spans="1:13">
-      <c r="A299" s="40"/>
-      <c r="B299" s="55" t="s">
+      <c r="C298" s="62"/>
+      <c r="M298" s="55"/>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299" s="39"/>
+      <c r="B299" s="54" t="s">
         <v>423</v>
       </c>
-      <c r="C299" s="63"/>
-      <c r="M299" s="56"/>
-    </row>
-    <row r="300" spans="1:13">
-      <c r="A300" s="40"/>
-      <c r="B300" s="55" t="s">
+      <c r="C299" s="62"/>
+      <c r="M299" s="55"/>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300" s="39"/>
+      <c r="B300" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="C300" s="63"/>
-      <c r="M300" s="56"/>
-    </row>
-    <row r="301" spans="1:13">
-      <c r="A301" s="40"/>
-      <c r="B301" s="55" t="s">
+      <c r="C300" s="62"/>
+      <c r="M300" s="55"/>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A301" s="39"/>
+      <c r="B301" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="C301" s="63"/>
-      <c r="M301" s="56"/>
-    </row>
-    <row r="302" spans="1:13">
-      <c r="A302" s="40"/>
-      <c r="B302" s="55" t="s">
+      <c r="C301" s="62"/>
+      <c r="M301" s="55"/>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302" s="39"/>
+      <c r="B302" s="54" t="s">
         <v>426</v>
       </c>
-      <c r="C302" s="63"/>
-      <c r="M302" s="56"/>
-    </row>
-    <row r="303" spans="1:13">
-      <c r="A303" s="40"/>
-      <c r="B303" s="55" t="s">
+      <c r="C302" s="62"/>
+      <c r="M302" s="55"/>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303" s="39"/>
+      <c r="B303" s="54" t="s">
         <v>427</v>
       </c>
-      <c r="C303" s="63"/>
-      <c r="M303" s="56"/>
-    </row>
-    <row r="304" spans="1:13">
-      <c r="A304" s="40"/>
-      <c r="B304" s="55" t="s">
+      <c r="C303" s="62"/>
+      <c r="M303" s="55"/>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304" s="39"/>
+      <c r="B304" s="54" t="s">
         <v>428</v>
       </c>
-      <c r="C304" s="63"/>
-      <c r="M304" s="56"/>
-    </row>
-    <row r="305" spans="1:13">
-      <c r="A305" s="40"/>
-      <c r="B305" s="55" t="s">
+      <c r="C304" s="62"/>
+      <c r="M304" s="55"/>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A305" s="39"/>
+      <c r="B305" s="54" t="s">
         <v>429</v>
       </c>
-      <c r="C305" s="63"/>
-      <c r="M305" s="56"/>
-    </row>
-    <row r="306" spans="1:13">
-      <c r="A306" s="40"/>
-      <c r="B306" s="55" t="s">
+      <c r="C305" s="62"/>
+      <c r="M305" s="55"/>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306" s="39"/>
+      <c r="B306" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="C306" s="63"/>
-      <c r="M306" s="56"/>
-    </row>
-    <row r="307" spans="1:13">
-      <c r="A307" s="40"/>
-      <c r="B307" s="55" t="s">
+      <c r="C306" s="62"/>
+      <c r="M306" s="55"/>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307" s="39"/>
+      <c r="B307" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="C307" s="63"/>
-      <c r="M307" s="56"/>
-    </row>
-    <row r="308" spans="1:13">
-      <c r="A308" s="40"/>
-      <c r="B308" s="55" t="s">
+      <c r="C307" s="62"/>
+      <c r="M307" s="55"/>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308" s="39"/>
+      <c r="B308" s="54" t="s">
         <v>432</v>
       </c>
-      <c r="C308" s="63"/>
-      <c r="M308" s="56"/>
-    </row>
-    <row r="309" spans="1:13">
-      <c r="A309" s="40"/>
-      <c r="B309" s="55" t="s">
+      <c r="C308" s="62"/>
+      <c r="M308" s="55"/>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A309" s="39"/>
+      <c r="B309" s="54" t="s">
         <v>433</v>
       </c>
-      <c r="C309" s="63"/>
-      <c r="M309" s="56"/>
-    </row>
-    <row r="310" spans="1:13">
-      <c r="A310" s="40"/>
-      <c r="B310" s="55" t="s">
+      <c r="C309" s="62"/>
+      <c r="M309" s="55"/>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310" s="39"/>
+      <c r="B310" s="54" t="s">
         <v>434</v>
       </c>
-      <c r="C310" s="63"/>
-      <c r="M310" s="56"/>
-    </row>
-    <row r="311" spans="1:13">
-      <c r="A311" s="40"/>
-      <c r="B311" s="55" t="s">
+      <c r="C310" s="62"/>
+      <c r="M310" s="55"/>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A311" s="39"/>
+      <c r="B311" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="C311" s="63"/>
-      <c r="M311" s="56"/>
-    </row>
-    <row r="312" spans="1:13">
-      <c r="A312" s="40"/>
-      <c r="B312" s="55" t="s">
+      <c r="C311" s="62"/>
+      <c r="M311" s="55"/>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A312" s="39"/>
+      <c r="B312" s="54" t="s">
         <v>436</v>
       </c>
-      <c r="C312" s="63"/>
-      <c r="M312" s="56"/>
-    </row>
-    <row r="313" spans="1:13">
-      <c r="A313" s="40"/>
-      <c r="B313" s="55" t="s">
+      <c r="C312" s="62"/>
+      <c r="M312" s="55"/>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A313" s="39"/>
+      <c r="B313" s="54" t="s">
         <v>437</v>
       </c>
-      <c r="C313" s="63"/>
-      <c r="M313" s="56"/>
-    </row>
-    <row r="314" spans="1:13">
-      <c r="A314" s="40"/>
-      <c r="B314" s="55" t="s">
+      <c r="C313" s="62"/>
+      <c r="M313" s="55"/>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314" s="39"/>
+      <c r="B314" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="C314" s="63"/>
-      <c r="M314" s="56"/>
-    </row>
-    <row r="315" spans="1:13">
-      <c r="A315" s="40"/>
-      <c r="B315" s="55" t="s">
+      <c r="C314" s="62"/>
+      <c r="M314" s="55"/>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A315" s="39"/>
+      <c r="B315" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="C315" s="63"/>
-      <c r="M315" s="56"/>
-    </row>
-    <row r="316" spans="1:13">
-      <c r="A316" s="40"/>
-      <c r="B316" s="55" t="s">
+      <c r="C315" s="62"/>
+      <c r="M315" s="55"/>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316" s="39"/>
+      <c r="B316" s="54" t="s">
         <v>440</v>
       </c>
-      <c r="C316" s="63"/>
-      <c r="M316" s="56"/>
-    </row>
-    <row r="317" spans="1:13">
-      <c r="A317" s="40"/>
-      <c r="B317" s="55" t="s">
+      <c r="C316" s="62"/>
+      <c r="M316" s="55"/>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A317" s="39"/>
+      <c r="B317" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C317" s="63"/>
-      <c r="M317" s="56"/>
-    </row>
-    <row r="318" spans="1:13">
-      <c r="A318" s="40"/>
-      <c r="B318" s="55" t="s">
+      <c r="C317" s="62"/>
+      <c r="M317" s="55"/>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318" s="39"/>
+      <c r="B318" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="C318" s="63"/>
-      <c r="M318" s="56"/>
-    </row>
-    <row r="319" spans="1:13">
-      <c r="A319" s="40"/>
-      <c r="B319" s="55" t="s">
+      <c r="C318" s="62"/>
+      <c r="M318" s="55"/>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A319" s="39"/>
+      <c r="B319" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="C319" s="63"/>
-      <c r="M319" s="56"/>
-    </row>
-    <row r="320" spans="1:13">
-      <c r="A320" s="40"/>
-      <c r="B320" s="55" t="s">
+      <c r="C319" s="62"/>
+      <c r="M319" s="55"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320" s="39"/>
+      <c r="B320" s="54" t="s">
         <v>442</v>
       </c>
-      <c r="C320" s="63"/>
-      <c r="M320" s="56"/>
-    </row>
-    <row r="321" spans="1:13">
-      <c r="A321" s="40"/>
-      <c r="B321" s="55" t="s">
+      <c r="C320" s="62"/>
+      <c r="M320" s="55"/>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A321" s="39"/>
+      <c r="B321" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="C321" s="63"/>
-      <c r="M321" s="56"/>
-    </row>
-    <row r="322" spans="1:13">
-      <c r="A322" s="40"/>
-      <c r="B322" s="55" t="s">
+      <c r="C321" s="62"/>
+      <c r="M321" s="55"/>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322" s="39"/>
+      <c r="B322" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="C322" s="63"/>
-      <c r="M322" s="56"/>
-    </row>
-    <row r="323" spans="1:13">
-      <c r="A323" s="40"/>
-      <c r="B323" s="55" t="s">
+      <c r="C322" s="62"/>
+      <c r="M322" s="55"/>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323" s="39"/>
+      <c r="B323" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="C323" s="63"/>
-      <c r="M323" s="56"/>
-    </row>
-    <row r="324" spans="1:13">
-      <c r="A324" s="40"/>
-      <c r="B324" s="55" t="s">
+      <c r="C323" s="62"/>
+      <c r="M323" s="55"/>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324" s="39"/>
+      <c r="B324" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="C324" s="63"/>
-      <c r="M324" s="56"/>
-    </row>
-    <row r="325" spans="1:13">
-      <c r="A325" s="40"/>
-      <c r="B325" s="55" t="s">
+      <c r="C324" s="62"/>
+      <c r="M324" s="55"/>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325" s="39"/>
+      <c r="B325" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="C325" s="63"/>
-      <c r="M325" s="56"/>
-    </row>
-    <row r="326" spans="1:13">
-      <c r="A326" s="40"/>
-      <c r="B326" s="55" t="s">
+      <c r="C325" s="62"/>
+      <c r="M325" s="55"/>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326" s="39"/>
+      <c r="B326" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="C326" s="63"/>
-      <c r="M326" s="56"/>
-    </row>
-    <row r="327" spans="1:13">
-      <c r="A327" s="40"/>
-      <c r="B327" s="55" t="s">
+      <c r="C326" s="62"/>
+      <c r="M326" s="55"/>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327" s="39"/>
+      <c r="B327" s="54" t="s">
         <v>449</v>
       </c>
-      <c r="C327" s="63"/>
-      <c r="M327" s="56"/>
-    </row>
-    <row r="328" spans="1:13">
-      <c r="A328" s="40"/>
-      <c r="B328" s="55" t="s">
+      <c r="C327" s="62"/>
+      <c r="M327" s="55"/>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328" s="39"/>
+      <c r="B328" s="54" t="s">
         <v>450</v>
       </c>
-      <c r="C328" s="63"/>
-      <c r="M328" s="56"/>
-    </row>
-    <row r="329" spans="1:13">
-      <c r="A329" s="40"/>
-      <c r="B329" s="55" t="s">
+      <c r="C328" s="62"/>
+      <c r="M328" s="55"/>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329" s="39"/>
+      <c r="B329" s="54" t="s">
         <v>451</v>
       </c>
-      <c r="C329" s="63"/>
-      <c r="M329" s="56"/>
-    </row>
-    <row r="330" spans="1:13">
-      <c r="A330" s="40"/>
-      <c r="B330" s="55" t="s">
+      <c r="C329" s="62"/>
+      <c r="M329" s="55"/>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330" s="39"/>
+      <c r="B330" s="54" t="s">
         <v>452</v>
       </c>
-      <c r="C330" s="63"/>
-      <c r="M330" s="56"/>
-    </row>
-    <row r="331" spans="1:13">
-      <c r="A331" s="40"/>
-      <c r="B331" s="55" t="s">
+      <c r="C330" s="62"/>
+      <c r="M330" s="55"/>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331" s="39"/>
+      <c r="B331" s="54" t="s">
         <v>453</v>
       </c>
-      <c r="C331" s="63"/>
-      <c r="M331" s="56"/>
-    </row>
-    <row r="332" spans="1:13">
-      <c r="A332" s="40"/>
-      <c r="B332" s="55" t="s">
+      <c r="C331" s="62"/>
+      <c r="M331" s="55"/>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A332" s="39"/>
+      <c r="B332" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="C332" s="63"/>
-      <c r="M332" s="56"/>
-    </row>
-    <row r="333" spans="1:13">
-      <c r="A333" s="40"/>
-      <c r="B333" s="55" t="s">
+      <c r="C332" s="62"/>
+      <c r="M332" s="55"/>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333" s="39"/>
+      <c r="B333" s="54" t="s">
         <v>455</v>
       </c>
-      <c r="C333" s="63"/>
-      <c r="M333" s="56"/>
-    </row>
-    <row r="334" spans="1:13">
-      <c r="A334" s="40"/>
-      <c r="B334" s="55" t="s">
+      <c r="C333" s="62"/>
+      <c r="M333" s="55"/>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334" s="39"/>
+      <c r="B334" s="54" t="s">
         <v>455</v>
       </c>
-      <c r="C334" s="63"/>
-      <c r="M334" s="56"/>
-    </row>
-    <row r="335" spans="1:13">
-      <c r="A335" s="40"/>
-      <c r="B335" s="55" t="s">
+      <c r="C334" s="62"/>
+      <c r="M334" s="55"/>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335" s="39"/>
+      <c r="B335" s="54" t="s">
         <v>456</v>
       </c>
-      <c r="C335" s="63"/>
-      <c r="M335" s="56"/>
-    </row>
-    <row r="336" spans="1:13">
-      <c r="A336" s="40"/>
-      <c r="B336" s="55" t="s">
+      <c r="C335" s="62"/>
+      <c r="M335" s="55"/>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336" s="39"/>
+      <c r="B336" s="54" t="s">
         <v>457</v>
       </c>
-      <c r="C336" s="63"/>
-      <c r="M336" s="56"/>
-    </row>
-    <row r="337" spans="1:13">
-      <c r="A337" s="40"/>
-      <c r="B337" s="55" t="s">
+      <c r="C336" s="62"/>
+      <c r="M336" s="55"/>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337" s="39"/>
+      <c r="B337" s="54" t="s">
         <v>458</v>
       </c>
-      <c r="C337" s="63"/>
-      <c r="M337" s="56"/>
-    </row>
-    <row r="338" spans="1:13">
-      <c r="A338" s="40"/>
-      <c r="B338" s="55" t="s">
+      <c r="C337" s="62"/>
+      <c r="M337" s="55"/>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338" s="39"/>
+      <c r="B338" s="54" t="s">
         <v>459</v>
       </c>
-      <c r="C338" s="63"/>
-      <c r="M338" s="56"/>
-    </row>
-    <row r="339" spans="1:13">
-      <c r="A339" s="40"/>
-      <c r="B339" s="55" t="s">
+      <c r="C338" s="62"/>
+      <c r="M338" s="55"/>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339" s="39"/>
+      <c r="B339" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="C339" s="63"/>
-      <c r="M339" s="56"/>
-    </row>
-    <row r="340" spans="1:13">
-      <c r="A340" s="40"/>
-      <c r="B340" s="55" t="s">
+      <c r="C339" s="62"/>
+      <c r="M339" s="55"/>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340" s="39"/>
+      <c r="B340" s="54" t="s">
         <v>461</v>
       </c>
-      <c r="C340" s="63"/>
-      <c r="M340" s="56"/>
-    </row>
-    <row r="341" spans="1:13">
-      <c r="A341" s="40"/>
-      <c r="B341" s="55" t="s">
+      <c r="C340" s="62"/>
+      <c r="M340" s="55"/>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341" s="39"/>
+      <c r="B341" s="54" t="s">
         <v>462</v>
       </c>
-      <c r="C341" s="63"/>
-      <c r="M341" s="56"/>
-    </row>
-    <row r="342" spans="1:13">
-      <c r="A342" s="40"/>
-      <c r="B342" s="55" t="s">
+      <c r="C341" s="62"/>
+      <c r="M341" s="55"/>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342" s="39"/>
+      <c r="B342" s="54" t="s">
         <v>463</v>
       </c>
-      <c r="C342" s="63"/>
-      <c r="M342" s="56"/>
-    </row>
-    <row r="343" spans="1:13">
-      <c r="A343" s="40"/>
-      <c r="B343" s="55" t="s">
+      <c r="C342" s="62"/>
+      <c r="M342" s="55"/>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343" s="39"/>
+      <c r="B343" s="54" t="s">
         <v>464</v>
       </c>
-      <c r="C343" s="63"/>
-      <c r="M343" s="56"/>
-    </row>
-    <row r="344" spans="1:13">
-      <c r="A344" s="40"/>
-      <c r="B344" s="55" t="s">
+      <c r="C343" s="62"/>
+      <c r="M343" s="55"/>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A344" s="39"/>
+      <c r="B344" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="C344" s="63"/>
-      <c r="M344" s="56"/>
-    </row>
-    <row r="345" spans="1:13">
-      <c r="A345" s="40"/>
-      <c r="B345" s="55" t="s">
+      <c r="C344" s="62"/>
+      <c r="M344" s="55"/>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345" s="39"/>
+      <c r="B345" s="54" t="s">
         <v>466</v>
       </c>
-      <c r="C345" s="63"/>
-      <c r="M345" s="56"/>
-    </row>
-    <row r="346" spans="1:13">
-      <c r="A346" s="40"/>
-      <c r="B346" s="55" t="s">
+      <c r="C345" s="62"/>
+      <c r="M345" s="55"/>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A346" s="39"/>
+      <c r="B346" s="54" t="s">
         <v>467</v>
       </c>
-      <c r="C346" s="63"/>
-      <c r="M346" s="56"/>
-    </row>
-    <row r="347" spans="1:13">
-      <c r="A347" s="40"/>
-      <c r="B347" s="55" t="s">
+      <c r="C346" s="62"/>
+      <c r="M346" s="55"/>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347" s="39"/>
+      <c r="B347" s="54" t="s">
         <v>468</v>
       </c>
-      <c r="C347" s="63"/>
-      <c r="M347" s="56"/>
-    </row>
-    <row r="348" spans="1:13">
-      <c r="A348" s="40"/>
-      <c r="B348" s="55" t="s">
+      <c r="C347" s="62"/>
+      <c r="M347" s="55"/>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A348" s="39"/>
+      <c r="B348" s="54" t="s">
         <v>469</v>
       </c>
-      <c r="C348" s="63"/>
-      <c r="M348" s="56"/>
-    </row>
-    <row r="349" spans="1:13">
-      <c r="A349" s="40"/>
-      <c r="B349" s="55" t="s">
+      <c r="C348" s="62"/>
+      <c r="M348" s="55"/>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349" s="39"/>
+      <c r="B349" s="54" t="s">
         <v>470</v>
       </c>
-      <c r="C349" s="63"/>
-      <c r="M349" s="56"/>
-    </row>
-    <row r="350" spans="1:13">
-      <c r="A350" s="40"/>
-      <c r="B350" s="55" t="s">
+      <c r="C349" s="62"/>
+      <c r="M349" s="55"/>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350" s="39"/>
+      <c r="B350" s="54" t="s">
         <v>471</v>
       </c>
-      <c r="C350" s="63"/>
-      <c r="M350" s="56"/>
-    </row>
-    <row r="351" spans="1:13">
-      <c r="A351" s="40"/>
-      <c r="B351" s="55" t="s">
+      <c r="C350" s="62"/>
+      <c r="M350" s="55"/>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A351" s="39"/>
+      <c r="B351" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="C351" s="63"/>
-      <c r="M351" s="56"/>
-    </row>
-    <row r="352" spans="1:13">
-      <c r="A352" s="40"/>
-      <c r="B352" s="55" t="s">
+      <c r="C351" s="62"/>
+      <c r="M351" s="55"/>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A352" s="39"/>
+      <c r="B352" s="54" t="s">
         <v>473</v>
       </c>
-      <c r="C352" s="63"/>
-      <c r="M352" s="56"/>
-    </row>
-    <row r="353" spans="1:13">
-      <c r="A353" s="40"/>
-      <c r="B353" s="55" t="s">
+      <c r="C352" s="62"/>
+      <c r="M352" s="55"/>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353" s="39"/>
+      <c r="B353" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="C353" s="63"/>
-      <c r="M353" s="56"/>
-    </row>
-    <row r="354" spans="1:13">
-      <c r="A354" s="40"/>
-      <c r="B354" s="55" t="s">
+      <c r="C353" s="62"/>
+      <c r="M353" s="55"/>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A354" s="39"/>
+      <c r="B354" s="54" t="s">
         <v>475</v>
       </c>
-      <c r="C354" s="63"/>
-      <c r="M354" s="56"/>
-    </row>
-    <row r="355" spans="1:13">
-      <c r="A355" s="40"/>
-      <c r="B355" s="55" t="s">
+      <c r="C354" s="62"/>
+      <c r="M354" s="55"/>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A355" s="39"/>
+      <c r="B355" s="54" t="s">
         <v>476</v>
       </c>
-      <c r="C355" s="63"/>
-      <c r="M355" s="56"/>
-    </row>
-    <row r="356" spans="1:13">
-      <c r="A356" s="40"/>
-      <c r="B356" s="55" t="s">
+      <c r="C355" s="62"/>
+      <c r="M355" s="55"/>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A356" s="39"/>
+      <c r="B356" s="54" t="s">
         <v>477</v>
       </c>
-      <c r="C356" s="63"/>
-      <c r="M356" s="56"/>
-    </row>
-    <row r="357" spans="1:13">
-      <c r="A357" s="40"/>
-      <c r="B357" s="55" t="s">
+      <c r="C356" s="62"/>
+      <c r="M356" s="55"/>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357" s="39"/>
+      <c r="B357" s="54" t="s">
         <v>478</v>
       </c>
-      <c r="C357" s="63"/>
-      <c r="M357" s="56"/>
-    </row>
-    <row r="358" spans="1:13">
-      <c r="A358" s="40"/>
-      <c r="B358" s="55" t="s">
+      <c r="C357" s="62"/>
+      <c r="M357" s="55"/>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A358" s="39"/>
+      <c r="B358" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="C358" s="63"/>
-      <c r="M358" s="56"/>
-    </row>
-    <row r="359" spans="1:13">
-      <c r="A359" s="40"/>
-      <c r="B359" s="55" t="s">
+      <c r="C358" s="62"/>
+      <c r="M358" s="55"/>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359" s="39"/>
+      <c r="B359" s="54" t="s">
         <v>479</v>
       </c>
-      <c r="C359" s="63"/>
-      <c r="M359" s="56"/>
-    </row>
-    <row r="360" spans="1:13">
-      <c r="A360" s="40"/>
-      <c r="B360" s="55" t="s">
+      <c r="C359" s="62"/>
+      <c r="M359" s="55"/>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360" s="39"/>
+      <c r="B360" s="54" t="s">
         <v>480</v>
       </c>
-      <c r="C360" s="63"/>
-      <c r="M360" s="56"/>
-    </row>
-    <row r="361" spans="1:13">
-      <c r="A361" s="40"/>
-      <c r="B361" s="55" t="s">
+      <c r="C360" s="62"/>
+      <c r="M360" s="55"/>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361" s="39"/>
+      <c r="B361" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="C361" s="63"/>
-      <c r="M361" s="56"/>
-    </row>
-    <row r="362" spans="1:13">
-      <c r="A362" s="40"/>
-      <c r="B362" s="55" t="s">
+      <c r="C361" s="62"/>
+      <c r="M361" s="55"/>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A362" s="39"/>
+      <c r="B362" s="54" t="s">
         <v>481</v>
       </c>
-      <c r="C362" s="63"/>
-      <c r="M362" s="56"/>
-    </row>
-    <row r="363" spans="1:13">
-      <c r="A363" s="40"/>
-      <c r="B363" s="55" t="s">
+      <c r="C362" s="62"/>
+      <c r="M362" s="55"/>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A363" s="39"/>
+      <c r="B363" s="54" t="s">
         <v>482</v>
       </c>
-      <c r="C363" s="63"/>
-      <c r="M363" s="56"/>
-    </row>
-    <row r="364" spans="1:13">
-      <c r="A364" s="40"/>
-      <c r="B364" s="55" t="s">
+      <c r="C363" s="62"/>
+      <c r="M363" s="55"/>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A364" s="39"/>
+      <c r="B364" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="C364" s="63"/>
-      <c r="M364" s="56"/>
-    </row>
-    <row r="365" spans="1:13">
-      <c r="A365" s="40"/>
-      <c r="B365" s="55" t="s">
+      <c r="C364" s="62"/>
+      <c r="M364" s="55"/>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A365" s="39"/>
+      <c r="B365" s="54" t="s">
         <v>484</v>
       </c>
-      <c r="C365" s="63"/>
-      <c r="M365" s="56"/>
-    </row>
-    <row r="366" spans="1:13">
-      <c r="A366" s="40"/>
-      <c r="B366" s="55" t="s">
+      <c r="C365" s="62"/>
+      <c r="M365" s="55"/>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A366" s="39"/>
+      <c r="B366" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="C366" s="63"/>
-      <c r="M366" s="56"/>
-    </row>
-    <row r="367" spans="1:13">
-      <c r="A367" s="40"/>
-      <c r="B367" s="55" t="s">
+      <c r="C366" s="62"/>
+      <c r="M366" s="55"/>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A367" s="39"/>
+      <c r="B367" s="54" t="s">
         <v>486</v>
       </c>
-      <c r="C367" s="63"/>
-      <c r="M367" s="56"/>
-    </row>
-    <row r="368" spans="1:13">
-      <c r="A368" s="40"/>
-      <c r="B368" s="55" t="s">
+      <c r="C367" s="62"/>
+      <c r="M367" s="55"/>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A368" s="39"/>
+      <c r="B368" s="54" t="s">
         <v>487</v>
       </c>
-      <c r="C368" s="63"/>
-      <c r="M368" s="56"/>
-    </row>
-    <row r="369" spans="1:13">
-      <c r="A369" s="40"/>
-      <c r="B369" s="55" t="s">
+      <c r="C368" s="62"/>
+      <c r="M368" s="55"/>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369" s="39"/>
+      <c r="B369" s="54" t="s">
         <v>488</v>
       </c>
-      <c r="C369" s="63"/>
-      <c r="M369" s="56"/>
-    </row>
-    <row r="370" spans="1:13">
-      <c r="A370" s="40"/>
-      <c r="B370" s="55" t="s">
+      <c r="C369" s="62"/>
+      <c r="M369" s="55"/>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A370" s="39"/>
+      <c r="B370" s="54" t="s">
         <v>489</v>
       </c>
-      <c r="C370" s="63"/>
-      <c r="M370" s="56"/>
-    </row>
-    <row r="371" spans="1:13">
-      <c r="A371" s="40"/>
-      <c r="B371" s="55" t="s">
+      <c r="C370" s="62"/>
+      <c r="M370" s="55"/>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A371" s="39"/>
+      <c r="B371" s="54" t="s">
         <v>490</v>
       </c>
-      <c r="C371" s="63"/>
-      <c r="M371" s="56"/>
-    </row>
-    <row r="372" spans="1:13">
-      <c r="A372" s="40"/>
-      <c r="B372" s="55" t="s">
+      <c r="C371" s="62"/>
+      <c r="M371" s="55"/>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A372" s="39"/>
+      <c r="B372" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="C372" s="63"/>
-      <c r="M372" s="56"/>
-    </row>
-    <row r="373" spans="1:13">
-      <c r="A373" s="40"/>
-      <c r="B373" s="55" t="s">
+      <c r="C372" s="62"/>
+      <c r="M372" s="55"/>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A373" s="39"/>
+      <c r="B373" s="54" t="s">
         <v>492</v>
       </c>
-      <c r="C373" s="63"/>
-      <c r="M373" s="56"/>
-    </row>
-    <row r="374" spans="1:13">
-      <c r="A374" s="40"/>
-      <c r="B374" s="55" t="s">
+      <c r="C373" s="62"/>
+      <c r="M373" s="55"/>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A374" s="39"/>
+      <c r="B374" s="54" t="s">
         <v>493</v>
       </c>
-      <c r="C374" s="63"/>
-      <c r="M374" s="56"/>
-    </row>
-    <row r="375" spans="1:13">
-      <c r="A375" s="40"/>
-      <c r="B375" s="55" t="s">
+      <c r="C374" s="62"/>
+      <c r="M374" s="55"/>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A375" s="39"/>
+      <c r="B375" s="54" t="s">
         <v>494</v>
       </c>
-      <c r="C375" s="63"/>
-      <c r="M375" s="56"/>
-    </row>
-    <row r="376" spans="1:13">
-      <c r="A376" s="40"/>
-      <c r="B376" s="55" t="s">
+      <c r="C375" s="62"/>
+      <c r="M375" s="55"/>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A376" s="39"/>
+      <c r="B376" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="C376" s="63"/>
-      <c r="M376" s="56"/>
-    </row>
-    <row r="377" spans="1:13">
-      <c r="A377" s="40"/>
-      <c r="B377" s="55" t="s">
+      <c r="C376" s="62"/>
+      <c r="M376" s="55"/>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A377" s="39"/>
+      <c r="B377" s="54" t="s">
         <v>496</v>
       </c>
-      <c r="C377" s="63"/>
-      <c r="M377" s="56"/>
-    </row>
-    <row r="378" spans="1:13">
-      <c r="A378" s="40"/>
-      <c r="B378" s="55" t="s">
+      <c r="C377" s="62"/>
+      <c r="M377" s="55"/>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A378" s="39"/>
+      <c r="B378" s="54" t="s">
         <v>497</v>
       </c>
-      <c r="C378" s="63"/>
-      <c r="M378" s="56"/>
-    </row>
-    <row r="379" spans="1:13">
-      <c r="A379" s="40"/>
-      <c r="B379" s="55" t="s">
+      <c r="C378" s="62"/>
+      <c r="M378" s="55"/>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A379" s="39"/>
+      <c r="B379" s="54" t="s">
         <v>498</v>
       </c>
-      <c r="C379" s="63"/>
-      <c r="M379" s="56"/>
-    </row>
-    <row r="380" spans="1:13">
-      <c r="A380" s="40"/>
-      <c r="B380" s="55" t="s">
+      <c r="C379" s="62"/>
+      <c r="M379" s="55"/>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A380" s="39"/>
+      <c r="B380" s="54" t="s">
         <v>499</v>
       </c>
-      <c r="C380" s="63"/>
-      <c r="M380" s="56"/>
-    </row>
-    <row r="381" spans="1:13">
-      <c r="A381" s="40"/>
-      <c r="B381" s="55" t="s">
+      <c r="C380" s="62"/>
+      <c r="M380" s="55"/>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A381" s="39"/>
+      <c r="B381" s="54" t="s">
         <v>500</v>
       </c>
-      <c r="C381" s="63"/>
-      <c r="M381" s="56"/>
-    </row>
-    <row r="382" spans="1:13">
-      <c r="A382" s="40"/>
-      <c r="B382" s="55" t="s">
+      <c r="C381" s="62"/>
+      <c r="M381" s="55"/>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A382" s="39"/>
+      <c r="B382" s="54" t="s">
         <v>501</v>
       </c>
-      <c r="C382" s="63"/>
-      <c r="M382" s="56"/>
-    </row>
-    <row r="383" spans="1:13">
-      <c r="A383" s="40"/>
-      <c r="B383" s="55" t="s">
+      <c r="C382" s="62"/>
+      <c r="M382" s="55"/>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A383" s="39"/>
+      <c r="B383" s="54" t="s">
         <v>502</v>
       </c>
-      <c r="C383" s="63"/>
-      <c r="M383" s="56"/>
-    </row>
-    <row r="384" spans="1:13">
-      <c r="A384" s="40"/>
-      <c r="B384" s="55" t="s">
+      <c r="C383" s="62"/>
+      <c r="M383" s="55"/>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A384" s="39"/>
+      <c r="B384" s="54" t="s">
         <v>503</v>
       </c>
-      <c r="C384" s="63"/>
-      <c r="M384" s="56"/>
-    </row>
-    <row r="385" spans="1:13">
-      <c r="A385" s="40"/>
-      <c r="B385" s="55" t="s">
+      <c r="C384" s="62"/>
+      <c r="M384" s="55"/>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A385" s="39"/>
+      <c r="B385" s="54" t="s">
         <v>504</v>
       </c>
-      <c r="C385" s="63"/>
-      <c r="M385" s="56"/>
-    </row>
-    <row r="386" spans="1:13">
-      <c r="A386" s="40"/>
-      <c r="B386" s="55" t="s">
+      <c r="C385" s="62"/>
+      <c r="M385" s="55"/>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386" s="39"/>
+      <c r="B386" s="54" t="s">
         <v>505</v>
       </c>
-      <c r="C386" s="63"/>
-      <c r="M386" s="56"/>
-    </row>
-    <row r="387" spans="1:13">
-      <c r="A387" s="40"/>
-      <c r="B387" s="55" t="s">
+      <c r="C386" s="62"/>
+      <c r="M386" s="55"/>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A387" s="39"/>
+      <c r="B387" s="54" t="s">
         <v>506</v>
       </c>
-      <c r="C387" s="63"/>
-      <c r="M387" s="56"/>
-    </row>
-    <row r="388" spans="1:13">
-      <c r="A388" s="40"/>
-      <c r="B388" s="55" t="s">
+      <c r="C387" s="62"/>
+      <c r="M387" s="55"/>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388" s="39"/>
+      <c r="B388" s="54" t="s">
         <v>507</v>
       </c>
-      <c r="C388" s="63"/>
-      <c r="M388" s="56"/>
-    </row>
-    <row r="389" spans="1:13">
-      <c r="A389" s="40"/>
-      <c r="B389" s="55" t="s">
+      <c r="C388" s="62"/>
+      <c r="M388" s="55"/>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A389" s="39"/>
+      <c r="B389" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="C389" s="63"/>
-      <c r="M389" s="56"/>
-    </row>
-    <row r="390" spans="1:13">
-      <c r="A390" s="40"/>
-      <c r="B390" s="55" t="s">
+      <c r="C389" s="62"/>
+      <c r="M389" s="55"/>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A390" s="39"/>
+      <c r="B390" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="C390" s="63"/>
-      <c r="M390" s="56"/>
-    </row>
-    <row r="391" spans="1:13">
-      <c r="A391" s="40"/>
-      <c r="B391" s="55" t="s">
+      <c r="C390" s="62"/>
+      <c r="M390" s="55"/>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A391" s="39"/>
+      <c r="B391" s="54" t="s">
         <v>509</v>
       </c>
-      <c r="C391" s="63"/>
-      <c r="M391" s="56"/>
-    </row>
-    <row r="392" spans="1:13">
-      <c r="A392" s="40"/>
-      <c r="B392" s="55" t="s">
+      <c r="C391" s="62"/>
+      <c r="M391" s="55"/>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A392" s="39"/>
+      <c r="B392" s="54" t="s">
         <v>510</v>
       </c>
-      <c r="C392" s="63"/>
-      <c r="M392" s="56"/>
-    </row>
-    <row r="393" spans="1:13">
-      <c r="A393" s="40"/>
-      <c r="B393" s="55" t="s">
+      <c r="C392" s="62"/>
+      <c r="M392" s="55"/>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393" s="39"/>
+      <c r="B393" s="54" t="s">
         <v>511</v>
       </c>
-      <c r="C393" s="63"/>
-      <c r="M393" s="56"/>
-    </row>
-    <row r="394" spans="1:13">
-      <c r="A394" s="40"/>
-      <c r="B394" s="55" t="s">
+      <c r="C393" s="62"/>
+      <c r="M393" s="55"/>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A394" s="39"/>
+      <c r="B394" s="54" t="s">
         <v>512</v>
       </c>
-      <c r="C394" s="63"/>
-      <c r="M394" s="56"/>
-    </row>
-    <row r="395" spans="1:13">
-      <c r="A395" s="40"/>
-      <c r="B395" s="55" t="s">
+      <c r="C394" s="62"/>
+      <c r="M394" s="55"/>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A395" s="39"/>
+      <c r="B395" s="54" t="s">
         <v>513</v>
       </c>
-      <c r="C395" s="63"/>
-      <c r="M395" s="56"/>
-    </row>
-    <row r="396" spans="1:13">
-      <c r="A396" s="40"/>
-      <c r="B396" s="55" t="s">
+      <c r="C395" s="62"/>
+      <c r="M395" s="55"/>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A396" s="39"/>
+      <c r="B396" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="C396" s="63"/>
-      <c r="M396" s="56"/>
-    </row>
-    <row r="397" spans="1:13">
-      <c r="A397" s="40"/>
-      <c r="B397" s="55" t="s">
+      <c r="C396" s="62"/>
+      <c r="M396" s="55"/>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A397" s="39"/>
+      <c r="B397" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="C397" s="63"/>
-      <c r="M397" s="56"/>
-    </row>
-    <row r="398" spans="1:13">
-      <c r="A398" s="40"/>
-      <c r="B398" s="55" t="s">
+      <c r="C397" s="62"/>
+      <c r="M397" s="55"/>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A398" s="39"/>
+      <c r="B398" s="54" t="s">
         <v>516</v>
       </c>
-      <c r="C398" s="63"/>
-      <c r="M398" s="56"/>
-    </row>
-    <row r="399" spans="1:13">
-      <c r="A399" s="40"/>
-      <c r="B399" s="55" t="s">
+      <c r="C398" s="62"/>
+      <c r="M398" s="55"/>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A399" s="39"/>
+      <c r="B399" s="54" t="s">
         <v>517</v>
       </c>
-      <c r="C399" s="63"/>
-      <c r="M399" s="56"/>
-    </row>
-    <row r="400" spans="1:13">
-      <c r="A400" s="40"/>
-      <c r="B400" s="55" t="s">
+      <c r="C399" s="62"/>
+      <c r="M399" s="55"/>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A400" s="39"/>
+      <c r="B400" s="54" t="s">
         <v>518</v>
       </c>
-      <c r="C400" s="63"/>
-      <c r="M400" s="56"/>
-    </row>
-    <row r="401" spans="1:13">
-      <c r="A401" s="40"/>
-      <c r="B401" s="55" t="s">
+      <c r="C400" s="62"/>
+      <c r="M400" s="55"/>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A401" s="39"/>
+      <c r="B401" s="54" t="s">
         <v>519</v>
       </c>
-      <c r="C401" s="63"/>
-      <c r="M401" s="56"/>
-    </row>
-    <row r="402" spans="1:13">
-      <c r="A402" s="40"/>
-      <c r="B402" s="55" t="s">
+      <c r="C401" s="62"/>
+      <c r="M401" s="55"/>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A402" s="39"/>
+      <c r="B402" s="54" t="s">
         <v>520</v>
       </c>
-      <c r="C402" s="63"/>
-      <c r="M402" s="56"/>
-    </row>
-    <row r="403" spans="1:13">
-      <c r="A403" s="40"/>
-      <c r="B403" s="55" t="s">
+      <c r="C402" s="62"/>
+      <c r="M402" s="55"/>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A403" s="39"/>
+      <c r="B403" s="54" t="s">
         <v>521</v>
       </c>
-      <c r="C403" s="63"/>
-      <c r="M403" s="56"/>
-    </row>
-    <row r="404" spans="1:13">
-      <c r="A404" s="40"/>
-      <c r="B404" s="55" t="s">
+      <c r="C403" s="62"/>
+      <c r="M403" s="55"/>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A404" s="39"/>
+      <c r="B404" s="54" t="s">
         <v>522</v>
       </c>
-      <c r="C404" s="63"/>
-      <c r="M404" s="56"/>
-    </row>
-    <row r="405" spans="1:13">
-      <c r="A405" s="40"/>
-      <c r="B405" s="55" t="s">
+      <c r="C404" s="62"/>
+      <c r="M404" s="55"/>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A405" s="39"/>
+      <c r="B405" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="C405" s="63"/>
-      <c r="M405" s="56"/>
-    </row>
-    <row r="406" spans="1:13">
-      <c r="A406" s="40"/>
-      <c r="B406" s="55" t="s">
+      <c r="C405" s="62"/>
+      <c r="M405" s="55"/>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A406" s="39"/>
+      <c r="B406" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="C406" s="63"/>
-      <c r="M406" s="56"/>
-    </row>
-    <row r="407" spans="1:13">
-      <c r="A407" s="40"/>
-      <c r="B407" s="55" t="s">
+      <c r="C406" s="62"/>
+      <c r="M406" s="55"/>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A407" s="39"/>
+      <c r="B407" s="54" t="s">
         <v>524</v>
       </c>
-      <c r="C407" s="63"/>
-      <c r="M407" s="56"/>
-    </row>
-    <row r="408" spans="1:13">
-      <c r="A408" s="40"/>
-      <c r="B408" s="55" t="s">
+      <c r="C407" s="62"/>
+      <c r="M407" s="55"/>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A408" s="39"/>
+      <c r="B408" s="54" t="s">
         <v>525</v>
       </c>
-      <c r="C408" s="63"/>
-      <c r="M408" s="56"/>
-    </row>
-    <row r="409" spans="1:13">
-      <c r="A409" s="40"/>
-      <c r="B409" s="55" t="s">
+      <c r="C408" s="62"/>
+      <c r="M408" s="55"/>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A409" s="39"/>
+      <c r="B409" s="54" t="s">
         <v>526</v>
       </c>
-      <c r="C409" s="63"/>
-      <c r="M409" s="56"/>
-    </row>
-    <row r="410" spans="1:13">
-      <c r="A410" s="40"/>
-      <c r="B410" s="55" t="s">
+      <c r="C409" s="62"/>
+      <c r="M409" s="55"/>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A410" s="39"/>
+      <c r="B410" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="C410" s="63"/>
-      <c r="M410" s="56"/>
-    </row>
-    <row r="411" spans="1:13">
-      <c r="A411" s="40"/>
-      <c r="B411" s="55" t="s">
+      <c r="C410" s="62"/>
+      <c r="M410" s="55"/>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A411" s="39"/>
+      <c r="B411" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="C411" s="63"/>
-      <c r="M411" s="56"/>
-    </row>
-    <row r="412" spans="1:13">
-      <c r="A412" s="40"/>
-      <c r="B412" s="55" t="s">
+      <c r="C411" s="62"/>
+      <c r="M411" s="55"/>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A412" s="39"/>
+      <c r="B412" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="C412" s="63"/>
-      <c r="M412" s="56"/>
-    </row>
-    <row r="413" spans="1:13" ht="13">
+      <c r="C412" s="62"/>
+      <c r="M412" s="55"/>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B413" s="70" t="s">
+      <c r="B413" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C413" s="63"/>
-      <c r="M413" s="56"/>
-    </row>
-    <row r="414" spans="1:13" ht="13">
+      <c r="C413" s="62"/>
+      <c r="M413" s="55"/>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="17"/>
-      <c r="B414" s="70" t="s">
+      <c r="B414" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C414" s="63"/>
-      <c r="M414" s="56"/>
-    </row>
-    <row r="415" spans="1:13" ht="13">
-      <c r="A415" s="40"/>
-      <c r="B415" s="70" t="s">
+      <c r="C414" s="62"/>
+      <c r="M414" s="55"/>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A415" s="39"/>
+      <c r="B415" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C415" s="63"/>
-      <c r="M415" s="56"/>
-    </row>
-    <row r="416" spans="1:13" ht="13">
-      <c r="A416" s="40"/>
-      <c r="B416" s="70" t="s">
+      <c r="C415" s="62"/>
+      <c r="M415" s="55"/>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A416" s="39"/>
+      <c r="B416" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="C416" s="63"/>
-      <c r="M416" s="56"/>
-    </row>
-    <row r="417" spans="1:13" ht="13">
-      <c r="A417" s="40"/>
-      <c r="B417" s="70" t="s">
+      <c r="C416" s="62"/>
+      <c r="M416" s="55"/>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A417" s="39"/>
+      <c r="B417" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C417" s="63"/>
-      <c r="M417" s="56"/>
-    </row>
-    <row r="418" spans="1:13" ht="13">
-      <c r="A418" s="40"/>
-      <c r="B418" s="70" t="s">
+      <c r="C417" s="62"/>
+      <c r="M417" s="55"/>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A418" s="39"/>
+      <c r="B418" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C418" s="63"/>
-      <c r="M418" s="56"/>
-    </row>
-    <row r="419" spans="1:13" ht="13">
-      <c r="A419" s="40"/>
-      <c r="B419" s="70" t="s">
+      <c r="C418" s="62"/>
+      <c r="M418" s="55"/>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A419" s="39"/>
+      <c r="B419" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C419" s="63"/>
-      <c r="M419" s="56"/>
-    </row>
-    <row r="420" spans="1:13" ht="13">
-      <c r="A420" s="40"/>
-      <c r="B420" s="70" t="s">
+      <c r="C419" s="62"/>
+      <c r="M419" s="55"/>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A420" s="39"/>
+      <c r="B420" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C420" s="63"/>
-      <c r="M420" s="56"/>
-    </row>
-    <row r="421" spans="1:13" ht="13">
-      <c r="A421" s="40"/>
-      <c r="B421" s="70" t="s">
+      <c r="C420" s="62"/>
+      <c r="M420" s="55"/>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A421" s="39"/>
+      <c r="B421" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C421" s="63"/>
-      <c r="M421" s="56"/>
-    </row>
-    <row r="422" spans="1:13" ht="13">
-      <c r="A422" s="40"/>
-      <c r="B422" s="70" t="s">
+      <c r="C421" s="62"/>
+      <c r="M421" s="55"/>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A422" s="39"/>
+      <c r="B422" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C422" s="63"/>
-      <c r="M422" s="56"/>
-    </row>
-    <row r="423" spans="1:13" ht="13">
-      <c r="A423" s="40"/>
-      <c r="B423" s="70" t="s">
+      <c r="C422" s="62"/>
+      <c r="M422" s="55"/>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A423" s="39"/>
+      <c r="B423" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C423" s="63"/>
-      <c r="M423" s="56"/>
-    </row>
-    <row r="424" spans="1:13" ht="13">
-      <c r="A424" s="40"/>
-      <c r="B424" s="70" t="s">
+      <c r="C423" s="62"/>
+      <c r="M423" s="55"/>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A424" s="39"/>
+      <c r="B424" s="69" t="s">
         <v>529</v>
       </c>
-      <c r="C424" s="63"/>
-      <c r="M424" s="56"/>
-    </row>
-    <row r="425" spans="1:13" ht="13">
-      <c r="A425" s="40"/>
-      <c r="B425" s="70" t="s">
+      <c r="C424" s="62"/>
+      <c r="M424" s="55"/>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A425" s="39"/>
+      <c r="B425" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C425" s="63"/>
-      <c r="M425" s="56"/>
-    </row>
-    <row r="426" spans="1:13" ht="13">
-      <c r="A426" s="40"/>
-      <c r="B426" s="70" t="s">
+      <c r="C425" s="62"/>
+      <c r="M425" s="55"/>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A426" s="39"/>
+      <c r="B426" s="69" t="s">
         <v>530</v>
       </c>
-      <c r="C426" s="63"/>
-      <c r="M426" s="56"/>
-    </row>
-    <row r="427" spans="1:13" ht="13">
-      <c r="A427" s="40"/>
-      <c r="B427" s="70" t="s">
+      <c r="C426" s="62"/>
+      <c r="M426" s="55"/>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A427" s="39"/>
+      <c r="B427" s="69" t="s">
         <v>531</v>
       </c>
-      <c r="C427" s="63"/>
-      <c r="M427" s="56"/>
-    </row>
-    <row r="428" spans="1:13" ht="13">
-      <c r="A428" s="40"/>
-      <c r="B428" s="70" t="s">
+      <c r="C427" s="62"/>
+      <c r="M427" s="55"/>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A428" s="39"/>
+      <c r="B428" s="69" t="s">
         <v>532</v>
       </c>
-      <c r="C428" s="63"/>
-      <c r="M428" s="56"/>
-    </row>
-    <row r="429" spans="1:13" ht="13">
-      <c r="A429" s="40"/>
-      <c r="B429" s="70" t="s">
+      <c r="C428" s="62"/>
+      <c r="M428" s="55"/>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A429" s="39"/>
+      <c r="B429" s="69" t="s">
         <v>533</v>
       </c>
-      <c r="C429" s="63"/>
-      <c r="M429" s="56"/>
-    </row>
-    <row r="430" spans="1:13" ht="13">
-      <c r="A430" s="40"/>
-      <c r="B430" s="70" t="s">
+      <c r="C429" s="62"/>
+      <c r="M429" s="55"/>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A430" s="39"/>
+      <c r="B430" s="69" t="s">
         <v>534</v>
       </c>
-      <c r="C430" s="63"/>
-      <c r="M430" s="56"/>
-    </row>
-    <row r="431" spans="1:13" ht="13">
-      <c r="A431" s="40"/>
-      <c r="B431" s="70" t="s">
+      <c r="C430" s="62"/>
+      <c r="M430" s="55"/>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A431" s="39"/>
+      <c r="B431" s="69" t="s">
         <v>535</v>
       </c>
-      <c r="C431" s="63"/>
-      <c r="M431" s="56"/>
-    </row>
-    <row r="432" spans="1:13" ht="13">
-      <c r="A432" s="40"/>
-      <c r="B432" s="70" t="s">
+      <c r="C431" s="62"/>
+      <c r="M431" s="55"/>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A432" s="39"/>
+      <c r="B432" s="69" t="s">
         <v>536</v>
       </c>
-      <c r="C432" s="63"/>
-      <c r="M432" s="56"/>
-    </row>
-    <row r="433" spans="1:13" ht="13">
-      <c r="A433" s="40"/>
-      <c r="B433" s="70" t="s">
+      <c r="C432" s="62"/>
+      <c r="M432" s="55"/>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A433" s="39"/>
+      <c r="B433" s="69" t="s">
         <v>537</v>
       </c>
-      <c r="C433" s="63"/>
-      <c r="M433" s="56"/>
-    </row>
-    <row r="434" spans="1:13" ht="13">
-      <c r="A434" s="40"/>
-      <c r="B434" s="70" t="s">
+      <c r="C433" s="62"/>
+      <c r="M433" s="55"/>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A434" s="39"/>
+      <c r="B434" s="69" t="s">
         <v>538</v>
       </c>
-      <c r="C434" s="63"/>
-      <c r="M434" s="56"/>
-    </row>
-    <row r="435" spans="1:13" ht="13">
-      <c r="A435" s="40"/>
-      <c r="B435" s="70" t="s">
+      <c r="C434" s="62"/>
+      <c r="M434" s="55"/>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A435" s="39"/>
+      <c r="B435" s="69" t="s">
         <v>539</v>
       </c>
-      <c r="C435" s="63"/>
-      <c r="M435" s="56"/>
-    </row>
-    <row r="436" spans="1:13" ht="13">
-      <c r="A436" s="40"/>
-      <c r="B436" s="70" t="s">
+      <c r="C435" s="62"/>
+      <c r="M435" s="55"/>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A436" s="39"/>
+      <c r="B436" s="69" t="s">
         <v>540</v>
       </c>
-      <c r="C436" s="63"/>
-      <c r="M436" s="56"/>
-    </row>
-    <row r="437" spans="1:13" ht="13">
-      <c r="A437" s="40"/>
-      <c r="B437" s="70" t="s">
+      <c r="C436" s="62"/>
+      <c r="M436" s="55"/>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A437" s="39"/>
+      <c r="B437" s="69" t="s">
         <v>541</v>
       </c>
-      <c r="C437" s="63"/>
-      <c r="M437" s="56"/>
-    </row>
-    <row r="438" spans="1:13" ht="13">
-      <c r="A438" s="63" t="s">
+      <c r="C437" s="62"/>
+      <c r="M437" s="55"/>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A438" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B438" s="70" t="s">
+      <c r="B438" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C438" s="67"/>
-      <c r="M438" s="56"/>
-    </row>
-    <row r="439" spans="1:13" ht="13">
-      <c r="A439" s="67"/>
-      <c r="B439" s="70" t="s">
+      <c r="C438" s="66"/>
+      <c r="M438" s="55"/>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A439" s="66"/>
+      <c r="B439" s="69" t="s">
         <v>542</v>
       </c>
-      <c r="C439" s="67"/>
-      <c r="M439" s="56"/>
-    </row>
-    <row r="440" spans="1:13" ht="13">
-      <c r="A440" s="67"/>
-      <c r="B440" s="70" t="s">
+      <c r="C439" s="66"/>
+      <c r="M439" s="55"/>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A440" s="66"/>
+      <c r="B440" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C440" s="67"/>
-      <c r="M440" s="56"/>
-    </row>
-    <row r="441" spans="1:13">
-      <c r="A441" s="67" t="s">
-        <v>753</v>
-      </c>
-      <c r="B441" s="67"/>
-      <c r="C441" s="67"/>
-      <c r="M441" s="56"/>
-    </row>
-    <row r="442" spans="1:13" ht="13">
-      <c r="A442" s="67"/>
-      <c r="B442" s="71" t="s">
-        <v>754</v>
-      </c>
-      <c r="C442" s="67"/>
-      <c r="M442" s="56"/>
-    </row>
-    <row r="443" spans="1:13" ht="13">
-      <c r="A443" s="67"/>
-      <c r="B443" s="71" t="s">
+      <c r="C440" s="66"/>
+      <c r="M440" s="55"/>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A441" s="66" t="s">
+        <v>735</v>
+      </c>
+      <c r="B441" s="66"/>
+      <c r="C441" s="66"/>
+      <c r="M441" s="55"/>
+    </row>
+    <row r="442" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A442" s="66"/>
+      <c r="B442" s="70" t="s">
+        <v>736</v>
+      </c>
+      <c r="C442" s="66"/>
+      <c r="M442" s="55"/>
+    </row>
+    <row r="443" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A443" s="66"/>
+      <c r="B443" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C443" s="67"/>
-      <c r="M443" s="56"/>
-    </row>
-    <row r="444" spans="1:13" ht="13">
-      <c r="A444" s="67"/>
-      <c r="B444" s="71" t="s">
+      <c r="C443" s="66"/>
+      <c r="M443" s="55"/>
+    </row>
+    <row r="444" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A444" s="66"/>
+      <c r="B444" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C444" s="67"/>
-      <c r="M444" s="56"/>
-    </row>
-    <row r="445" spans="1:13" ht="13">
-      <c r="A445" s="67"/>
-      <c r="B445" s="71" t="s">
+      <c r="C444" s="66"/>
+      <c r="M444" s="55"/>
+    </row>
+    <row r="445" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A445" s="66"/>
+      <c r="B445" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C445" s="67"/>
-      <c r="M445" s="56"/>
-    </row>
-    <row r="446" spans="1:13" ht="13">
-      <c r="A446" s="67"/>
-      <c r="B446" s="71" t="s">
+      <c r="C445" s="66"/>
+      <c r="M445" s="55"/>
+    </row>
+    <row r="446" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A446" s="66"/>
+      <c r="B446" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C446" s="67"/>
-      <c r="M446" s="56"/>
-    </row>
-    <row r="447" spans="1:13" ht="13">
-      <c r="A447" s="67"/>
-      <c r="B447" s="71" t="s">
+      <c r="C446" s="66"/>
+      <c r="M446" s="55"/>
+    </row>
+    <row r="447" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A447" s="66"/>
+      <c r="B447" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C447" s="67"/>
-      <c r="M447" s="56"/>
-    </row>
-    <row r="448" spans="1:13" ht="13">
-      <c r="A448" s="67"/>
-      <c r="B448" s="71" t="s">
+      <c r="C447" s="66"/>
+      <c r="M447" s="55"/>
+    </row>
+    <row r="448" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A448" s="66"/>
+      <c r="B448" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C448" s="67"/>
-      <c r="M448" s="56"/>
-    </row>
-    <row r="449" spans="1:13" ht="13">
-      <c r="A449" s="67"/>
-      <c r="B449" s="71" t="s">
+      <c r="C448" s="66"/>
+      <c r="M448" s="55"/>
+    </row>
+    <row r="449" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A449" s="66"/>
+      <c r="B449" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C449" s="67"/>
-      <c r="M449" s="56"/>
-    </row>
-    <row r="450" spans="1:13" ht="13">
-      <c r="A450" s="67"/>
-      <c r="B450" s="72" t="s">
+      <c r="C449" s="66"/>
+      <c r="M449" s="55"/>
+    </row>
+    <row r="450" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A450" s="66"/>
+      <c r="B450" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C450" s="67"/>
-      <c r="M450" s="56"/>
-    </row>
-    <row r="451" spans="1:13" ht="13">
-      <c r="A451" s="67"/>
-      <c r="B451" s="72" t="s">
+      <c r="C450" s="66"/>
+      <c r="M450" s="55"/>
+    </row>
+    <row r="451" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A451" s="66"/>
+      <c r="B451" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C451" s="67"/>
-      <c r="M451" s="56"/>
-    </row>
-    <row r="452" spans="1:13" ht="13">
-      <c r="A452" s="67"/>
-      <c r="B452" s="72" t="s">
+      <c r="C451" s="66"/>
+      <c r="M451" s="55"/>
+    </row>
+    <row r="452" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A452" s="66"/>
+      <c r="B452" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C452" s="67"/>
-      <c r="M452" s="56"/>
-    </row>
-    <row r="453" spans="1:13" ht="13">
-      <c r="A453" s="67"/>
-      <c r="B453" s="72" t="s">
+      <c r="C452" s="66"/>
+      <c r="M452" s="55"/>
+    </row>
+    <row r="453" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A453" s="66"/>
+      <c r="B453" s="71" t="s">
         <v>529</v>
       </c>
-      <c r="C453" s="67"/>
-      <c r="M453" s="56"/>
-    </row>
-    <row r="454" spans="1:13" ht="13">
-      <c r="A454" s="67"/>
-      <c r="B454" s="72" t="s">
+      <c r="C453" s="66"/>
+      <c r="M453" s="55"/>
+    </row>
+    <row r="454" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A454" s="66"/>
+      <c r="B454" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C454" s="67"/>
-      <c r="M454" s="56"/>
-    </row>
-    <row r="455" spans="1:13" ht="13">
-      <c r="A455" s="67"/>
-      <c r="B455" s="72" t="s">
+      <c r="C454" s="66"/>
+      <c r="M454" s="55"/>
+    </row>
+    <row r="455" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A455" s="66"/>
+      <c r="B455" s="71" t="s">
         <v>530</v>
       </c>
-      <c r="C455" s="67"/>
-      <c r="M455" s="56"/>
-    </row>
-    <row r="456" spans="1:13" ht="13">
-      <c r="A456" s="67"/>
-      <c r="B456" s="72" t="s">
+      <c r="C455" s="66"/>
+      <c r="M455" s="55"/>
+    </row>
+    <row r="456" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A456" s="66"/>
+      <c r="B456" s="71" t="s">
         <v>531</v>
       </c>
-      <c r="C456" s="67"/>
-      <c r="M456" s="56"/>
-    </row>
-    <row r="457" spans="1:13" ht="13">
-      <c r="A457" s="67"/>
-      <c r="B457" s="72" t="s">
+      <c r="C456" s="66"/>
+      <c r="M456" s="55"/>
+    </row>
+    <row r="457" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A457" s="66"/>
+      <c r="B457" s="71" t="s">
         <v>532</v>
       </c>
-      <c r="C457" s="67"/>
-      <c r="M457" s="56"/>
-    </row>
-    <row r="458" spans="1:13" ht="13">
-      <c r="A458" s="67"/>
-      <c r="B458" s="72" t="s">
+      <c r="C457" s="66"/>
+      <c r="M457" s="55"/>
+    </row>
+    <row r="458" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A458" s="66"/>
+      <c r="B458" s="71" t="s">
         <v>533</v>
       </c>
-      <c r="C458" s="67"/>
-      <c r="M458" s="56"/>
-    </row>
-    <row r="459" spans="1:13" ht="13">
-      <c r="A459" s="67"/>
-      <c r="B459" s="72" t="s">
+      <c r="C458" s="66"/>
+      <c r="M458" s="55"/>
+    </row>
+    <row r="459" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A459" s="66"/>
+      <c r="B459" s="71" t="s">
         <v>534</v>
       </c>
-      <c r="C459" s="67"/>
-      <c r="M459" s="56"/>
-    </row>
-    <row r="460" spans="1:13" ht="13">
-      <c r="A460" s="67"/>
-      <c r="B460" s="72" t="s">
+      <c r="C459" s="66"/>
+      <c r="M459" s="55"/>
+    </row>
+    <row r="460" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A460" s="66"/>
+      <c r="B460" s="71" t="s">
         <v>535</v>
       </c>
-      <c r="C460" s="67"/>
-      <c r="M460" s="56"/>
-    </row>
-    <row r="461" spans="1:13" ht="13">
-      <c r="A461" s="67"/>
-      <c r="B461" s="72" t="s">
+      <c r="C460" s="66"/>
+      <c r="M460" s="55"/>
+    </row>
+    <row r="461" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A461" s="66"/>
+      <c r="B461" s="71" t="s">
         <v>536</v>
       </c>
-      <c r="C461" s="67"/>
-      <c r="M461" s="56"/>
-    </row>
-    <row r="462" spans="1:13" ht="13">
-      <c r="A462" s="67"/>
-      <c r="B462" s="72" t="s">
+      <c r="C461" s="66"/>
+      <c r="M461" s="55"/>
+    </row>
+    <row r="462" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A462" s="66"/>
+      <c r="B462" s="71" t="s">
         <v>537</v>
       </c>
-      <c r="C462" s="67"/>
-      <c r="M462" s="56"/>
-    </row>
-    <row r="463" spans="1:13" ht="13">
-      <c r="A463" s="67"/>
-      <c r="B463" s="72" t="s">
+      <c r="C462" s="66"/>
+      <c r="M462" s="55"/>
+    </row>
+    <row r="463" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A463" s="66"/>
+      <c r="B463" s="71" t="s">
         <v>538</v>
       </c>
-      <c r="C463" s="67"/>
-      <c r="M463" s="56"/>
-    </row>
-    <row r="464" spans="1:13" ht="13">
-      <c r="A464" s="67"/>
-      <c r="B464" s="72" t="s">
+      <c r="C463" s="66"/>
+      <c r="M463" s="55"/>
+    </row>
+    <row r="464" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A464" s="66"/>
+      <c r="B464" s="71" t="s">
         <v>539</v>
       </c>
-      <c r="C464" s="67"/>
-      <c r="M464" s="56"/>
-    </row>
-    <row r="465" spans="1:13" ht="13">
-      <c r="A465" s="67"/>
-      <c r="B465" s="72" t="s">
+      <c r="C464" s="66"/>
+      <c r="M464" s="55"/>
+    </row>
+    <row r="465" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A465" s="66"/>
+      <c r="B465" s="71" t="s">
         <v>540</v>
       </c>
-      <c r="C465" s="67"/>
-      <c r="M465" s="56"/>
-    </row>
-    <row r="466" spans="1:13" ht="13">
-      <c r="A466" s="67"/>
-      <c r="B466" s="72" t="s">
+      <c r="C465" s="66"/>
+      <c r="M465" s="55"/>
+    </row>
+    <row r="466" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A466" s="66"/>
+      <c r="B466" s="71" t="s">
         <v>541</v>
       </c>
-      <c r="C466" s="67"/>
-      <c r="M466" s="56"/>
-    </row>
-    <row r="467" spans="1:13">
-      <c r="A467" s="73" t="s">
-        <v>755</v>
-      </c>
-      <c r="B467" s="67"/>
-      <c r="C467" s="67"/>
-      <c r="M467" s="56"/>
-    </row>
-    <row r="468" spans="1:13" ht="37.5">
-      <c r="A468" s="67"/>
-      <c r="B468" s="67" t="s">
-        <v>756</v>
-      </c>
-      <c r="C468" s="67"/>
-      <c r="M468" s="56"/>
-    </row>
-    <row r="469" spans="1:13">
-      <c r="A469" s="67"/>
-      <c r="B469" s="67"/>
-      <c r="C469" s="67"/>
-      <c r="M469" s="56"/>
-    </row>
-    <row r="470" spans="1:13">
-      <c r="A470" s="67"/>
-      <c r="B470" s="67"/>
-      <c r="C470" s="67"/>
-      <c r="M470" s="56"/>
-    </row>
-    <row r="471" spans="1:13">
-      <c r="A471" s="67"/>
-      <c r="B471" s="67"/>
-      <c r="C471" s="67"/>
-      <c r="M471" s="56"/>
-    </row>
-    <row r="472" spans="1:13">
-      <c r="A472" s="67"/>
-      <c r="B472" s="67"/>
-      <c r="C472" s="67"/>
-      <c r="M472" s="56"/>
-    </row>
-    <row r="473" spans="1:13">
-      <c r="A473" s="67"/>
-      <c r="B473" s="67"/>
-      <c r="C473" s="67"/>
-      <c r="M473" s="56"/>
-    </row>
-    <row r="474" spans="1:13">
-      <c r="A474" s="67"/>
-      <c r="B474" s="67"/>
-      <c r="C474" s="67"/>
-      <c r="M474" s="56"/>
-    </row>
-    <row r="475" spans="1:13">
-      <c r="A475" s="67"/>
-      <c r="B475" s="67"/>
-      <c r="C475" s="67"/>
-      <c r="M475" s="56"/>
-    </row>
-    <row r="476" spans="1:13">
-      <c r="A476" s="67"/>
-      <c r="B476" s="67"/>
-      <c r="C476" s="67"/>
-      <c r="M476" s="56"/>
-    </row>
-    <row r="477" spans="1:13">
-      <c r="A477" s="67"/>
-      <c r="B477" s="67"/>
-      <c r="C477" s="67"/>
-      <c r="M477" s="56"/>
+      <c r="C466" s="66"/>
+      <c r="M466" s="55"/>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A467" s="72" t="s">
+        <v>737</v>
+      </c>
+      <c r="B467" s="66"/>
+      <c r="C467" s="66"/>
+      <c r="M467" s="55"/>
+    </row>
+    <row r="468" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A468" s="66"/>
+      <c r="B468" s="66" t="s">
+        <v>738</v>
+      </c>
+      <c r="C468" s="66"/>
+      <c r="M468" s="55"/>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A469" s="66"/>
+      <c r="B469" s="66"/>
+      <c r="C469" s="66"/>
+      <c r="M469" s="55"/>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A470" s="66"/>
+      <c r="B470" s="66"/>
+      <c r="C470" s="66"/>
+      <c r="M470" s="55"/>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A471" s="66"/>
+      <c r="B471" s="66"/>
+      <c r="C471" s="66"/>
+      <c r="M471" s="55"/>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A472" s="66"/>
+      <c r="B472" s="66"/>
+      <c r="C472" s="66"/>
+      <c r="M472" s="55"/>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A473" s="66"/>
+      <c r="B473" s="66"/>
+      <c r="C473" s="66"/>
+      <c r="M473" s="55"/>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A474" s="66"/>
+      <c r="B474" s="66"/>
+      <c r="C474" s="66"/>
+      <c r="M474" s="55"/>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A475" s="66"/>
+      <c r="B475" s="66"/>
+      <c r="C475" s="66"/>
+      <c r="M475" s="55"/>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A476" s="66"/>
+      <c r="B476" s="66"/>
+      <c r="C476" s="66"/>
+      <c r="M476" s="55"/>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A477" s="66"/>
+      <c r="B477" s="66"/>
+      <c r="C477" s="66"/>
+      <c r="M477" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10197,68 +10137,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1209F63-9D26-47E3-9B22-A0E9D0C538F7}">
-  <dimension ref="A1:BH5"/>
+  <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.453125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="9.6328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.453125" collapsed="true"/>
-    <col min="15" max="16" bestFit="true" customWidth="true" width="15.54296875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.54296875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="9.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="26" max="27" bestFit="true" customWidth="true" width="8.36328125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="86" width="10.6328125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="16.6328125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="85" width="10.6640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
     <col min="34" max="34" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
     <col min="35" max="35" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="25.54296875" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="26.08984375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="28.36328125" collapsed="true"/>
-    <col min="40" max="41" customWidth="true" width="28.36328125" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="14.6328125" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="16.36328125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="40" max="41" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
     <col min="47" max="47" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="15.08984375" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="23.6328125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="22.90625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="20.36328125" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
     <col min="53" max="53" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
     <col min="59" max="59" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>92</v>
       </c>
@@ -10377,7 +10317,7 @@
         <v>589</v>
       </c>
       <c r="AN1" s="19" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="AO1" s="19" t="s">
         <v>42</v>
@@ -10438,293 +10378,83 @@
       </c>
       <c r="BH1" s="20"/>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>856</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>663</v>
-      </c>
+        <v>833</v>
+      </c>
+      <c r="B2" s="24"/>
       <c r="C2" s="22" t="s">
-        <v>824</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>664</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>666</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>666</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>666</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>666</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>666</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>667</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="90" t="s">
+        <v>837</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="21" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="N2" s="22"/>
-      <c r="O2" s="21" t="s">
-        <v>667</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q2" s="22">
-        <v>288000</v>
-      </c>
-      <c r="R2" s="22">
-        <v>288000</v>
-      </c>
-      <c r="S2" s="22">
-        <v>288000</v>
-      </c>
-      <c r="T2" s="22">
-        <v>288000</v>
-      </c>
-      <c r="U2" s="22">
-        <v>288000</v>
-      </c>
-      <c r="V2" s="22">
-        <v>288000</v>
-      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
-      <c r="AC2" s="23" t="s">
-        <v>804</v>
-      </c>
+      <c r="AC2" s="23"/>
       <c r="AD2" s="22"/>
-      <c r="AE2" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="22">
-        <v>87</v>
-      </c>
-      <c r="AG2" s="21" t="s">
-        <v>667</v>
-      </c>
-      <c r="AH2" s="22">
-        <v>876</v>
-      </c>
-      <c r="AI2" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="AJ2" s="22">
-        <v>212</v>
-      </c>
-      <c r="AK2" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="AL2" s="22">
-        <v>14539</v>
-      </c>
-      <c r="AM2" s="22" t="s">
-        <v>686</v>
-      </c>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
       <c r="AN2" s="22" t="s">
-        <v>826</v>
+        <v>35</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>861</v>
-      </c>
-      <c r="AP2" s="22" t="s">
-        <v>654</v>
-      </c>
-      <c r="AQ2" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="AR2" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="AS2" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="AT2" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="AU2" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="AV2" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="AW2" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="AX2" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="AY2" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="AZ2" s="22" t="s">
-        <v>658</v>
-      </c>
-      <c r="BA2" s="22" t="s">
-        <v>659</v>
-      </c>
-      <c r="BB2" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="BC2" s="22" t="s">
-        <v>659</v>
-      </c>
-      <c r="BD2" s="22" t="s">
-        <v>661</v>
-      </c>
-      <c r="BE2" s="22" t="s">
-        <v>659</v>
-      </c>
-      <c r="BF2" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="BG2" s="22" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:60">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="22"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="22"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="22"/>
-      <c r="BF3" s="22"/>
-      <c r="BG3" s="22"/>
-    </row>
-    <row r="4" spans="1:60">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="22"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="22"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="22"/>
-      <c r="BG4" s="22"/>
-    </row>
-    <row r="5" spans="1:60">
-      <c r="AG5" s="90"/>
+        <v>840</v>
+      </c>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="22"/>
+      <c r="BF2" s="22"/>
+      <c r="BG2" s="22"/>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="AG3" s="89"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -10732,8 +10462,11 @@
       <formula1>"BOM"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{C7F0DED7-74D7-427B-8162-C73523F78DE9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
@@ -10791,11 +10524,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -10810,11 +10543,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="5:11">
+    <row r="1" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -10823,21 +10556,21 @@
         <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="I1" t="s">
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="K1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="5:11">
+    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -10846,21 +10579,21 @@
         <v>542</v>
       </c>
       <c r="H2" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="K2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="3" spans="5:11">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -10869,64 +10602,64 @@
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="K3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="5:11">
+    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="K4" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="5" spans="5:11">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
       <c r="I5" t="s">
         <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="K5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="5:11">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
       <c r="I6" t="s">
         <v>47</v>
@@ -10935,139 +10668,139 @@
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="7" spans="5:11">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="K7" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="8" spans="5:11">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
       <c r="K8" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="9" spans="5:11">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
       <c r="K9" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="10" spans="5:11">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
       <c r="K10" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>529</v>
       </c>
       <c r="H11" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="K11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="5:11">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="K12" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="13" spans="5:11">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>530</v>
       </c>
       <c r="H13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="14" spans="5:11">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="5:11">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="16" spans="5:11">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="6:6">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="6:6">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>31</v>
       </c>
@@ -11079,21 +10812,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F589723C5CF9BF4888831BB2DC69A718" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d91ee2624ae14a4be9994568eb03d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc0735e1-1781-4e64-a3a6-cf1bacd21285" xmlns:ns3="acee2d6b-dd79-4fb3-8fb4-89e5568edfef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf92cc8814d37b02d77c323fc2a11963" ns2:_="" ns3:_="">
     <xsd:import namespace="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
@@ -11272,32 +10990,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCECA1-7A17-4605-AE73-73B4F527C894}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{090AF72E-503D-4D63-A8FB-B98DEABA3FFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11314,4 +11022,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCECA1-7A17-4605-AE73-73B4F527C894}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Bug.xlsx
@@ -3,28 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AFF574-549F-45D5-BB82-C57D207C9041}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E633D924-24FB-45E4-B945-D9A51ACFBB2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="25" r:id="rId1"/>
     <sheet name="Read me" sheetId="24" r:id="rId2"/>
     <sheet name="Bug" sheetId="35" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="37" r:id="rId4"/>
-    <sheet name="DataValidation" sheetId="36" state="hidden" r:id="rId5"/>
+    <sheet name="DataValidation" sheetId="36" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Read me'!$A$19:$C$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="837">
   <si>
     <t>Title</t>
   </si>
@@ -2450,12 +2449,6 @@
     <t>Updated the read me section for the line DateFormat from 'All datetime should be of "yyyy-mm-dd hh:mm:ss.sss" format. ' to 'All datetime should be of "YYYY-MM-DDTHH:MM:SSZ" format.'</t>
   </si>
   <si>
-    <t>9/11/2021 12:30PM</t>
-  </si>
-  <si>
-    <t>All datetime should be of  format &amp; formula "YYYY-MM-DDTHH:MM:SSZ".</t>
-  </si>
-  <si>
     <t>Date on which entity was created in the external tool and date format must be YYYY-MM-DDTHH:MM:SSZ &amp; date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
   </si>
   <si>
@@ -2495,6 +2488,13 @@
     <t>Updated the read me section for the line DateFormat attributes to datetime formula should be  "YYYY-MM-DDTHH:MM:SSZ"</t>
   </si>
   <si>
+    <t>Read me section updated for  "DateFormat" under "Good Practices"  as per enhancement 1548517</t>
+  </si>
+  <si>
+    <t>All datetime should be of  format &amp; formula "YYYY-MM-DDTHH:MM:SSZ".
+Note : To validate the Date Format configured in the DateTime fields, check the Format Cell with General option.</t>
+  </si>
+  <si>
     <t>Lowest</t>
   </si>
   <si>
@@ -2579,39 +2579,23 @@
     <t>Rejected</t>
   </si>
   <si>
-    <t>BOM-119693</t>
-  </si>
-  <si>
-    <t>heyy</t>
-  </si>
-  <si>
     <t>BOM</t>
   </si>
   <si>
-    <t>2021-08-13T13:03:51Z</t>
-  </si>
-  <si>
-    <t>testuser01art@ds.dev.accenture.com</t>
-  </si>
-  <si>
-    <t>Bug_AutomationData_GenericUploader</t>
-  </si>
-  <si>
-    <t>2021-08-13T05:32:46Z</t>
-  </si>
-  <si>
-    <t>Security_AutomationData</t>
+    <t>BOM-125493</t>
+  </si>
+  <si>
+    <t>Bug_AutomationData</t>
+  </si>
+  <si>
+    <t>2021-11-03T06:36:53Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\Thh:mm:ss\Z"/>
-  </numFmts>
-  <fonts count="17">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2701,12 +2685,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
@@ -2716,14 +2694,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2978,12 +2948,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3037,10 +3006,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3049,9 +3014,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3170,10 +3132,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3203,16 +3165,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3225,8 +3187,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3234,8 +3210,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -3549,39 +3524,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FC6D2C-D26F-4A0D-A230-125B5010EEAF}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A32" sqref="A32:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="59.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.6640625" collapsed="true"/>
-    <col min="5" max="16384" style="6" width="8.6640625" collapsed="true"/>
+    <col min="1" max="1" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="23" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3595,7 +3570,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -3609,7 +3584,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3623,7 +3598,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3637,7 +3612,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3651,7 +3626,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3665,7 +3640,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3679,7 +3654,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="38.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -3693,7 +3668,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -3707,7 +3682,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3721,7 +3696,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -3735,7 +3710,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -3749,7 +3724,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -3763,7 +3738,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3780,14 +3755,14 @@
         <v>665</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="24">
         <v>43898</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -3797,14 +3772,14 @@
         <v>667</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="24">
         <v>43898</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3814,14 +3789,14 @@
         <v>667</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="24">
         <v>43959</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -3831,14 +3806,14 @@
         <v>667</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="24">
         <v>43959</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -3848,7 +3823,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -3865,7 +3840,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -3882,7 +3857,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -3892,14 +3867,14 @@
       <c r="C22" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="25" t="s">
         <v>676</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="25" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -3916,7 +3891,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -3933,106 +3908,121 @@
         <v>682</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="77">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="72">
         <v>24</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="71" t="s">
         <v>741</v>
       </c>
-      <c r="C25" s="79">
+      <c r="C25" s="74">
         <v>44113</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="73" t="s">
         <v>676</v>
       </c>
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="73" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="77">
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="72">
         <v>25</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="71" t="s">
         <v>743</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="73" t="s">
         <v>744</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="73" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="77">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="72">
         <v>26</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="71" t="s">
         <v>748</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="73" t="s">
         <v>749</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="73" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="77">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="72">
         <v>27</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="71" t="s">
         <v>786</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="74">
         <v>43958</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="73" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C29" s="81">
         <v>44363</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D29" s="82" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="C30" s="86">
+      <c r="C30" s="81">
         <v>44393</v>
       </c>
-      <c r="D30" s="87" t="s">
+      <c r="D30" s="82" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="C31" s="86">
+        <v>802</v>
+      </c>
+      <c r="C31" s="81">
         <v>44403</v>
       </c>
-      <c r="D31" s="87" t="s">
+      <c r="D31" s="82" t="s">
         <v>791</v>
       </c>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="87">
+        <v>31</v>
+      </c>
+      <c r="B32" s="85" t="s">
+        <v>803</v>
+      </c>
+      <c r="C32" s="88">
+        <v>44489</v>
+      </c>
+      <c r="D32" s="86" t="s">
+        <v>676</v>
+      </c>
+      <c r="E32" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4045,63 +4035,63 @@
   <dimension ref="A1:M477"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="39.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="49.6640625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="6" max="11" customWidth="true" style="3" width="9.33203125" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" width="39.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6328125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10" style="3" customWidth="1"/>
+    <col min="6" max="11" width="9.36328125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.36328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="27" t="s">
         <v>638</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="27" t="s">
         <v>639</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="27" t="s">
         <v>640</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="27" t="s">
         <v>641</v>
       </c>
-      <c r="M1" s="32"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="53" t="s">
         <v>77</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -4131,14 +4121,14 @@
       <c r="L2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="53" t="s">
         <v>684</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -4168,14 +4158,14 @@
       <c r="L3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="55"/>
-    </row>
-    <row r="4" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="M3" s="50"/>
+    </row>
+    <row r="4" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
         <v>739</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
         <v>740</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -4205,10 +4195,10 @@
       <c r="L4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="55"/>
-    </row>
-    <row r="5" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
         <v>745</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4240,22 +4230,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="M6" s="55"/>
-    </row>
-    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="M6" s="50"/>
+    </row>
+    <row r="7" spans="1:13" ht="25" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="61" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="56" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -4285,15 +4275,15 @@
       <c r="L7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="55"/>
-    </row>
-    <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="M7" s="50"/>
+    </row>
+    <row r="8" spans="1:13" ht="50" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="62" t="s">
-        <v>794</v>
+      <c r="B8" s="34"/>
+      <c r="C8" s="89" t="s">
+        <v>804</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>78</v>
@@ -4322,14 +4312,14 @@
       <c r="L8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="55"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="62" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="57" t="s">
         <v>685</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -4359,37 +4349,37 @@
       <c r="L9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="55"/>
-    </row>
-    <row r="10" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="M9" s="50"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="59" t="s">
         <v>555</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="59" t="s">
         <v>592</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -4421,14 +4411,14 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="60" t="s">
         <v>556</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="60" t="s">
         <v>593</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -4460,14 +4450,14 @@
       </c>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="60" t="s">
         <v>594</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -4499,14 +4489,14 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="60" t="s">
         <v>595</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -4538,14 +4528,14 @@
       </c>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="60" t="s">
         <v>616</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="60" t="s">
         <v>619</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -4577,14 +4567,14 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="60" t="s">
         <v>618</v>
       </c>
       <c r="D16" s="12"/>
@@ -4596,16 +4586,16 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="56"/>
-    </row>
-    <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="M16" s="51"/>
+    </row>
+    <row r="17" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="60" t="s">
         <v>596</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -4635,14 +4625,14 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
         <v>686</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="60" t="s">
         <v>597</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -4673,13 +4663,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="60" t="s">
         <v>558</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="60" t="s">
         <v>598</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -4709,14 +4699,14 @@
       </c>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+    <row r="20" spans="1:13" ht="33.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>687</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="60" t="s">
         <v>559</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="60" t="s">
         <v>599</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -4746,14 +4736,14 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="60" t="s">
         <v>688</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="60" t="s">
         <v>689</v>
       </c>
       <c r="D21" s="12"/>
@@ -4767,14 +4757,14 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
         <v>690</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>560</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="60" t="s">
         <v>600</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -4806,14 +4796,14 @@
       </c>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+    <row r="23" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="60" t="s">
         <v>561</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="60" t="s">
         <v>582</v>
       </c>
       <c r="D23" s="12"/>
@@ -4827,14 +4817,14 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
         <v>691</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="60" t="s">
         <v>562</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="60" t="s">
         <v>601</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -4866,14 +4856,14 @@
       </c>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
         <v>692</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="60" t="s">
         <v>693</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="60" t="s">
         <v>694</v>
       </c>
       <c r="D25" s="12"/>
@@ -4887,15 +4877,15 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="60" t="s">
         <v>563</v>
       </c>
-      <c r="C26" s="65" t="s">
-        <v>795</v>
+      <c r="C26" s="60" t="s">
+        <v>793</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>78</v>
@@ -4926,14 +4916,14 @@
       </c>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
         <v>696</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="60" t="s">
         <v>697</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="60" t="s">
         <v>698</v>
       </c>
       <c r="D27" s="12"/>
@@ -4947,15 +4937,15 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:13" ht="104" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
         <v>699</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="60" t="s">
         <v>564</v>
       </c>
-      <c r="C28" s="65" t="s">
-        <v>796</v>
+      <c r="C28" s="60" t="s">
+        <v>794</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>78</v>
@@ -4986,14 +4976,14 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+    <row r="29" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="60" t="s">
         <v>565</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="60" t="s">
         <v>750</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -5025,14 +5015,14 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="60" t="s">
         <v>578</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="60" t="s">
         <v>602</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -5062,15 +5052,15 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+    <row r="31" spans="1:13" ht="52" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="60" t="s">
         <v>701</v>
       </c>
-      <c r="C31" s="65" t="s">
-        <v>797</v>
+      <c r="C31" s="60" t="s">
+        <v>795</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -5083,14 +5073,14 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
         <v>702</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="60" t="s">
         <v>703</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="60" t="s">
         <v>704</v>
       </c>
       <c r="D32" s="12"/>
@@ -5104,15 +5094,15 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+    <row r="33" spans="1:13" ht="52" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
         <v>705</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="60" t="s">
         <v>706</v>
       </c>
-      <c r="C33" s="65" t="s">
-        <v>798</v>
+      <c r="C33" s="60" t="s">
+        <v>796</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -5125,14 +5115,14 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+    <row r="34" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="60" t="s">
         <v>708</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="60" t="s">
         <v>709</v>
       </c>
       <c r="D34" s="12"/>
@@ -5146,14 +5136,14 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+    <row r="35" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
         <v>710</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="60" t="s">
         <v>711</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="60" t="s">
         <v>712</v>
       </c>
       <c r="D35" s="12"/>
@@ -5167,14 +5157,14 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+    <row r="36" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
         <v>713</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="60" t="s">
         <v>578</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="60" t="s">
         <v>714</v>
       </c>
       <c r="D36" s="12"/>
@@ -5188,15 +5178,15 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+    <row r="37" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="60" t="s">
         <v>715</v>
       </c>
-      <c r="C37" s="65" t="s">
-        <v>799</v>
+      <c r="C37" s="60" t="s">
+        <v>797</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="12" t="s">
@@ -5217,15 +5207,15 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+    <row r="38" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="60" t="s">
         <v>708</v>
       </c>
-      <c r="C38" s="65" t="s">
-        <v>799</v>
+      <c r="C38" s="60" t="s">
+        <v>797</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="12" t="s">
@@ -5252,15 +5242,15 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+    <row r="39" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="60" t="s">
         <v>715</v>
       </c>
-      <c r="C39" s="65" t="s">
-        <v>799</v>
+      <c r="C39" s="60" t="s">
+        <v>797</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="12"/>
@@ -5273,16 +5263,16 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="56"/>
-    </row>
-    <row r="40" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="75" t="s">
         <v>751</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="76" t="s">
         <v>752</v>
       </c>
       <c r="D40" s="12"/>
@@ -5298,16 +5288,16 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="56"/>
-    </row>
-    <row r="41" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="75" t="s">
         <v>753</v>
       </c>
-      <c r="C41" s="81" t="s">
+      <c r="C41" s="76" t="s">
         <v>752</v>
       </c>
       <c r="D41" s="12"/>
@@ -5323,17 +5313,17 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="56"/>
-    </row>
-    <row r="42" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+      <c r="M41" s="51"/>
+    </row>
+    <row r="42" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A42" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="60" t="s">
         <v>754</v>
       </c>
-      <c r="C42" s="65" t="s">
-        <v>799</v>
+      <c r="C42" s="60" t="s">
+        <v>797</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -5346,17 +5336,17 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="56"/>
-    </row>
-    <row r="43" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
+      <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="60" t="s">
         <v>755</v>
       </c>
-      <c r="C43" s="65" t="s">
-        <v>799</v>
+      <c r="C43" s="60" t="s">
+        <v>797</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -5371,16 +5361,16 @@
         <v>78</v>
       </c>
       <c r="L43" s="2"/>
-      <c r="M43" s="56"/>
-    </row>
-    <row r="44" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="75" t="s">
         <v>756</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="76" t="s">
         <v>752</v>
       </c>
       <c r="D44" s="12"/>
@@ -5396,16 +5386,16 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="56"/>
-    </row>
-    <row r="45" spans="1:13" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46" t="s">
+      <c r="M44" s="51"/>
+    </row>
+    <row r="45" spans="1:13" ht="29.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="77" t="s">
         <v>757</v>
       </c>
-      <c r="C45" s="81" t="s">
+      <c r="C45" s="76" t="s">
         <v>752</v>
       </c>
       <c r="D45" s="12"/>
@@ -5419,16 +5409,16 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="56"/>
-    </row>
-    <row r="46" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="1:13" ht="35.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="75" t="s">
         <v>758</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="76" t="s">
         <v>719</v>
       </c>
       <c r="D46" s="12"/>
@@ -5442,16 +5432,16 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="56"/>
-    </row>
-    <row r="47" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
+      <c r="M46" s="51"/>
+    </row>
+    <row r="47" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="75" t="s">
         <v>759</v>
       </c>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="76" t="s">
         <v>719</v>
       </c>
       <c r="D47" s="12"/>
@@ -5465,16 +5455,16 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="56"/>
-    </row>
-    <row r="48" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
+      <c r="M47" s="51"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="80" t="s">
+      <c r="B48" s="75" t="s">
         <v>760</v>
       </c>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="76" t="s">
         <v>719</v>
       </c>
       <c r="D48" s="12"/>
@@ -5488,16 +5478,16 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="56"/>
-    </row>
-    <row r="49" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="46" t="s">
+      <c r="M48" s="51"/>
+    </row>
+    <row r="49" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="60" t="s">
         <v>761</v>
       </c>
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="78" t="s">
         <v>719</v>
       </c>
       <c r="D49" s="12"/>
@@ -5513,16 +5503,16 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="56"/>
-    </row>
-    <row r="50" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="46" t="s">
+      <c r="M49" s="51"/>
+    </row>
+    <row r="50" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="60" t="s">
         <v>716</v>
       </c>
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="60" t="s">
         <v>717</v>
       </c>
       <c r="D50" s="12"/>
@@ -5540,14 +5530,14 @@
       </c>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
+    <row r="51" spans="1:13" ht="52" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="60" t="s">
         <v>576</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="60" t="s">
         <v>603</v>
       </c>
       <c r="D51" s="12" t="s">
@@ -5577,14 +5567,14 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="46" t="s">
+    <row r="52" spans="1:13" ht="52" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="60" t="s">
         <v>577</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C52" s="60" t="s">
         <v>604</v>
       </c>
       <c r="D52" s="12" t="s">
@@ -5614,14 +5604,14 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
+    <row r="53" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="60" t="s">
         <v>566</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="60" t="s">
         <v>605</v>
       </c>
       <c r="D53" s="12" t="s">
@@ -5649,14 +5639,14 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
+    <row r="54" spans="1:13" ht="52" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="60" t="s">
         <v>567</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="60" t="s">
         <v>606</v>
       </c>
       <c r="D54" s="12" t="s">
@@ -5686,14 +5676,14 @@
       </c>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
+    <row r="55" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="60" t="s">
         <v>568</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="60" t="s">
         <v>607</v>
       </c>
       <c r="D55" s="12" t="s">
@@ -5721,14 +5711,14 @@
       </c>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
+    <row r="56" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="60" t="s">
         <v>575</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="60" t="s">
         <v>785</v>
       </c>
       <c r="D56" s="12" t="s">
@@ -5744,16 +5734,16 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="56"/>
-    </row>
-    <row r="57" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="46" t="s">
+      <c r="M56" s="51"/>
+    </row>
+    <row r="57" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="60" t="s">
         <v>569</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="60" t="s">
         <v>718</v>
       </c>
       <c r="D57" s="12" t="s">
@@ -5773,14 +5763,14 @@
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
+    <row r="58" spans="1:13" ht="52" x14ac:dyDescent="0.25">
+      <c r="A58" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="60" t="s">
         <v>570</v>
       </c>
-      <c r="C58" s="65" t="s">
+      <c r="C58" s="60" t="s">
         <v>609</v>
       </c>
       <c r="D58" s="12" t="s">
@@ -5800,14 +5790,14 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
+    <row r="59" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="60" t="s">
         <v>571</v>
       </c>
-      <c r="C59" s="65" t="s">
+      <c r="C59" s="60" t="s">
         <v>719</v>
       </c>
       <c r="D59" s="12" t="s">
@@ -5827,14 +5817,14 @@
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
+    <row r="60" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="65" t="s">
+      <c r="C60" s="60" t="s">
         <v>610</v>
       </c>
       <c r="D60" s="12" t="s">
@@ -5854,14 +5844,14 @@
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="46" t="s">
+    <row r="61" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="60" t="s">
         <v>573</v>
       </c>
-      <c r="C61" s="65" t="s">
+      <c r="C61" s="60" t="s">
         <v>611</v>
       </c>
       <c r="D61" s="12" t="s">
@@ -5877,16 +5867,16 @@
       <c r="J61" s="12"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="56"/>
-    </row>
-    <row r="62" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A62" s="46" t="s">
+      <c r="M61" s="51"/>
+    </row>
+    <row r="62" spans="1:13" ht="65" x14ac:dyDescent="0.25">
+      <c r="A62" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="65" t="s">
+      <c r="C62" s="60" t="s">
         <v>612</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -5908,14 +5898,14 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="46" t="s">
+    <row r="63" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A63" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="60" t="s">
         <v>572</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="60" t="s">
         <v>613</v>
       </c>
       <c r="D63" s="12" t="s">
@@ -5939,15 +5929,15 @@
       </c>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A64" s="46" t="s">
+    <row r="64" spans="1:13" ht="52" x14ac:dyDescent="0.25">
+      <c r="A64" s="41" t="s">
         <v>720</v>
       </c>
-      <c r="B64" s="65" t="s">
+      <c r="B64" s="60" t="s">
         <v>721</v>
       </c>
-      <c r="C64" s="65" t="s">
-        <v>800</v>
+      <c r="C64" s="60" t="s">
+        <v>798</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -5960,15 +5950,15 @@
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A65" s="46" t="s">
+    <row r="65" spans="1:13" ht="52" x14ac:dyDescent="0.25">
+      <c r="A65" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="60" t="s">
         <v>574</v>
       </c>
-      <c r="C65" s="65" t="s">
-        <v>801</v>
+      <c r="C65" s="60" t="s">
+        <v>799</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>78</v>
@@ -5997,14 +5987,14 @@
       </c>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="46" t="s">
+    <row r="66" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="41" t="s">
         <v>583</v>
       </c>
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="60" t="s">
         <v>579</v>
       </c>
-      <c r="C66" s="91" t="s">
+      <c r="C66" s="90" t="s">
         <v>747</v>
       </c>
       <c r="D66" s="12" t="s">
@@ -6034,14 +6024,14 @@
       </c>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="46" t="s">
+    <row r="67" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="41" t="s">
         <v>585</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="60" t="s">
         <v>584</v>
       </c>
-      <c r="C67" s="92"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="12" t="s">
         <v>78</v>
       </c>
@@ -6069,14 +6059,14 @@
       </c>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
+    <row r="68" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="60" t="s">
         <v>580</v>
       </c>
-      <c r="C68" s="91" t="s">
+      <c r="C68" s="90" t="s">
         <v>747</v>
       </c>
       <c r="D68" s="12" t="s">
@@ -6106,14 +6096,14 @@
       </c>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
+    <row r="69" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="B69" s="65" t="s">
+      <c r="B69" s="60" t="s">
         <v>590</v>
       </c>
-      <c r="C69" s="92"/>
+      <c r="C69" s="91"/>
       <c r="D69" s="12" t="s">
         <v>78</v>
       </c>
@@ -6141,14 +6131,14 @@
       </c>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
+    <row r="70" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="B70" s="65" t="s">
+      <c r="B70" s="60" t="s">
         <v>581</v>
       </c>
-      <c r="C70" s="91" t="s">
+      <c r="C70" s="90" t="s">
         <v>747</v>
       </c>
       <c r="D70" s="12" t="s">
@@ -6178,14 +6168,14 @@
       </c>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="46" t="s">
+    <row r="71" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="B71" s="65" t="s">
+      <c r="B71" s="60" t="s">
         <v>591</v>
       </c>
-      <c r="C71" s="92"/>
+      <c r="C71" s="91"/>
       <c r="D71" s="12" t="s">
         <v>78</v>
       </c>
@@ -6213,14 +6203,14 @@
       </c>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="46" t="s">
+    <row r="72" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A72" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="84" t="s">
+      <c r="B72" s="79" t="s">
         <v>762</v>
       </c>
-      <c r="C72" s="83" t="s">
+      <c r="C72" s="78" t="s">
         <v>718</v>
       </c>
       <c r="D72" s="12"/>
@@ -6234,16 +6224,16 @@
         <v>78</v>
       </c>
       <c r="L72" s="2"/>
-      <c r="M72" s="56"/>
-    </row>
-    <row r="73" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
+      <c r="M72" s="51"/>
+    </row>
+    <row r="73" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A73" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="84" t="s">
+      <c r="B73" s="79" t="s">
         <v>763</v>
       </c>
-      <c r="C73" s="83" t="s">
+      <c r="C73" s="78" t="s">
         <v>718</v>
       </c>
       <c r="D73" s="12"/>
@@ -6257,16 +6247,16 @@
         <v>78</v>
       </c>
       <c r="L73" s="2"/>
-      <c r="M73" s="56"/>
-    </row>
-    <row r="74" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
+      <c r="M73" s="51"/>
+    </row>
+    <row r="74" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="65" t="s">
+      <c r="B74" s="60" t="s">
         <v>764</v>
       </c>
-      <c r="C74" s="65" t="s">
+      <c r="C74" s="60" t="s">
         <v>765</v>
       </c>
       <c r="D74" s="12"/>
@@ -6282,14 +6272,14 @@
       </c>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="49" t="s">
+    <row r="75" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="65" t="s">
+      <c r="B75" s="60" t="s">
         <v>766</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="60" t="s">
         <v>765</v>
       </c>
       <c r="D75" s="12"/>
@@ -6305,14 +6295,14 @@
       </c>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
+    <row r="76" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="60" t="s">
         <v>767</v>
       </c>
-      <c r="C76" s="65" t="s">
+      <c r="C76" s="60" t="s">
         <v>768</v>
       </c>
       <c r="D76" s="2"/>
@@ -6328,14 +6318,14 @@
       </c>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="49" t="s">
+    <row r="77" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A77" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="83" t="s">
+      <c r="B77" s="78" t="s">
         <v>769</v>
       </c>
-      <c r="C77" s="83" t="s">
+      <c r="C77" s="78" t="s">
         <v>770</v>
       </c>
       <c r="D77" s="2"/>
@@ -6351,14 +6341,14 @@
       </c>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="49" t="s">
+    <row r="78" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="B78" s="83" t="s">
+      <c r="B78" s="78" t="s">
         <v>771</v>
       </c>
-      <c r="C78" s="83" t="s">
+      <c r="C78" s="78" t="s">
         <v>772</v>
       </c>
       <c r="D78" s="2"/>
@@ -6374,14 +6364,14 @@
       </c>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
+    <row r="79" spans="1:13" ht="65" x14ac:dyDescent="0.25">
+      <c r="A79" s="44" t="s">
         <v>547</v>
       </c>
-      <c r="B79" s="83" t="s">
+      <c r="B79" s="78" t="s">
         <v>773</v>
       </c>
-      <c r="C79" s="83" t="s">
+      <c r="C79" s="78" t="s">
         <v>774</v>
       </c>
       <c r="D79" s="2"/>
@@ -6397,14 +6387,14 @@
       </c>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="49" t="s">
+    <row r="80" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="B80" s="83" t="s">
+      <c r="B80" s="78" t="s">
         <v>775</v>
       </c>
-      <c r="C80" s="83" t="s">
+      <c r="C80" s="78" t="s">
         <v>776</v>
       </c>
       <c r="D80" s="2"/>
@@ -6420,14 +6410,14 @@
       </c>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="49" t="s">
+    <row r="81" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B81" s="83" t="s">
+      <c r="B81" s="78" t="s">
         <v>777</v>
       </c>
-      <c r="C81" s="83" t="s">
+      <c r="C81" s="78" t="s">
         <v>778</v>
       </c>
       <c r="D81" s="2"/>
@@ -6443,14 +6433,14 @@
       </c>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="49" t="s">
+    <row r="82" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B82" s="83" t="s">
+      <c r="B82" s="78" t="s">
         <v>779</v>
       </c>
-      <c r="C82" s="65" t="s">
+      <c r="C82" s="60" t="s">
         <v>780</v>
       </c>
       <c r="D82" s="2"/>
@@ -6466,15 +6456,15 @@
       </c>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
+    <row r="83" spans="1:13" ht="52" x14ac:dyDescent="0.25">
+      <c r="A83" s="44" t="s">
         <v>549</v>
       </c>
-      <c r="B83" s="83" t="s">
+      <c r="B83" s="78" t="s">
         <v>781</v>
       </c>
-      <c r="C83" s="83" t="s">
-        <v>802</v>
+      <c r="C83" s="78" t="s">
+        <v>800</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -6489,15 +6479,15 @@
       </c>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="49" t="s">
+    <row r="84" spans="1:13" ht="52" x14ac:dyDescent="0.25">
+      <c r="A84" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="B84" s="83" t="s">
+      <c r="B84" s="78" t="s">
         <v>782</v>
       </c>
-      <c r="C84" s="83" t="s">
-        <v>802</v>
+      <c r="C84" s="78" t="s">
+        <v>800</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -6512,15 +6502,15 @@
       </c>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="49" t="s">
+    <row r="85" spans="1:13" ht="52" x14ac:dyDescent="0.25">
+      <c r="A85" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="B85" s="83" t="s">
+      <c r="B85" s="78" t="s">
         <v>783</v>
       </c>
-      <c r="C85" s="83" t="s">
-        <v>803</v>
+      <c r="C85" s="78" t="s">
+        <v>801</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -6535,12 +6525,12 @@
       </c>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="48" t="s">
+    <row r="86" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="62"/>
-      <c r="C86" s="62" t="s">
+      <c r="B86" s="57"/>
+      <c r="C86" s="57" t="s">
         <v>722</v>
       </c>
       <c r="D86" s="2"/>
@@ -6554,19 +6544,19 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="56"/>
-    </row>
-    <row r="87" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="50" t="s">
+      <c r="M86" s="51"/>
+    </row>
+    <row r="87" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+      <c r="A87" s="45" t="s">
         <v>583</v>
       </c>
-      <c r="B87" s="66" t="s">
+      <c r="B87" s="61" t="s">
         <v>579</v>
       </c>
-      <c r="C87" s="65" t="s">
+      <c r="C87" s="60" t="s">
         <v>723</v>
       </c>
-      <c r="D87" s="88" t="s">
+      <c r="D87" s="83" t="s">
         <v>78</v>
       </c>
       <c r="E87" s="12"/>
@@ -6577,19 +6567,19 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="56"/>
+      <c r="M87" s="51"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="66" t="s">
+      <c r="A88" s="61" t="s">
         <v>585</v>
       </c>
-      <c r="B88" s="62" t="s">
+      <c r="B88" s="57" t="s">
         <v>584</v>
       </c>
-      <c r="C88" s="62" t="s">
+      <c r="C88" s="57" t="s">
         <v>784</v>
       </c>
-      <c r="D88" s="88" t="s">
+      <c r="D88" s="83" t="s">
         <v>78</v>
       </c>
       <c r="E88" s="2"/>
@@ -6600,70 +6590,70 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-      <c r="M88" s="56"/>
-    </row>
-    <row r="89" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="66" t="s">
+      <c r="M88" s="51"/>
+    </row>
+    <row r="89" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A89" s="61" t="s">
         <v>787</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="57" t="s">
         <v>787</v>
       </c>
-      <c r="C89" s="81" t="s">
+      <c r="C89" s="76" t="s">
         <v>788</v>
       </c>
-      <c r="D89" s="88"/>
+      <c r="D89" s="83"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="88" t="s">
+      <c r="I89" s="83" t="s">
         <v>78</v>
       </c>
       <c r="J89" s="2"/>
-      <c r="K89" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="L89" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="M89" s="56"/>
+      <c r="K89" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="L89" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="M89" s="51"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="66" t="s">
+      <c r="A90" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B90" s="62" t="s">
+      <c r="B90" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C90" s="62" t="s">
+      <c r="C90" s="57" t="s">
         <v>789</v>
       </c>
-      <c r="D90" s="88"/>
+      <c r="D90" s="83"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="88" t="s">
+      <c r="I90" s="83" t="s">
         <v>78</v>
       </c>
       <c r="J90" s="2"/>
-      <c r="K90" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="L90" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="M90" s="56"/>
-    </row>
-    <row r="91" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="51" t="s">
+      <c r="K90" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="L90" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="M90" s="51"/>
+    </row>
+    <row r="91" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="B91" s="62" t="s">
+      <c r="B91" s="57" t="s">
         <v>543</v>
       </c>
-      <c r="C91" s="67" t="s">
+      <c r="C91" s="62" t="s">
         <v>614</v>
       </c>
       <c r="D91" s="12" t="s">
@@ -6695,14 +6685,14 @@
       </c>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="51" t="s">
+    <row r="92" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="B92" s="62" t="s">
+      <c r="B92" s="57" t="s">
         <v>544</v>
       </c>
-      <c r="C92" s="67" t="s">
+      <c r="C92" s="62" t="s">
         <v>605</v>
       </c>
       <c r="D92" s="12"/>
@@ -6714,16 +6704,16 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-      <c r="M92" s="56"/>
-    </row>
-    <row r="93" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="51" t="s">
+      <c r="M92" s="51"/>
+    </row>
+    <row r="93" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="B93" s="62" t="s">
+      <c r="B93" s="57" t="s">
         <v>545</v>
       </c>
-      <c r="C93" s="62"/>
+      <c r="C93" s="57"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="2"/>
@@ -6733,16 +6723,16 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="56"/>
-    </row>
-    <row r="94" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="51" t="s">
+      <c r="M93" s="51"/>
+    </row>
+    <row r="94" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="62" t="s">
+      <c r="B94" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="C94" s="67" t="s">
+      <c r="C94" s="62" t="s">
         <v>615</v>
       </c>
       <c r="D94" s="12" t="s">
@@ -6774,3355 +6764,3355 @@
       </c>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="66"/>
-      <c r="M95" s="55"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="53" t="s">
+      <c r="B95" s="47"/>
+      <c r="C95" s="61"/>
+      <c r="M95" s="50"/>
+    </row>
+    <row r="96" spans="1:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="A96" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="52"/>
-      <c r="C96" s="66"/>
-      <c r="M96" s="55"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="39" t="s">
+      <c r="B96" s="47"/>
+      <c r="C96" s="61"/>
+      <c r="M96" s="50"/>
+    </row>
+    <row r="97" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A97" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B97" s="68" t="s">
+      <c r="B97" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="M97" s="55"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
-      <c r="B98" s="68" t="s">
+      <c r="M97" s="50"/>
+    </row>
+    <row r="98" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A98" s="34"/>
+      <c r="B98" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="62" t="s">
+      <c r="C98" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="M98" s="55"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
-      <c r="B99" s="68" t="s">
+      <c r="M98" s="50"/>
+    </row>
+    <row r="99" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A99" s="34"/>
+      <c r="B99" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="M99" s="55"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="68" t="s">
+      <c r="M99" s="50"/>
+    </row>
+    <row r="100" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A100" s="34"/>
+      <c r="B100" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="62" t="s">
+      <c r="C100" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="M100" s="55"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
-      <c r="B101" s="68" t="s">
+      <c r="M100" s="50"/>
+    </row>
+    <row r="101" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A101" s="34"/>
+      <c r="B101" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C101" s="62" t="s">
+      <c r="C101" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="M101" s="55"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
-      <c r="B102" s="68" t="s">
+      <c r="M101" s="50"/>
+    </row>
+    <row r="102" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A102" s="34"/>
+      <c r="B102" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="62" t="s">
+      <c r="C102" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="M102" s="55"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
-      <c r="B103" s="68" t="s">
+      <c r="M102" s="50"/>
+    </row>
+    <row r="103" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A103" s="34"/>
+      <c r="B103" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="C103" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="M103" s="55"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
-      <c r="B104" s="68" t="s">
+      <c r="M103" s="50"/>
+    </row>
+    <row r="104" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A104" s="34"/>
+      <c r="B104" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="62" t="s">
+      <c r="C104" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="M104" s="55"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
-      <c r="B105" s="68" t="s">
+      <c r="M104" s="50"/>
+    </row>
+    <row r="105" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A105" s="34"/>
+      <c r="B105" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="M105" s="55"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
-      <c r="B106" s="68" t="s">
+      <c r="M105" s="50"/>
+    </row>
+    <row r="106" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A106" s="34"/>
+      <c r="B106" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="62" t="s">
+      <c r="C106" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="M106" s="55"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="39"/>
-      <c r="B107" s="68" t="s">
+      <c r="M106" s="50"/>
+    </row>
+    <row r="107" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A107" s="34"/>
+      <c r="B107" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C107" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="M107" s="55"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
-      <c r="B108" s="68" t="s">
+      <c r="M107" s="50"/>
+    </row>
+    <row r="108" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A108" s="34"/>
+      <c r="B108" s="63" t="s">
         <v>608</v>
       </c>
-      <c r="C108" s="62"/>
-      <c r="M108" s="55"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
-      <c r="B109" s="68" t="s">
+      <c r="C108" s="57"/>
+      <c r="M108" s="50"/>
+    </row>
+    <row r="109" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A109" s="34"/>
+      <c r="B109" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C109" s="62"/>
-      <c r="M109" s="55"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="39" t="s">
+      <c r="C109" s="57"/>
+      <c r="M109" s="50"/>
+    </row>
+    <row r="110" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A110" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="62" t="s">
+      <c r="C110" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="M110" s="55"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
+      <c r="M110" s="50"/>
+    </row>
+    <row r="111" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A111" s="34"/>
       <c r="B111" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="C111" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="M111" s="55"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="39"/>
+      <c r="M111" s="50"/>
+    </row>
+    <row r="112" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A112" s="34"/>
       <c r="B112" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C112" s="62" t="s">
+      <c r="C112" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="M112" s="55"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
+      <c r="M112" s="50"/>
+    </row>
+    <row r="113" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A113" s="34"/>
       <c r="B113" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C113" s="62" t="s">
+      <c r="C113" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="M113" s="55"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
+      <c r="M113" s="50"/>
+    </row>
+    <row r="114" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A114" s="34"/>
       <c r="B114" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C114" s="62" t="s">
+      <c r="C114" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="M114" s="55"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
+      <c r="M114" s="50"/>
+    </row>
+    <row r="115" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A115" s="34"/>
       <c r="B115" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="62" t="s">
+      <c r="C115" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="M115" s="55"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="39" t="s">
+      <c r="M115" s="50"/>
+    </row>
+    <row r="116" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A116" s="34" t="s">
         <v>113</v>
       </c>
       <c r="B116" s="16" t="s">
         <v>724</v>
       </c>
-      <c r="C116" s="62" t="s">
+      <c r="C116" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="M116" s="55"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="39"/>
+      <c r="M116" s="50"/>
+    </row>
+    <row r="117" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A117" s="34"/>
       <c r="B117" s="16" t="s">
         <v>655</v>
       </c>
-      <c r="C117" s="62" t="s">
+      <c r="C117" s="57" t="s">
         <v>725</v>
       </c>
-      <c r="M117" s="55"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
+      <c r="M117" s="50"/>
+    </row>
+    <row r="118" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A118" s="34"/>
       <c r="B118" s="16" t="s">
         <v>654</v>
       </c>
-      <c r="C118" s="62" t="s">
+      <c r="C118" s="57" t="s">
         <v>726</v>
       </c>
-      <c r="M118" s="55"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
+      <c r="M118" s="50"/>
+    </row>
+    <row r="119" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A119" s="34"/>
       <c r="B119" s="16" t="s">
         <v>727</v>
       </c>
-      <c r="C119" s="62" t="s">
+      <c r="C119" s="57" t="s">
         <v>728</v>
       </c>
-      <c r="M119" s="55"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
+      <c r="M119" s="50"/>
+    </row>
+    <row r="120" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A120" s="34"/>
       <c r="B120" s="16" t="s">
         <v>729</v>
       </c>
-      <c r="C120" s="62" t="s">
+      <c r="C120" s="57" t="s">
         <v>730</v>
       </c>
-      <c r="M120" s="55"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
+      <c r="M120" s="50"/>
+    </row>
+    <row r="121" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A121" s="34"/>
       <c r="B121" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="C121" s="62" t="s">
+      <c r="C121" s="57" t="s">
         <v>732</v>
       </c>
-      <c r="M121" s="55"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
+      <c r="M121" s="50"/>
+    </row>
+    <row r="122" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A122" s="34"/>
       <c r="B122" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="C122" s="62" t="s">
+      <c r="C122" s="57" t="s">
         <v>734</v>
       </c>
-      <c r="M122" s="55"/>
+      <c r="M122" s="50"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="39" t="s">
+      <c r="A123" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C123" s="62" t="s">
+      <c r="C123" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="M123" s="55"/>
+      <c r="M123" s="50"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
-      <c r="B124" s="54" t="s">
+      <c r="A124" s="34"/>
+      <c r="B124" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C124" s="62" t="s">
+      <c r="C124" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="M124" s="55"/>
+      <c r="M124" s="50"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
-      <c r="B125" s="54" t="s">
+      <c r="A125" s="34"/>
+      <c r="B125" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C125" s="62" t="s">
+      <c r="C125" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="M125" s="55"/>
+      <c r="M125" s="50"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
-      <c r="B126" s="54" t="s">
+      <c r="A126" s="34"/>
+      <c r="B126" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C126" s="62" t="s">
+      <c r="C126" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="M126" s="55"/>
+      <c r="M126" s="50"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
-      <c r="B127" s="54" t="s">
+      <c r="A127" s="34"/>
+      <c r="B127" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C127" s="62" t="s">
+      <c r="C127" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="M127" s="55"/>
+      <c r="M127" s="50"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
-      <c r="B128" s="54" t="s">
+      <c r="A128" s="34"/>
+      <c r="B128" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C128" s="62" t="s">
+      <c r="C128" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="M128" s="55"/>
+      <c r="M128" s="50"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
-      <c r="B129" s="54" t="s">
+      <c r="A129" s="34"/>
+      <c r="B129" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="C129" s="62" t="s">
+      <c r="C129" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="M129" s="55"/>
+      <c r="M129" s="50"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
-      <c r="B130" s="54" t="s">
+      <c r="A130" s="34"/>
+      <c r="B130" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C130" s="62" t="s">
+      <c r="C130" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="M130" s="55"/>
+      <c r="M130" s="50"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
-      <c r="B131" s="54" t="s">
+      <c r="A131" s="34"/>
+      <c r="B131" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C131" s="62" t="s">
+      <c r="C131" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="M131" s="55"/>
+      <c r="M131" s="50"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="39"/>
-      <c r="B132" s="54" t="s">
+      <c r="A132" s="34"/>
+      <c r="B132" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C132" s="62" t="s">
+      <c r="C132" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="M132" s="55"/>
+      <c r="M132" s="50"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
-      <c r="B133" s="54" t="s">
+      <c r="A133" s="34"/>
+      <c r="B133" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="C133" s="62" t="s">
+      <c r="C133" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="M133" s="55"/>
+      <c r="M133" s="50"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
-      <c r="B134" s="54" t="s">
+      <c r="A134" s="34"/>
+      <c r="B134" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C134" s="62" t="s">
+      <c r="C134" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="M134" s="55"/>
+      <c r="M134" s="50"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
-      <c r="B135" s="54" t="s">
+      <c r="A135" s="34"/>
+      <c r="B135" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C135" s="62" t="s">
+      <c r="C135" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="M135" s="55"/>
+      <c r="M135" s="50"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
-      <c r="B136" s="54" t="s">
+      <c r="A136" s="34"/>
+      <c r="B136" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="C136" s="62" t="s">
+      <c r="C136" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="M136" s="55"/>
+      <c r="M136" s="50"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
-      <c r="B137" s="54" t="s">
+      <c r="A137" s="34"/>
+      <c r="B137" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C137" s="62" t="s">
+      <c r="C137" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="M137" s="55"/>
+      <c r="M137" s="50"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="39"/>
-      <c r="B138" s="54" t="s">
+      <c r="A138" s="34"/>
+      <c r="B138" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="62" t="s">
+      <c r="C138" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="M138" s="55"/>
+      <c r="M138" s="50"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
-      <c r="B139" s="54" t="s">
+      <c r="A139" s="34"/>
+      <c r="B139" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="C139" s="62" t="s">
+      <c r="C139" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="M139" s="55"/>
+      <c r="M139" s="50"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
-      <c r="B140" s="54" t="s">
+      <c r="A140" s="34"/>
+      <c r="B140" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="C140" s="62" t="s">
+      <c r="C140" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="M140" s="55"/>
+      <c r="M140" s="50"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="39"/>
-      <c r="B141" s="54" t="s">
+      <c r="A141" s="34"/>
+      <c r="B141" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="C141" s="62" t="s">
+      <c r="C141" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="M141" s="55"/>
+      <c r="M141" s="50"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="39"/>
-      <c r="B142" s="54" t="s">
+      <c r="A142" s="34"/>
+      <c r="B142" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="C142" s="62" t="s">
+      <c r="C142" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="M142" s="55"/>
+      <c r="M142" s="50"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="39"/>
-      <c r="B143" s="54" t="s">
+      <c r="A143" s="34"/>
+      <c r="B143" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C143" s="62" t="s">
+      <c r="C143" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="M143" s="55"/>
+      <c r="M143" s="50"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="39"/>
-      <c r="B144" s="54" t="s">
+      <c r="A144" s="34"/>
+      <c r="B144" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C144" s="62" t="s">
+      <c r="C144" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="M144" s="55"/>
+      <c r="M144" s="50"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
-      <c r="B145" s="54" t="s">
+      <c r="A145" s="34"/>
+      <c r="B145" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="C145" s="62" t="s">
+      <c r="C145" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="M145" s="55"/>
+      <c r="M145" s="50"/>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="39"/>
-      <c r="B146" s="54" t="s">
+      <c r="A146" s="34"/>
+      <c r="B146" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="C146" s="62" t="s">
+      <c r="C146" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="M146" s="55"/>
+      <c r="M146" s="50"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="39"/>
-      <c r="B147" s="54" t="s">
+      <c r="A147" s="34"/>
+      <c r="B147" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C147" s="62" t="s">
+      <c r="C147" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="M147" s="55"/>
+      <c r="M147" s="50"/>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="39"/>
-      <c r="B148" s="54" t="s">
+      <c r="A148" s="34"/>
+      <c r="B148" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C148" s="62" t="s">
+      <c r="C148" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="M148" s="55"/>
+      <c r="M148" s="50"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="39"/>
-      <c r="B149" s="54" t="s">
+      <c r="A149" s="34"/>
+      <c r="B149" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="C149" s="62" t="s">
+      <c r="C149" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="M149" s="55"/>
+      <c r="M149" s="50"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="39"/>
-      <c r="B150" s="54" t="s">
+      <c r="A150" s="34"/>
+      <c r="B150" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="C150" s="62" t="s">
+      <c r="C150" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="M150" s="55"/>
+      <c r="M150" s="50"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="39"/>
-      <c r="B151" s="54" t="s">
+      <c r="A151" s="34"/>
+      <c r="B151" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="C151" s="62" t="s">
+      <c r="C151" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="M151" s="55"/>
+      <c r="M151" s="50"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="39"/>
-      <c r="B152" s="54" t="s">
+      <c r="A152" s="34"/>
+      <c r="B152" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="C152" s="62" t="s">
+      <c r="C152" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="M152" s="55"/>
+      <c r="M152" s="50"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="39"/>
-      <c r="B153" s="54" t="s">
+      <c r="A153" s="34"/>
+      <c r="B153" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="C153" s="62" t="s">
+      <c r="C153" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="M153" s="55"/>
+      <c r="M153" s="50"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="39"/>
-      <c r="B154" s="54" t="s">
+      <c r="A154" s="34"/>
+      <c r="B154" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C154" s="62" t="s">
+      <c r="C154" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="M154" s="55"/>
+      <c r="M154" s="50"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="39"/>
-      <c r="B155" s="54" t="s">
+      <c r="A155" s="34"/>
+      <c r="B155" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="C155" s="62" t="s">
+      <c r="C155" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="M155" s="55"/>
+      <c r="M155" s="50"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="39"/>
-      <c r="B156" s="54" t="s">
+      <c r="A156" s="34"/>
+      <c r="B156" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="C156" s="62" t="s">
+      <c r="C156" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="M156" s="55"/>
+      <c r="M156" s="50"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="39"/>
-      <c r="B157" s="54" t="s">
+      <c r="A157" s="34"/>
+      <c r="B157" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="C157" s="62" t="s">
+      <c r="C157" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="M157" s="55"/>
+      <c r="M157" s="50"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="39"/>
-      <c r="B158" s="54" t="s">
+      <c r="A158" s="34"/>
+      <c r="B158" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="C158" s="62" t="s">
+      <c r="C158" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="M158" s="55"/>
+      <c r="M158" s="50"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="39"/>
-      <c r="B159" s="54" t="s">
+      <c r="A159" s="34"/>
+      <c r="B159" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C159" s="62" t="s">
+      <c r="C159" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="M159" s="55"/>
+      <c r="M159" s="50"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="39"/>
-      <c r="B160" s="54" t="s">
+      <c r="A160" s="34"/>
+      <c r="B160" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C160" s="62" t="s">
+      <c r="C160" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="M160" s="55"/>
+      <c r="M160" s="50"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="39"/>
-      <c r="B161" s="54" t="s">
+      <c r="A161" s="34"/>
+      <c r="B161" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C161" s="62" t="s">
+      <c r="C161" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="M161" s="55"/>
+      <c r="M161" s="50"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="39"/>
-      <c r="B162" s="54" t="s">
+      <c r="A162" s="34"/>
+      <c r="B162" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="C162" s="62" t="s">
+      <c r="C162" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="M162" s="55"/>
+      <c r="M162" s="50"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="39"/>
-      <c r="B163" s="54" t="s">
+      <c r="A163" s="34"/>
+      <c r="B163" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="C163" s="62" t="s">
+      <c r="C163" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="M163" s="55"/>
+      <c r="M163" s="50"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="39"/>
-      <c r="B164" s="54" t="s">
+      <c r="A164" s="34"/>
+      <c r="B164" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="C164" s="62" t="s">
+      <c r="C164" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="M164" s="55"/>
+      <c r="M164" s="50"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="39"/>
-      <c r="B165" s="54" t="s">
+      <c r="A165" s="34"/>
+      <c r="B165" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="C165" s="62" t="s">
+      <c r="C165" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="M165" s="55"/>
+      <c r="M165" s="50"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="39"/>
-      <c r="B166" s="54" t="s">
+      <c r="A166" s="34"/>
+      <c r="B166" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="C166" s="62" t="s">
+      <c r="C166" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="M166" s="55"/>
+      <c r="M166" s="50"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="39"/>
-      <c r="B167" s="54" t="s">
+      <c r="A167" s="34"/>
+      <c r="B167" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C167" s="62" t="s">
+      <c r="C167" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="M167" s="55"/>
+      <c r="M167" s="50"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="39"/>
-      <c r="B168" s="54" t="s">
+      <c r="A168" s="34"/>
+      <c r="B168" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="C168" s="62" t="s">
+      <c r="C168" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="M168" s="55"/>
+      <c r="M168" s="50"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="39"/>
-      <c r="B169" s="54" t="s">
+      <c r="A169" s="34"/>
+      <c r="B169" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C169" s="62" t="s">
+      <c r="C169" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="M169" s="55"/>
+      <c r="M169" s="50"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="39"/>
-      <c r="B170" s="54" t="s">
+      <c r="A170" s="34"/>
+      <c r="B170" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C170" s="62" t="s">
+      <c r="C170" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="M170" s="55"/>
+      <c r="M170" s="50"/>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="39"/>
-      <c r="B171" s="54" t="s">
+      <c r="A171" s="34"/>
+      <c r="B171" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="C171" s="62" t="s">
+      <c r="C171" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="M171" s="55"/>
+      <c r="M171" s="50"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="39"/>
-      <c r="B172" s="54" t="s">
+      <c r="A172" s="34"/>
+      <c r="B172" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="C172" s="62" t="s">
+      <c r="C172" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="M172" s="55"/>
+      <c r="M172" s="50"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="39"/>
-      <c r="B173" s="54" t="s">
+      <c r="A173" s="34"/>
+      <c r="B173" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="C173" s="62" t="s">
+      <c r="C173" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="M173" s="55"/>
+      <c r="M173" s="50"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="39"/>
-      <c r="B174" s="54" t="s">
+      <c r="A174" s="34"/>
+      <c r="B174" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C174" s="62" t="s">
+      <c r="C174" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="M174" s="55"/>
+      <c r="M174" s="50"/>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="39"/>
-      <c r="B175" s="54" t="s">
+      <c r="A175" s="34"/>
+      <c r="B175" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="C175" s="62" t="s">
+      <c r="C175" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="M175" s="55"/>
+      <c r="M175" s="50"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="39"/>
-      <c r="B176" s="54" t="s">
+      <c r="A176" s="34"/>
+      <c r="B176" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="C176" s="62" t="s">
+      <c r="C176" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="M176" s="55"/>
+      <c r="M176" s="50"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="39"/>
-      <c r="B177" s="54" t="s">
+      <c r="A177" s="34"/>
+      <c r="B177" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="C177" s="62" t="s">
+      <c r="C177" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="M177" s="55"/>
+      <c r="M177" s="50"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="39"/>
-      <c r="B178" s="54" t="s">
+      <c r="A178" s="34"/>
+      <c r="B178" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="C178" s="62" t="s">
+      <c r="C178" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="M178" s="55"/>
+      <c r="M178" s="50"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="39"/>
-      <c r="B179" s="54" t="s">
+      <c r="A179" s="34"/>
+      <c r="B179" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="C179" s="62" t="s">
+      <c r="C179" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="M179" s="55"/>
+      <c r="M179" s="50"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="39"/>
-      <c r="B180" s="54" t="s">
+      <c r="A180" s="34"/>
+      <c r="B180" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="C180" s="62" t="s">
+      <c r="C180" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="M180" s="55"/>
+      <c r="M180" s="50"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="39"/>
-      <c r="B181" s="54" t="s">
+      <c r="A181" s="34"/>
+      <c r="B181" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="C181" s="62" t="s">
+      <c r="C181" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="M181" s="55"/>
+      <c r="M181" s="50"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="39"/>
-      <c r="B182" s="54" t="s">
+      <c r="A182" s="34"/>
+      <c r="B182" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="C182" s="62" t="s">
+      <c r="C182" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="M182" s="55"/>
+      <c r="M182" s="50"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" s="39"/>
-      <c r="B183" s="54" t="s">
+      <c r="A183" s="34"/>
+      <c r="B183" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="C183" s="62" t="s">
+      <c r="C183" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="M183" s="55"/>
+      <c r="M183" s="50"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" s="39"/>
-      <c r="B184" s="54" t="s">
+      <c r="A184" s="34"/>
+      <c r="B184" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="C184" s="62" t="s">
+      <c r="C184" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="M184" s="55"/>
+      <c r="M184" s="50"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" s="39"/>
-      <c r="B185" s="54" t="s">
+      <c r="A185" s="34"/>
+      <c r="B185" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C185" s="62" t="s">
+      <c r="C185" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="M185" s="55"/>
+      <c r="M185" s="50"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" s="39"/>
-      <c r="B186" s="54" t="s">
+      <c r="A186" s="34"/>
+      <c r="B186" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="C186" s="62" t="s">
+      <c r="C186" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="M186" s="55"/>
+      <c r="M186" s="50"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187" s="39"/>
-      <c r="B187" s="54" t="s">
+      <c r="A187" s="34"/>
+      <c r="B187" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="C187" s="62" t="s">
+      <c r="C187" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="M187" s="55"/>
+      <c r="M187" s="50"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="39"/>
-      <c r="B188" s="54" t="s">
+      <c r="A188" s="34"/>
+      <c r="B188" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="C188" s="62" t="s">
+      <c r="C188" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="M188" s="55"/>
+      <c r="M188" s="50"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="39"/>
-      <c r="B189" s="54" t="s">
+      <c r="A189" s="34"/>
+      <c r="B189" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="C189" s="62" t="s">
+      <c r="C189" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="M189" s="55"/>
+      <c r="M189" s="50"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="39"/>
-      <c r="B190" s="54" t="s">
+      <c r="A190" s="34"/>
+      <c r="B190" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="C190" s="62" t="s">
+      <c r="C190" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="M190" s="55"/>
+      <c r="M190" s="50"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" s="39"/>
-      <c r="B191" s="54" t="s">
+      <c r="A191" s="34"/>
+      <c r="B191" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="C191" s="62" t="s">
+      <c r="C191" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="M191" s="55"/>
+      <c r="M191" s="50"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="39"/>
-      <c r="B192" s="54" t="s">
+      <c r="A192" s="34"/>
+      <c r="B192" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="C192" s="62" t="s">
+      <c r="C192" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="M192" s="55"/>
+      <c r="M192" s="50"/>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" s="39"/>
-      <c r="B193" s="54" t="s">
+      <c r="A193" s="34"/>
+      <c r="B193" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="C193" s="62" t="s">
+      <c r="C193" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="M193" s="55"/>
+      <c r="M193" s="50"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="39"/>
-      <c r="B194" s="54" t="s">
+      <c r="A194" s="34"/>
+      <c r="B194" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="C194" s="62" t="s">
+      <c r="C194" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="M194" s="55"/>
+      <c r="M194" s="50"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" s="39"/>
-      <c r="B195" s="54" t="s">
+      <c r="A195" s="34"/>
+      <c r="B195" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="C195" s="62" t="s">
+      <c r="C195" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="M195" s="55"/>
+      <c r="M195" s="50"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" s="39"/>
-      <c r="B196" s="54" t="s">
+      <c r="A196" s="34"/>
+      <c r="B196" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="C196" s="62" t="s">
+      <c r="C196" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="M196" s="55"/>
+      <c r="M196" s="50"/>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197" s="39"/>
-      <c r="B197" s="54" t="s">
+      <c r="A197" s="34"/>
+      <c r="B197" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="C197" s="62" t="s">
+      <c r="C197" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="M197" s="55"/>
+      <c r="M197" s="50"/>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198" s="39"/>
-      <c r="B198" s="54" t="s">
+      <c r="A198" s="34"/>
+      <c r="B198" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="C198" s="62" t="s">
+      <c r="C198" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="M198" s="55"/>
+      <c r="M198" s="50"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199" s="39"/>
-      <c r="B199" s="54" t="s">
+      <c r="A199" s="34"/>
+      <c r="B199" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="C199" s="62" t="s">
+      <c r="C199" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="M199" s="55"/>
+      <c r="M199" s="50"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" s="39"/>
-      <c r="B200" s="54" t="s">
+      <c r="A200" s="34"/>
+      <c r="B200" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="C200" s="62" t="s">
+      <c r="C200" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="M200" s="55"/>
+      <c r="M200" s="50"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201" s="39"/>
-      <c r="B201" s="54" t="s">
+      <c r="A201" s="34"/>
+      <c r="B201" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="C201" s="62" t="s">
+      <c r="C201" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="M201" s="55"/>
+      <c r="M201" s="50"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" s="39"/>
-      <c r="B202" s="54" t="s">
+      <c r="A202" s="34"/>
+      <c r="B202" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="C202" s="62" t="s">
+      <c r="C202" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="M202" s="55"/>
+      <c r="M202" s="50"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203" s="39"/>
-      <c r="B203" s="54" t="s">
+      <c r="A203" s="34"/>
+      <c r="B203" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="C203" s="62" t="s">
+      <c r="C203" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="M203" s="55"/>
+      <c r="M203" s="50"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204" s="39"/>
-      <c r="B204" s="54" t="s">
+      <c r="A204" s="34"/>
+      <c r="B204" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="C204" s="62" t="s">
+      <c r="C204" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="M204" s="55"/>
+      <c r="M204" s="50"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205" s="39"/>
-      <c r="B205" s="54" t="s">
+      <c r="A205" s="34"/>
+      <c r="B205" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="C205" s="62" t="s">
+      <c r="C205" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="M205" s="55"/>
+      <c r="M205" s="50"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" s="39"/>
-      <c r="B206" s="54" t="s">
+      <c r="A206" s="34"/>
+      <c r="B206" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="C206" s="62" t="s">
+      <c r="C206" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="M206" s="55"/>
+      <c r="M206" s="50"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207" s="39"/>
-      <c r="B207" s="54" t="s">
+      <c r="A207" s="34"/>
+      <c r="B207" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="C207" s="62" t="s">
+      <c r="C207" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="M207" s="55"/>
+      <c r="M207" s="50"/>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208" s="39"/>
-      <c r="B208" s="54" t="s">
+      <c r="A208" s="34"/>
+      <c r="B208" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="C208" s="62" t="s">
+      <c r="C208" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="M208" s="55"/>
+      <c r="M208" s="50"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" s="39"/>
-      <c r="B209" s="54" t="s">
+      <c r="A209" s="34"/>
+      <c r="B209" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="C209" s="62" t="s">
+      <c r="C209" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="M209" s="55"/>
+      <c r="M209" s="50"/>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="39"/>
-      <c r="B210" s="54" t="s">
+      <c r="A210" s="34"/>
+      <c r="B210" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="C210" s="62" t="s">
+      <c r="C210" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="M210" s="55"/>
+      <c r="M210" s="50"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" s="39"/>
-      <c r="B211" s="54" t="s">
+      <c r="A211" s="34"/>
+      <c r="B211" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="C211" s="62" t="s">
+      <c r="C211" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="M211" s="55"/>
+      <c r="M211" s="50"/>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" s="39"/>
-      <c r="B212" s="54" t="s">
+      <c r="A212" s="34"/>
+      <c r="B212" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="C212" s="62" t="s">
+      <c r="C212" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="M212" s="55"/>
+      <c r="M212" s="50"/>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" s="39"/>
-      <c r="B213" s="54" t="s">
+      <c r="A213" s="34"/>
+      <c r="B213" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="C213" s="62" t="s">
+      <c r="C213" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="M213" s="55"/>
+      <c r="M213" s="50"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" s="39"/>
-      <c r="B214" s="54" t="s">
+      <c r="A214" s="34"/>
+      <c r="B214" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="C214" s="62" t="s">
+      <c r="C214" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="M214" s="55"/>
+      <c r="M214" s="50"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" s="39"/>
-      <c r="B215" s="54" t="s">
+      <c r="A215" s="34"/>
+      <c r="B215" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="C215" s="62" t="s">
+      <c r="C215" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="M215" s="55"/>
+      <c r="M215" s="50"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" s="39"/>
-      <c r="B216" s="54" t="s">
+      <c r="A216" s="34"/>
+      <c r="B216" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="C216" s="62" t="s">
+      <c r="C216" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="M216" s="55"/>
+      <c r="M216" s="50"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" s="39"/>
-      <c r="B217" s="54" t="s">
+      <c r="A217" s="34"/>
+      <c r="B217" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="C217" s="62" t="s">
+      <c r="C217" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="M217" s="55"/>
+      <c r="M217" s="50"/>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" s="39"/>
-      <c r="B218" s="54" t="s">
+      <c r="A218" s="34"/>
+      <c r="B218" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="C218" s="62" t="s">
+      <c r="C218" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="M218" s="55"/>
+      <c r="M218" s="50"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="39"/>
-      <c r="B219" s="54" t="s">
+      <c r="A219" s="34"/>
+      <c r="B219" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="C219" s="62" t="s">
+      <c r="C219" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="M219" s="55"/>
+      <c r="M219" s="50"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="39"/>
-      <c r="B220" s="54" t="s">
+      <c r="A220" s="34"/>
+      <c r="B220" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="C220" s="62" t="s">
+      <c r="C220" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="M220" s="55"/>
+      <c r="M220" s="50"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" s="39"/>
-      <c r="B221" s="54" t="s">
+      <c r="A221" s="34"/>
+      <c r="B221" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="C221" s="62" t="s">
+      <c r="C221" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="M221" s="55"/>
+      <c r="M221" s="50"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" s="39"/>
-      <c r="B222" s="54" t="s">
+      <c r="A222" s="34"/>
+      <c r="B222" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="C222" s="62" t="s">
+      <c r="C222" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="M222" s="55"/>
+      <c r="M222" s="50"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="39"/>
-      <c r="B223" s="54" t="s">
+      <c r="A223" s="34"/>
+      <c r="B223" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="C223" s="62" t="s">
+      <c r="C223" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="M223" s="55"/>
+      <c r="M223" s="50"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="39"/>
-      <c r="B224" s="54" t="s">
+      <c r="A224" s="34"/>
+      <c r="B224" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="C224" s="62" t="s">
+      <c r="C224" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="M224" s="55"/>
+      <c r="M224" s="50"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A225" s="39"/>
-      <c r="B225" s="54" t="s">
+      <c r="A225" s="34"/>
+      <c r="B225" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="C225" s="62" t="s">
+      <c r="C225" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="M225" s="55"/>
+      <c r="M225" s="50"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" s="39"/>
-      <c r="B226" s="54" t="s">
+      <c r="A226" s="34"/>
+      <c r="B226" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="C226" s="62" t="s">
+      <c r="C226" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="M226" s="55"/>
+      <c r="M226" s="50"/>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227" s="39"/>
-      <c r="B227" s="54" t="s">
+      <c r="A227" s="34"/>
+      <c r="B227" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="C227" s="62" t="s">
+      <c r="C227" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="M227" s="55"/>
+      <c r="M227" s="50"/>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" s="39"/>
-      <c r="B228" s="54" t="s">
+      <c r="A228" s="34"/>
+      <c r="B228" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="C228" s="62" t="s">
+      <c r="C228" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="M228" s="55"/>
+      <c r="M228" s="50"/>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229" s="39"/>
-      <c r="B229" s="54" t="s">
+      <c r="A229" s="34"/>
+      <c r="B229" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="C229" s="62" t="s">
+      <c r="C229" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="M229" s="55"/>
+      <c r="M229" s="50"/>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" s="39"/>
-      <c r="B230" s="54" t="s">
+      <c r="A230" s="34"/>
+      <c r="B230" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="C230" s="62" t="s">
+      <c r="C230" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="M230" s="55"/>
+      <c r="M230" s="50"/>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231" s="39"/>
-      <c r="B231" s="54" t="s">
+      <c r="A231" s="34"/>
+      <c r="B231" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="C231" s="62" t="s">
+      <c r="C231" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="M231" s="55"/>
+      <c r="M231" s="50"/>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" s="39"/>
-      <c r="B232" s="54" t="s">
+      <c r="A232" s="34"/>
+      <c r="B232" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="C232" s="62" t="s">
+      <c r="C232" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="M232" s="55"/>
+      <c r="M232" s="50"/>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233" s="39"/>
-      <c r="B233" s="54" t="s">
+      <c r="A233" s="34"/>
+      <c r="B233" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="C233" s="62" t="s">
+      <c r="C233" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="M233" s="55"/>
+      <c r="M233" s="50"/>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" s="39"/>
-      <c r="B234" s="54" t="s">
+      <c r="A234" s="34"/>
+      <c r="B234" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="C234" s="62" t="s">
+      <c r="C234" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="M234" s="55"/>
+      <c r="M234" s="50"/>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235" s="39"/>
-      <c r="B235" s="54" t="s">
+      <c r="A235" s="34"/>
+      <c r="B235" s="49" t="s">
         <v>348</v>
       </c>
-      <c r="C235" s="62" t="s">
+      <c r="C235" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="M235" s="55"/>
+      <c r="M235" s="50"/>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236" s="39"/>
-      <c r="B236" s="54" t="s">
+      <c r="A236" s="34"/>
+      <c r="B236" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="C236" s="62" t="s">
+      <c r="C236" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="M236" s="55"/>
+      <c r="M236" s="50"/>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A237" s="39"/>
-      <c r="B237" s="54" t="s">
+      <c r="A237" s="34"/>
+      <c r="B237" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="C237" s="62" t="s">
+      <c r="C237" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="M237" s="55"/>
+      <c r="M237" s="50"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238" s="39"/>
-      <c r="B238" s="54" t="s">
+      <c r="A238" s="34"/>
+      <c r="B238" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="C238" s="62" t="s">
+      <c r="C238" s="57" t="s">
         <v>355</v>
       </c>
-      <c r="M238" s="55"/>
+      <c r="M238" s="50"/>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239" s="39"/>
-      <c r="B239" s="54" t="s">
+      <c r="A239" s="34"/>
+      <c r="B239" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="C239" s="62" t="s">
+      <c r="C239" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="M239" s="55"/>
+      <c r="M239" s="50"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" s="39"/>
-      <c r="B240" s="54" t="s">
+      <c r="A240" s="34"/>
+      <c r="B240" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="C240" s="62" t="s">
+      <c r="C240" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="M240" s="55"/>
+      <c r="M240" s="50"/>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A241" s="39"/>
-      <c r="B241" s="54" t="s">
+      <c r="A241" s="34"/>
+      <c r="B241" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="C241" s="62" t="s">
+      <c r="C241" s="57" t="s">
         <v>361</v>
       </c>
-      <c r="M241" s="55"/>
+      <c r="M241" s="50"/>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242" s="39"/>
-      <c r="B242" s="54" t="s">
+      <c r="A242" s="34"/>
+      <c r="B242" s="49" t="s">
         <v>362</v>
       </c>
-      <c r="C242" s="62" t="s">
+      <c r="C242" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="M242" s="55"/>
+      <c r="M242" s="50"/>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243" s="39"/>
-      <c r="B243" s="54" t="s">
+      <c r="A243" s="34"/>
+      <c r="B243" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="C243" s="62" t="s">
+      <c r="C243" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="M243" s="55"/>
+      <c r="M243" s="50"/>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" s="39"/>
-      <c r="B244" s="54" t="s">
+      <c r="A244" s="34"/>
+      <c r="B244" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="C244" s="62" t="s">
+      <c r="C244" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="M244" s="55"/>
+      <c r="M244" s="50"/>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A245" s="39"/>
-      <c r="B245" s="54" t="s">
+      <c r="A245" s="34"/>
+      <c r="B245" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="C245" s="62" t="s">
+      <c r="C245" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="M245" s="55"/>
+      <c r="M245" s="50"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246" s="39"/>
-      <c r="B246" s="54" t="s">
+      <c r="A246" s="34"/>
+      <c r="B246" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="C246" s="62"/>
-      <c r="M246" s="55"/>
+      <c r="C246" s="57"/>
+      <c r="M246" s="50"/>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247" s="39"/>
-      <c r="B247" s="54" t="s">
+      <c r="A247" s="34"/>
+      <c r="B247" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="C247" s="62"/>
-      <c r="M247" s="55"/>
+      <c r="C247" s="57"/>
+      <c r="M247" s="50"/>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" s="39"/>
-      <c r="B248" s="54" t="s">
+      <c r="A248" s="34"/>
+      <c r="B248" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="C248" s="62"/>
-      <c r="M248" s="55"/>
+      <c r="C248" s="57"/>
+      <c r="M248" s="50"/>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A249" s="39"/>
-      <c r="B249" s="54" t="s">
+      <c r="A249" s="34"/>
+      <c r="B249" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="C249" s="62"/>
-      <c r="M249" s="55"/>
+      <c r="C249" s="57"/>
+      <c r="M249" s="50"/>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250" s="39"/>
-      <c r="B250" s="54" t="s">
+      <c r="A250" s="34"/>
+      <c r="B250" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="C250" s="62"/>
-      <c r="M250" s="55"/>
+      <c r="C250" s="57"/>
+      <c r="M250" s="50"/>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" s="39"/>
-      <c r="B251" s="54" t="s">
+      <c r="A251" s="34"/>
+      <c r="B251" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="C251" s="62"/>
-      <c r="M251" s="55"/>
+      <c r="C251" s="57"/>
+      <c r="M251" s="50"/>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252" s="39"/>
-      <c r="B252" s="54" t="s">
+      <c r="A252" s="34"/>
+      <c r="B252" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="C252" s="62"/>
-      <c r="M252" s="55"/>
+      <c r="C252" s="57"/>
+      <c r="M252" s="50"/>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" s="39"/>
-      <c r="B253" s="54" t="s">
+      <c r="A253" s="34"/>
+      <c r="B253" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="C253" s="62"/>
-      <c r="M253" s="55"/>
+      <c r="C253" s="57"/>
+      <c r="M253" s="50"/>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" s="39"/>
-      <c r="B254" s="54" t="s">
+      <c r="A254" s="34"/>
+      <c r="B254" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="C254" s="62"/>
-      <c r="M254" s="55"/>
+      <c r="C254" s="57"/>
+      <c r="M254" s="50"/>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" s="39"/>
-      <c r="B255" s="54" t="s">
+      <c r="A255" s="34"/>
+      <c r="B255" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="C255" s="62"/>
-      <c r="M255" s="55"/>
+      <c r="C255" s="57"/>
+      <c r="M255" s="50"/>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" s="39"/>
-      <c r="B256" s="54" t="s">
+      <c r="A256" s="34"/>
+      <c r="B256" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="C256" s="62"/>
-      <c r="M256" s="55"/>
+      <c r="C256" s="57"/>
+      <c r="M256" s="50"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" s="39"/>
-      <c r="B257" s="54" t="s">
+      <c r="A257" s="34"/>
+      <c r="B257" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="C257" s="62"/>
-      <c r="M257" s="55"/>
+      <c r="C257" s="57"/>
+      <c r="M257" s="50"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258" s="39"/>
-      <c r="B258" s="54" t="s">
+      <c r="A258" s="34"/>
+      <c r="B258" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="C258" s="62"/>
-      <c r="M258" s="55"/>
+      <c r="C258" s="57"/>
+      <c r="M258" s="50"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259" s="39"/>
-      <c r="B259" s="54" t="s">
+      <c r="A259" s="34"/>
+      <c r="B259" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="C259" s="62"/>
-      <c r="M259" s="55"/>
+      <c r="C259" s="57"/>
+      <c r="M259" s="50"/>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" s="39"/>
-      <c r="B260" s="54" t="s">
+      <c r="A260" s="34"/>
+      <c r="B260" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="C260" s="62"/>
-      <c r="M260" s="55"/>
+      <c r="C260" s="57"/>
+      <c r="M260" s="50"/>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A261" s="39"/>
-      <c r="B261" s="54" t="s">
+      <c r="A261" s="34"/>
+      <c r="B261" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="C261" s="62"/>
-      <c r="M261" s="55"/>
+      <c r="C261" s="57"/>
+      <c r="M261" s="50"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262" s="39"/>
-      <c r="B262" s="54" t="s">
+      <c r="A262" s="34"/>
+      <c r="B262" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="C262" s="62"/>
-      <c r="M262" s="55"/>
+      <c r="C262" s="57"/>
+      <c r="M262" s="50"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A263" s="39"/>
-      <c r="B263" s="54" t="s">
+      <c r="A263" s="34"/>
+      <c r="B263" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="C263" s="62"/>
-      <c r="M263" s="55"/>
+      <c r="C263" s="57"/>
+      <c r="M263" s="50"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" s="39"/>
-      <c r="B264" s="54" t="s">
+      <c r="A264" s="34"/>
+      <c r="B264" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="C264" s="62"/>
-      <c r="M264" s="55"/>
+      <c r="C264" s="57"/>
+      <c r="M264" s="50"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A265" s="39"/>
-      <c r="B265" s="54" t="s">
+      <c r="A265" s="34"/>
+      <c r="B265" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="C265" s="62"/>
-      <c r="M265" s="55"/>
+      <c r="C265" s="57"/>
+      <c r="M265" s="50"/>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266" s="39"/>
-      <c r="B266" s="54" t="s">
+      <c r="A266" s="34"/>
+      <c r="B266" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="C266" s="62"/>
-      <c r="M266" s="55"/>
+      <c r="C266" s="57"/>
+      <c r="M266" s="50"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A267" s="39"/>
-      <c r="B267" s="54" t="s">
+      <c r="A267" s="34"/>
+      <c r="B267" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="C267" s="62"/>
-      <c r="M267" s="55"/>
+      <c r="C267" s="57"/>
+      <c r="M267" s="50"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" s="39"/>
-      <c r="B268" s="54" t="s">
+      <c r="A268" s="34"/>
+      <c r="B268" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="C268" s="62"/>
-      <c r="M268" s="55"/>
+      <c r="C268" s="57"/>
+      <c r="M268" s="50"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269" s="39"/>
-      <c r="B269" s="54" t="s">
+      <c r="A269" s="34"/>
+      <c r="B269" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="C269" s="62"/>
-      <c r="M269" s="55"/>
+      <c r="C269" s="57"/>
+      <c r="M269" s="50"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" s="39"/>
-      <c r="B270" s="54" t="s">
+      <c r="A270" s="34"/>
+      <c r="B270" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="C270" s="62"/>
-      <c r="M270" s="55"/>
+      <c r="C270" s="57"/>
+      <c r="M270" s="50"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A271" s="39"/>
-      <c r="B271" s="54" t="s">
+      <c r="A271" s="34"/>
+      <c r="B271" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="C271" s="62"/>
-      <c r="M271" s="55"/>
+      <c r="C271" s="57"/>
+      <c r="M271" s="50"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" s="39"/>
-      <c r="B272" s="54" t="s">
+      <c r="A272" s="34"/>
+      <c r="B272" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="C272" s="62"/>
-      <c r="M272" s="55"/>
+      <c r="C272" s="57"/>
+      <c r="M272" s="50"/>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A273" s="39"/>
-      <c r="B273" s="54" t="s">
+      <c r="A273" s="34"/>
+      <c r="B273" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="C273" s="62"/>
-      <c r="M273" s="55"/>
+      <c r="C273" s="57"/>
+      <c r="M273" s="50"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274" s="39"/>
-      <c r="B274" s="54" t="s">
+      <c r="A274" s="34"/>
+      <c r="B274" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="C274" s="62"/>
-      <c r="M274" s="55"/>
+      <c r="C274" s="57"/>
+      <c r="M274" s="50"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A275" s="39"/>
-      <c r="B275" s="54" t="s">
+      <c r="A275" s="34"/>
+      <c r="B275" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="C275" s="62"/>
-      <c r="M275" s="55"/>
+      <c r="C275" s="57"/>
+      <c r="M275" s="50"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" s="39"/>
-      <c r="B276" s="54" t="s">
+      <c r="A276" s="34"/>
+      <c r="B276" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="C276" s="62"/>
-      <c r="M276" s="55"/>
+      <c r="C276" s="57"/>
+      <c r="M276" s="50"/>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277" s="39"/>
-      <c r="B277" s="54" t="s">
+      <c r="A277" s="34"/>
+      <c r="B277" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="C277" s="62"/>
-      <c r="M277" s="55"/>
+      <c r="C277" s="57"/>
+      <c r="M277" s="50"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" s="39"/>
-      <c r="B278" s="54" t="s">
+      <c r="A278" s="34"/>
+      <c r="B278" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="C278" s="62"/>
-      <c r="M278" s="55"/>
+      <c r="C278" s="57"/>
+      <c r="M278" s="50"/>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279" s="39"/>
-      <c r="B279" s="54" t="s">
+      <c r="A279" s="34"/>
+      <c r="B279" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="C279" s="62"/>
-      <c r="M279" s="55"/>
+      <c r="C279" s="57"/>
+      <c r="M279" s="50"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" s="39"/>
-      <c r="B280" s="54" t="s">
+      <c r="A280" s="34"/>
+      <c r="B280" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="C280" s="62"/>
-      <c r="M280" s="55"/>
+      <c r="C280" s="57"/>
+      <c r="M280" s="50"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281" s="39"/>
-      <c r="B281" s="54" t="s">
+      <c r="A281" s="34"/>
+      <c r="B281" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="C281" s="62"/>
-      <c r="M281" s="55"/>
+      <c r="C281" s="57"/>
+      <c r="M281" s="50"/>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A282" s="39"/>
-      <c r="B282" s="54" t="s">
+      <c r="A282" s="34"/>
+      <c r="B282" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="C282" s="62"/>
-      <c r="M282" s="55"/>
+      <c r="C282" s="57"/>
+      <c r="M282" s="50"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A283" s="39"/>
-      <c r="B283" s="54" t="s">
+      <c r="A283" s="34"/>
+      <c r="B283" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="C283" s="62"/>
-      <c r="M283" s="55"/>
+      <c r="C283" s="57"/>
+      <c r="M283" s="50"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" s="39"/>
-      <c r="B284" s="54" t="s">
+      <c r="A284" s="34"/>
+      <c r="B284" s="49" t="s">
         <v>408</v>
       </c>
-      <c r="C284" s="62"/>
-      <c r="M284" s="55"/>
+      <c r="C284" s="57"/>
+      <c r="M284" s="50"/>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285" s="39"/>
-      <c r="B285" s="54" t="s">
+      <c r="A285" s="34"/>
+      <c r="B285" s="49" t="s">
         <v>409</v>
       </c>
-      <c r="C285" s="62"/>
-      <c r="M285" s="55"/>
+      <c r="C285" s="57"/>
+      <c r="M285" s="50"/>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" s="39"/>
-      <c r="B286" s="54" t="s">
+      <c r="A286" s="34"/>
+      <c r="B286" s="49" t="s">
         <v>410</v>
       </c>
-      <c r="C286" s="62"/>
-      <c r="M286" s="55"/>
+      <c r="C286" s="57"/>
+      <c r="M286" s="50"/>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A287" s="39"/>
-      <c r="B287" s="54" t="s">
+      <c r="A287" s="34"/>
+      <c r="B287" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="C287" s="62"/>
-      <c r="M287" s="55"/>
+      <c r="C287" s="57"/>
+      <c r="M287" s="50"/>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" s="39"/>
-      <c r="B288" s="54" t="s">
+      <c r="A288" s="34"/>
+      <c r="B288" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="C288" s="62"/>
-      <c r="M288" s="55"/>
+      <c r="C288" s="57"/>
+      <c r="M288" s="50"/>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A289" s="39"/>
-      <c r="B289" s="54" t="s">
+      <c r="A289" s="34"/>
+      <c r="B289" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="C289" s="62"/>
-      <c r="M289" s="55"/>
+      <c r="C289" s="57"/>
+      <c r="M289" s="50"/>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A290" s="39"/>
-      <c r="B290" s="54" t="s">
+      <c r="A290" s="34"/>
+      <c r="B290" s="49" t="s">
         <v>414</v>
       </c>
-      <c r="C290" s="62"/>
-      <c r="M290" s="55"/>
+      <c r="C290" s="57"/>
+      <c r="M290" s="50"/>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A291" s="39"/>
-      <c r="B291" s="54" t="s">
+      <c r="A291" s="34"/>
+      <c r="B291" s="49" t="s">
         <v>415</v>
       </c>
-      <c r="C291" s="62"/>
-      <c r="M291" s="55"/>
+      <c r="C291" s="57"/>
+      <c r="M291" s="50"/>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A292" s="39"/>
-      <c r="B292" s="54" t="s">
+      <c r="A292" s="34"/>
+      <c r="B292" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="C292" s="62"/>
-      <c r="M292" s="55"/>
+      <c r="C292" s="57"/>
+      <c r="M292" s="50"/>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293" s="39"/>
-      <c r="B293" s="54" t="s">
+      <c r="A293" s="34"/>
+      <c r="B293" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="C293" s="62"/>
-      <c r="M293" s="55"/>
+      <c r="C293" s="57"/>
+      <c r="M293" s="50"/>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A294" s="39"/>
-      <c r="B294" s="54" t="s">
+      <c r="A294" s="34"/>
+      <c r="B294" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="C294" s="62"/>
-      <c r="M294" s="55"/>
+      <c r="C294" s="57"/>
+      <c r="M294" s="50"/>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A295" s="39"/>
-      <c r="B295" s="54" t="s">
+      <c r="A295" s="34"/>
+      <c r="B295" s="49" t="s">
         <v>419</v>
       </c>
-      <c r="C295" s="62"/>
-      <c r="M295" s="55"/>
+      <c r="C295" s="57"/>
+      <c r="M295" s="50"/>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" s="39"/>
-      <c r="B296" s="54" t="s">
+      <c r="A296" s="34"/>
+      <c r="B296" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="C296" s="62"/>
-      <c r="M296" s="55"/>
+      <c r="C296" s="57"/>
+      <c r="M296" s="50"/>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A297" s="39"/>
-      <c r="B297" s="54" t="s">
+      <c r="A297" s="34"/>
+      <c r="B297" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="C297" s="62"/>
-      <c r="M297" s="55"/>
+      <c r="C297" s="57"/>
+      <c r="M297" s="50"/>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A298" s="39"/>
-      <c r="B298" s="54" t="s">
+      <c r="A298" s="34"/>
+      <c r="B298" s="49" t="s">
         <v>422</v>
       </c>
-      <c r="C298" s="62"/>
-      <c r="M298" s="55"/>
+      <c r="C298" s="57"/>
+      <c r="M298" s="50"/>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A299" s="39"/>
-      <c r="B299" s="54" t="s">
+      <c r="A299" s="34"/>
+      <c r="B299" s="49" t="s">
         <v>423</v>
       </c>
-      <c r="C299" s="62"/>
-      <c r="M299" s="55"/>
+      <c r="C299" s="57"/>
+      <c r="M299" s="50"/>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A300" s="39"/>
-      <c r="B300" s="54" t="s">
+      <c r="A300" s="34"/>
+      <c r="B300" s="49" t="s">
         <v>424</v>
       </c>
-      <c r="C300" s="62"/>
-      <c r="M300" s="55"/>
+      <c r="C300" s="57"/>
+      <c r="M300" s="50"/>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A301" s="39"/>
-      <c r="B301" s="54" t="s">
+      <c r="A301" s="34"/>
+      <c r="B301" s="49" t="s">
         <v>425</v>
       </c>
-      <c r="C301" s="62"/>
-      <c r="M301" s="55"/>
+      <c r="C301" s="57"/>
+      <c r="M301" s="50"/>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A302" s="39"/>
-      <c r="B302" s="54" t="s">
+      <c r="A302" s="34"/>
+      <c r="B302" s="49" t="s">
         <v>426</v>
       </c>
-      <c r="C302" s="62"/>
-      <c r="M302" s="55"/>
+      <c r="C302" s="57"/>
+      <c r="M302" s="50"/>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A303" s="39"/>
-      <c r="B303" s="54" t="s">
+      <c r="A303" s="34"/>
+      <c r="B303" s="49" t="s">
         <v>427</v>
       </c>
-      <c r="C303" s="62"/>
-      <c r="M303" s="55"/>
+      <c r="C303" s="57"/>
+      <c r="M303" s="50"/>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A304" s="39"/>
-      <c r="B304" s="54" t="s">
+      <c r="A304" s="34"/>
+      <c r="B304" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="C304" s="62"/>
-      <c r="M304" s="55"/>
+      <c r="C304" s="57"/>
+      <c r="M304" s="50"/>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A305" s="39"/>
-      <c r="B305" s="54" t="s">
+      <c r="A305" s="34"/>
+      <c r="B305" s="49" t="s">
         <v>429</v>
       </c>
-      <c r="C305" s="62"/>
-      <c r="M305" s="55"/>
+      <c r="C305" s="57"/>
+      <c r="M305" s="50"/>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A306" s="39"/>
-      <c r="B306" s="54" t="s">
+      <c r="A306" s="34"/>
+      <c r="B306" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="C306" s="62"/>
-      <c r="M306" s="55"/>
+      <c r="C306" s="57"/>
+      <c r="M306" s="50"/>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A307" s="39"/>
-      <c r="B307" s="54" t="s">
+      <c r="A307" s="34"/>
+      <c r="B307" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="C307" s="62"/>
-      <c r="M307" s="55"/>
+      <c r="C307" s="57"/>
+      <c r="M307" s="50"/>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A308" s="39"/>
-      <c r="B308" s="54" t="s">
+      <c r="A308" s="34"/>
+      <c r="B308" s="49" t="s">
         <v>432</v>
       </c>
-      <c r="C308" s="62"/>
-      <c r="M308" s="55"/>
+      <c r="C308" s="57"/>
+      <c r="M308" s="50"/>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A309" s="39"/>
-      <c r="B309" s="54" t="s">
+      <c r="A309" s="34"/>
+      <c r="B309" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="C309" s="62"/>
-      <c r="M309" s="55"/>
+      <c r="C309" s="57"/>
+      <c r="M309" s="50"/>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A310" s="39"/>
-      <c r="B310" s="54" t="s">
+      <c r="A310" s="34"/>
+      <c r="B310" s="49" t="s">
         <v>434</v>
       </c>
-      <c r="C310" s="62"/>
-      <c r="M310" s="55"/>
+      <c r="C310" s="57"/>
+      <c r="M310" s="50"/>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A311" s="39"/>
-      <c r="B311" s="54" t="s">
+      <c r="A311" s="34"/>
+      <c r="B311" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="C311" s="62"/>
-      <c r="M311" s="55"/>
+      <c r="C311" s="57"/>
+      <c r="M311" s="50"/>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A312" s="39"/>
-      <c r="B312" s="54" t="s">
+      <c r="A312" s="34"/>
+      <c r="B312" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="C312" s="62"/>
-      <c r="M312" s="55"/>
+      <c r="C312" s="57"/>
+      <c r="M312" s="50"/>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A313" s="39"/>
-      <c r="B313" s="54" t="s">
+      <c r="A313" s="34"/>
+      <c r="B313" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="C313" s="62"/>
-      <c r="M313" s="55"/>
+      <c r="C313" s="57"/>
+      <c r="M313" s="50"/>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A314" s="39"/>
-      <c r="B314" s="54" t="s">
+      <c r="A314" s="34"/>
+      <c r="B314" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="C314" s="62"/>
-      <c r="M314" s="55"/>
+      <c r="C314" s="57"/>
+      <c r="M314" s="50"/>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A315" s="39"/>
-      <c r="B315" s="54" t="s">
+      <c r="A315" s="34"/>
+      <c r="B315" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="C315" s="62"/>
-      <c r="M315" s="55"/>
+      <c r="C315" s="57"/>
+      <c r="M315" s="50"/>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A316" s="39"/>
-      <c r="B316" s="54" t="s">
+      <c r="A316" s="34"/>
+      <c r="B316" s="49" t="s">
         <v>440</v>
       </c>
-      <c r="C316" s="62"/>
-      <c r="M316" s="55"/>
+      <c r="C316" s="57"/>
+      <c r="M316" s="50"/>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A317" s="39"/>
-      <c r="B317" s="54" t="s">
+      <c r="A317" s="34"/>
+      <c r="B317" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C317" s="62"/>
-      <c r="M317" s="55"/>
+      <c r="C317" s="57"/>
+      <c r="M317" s="50"/>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A318" s="39"/>
-      <c r="B318" s="54" t="s">
+      <c r="A318" s="34"/>
+      <c r="B318" s="49" t="s">
         <v>419</v>
       </c>
-      <c r="C318" s="62"/>
-      <c r="M318" s="55"/>
+      <c r="C318" s="57"/>
+      <c r="M318" s="50"/>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A319" s="39"/>
-      <c r="B319" s="54" t="s">
+      <c r="A319" s="34"/>
+      <c r="B319" s="49" t="s">
         <v>441</v>
       </c>
-      <c r="C319" s="62"/>
-      <c r="M319" s="55"/>
+      <c r="C319" s="57"/>
+      <c r="M319" s="50"/>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A320" s="39"/>
-      <c r="B320" s="54" t="s">
+      <c r="A320" s="34"/>
+      <c r="B320" s="49" t="s">
         <v>442</v>
       </c>
-      <c r="C320" s="62"/>
-      <c r="M320" s="55"/>
+      <c r="C320" s="57"/>
+      <c r="M320" s="50"/>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A321" s="39"/>
-      <c r="B321" s="54" t="s">
+      <c r="A321" s="34"/>
+      <c r="B321" s="49" t="s">
         <v>443</v>
       </c>
-      <c r="C321" s="62"/>
-      <c r="M321" s="55"/>
+      <c r="C321" s="57"/>
+      <c r="M321" s="50"/>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A322" s="39"/>
-      <c r="B322" s="54" t="s">
+      <c r="A322" s="34"/>
+      <c r="B322" s="49" t="s">
         <v>444</v>
       </c>
-      <c r="C322" s="62"/>
-      <c r="M322" s="55"/>
+      <c r="C322" s="57"/>
+      <c r="M322" s="50"/>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A323" s="39"/>
-      <c r="B323" s="54" t="s">
+      <c r="A323" s="34"/>
+      <c r="B323" s="49" t="s">
         <v>445</v>
       </c>
-      <c r="C323" s="62"/>
-      <c r="M323" s="55"/>
+      <c r="C323" s="57"/>
+      <c r="M323" s="50"/>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A324" s="39"/>
-      <c r="B324" s="54" t="s">
+      <c r="A324" s="34"/>
+      <c r="B324" s="49" t="s">
         <v>446</v>
       </c>
-      <c r="C324" s="62"/>
-      <c r="M324" s="55"/>
+      <c r="C324" s="57"/>
+      <c r="M324" s="50"/>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A325" s="39"/>
-      <c r="B325" s="54" t="s">
+      <c r="A325" s="34"/>
+      <c r="B325" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="C325" s="62"/>
-      <c r="M325" s="55"/>
+      <c r="C325" s="57"/>
+      <c r="M325" s="50"/>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A326" s="39"/>
-      <c r="B326" s="54" t="s">
+      <c r="A326" s="34"/>
+      <c r="B326" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="C326" s="62"/>
-      <c r="M326" s="55"/>
+      <c r="C326" s="57"/>
+      <c r="M326" s="50"/>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A327" s="39"/>
-      <c r="B327" s="54" t="s">
+      <c r="A327" s="34"/>
+      <c r="B327" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="C327" s="62"/>
-      <c r="M327" s="55"/>
+      <c r="C327" s="57"/>
+      <c r="M327" s="50"/>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A328" s="39"/>
-      <c r="B328" s="54" t="s">
+      <c r="A328" s="34"/>
+      <c r="B328" s="49" t="s">
         <v>450</v>
       </c>
-      <c r="C328" s="62"/>
-      <c r="M328" s="55"/>
+      <c r="C328" s="57"/>
+      <c r="M328" s="50"/>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A329" s="39"/>
-      <c r="B329" s="54" t="s">
+      <c r="A329" s="34"/>
+      <c r="B329" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="C329" s="62"/>
-      <c r="M329" s="55"/>
+      <c r="C329" s="57"/>
+      <c r="M329" s="50"/>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A330" s="39"/>
-      <c r="B330" s="54" t="s">
+      <c r="A330" s="34"/>
+      <c r="B330" s="49" t="s">
         <v>452</v>
       </c>
-      <c r="C330" s="62"/>
-      <c r="M330" s="55"/>
+      <c r="C330" s="57"/>
+      <c r="M330" s="50"/>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A331" s="39"/>
-      <c r="B331" s="54" t="s">
+      <c r="A331" s="34"/>
+      <c r="B331" s="49" t="s">
         <v>453</v>
       </c>
-      <c r="C331" s="62"/>
-      <c r="M331" s="55"/>
+      <c r="C331" s="57"/>
+      <c r="M331" s="50"/>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A332" s="39"/>
-      <c r="B332" s="54" t="s">
+      <c r="A332" s="34"/>
+      <c r="B332" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="C332" s="62"/>
-      <c r="M332" s="55"/>
+      <c r="C332" s="57"/>
+      <c r="M332" s="50"/>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A333" s="39"/>
-      <c r="B333" s="54" t="s">
+      <c r="A333" s="34"/>
+      <c r="B333" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="C333" s="62"/>
-      <c r="M333" s="55"/>
+      <c r="C333" s="57"/>
+      <c r="M333" s="50"/>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A334" s="39"/>
-      <c r="B334" s="54" t="s">
+      <c r="A334" s="34"/>
+      <c r="B334" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="C334" s="62"/>
-      <c r="M334" s="55"/>
+      <c r="C334" s="57"/>
+      <c r="M334" s="50"/>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A335" s="39"/>
-      <c r="B335" s="54" t="s">
+      <c r="A335" s="34"/>
+      <c r="B335" s="49" t="s">
         <v>456</v>
       </c>
-      <c r="C335" s="62"/>
-      <c r="M335" s="55"/>
+      <c r="C335" s="57"/>
+      <c r="M335" s="50"/>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A336" s="39"/>
-      <c r="B336" s="54" t="s">
+      <c r="A336" s="34"/>
+      <c r="B336" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="C336" s="62"/>
-      <c r="M336" s="55"/>
+      <c r="C336" s="57"/>
+      <c r="M336" s="50"/>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A337" s="39"/>
-      <c r="B337" s="54" t="s">
+      <c r="A337" s="34"/>
+      <c r="B337" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="C337" s="62"/>
-      <c r="M337" s="55"/>
+      <c r="C337" s="57"/>
+      <c r="M337" s="50"/>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A338" s="39"/>
-      <c r="B338" s="54" t="s">
+      <c r="A338" s="34"/>
+      <c r="B338" s="49" t="s">
         <v>459</v>
       </c>
-      <c r="C338" s="62"/>
-      <c r="M338" s="55"/>
+      <c r="C338" s="57"/>
+      <c r="M338" s="50"/>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A339" s="39"/>
-      <c r="B339" s="54" t="s">
+      <c r="A339" s="34"/>
+      <c r="B339" s="49" t="s">
         <v>460</v>
       </c>
-      <c r="C339" s="62"/>
-      <c r="M339" s="55"/>
+      <c r="C339" s="57"/>
+      <c r="M339" s="50"/>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A340" s="39"/>
-      <c r="B340" s="54" t="s">
+      <c r="A340" s="34"/>
+      <c r="B340" s="49" t="s">
         <v>461</v>
       </c>
-      <c r="C340" s="62"/>
-      <c r="M340" s="55"/>
+      <c r="C340" s="57"/>
+      <c r="M340" s="50"/>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A341" s="39"/>
-      <c r="B341" s="54" t="s">
+      <c r="A341" s="34"/>
+      <c r="B341" s="49" t="s">
         <v>462</v>
       </c>
-      <c r="C341" s="62"/>
-      <c r="M341" s="55"/>
+      <c r="C341" s="57"/>
+      <c r="M341" s="50"/>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A342" s="39"/>
-      <c r="B342" s="54" t="s">
+      <c r="A342" s="34"/>
+      <c r="B342" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="C342" s="62"/>
-      <c r="M342" s="55"/>
+      <c r="C342" s="57"/>
+      <c r="M342" s="50"/>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A343" s="39"/>
-      <c r="B343" s="54" t="s">
+      <c r="A343" s="34"/>
+      <c r="B343" s="49" t="s">
         <v>464</v>
       </c>
-      <c r="C343" s="62"/>
-      <c r="M343" s="55"/>
+      <c r="C343" s="57"/>
+      <c r="M343" s="50"/>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A344" s="39"/>
-      <c r="B344" s="54" t="s">
+      <c r="A344" s="34"/>
+      <c r="B344" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="C344" s="62"/>
-      <c r="M344" s="55"/>
+      <c r="C344" s="57"/>
+      <c r="M344" s="50"/>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A345" s="39"/>
-      <c r="B345" s="54" t="s">
+      <c r="A345" s="34"/>
+      <c r="B345" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="C345" s="62"/>
-      <c r="M345" s="55"/>
+      <c r="C345" s="57"/>
+      <c r="M345" s="50"/>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A346" s="39"/>
-      <c r="B346" s="54" t="s">
+      <c r="A346" s="34"/>
+      <c r="B346" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="C346" s="62"/>
-      <c r="M346" s="55"/>
+      <c r="C346" s="57"/>
+      <c r="M346" s="50"/>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A347" s="39"/>
-      <c r="B347" s="54" t="s">
+      <c r="A347" s="34"/>
+      <c r="B347" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="C347" s="62"/>
-      <c r="M347" s="55"/>
+      <c r="C347" s="57"/>
+      <c r="M347" s="50"/>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A348" s="39"/>
-      <c r="B348" s="54" t="s">
+      <c r="A348" s="34"/>
+      <c r="B348" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="C348" s="62"/>
-      <c r="M348" s="55"/>
+      <c r="C348" s="57"/>
+      <c r="M348" s="50"/>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A349" s="39"/>
-      <c r="B349" s="54" t="s">
+      <c r="A349" s="34"/>
+      <c r="B349" s="49" t="s">
         <v>470</v>
       </c>
-      <c r="C349" s="62"/>
-      <c r="M349" s="55"/>
+      <c r="C349" s="57"/>
+      <c r="M349" s="50"/>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A350" s="39"/>
-      <c r="B350" s="54" t="s">
+      <c r="A350" s="34"/>
+      <c r="B350" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="C350" s="62"/>
-      <c r="M350" s="55"/>
+      <c r="C350" s="57"/>
+      <c r="M350" s="50"/>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A351" s="39"/>
-      <c r="B351" s="54" t="s">
+      <c r="A351" s="34"/>
+      <c r="B351" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="C351" s="62"/>
-      <c r="M351" s="55"/>
+      <c r="C351" s="57"/>
+      <c r="M351" s="50"/>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A352" s="39"/>
-      <c r="B352" s="54" t="s">
+      <c r="A352" s="34"/>
+      <c r="B352" s="49" t="s">
         <v>473</v>
       </c>
-      <c r="C352" s="62"/>
-      <c r="M352" s="55"/>
+      <c r="C352" s="57"/>
+      <c r="M352" s="50"/>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A353" s="39"/>
-      <c r="B353" s="54" t="s">
+      <c r="A353" s="34"/>
+      <c r="B353" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="C353" s="62"/>
-      <c r="M353" s="55"/>
+      <c r="C353" s="57"/>
+      <c r="M353" s="50"/>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A354" s="39"/>
-      <c r="B354" s="54" t="s">
+      <c r="A354" s="34"/>
+      <c r="B354" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="C354" s="62"/>
-      <c r="M354" s="55"/>
+      <c r="C354" s="57"/>
+      <c r="M354" s="50"/>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A355" s="39"/>
-      <c r="B355" s="54" t="s">
+      <c r="A355" s="34"/>
+      <c r="B355" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="C355" s="62"/>
-      <c r="M355" s="55"/>
+      <c r="C355" s="57"/>
+      <c r="M355" s="50"/>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A356" s="39"/>
-      <c r="B356" s="54" t="s">
+      <c r="A356" s="34"/>
+      <c r="B356" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="C356" s="62"/>
-      <c r="M356" s="55"/>
+      <c r="C356" s="57"/>
+      <c r="M356" s="50"/>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A357" s="39"/>
-      <c r="B357" s="54" t="s">
+      <c r="A357" s="34"/>
+      <c r="B357" s="49" t="s">
         <v>478</v>
       </c>
-      <c r="C357" s="62"/>
-      <c r="M357" s="55"/>
+      <c r="C357" s="57"/>
+      <c r="M357" s="50"/>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A358" s="39"/>
-      <c r="B358" s="54" t="s">
+      <c r="A358" s="34"/>
+      <c r="B358" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="C358" s="62"/>
-      <c r="M358" s="55"/>
+      <c r="C358" s="57"/>
+      <c r="M358" s="50"/>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A359" s="39"/>
-      <c r="B359" s="54" t="s">
+      <c r="A359" s="34"/>
+      <c r="B359" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="C359" s="62"/>
-      <c r="M359" s="55"/>
+      <c r="C359" s="57"/>
+      <c r="M359" s="50"/>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A360" s="39"/>
-      <c r="B360" s="54" t="s">
+      <c r="A360" s="34"/>
+      <c r="B360" s="49" t="s">
         <v>480</v>
       </c>
-      <c r="C360" s="62"/>
-      <c r="M360" s="55"/>
+      <c r="C360" s="57"/>
+      <c r="M360" s="50"/>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A361" s="39"/>
-      <c r="B361" s="54" t="s">
+      <c r="A361" s="34"/>
+      <c r="B361" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="C361" s="62"/>
-      <c r="M361" s="55"/>
+      <c r="C361" s="57"/>
+      <c r="M361" s="50"/>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A362" s="39"/>
-      <c r="B362" s="54" t="s">
+      <c r="A362" s="34"/>
+      <c r="B362" s="49" t="s">
         <v>481</v>
       </c>
-      <c r="C362" s="62"/>
-      <c r="M362" s="55"/>
+      <c r="C362" s="57"/>
+      <c r="M362" s="50"/>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A363" s="39"/>
-      <c r="B363" s="54" t="s">
+      <c r="A363" s="34"/>
+      <c r="B363" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="C363" s="62"/>
-      <c r="M363" s="55"/>
+      <c r="C363" s="57"/>
+      <c r="M363" s="50"/>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A364" s="39"/>
-      <c r="B364" s="54" t="s">
+      <c r="A364" s="34"/>
+      <c r="B364" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="C364" s="62"/>
-      <c r="M364" s="55"/>
+      <c r="C364" s="57"/>
+      <c r="M364" s="50"/>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A365" s="39"/>
-      <c r="B365" s="54" t="s">
+      <c r="A365" s="34"/>
+      <c r="B365" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="C365" s="62"/>
-      <c r="M365" s="55"/>
+      <c r="C365" s="57"/>
+      <c r="M365" s="50"/>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A366" s="39"/>
-      <c r="B366" s="54" t="s">
+      <c r="A366" s="34"/>
+      <c r="B366" s="49" t="s">
         <v>485</v>
       </c>
-      <c r="C366" s="62"/>
-      <c r="M366" s="55"/>
+      <c r="C366" s="57"/>
+      <c r="M366" s="50"/>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A367" s="39"/>
-      <c r="B367" s="54" t="s">
+      <c r="A367" s="34"/>
+      <c r="B367" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="C367" s="62"/>
-      <c r="M367" s="55"/>
+      <c r="C367" s="57"/>
+      <c r="M367" s="50"/>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A368" s="39"/>
-      <c r="B368" s="54" t="s">
+      <c r="A368" s="34"/>
+      <c r="B368" s="49" t="s">
         <v>487</v>
       </c>
-      <c r="C368" s="62"/>
-      <c r="M368" s="55"/>
+      <c r="C368" s="57"/>
+      <c r="M368" s="50"/>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A369" s="39"/>
-      <c r="B369" s="54" t="s">
+      <c r="A369" s="34"/>
+      <c r="B369" s="49" t="s">
         <v>488</v>
       </c>
-      <c r="C369" s="62"/>
-      <c r="M369" s="55"/>
+      <c r="C369" s="57"/>
+      <c r="M369" s="50"/>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A370" s="39"/>
-      <c r="B370" s="54" t="s">
+      <c r="A370" s="34"/>
+      <c r="B370" s="49" t="s">
         <v>489</v>
       </c>
-      <c r="C370" s="62"/>
-      <c r="M370" s="55"/>
+      <c r="C370" s="57"/>
+      <c r="M370" s="50"/>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A371" s="39"/>
-      <c r="B371" s="54" t="s">
+      <c r="A371" s="34"/>
+      <c r="B371" s="49" t="s">
         <v>490</v>
       </c>
-      <c r="C371" s="62"/>
-      <c r="M371" s="55"/>
+      <c r="C371" s="57"/>
+      <c r="M371" s="50"/>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A372" s="39"/>
-      <c r="B372" s="54" t="s">
+      <c r="A372" s="34"/>
+      <c r="B372" s="49" t="s">
         <v>491</v>
       </c>
-      <c r="C372" s="62"/>
-      <c r="M372" s="55"/>
+      <c r="C372" s="57"/>
+      <c r="M372" s="50"/>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A373" s="39"/>
-      <c r="B373" s="54" t="s">
+      <c r="A373" s="34"/>
+      <c r="B373" s="49" t="s">
         <v>492</v>
       </c>
-      <c r="C373" s="62"/>
-      <c r="M373" s="55"/>
+      <c r="C373" s="57"/>
+      <c r="M373" s="50"/>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A374" s="39"/>
-      <c r="B374" s="54" t="s">
+      <c r="A374" s="34"/>
+      <c r="B374" s="49" t="s">
         <v>493</v>
       </c>
-      <c r="C374" s="62"/>
-      <c r="M374" s="55"/>
+      <c r="C374" s="57"/>
+      <c r="M374" s="50"/>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A375" s="39"/>
-      <c r="B375" s="54" t="s">
+      <c r="A375" s="34"/>
+      <c r="B375" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="C375" s="62"/>
-      <c r="M375" s="55"/>
+      <c r="C375" s="57"/>
+      <c r="M375" s="50"/>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A376" s="39"/>
-      <c r="B376" s="54" t="s">
+      <c r="A376" s="34"/>
+      <c r="B376" s="49" t="s">
         <v>495</v>
       </c>
-      <c r="C376" s="62"/>
-      <c r="M376" s="55"/>
+      <c r="C376" s="57"/>
+      <c r="M376" s="50"/>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A377" s="39"/>
-      <c r="B377" s="54" t="s">
+      <c r="A377" s="34"/>
+      <c r="B377" s="49" t="s">
         <v>496</v>
       </c>
-      <c r="C377" s="62"/>
-      <c r="M377" s="55"/>
+      <c r="C377" s="57"/>
+      <c r="M377" s="50"/>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A378" s="39"/>
-      <c r="B378" s="54" t="s">
+      <c r="A378" s="34"/>
+      <c r="B378" s="49" t="s">
         <v>497</v>
       </c>
-      <c r="C378" s="62"/>
-      <c r="M378" s="55"/>
+      <c r="C378" s="57"/>
+      <c r="M378" s="50"/>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A379" s="39"/>
-      <c r="B379" s="54" t="s">
+      <c r="A379" s="34"/>
+      <c r="B379" s="49" t="s">
         <v>498</v>
       </c>
-      <c r="C379" s="62"/>
-      <c r="M379" s="55"/>
+      <c r="C379" s="57"/>
+      <c r="M379" s="50"/>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A380" s="39"/>
-      <c r="B380" s="54" t="s">
+      <c r="A380" s="34"/>
+      <c r="B380" s="49" t="s">
         <v>499</v>
       </c>
-      <c r="C380" s="62"/>
-      <c r="M380" s="55"/>
+      <c r="C380" s="57"/>
+      <c r="M380" s="50"/>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A381" s="39"/>
-      <c r="B381" s="54" t="s">
+      <c r="A381" s="34"/>
+      <c r="B381" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="C381" s="62"/>
-      <c r="M381" s="55"/>
+      <c r="C381" s="57"/>
+      <c r="M381" s="50"/>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A382" s="39"/>
-      <c r="B382" s="54" t="s">
+      <c r="A382" s="34"/>
+      <c r="B382" s="49" t="s">
         <v>501</v>
       </c>
-      <c r="C382" s="62"/>
-      <c r="M382" s="55"/>
+      <c r="C382" s="57"/>
+      <c r="M382" s="50"/>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A383" s="39"/>
-      <c r="B383" s="54" t="s">
+      <c r="A383" s="34"/>
+      <c r="B383" s="49" t="s">
         <v>502</v>
       </c>
-      <c r="C383" s="62"/>
-      <c r="M383" s="55"/>
+      <c r="C383" s="57"/>
+      <c r="M383" s="50"/>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A384" s="39"/>
-      <c r="B384" s="54" t="s">
+      <c r="A384" s="34"/>
+      <c r="B384" s="49" t="s">
         <v>503</v>
       </c>
-      <c r="C384" s="62"/>
-      <c r="M384" s="55"/>
+      <c r="C384" s="57"/>
+      <c r="M384" s="50"/>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A385" s="39"/>
-      <c r="B385" s="54" t="s">
+      <c r="A385" s="34"/>
+      <c r="B385" s="49" t="s">
         <v>504</v>
       </c>
-      <c r="C385" s="62"/>
-      <c r="M385" s="55"/>
+      <c r="C385" s="57"/>
+      <c r="M385" s="50"/>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A386" s="39"/>
-      <c r="B386" s="54" t="s">
+      <c r="A386" s="34"/>
+      <c r="B386" s="49" t="s">
         <v>505</v>
       </c>
-      <c r="C386" s="62"/>
-      <c r="M386" s="55"/>
+      <c r="C386" s="57"/>
+      <c r="M386" s="50"/>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A387" s="39"/>
-      <c r="B387" s="54" t="s">
+      <c r="A387" s="34"/>
+      <c r="B387" s="49" t="s">
         <v>506</v>
       </c>
-      <c r="C387" s="62"/>
-      <c r="M387" s="55"/>
+      <c r="C387" s="57"/>
+      <c r="M387" s="50"/>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A388" s="39"/>
-      <c r="B388" s="54" t="s">
+      <c r="A388" s="34"/>
+      <c r="B388" s="49" t="s">
         <v>507</v>
       </c>
-      <c r="C388" s="62"/>
-      <c r="M388" s="55"/>
+      <c r="C388" s="57"/>
+      <c r="M388" s="50"/>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A389" s="39"/>
-      <c r="B389" s="54" t="s">
+      <c r="A389" s="34"/>
+      <c r="B389" s="49" t="s">
         <v>508</v>
       </c>
-      <c r="C389" s="62"/>
-      <c r="M389" s="55"/>
+      <c r="C389" s="57"/>
+      <c r="M389" s="50"/>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A390" s="39"/>
-      <c r="B390" s="54" t="s">
+      <c r="A390" s="34"/>
+      <c r="B390" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="C390" s="62"/>
-      <c r="M390" s="55"/>
+      <c r="C390" s="57"/>
+      <c r="M390" s="50"/>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A391" s="39"/>
-      <c r="B391" s="54" t="s">
+      <c r="A391" s="34"/>
+      <c r="B391" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="C391" s="62"/>
-      <c r="M391" s="55"/>
+      <c r="C391" s="57"/>
+      <c r="M391" s="50"/>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A392" s="39"/>
-      <c r="B392" s="54" t="s">
+      <c r="A392" s="34"/>
+      <c r="B392" s="49" t="s">
         <v>510</v>
       </c>
-      <c r="C392" s="62"/>
-      <c r="M392" s="55"/>
+      <c r="C392" s="57"/>
+      <c r="M392" s="50"/>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A393" s="39"/>
-      <c r="B393" s="54" t="s">
+      <c r="A393" s="34"/>
+      <c r="B393" s="49" t="s">
         <v>511</v>
       </c>
-      <c r="C393" s="62"/>
-      <c r="M393" s="55"/>
+      <c r="C393" s="57"/>
+      <c r="M393" s="50"/>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A394" s="39"/>
-      <c r="B394" s="54" t="s">
+      <c r="A394" s="34"/>
+      <c r="B394" s="49" t="s">
         <v>512</v>
       </c>
-      <c r="C394" s="62"/>
-      <c r="M394" s="55"/>
+      <c r="C394" s="57"/>
+      <c r="M394" s="50"/>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A395" s="39"/>
-      <c r="B395" s="54" t="s">
+      <c r="A395" s="34"/>
+      <c r="B395" s="49" t="s">
         <v>513</v>
       </c>
-      <c r="C395" s="62"/>
-      <c r="M395" s="55"/>
+      <c r="C395" s="57"/>
+      <c r="M395" s="50"/>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A396" s="39"/>
-      <c r="B396" s="54" t="s">
+      <c r="A396" s="34"/>
+      <c r="B396" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="C396" s="62"/>
-      <c r="M396" s="55"/>
+      <c r="C396" s="57"/>
+      <c r="M396" s="50"/>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A397" s="39"/>
-      <c r="B397" s="54" t="s">
+      <c r="A397" s="34"/>
+      <c r="B397" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="C397" s="62"/>
-      <c r="M397" s="55"/>
+      <c r="C397" s="57"/>
+      <c r="M397" s="50"/>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A398" s="39"/>
-      <c r="B398" s="54" t="s">
+      <c r="A398" s="34"/>
+      <c r="B398" s="49" t="s">
         <v>516</v>
       </c>
-      <c r="C398" s="62"/>
-      <c r="M398" s="55"/>
+      <c r="C398" s="57"/>
+      <c r="M398" s="50"/>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A399" s="39"/>
-      <c r="B399" s="54" t="s">
+      <c r="A399" s="34"/>
+      <c r="B399" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="C399" s="62"/>
-      <c r="M399" s="55"/>
+      <c r="C399" s="57"/>
+      <c r="M399" s="50"/>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A400" s="39"/>
-      <c r="B400" s="54" t="s">
+      <c r="A400" s="34"/>
+      <c r="B400" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="C400" s="62"/>
-      <c r="M400" s="55"/>
+      <c r="C400" s="57"/>
+      <c r="M400" s="50"/>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A401" s="39"/>
-      <c r="B401" s="54" t="s">
+      <c r="A401" s="34"/>
+      <c r="B401" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="C401" s="62"/>
-      <c r="M401" s="55"/>
+      <c r="C401" s="57"/>
+      <c r="M401" s="50"/>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A402" s="39"/>
-      <c r="B402" s="54" t="s">
+      <c r="A402" s="34"/>
+      <c r="B402" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="C402" s="62"/>
-      <c r="M402" s="55"/>
+      <c r="C402" s="57"/>
+      <c r="M402" s="50"/>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A403" s="39"/>
-      <c r="B403" s="54" t="s">
+      <c r="A403" s="34"/>
+      <c r="B403" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="C403" s="62"/>
-      <c r="M403" s="55"/>
+      <c r="C403" s="57"/>
+      <c r="M403" s="50"/>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A404" s="39"/>
-      <c r="B404" s="54" t="s">
+      <c r="A404" s="34"/>
+      <c r="B404" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="C404" s="62"/>
-      <c r="M404" s="55"/>
+      <c r="C404" s="57"/>
+      <c r="M404" s="50"/>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A405" s="39"/>
-      <c r="B405" s="54" t="s">
+      <c r="A405" s="34"/>
+      <c r="B405" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="C405" s="62"/>
-      <c r="M405" s="55"/>
+      <c r="C405" s="57"/>
+      <c r="M405" s="50"/>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A406" s="39"/>
-      <c r="B406" s="54" t="s">
+      <c r="A406" s="34"/>
+      <c r="B406" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="C406" s="62"/>
-      <c r="M406" s="55"/>
+      <c r="C406" s="57"/>
+      <c r="M406" s="50"/>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A407" s="39"/>
-      <c r="B407" s="54" t="s">
+      <c r="A407" s="34"/>
+      <c r="B407" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="C407" s="62"/>
-      <c r="M407" s="55"/>
+      <c r="C407" s="57"/>
+      <c r="M407" s="50"/>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A408" s="39"/>
-      <c r="B408" s="54" t="s">
+      <c r="A408" s="34"/>
+      <c r="B408" s="49" t="s">
         <v>525</v>
       </c>
-      <c r="C408" s="62"/>
-      <c r="M408" s="55"/>
+      <c r="C408" s="57"/>
+      <c r="M408" s="50"/>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A409" s="39"/>
-      <c r="B409" s="54" t="s">
+      <c r="A409" s="34"/>
+      <c r="B409" s="49" t="s">
         <v>526</v>
       </c>
-      <c r="C409" s="62"/>
-      <c r="M409" s="55"/>
+      <c r="C409" s="57"/>
+      <c r="M409" s="50"/>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A410" s="39"/>
-      <c r="B410" s="54" t="s">
+      <c r="A410" s="34"/>
+      <c r="B410" s="49" t="s">
         <v>527</v>
       </c>
-      <c r="C410" s="62"/>
-      <c r="M410" s="55"/>
+      <c r="C410" s="57"/>
+      <c r="M410" s="50"/>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A411" s="39"/>
-      <c r="B411" s="54" t="s">
+      <c r="A411" s="34"/>
+      <c r="B411" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="C411" s="62"/>
-      <c r="M411" s="55"/>
+      <c r="C411" s="57"/>
+      <c r="M411" s="50"/>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A412" s="39"/>
-      <c r="B412" s="54" t="s">
+      <c r="A412" s="34"/>
+      <c r="B412" s="49" t="s">
         <v>528</v>
       </c>
-      <c r="C412" s="62"/>
-      <c r="M412" s="55"/>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C412" s="57"/>
+      <c r="M412" s="50"/>
+    </row>
+    <row r="413" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A413" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B413" s="69" t="s">
+      <c r="B413" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C413" s="62"/>
-      <c r="M413" s="55"/>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C413" s="57"/>
+      <c r="M413" s="50"/>
+    </row>
+    <row r="414" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A414" s="17"/>
-      <c r="B414" s="69" t="s">
+      <c r="B414" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C414" s="62"/>
-      <c r="M414" s="55"/>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A415" s="39"/>
-      <c r="B415" s="69" t="s">
+      <c r="C414" s="57"/>
+      <c r="M414" s="50"/>
+    </row>
+    <row r="415" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A415" s="34"/>
+      <c r="B415" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C415" s="62"/>
-      <c r="M415" s="55"/>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A416" s="39"/>
-      <c r="B416" s="69" t="s">
+      <c r="C415" s="57"/>
+      <c r="M415" s="50"/>
+    </row>
+    <row r="416" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A416" s="34"/>
+      <c r="B416" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C416" s="62"/>
-      <c r="M416" s="55"/>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A417" s="39"/>
-      <c r="B417" s="69" t="s">
+      <c r="C416" s="57"/>
+      <c r="M416" s="50"/>
+    </row>
+    <row r="417" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A417" s="34"/>
+      <c r="B417" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C417" s="62"/>
-      <c r="M417" s="55"/>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A418" s="39"/>
-      <c r="B418" s="69" t="s">
+      <c r="C417" s="57"/>
+      <c r="M417" s="50"/>
+    </row>
+    <row r="418" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A418" s="34"/>
+      <c r="B418" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C418" s="62"/>
-      <c r="M418" s="55"/>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A419" s="39"/>
-      <c r="B419" s="69" t="s">
+      <c r="C418" s="57"/>
+      <c r="M418" s="50"/>
+    </row>
+    <row r="419" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A419" s="34"/>
+      <c r="B419" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C419" s="62"/>
-      <c r="M419" s="55"/>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A420" s="39"/>
-      <c r="B420" s="69" t="s">
+      <c r="C419" s="57"/>
+      <c r="M419" s="50"/>
+    </row>
+    <row r="420" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A420" s="34"/>
+      <c r="B420" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C420" s="62"/>
-      <c r="M420" s="55"/>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A421" s="39"/>
-      <c r="B421" s="69" t="s">
+      <c r="C420" s="57"/>
+      <c r="M420" s="50"/>
+    </row>
+    <row r="421" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A421" s="34"/>
+      <c r="B421" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C421" s="62"/>
-      <c r="M421" s="55"/>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A422" s="39"/>
-      <c r="B422" s="69" t="s">
+      <c r="C421" s="57"/>
+      <c r="M421" s="50"/>
+    </row>
+    <row r="422" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A422" s="34"/>
+      <c r="B422" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C422" s="62"/>
-      <c r="M422" s="55"/>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A423" s="39"/>
-      <c r="B423" s="69" t="s">
+      <c r="C422" s="57"/>
+      <c r="M422" s="50"/>
+    </row>
+    <row r="423" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A423" s="34"/>
+      <c r="B423" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C423" s="62"/>
-      <c r="M423" s="55"/>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A424" s="39"/>
-      <c r="B424" s="69" t="s">
+      <c r="C423" s="57"/>
+      <c r="M423" s="50"/>
+    </row>
+    <row r="424" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A424" s="34"/>
+      <c r="B424" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="C424" s="62"/>
-      <c r="M424" s="55"/>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A425" s="39"/>
-      <c r="B425" s="69" t="s">
+      <c r="C424" s="57"/>
+      <c r="M424" s="50"/>
+    </row>
+    <row r="425" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A425" s="34"/>
+      <c r="B425" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C425" s="62"/>
-      <c r="M425" s="55"/>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A426" s="39"/>
-      <c r="B426" s="69" t="s">
+      <c r="C425" s="57"/>
+      <c r="M425" s="50"/>
+    </row>
+    <row r="426" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A426" s="34"/>
+      <c r="B426" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="C426" s="62"/>
-      <c r="M426" s="55"/>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A427" s="39"/>
-      <c r="B427" s="69" t="s">
+      <c r="C426" s="57"/>
+      <c r="M426" s="50"/>
+    </row>
+    <row r="427" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A427" s="34"/>
+      <c r="B427" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="C427" s="62"/>
-      <c r="M427" s="55"/>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A428" s="39"/>
-      <c r="B428" s="69" t="s">
+      <c r="C427" s="57"/>
+      <c r="M427" s="50"/>
+    </row>
+    <row r="428" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A428" s="34"/>
+      <c r="B428" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="C428" s="62"/>
-      <c r="M428" s="55"/>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A429" s="39"/>
-      <c r="B429" s="69" t="s">
+      <c r="C428" s="57"/>
+      <c r="M428" s="50"/>
+    </row>
+    <row r="429" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A429" s="34"/>
+      <c r="B429" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="C429" s="62"/>
-      <c r="M429" s="55"/>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A430" s="39"/>
-      <c r="B430" s="69" t="s">
+      <c r="C429" s="57"/>
+      <c r="M429" s="50"/>
+    </row>
+    <row r="430" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A430" s="34"/>
+      <c r="B430" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="C430" s="62"/>
-      <c r="M430" s="55"/>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A431" s="39"/>
-      <c r="B431" s="69" t="s">
+      <c r="C430" s="57"/>
+      <c r="M430" s="50"/>
+    </row>
+    <row r="431" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A431" s="34"/>
+      <c r="B431" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="C431" s="62"/>
-      <c r="M431" s="55"/>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A432" s="39"/>
-      <c r="B432" s="69" t="s">
+      <c r="C431" s="57"/>
+      <c r="M431" s="50"/>
+    </row>
+    <row r="432" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A432" s="34"/>
+      <c r="B432" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="C432" s="62"/>
-      <c r="M432" s="55"/>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A433" s="39"/>
-      <c r="B433" s="69" t="s">
+      <c r="C432" s="57"/>
+      <c r="M432" s="50"/>
+    </row>
+    <row r="433" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A433" s="34"/>
+      <c r="B433" s="64" t="s">
         <v>537</v>
       </c>
-      <c r="C433" s="62"/>
-      <c r="M433" s="55"/>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A434" s="39"/>
-      <c r="B434" s="69" t="s">
+      <c r="C433" s="57"/>
+      <c r="M433" s="50"/>
+    </row>
+    <row r="434" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A434" s="34"/>
+      <c r="B434" s="64" t="s">
         <v>538</v>
       </c>
-      <c r="C434" s="62"/>
-      <c r="M434" s="55"/>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A435" s="39"/>
-      <c r="B435" s="69" t="s">
+      <c r="C434" s="57"/>
+      <c r="M434" s="50"/>
+    </row>
+    <row r="435" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A435" s="34"/>
+      <c r="B435" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="C435" s="62"/>
-      <c r="M435" s="55"/>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A436" s="39"/>
-      <c r="B436" s="69" t="s">
+      <c r="C435" s="57"/>
+      <c r="M435" s="50"/>
+    </row>
+    <row r="436" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A436" s="34"/>
+      <c r="B436" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C436" s="62"/>
-      <c r="M436" s="55"/>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A437" s="39"/>
-      <c r="B437" s="69" t="s">
+      <c r="C436" s="57"/>
+      <c r="M436" s="50"/>
+    </row>
+    <row r="437" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A437" s="34"/>
+      <c r="B437" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C437" s="62"/>
-      <c r="M437" s="55"/>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A438" s="62" t="s">
+      <c r="C437" s="57"/>
+      <c r="M437" s="50"/>
+    </row>
+    <row r="438" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A438" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B438" s="69" t="s">
+      <c r="B438" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C438" s="66"/>
-      <c r="M438" s="55"/>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A439" s="66"/>
-      <c r="B439" s="69" t="s">
+      <c r="C438" s="61"/>
+      <c r="M438" s="50"/>
+    </row>
+    <row r="439" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A439" s="61"/>
+      <c r="B439" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="C439" s="66"/>
-      <c r="M439" s="55"/>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A440" s="66"/>
-      <c r="B440" s="69" t="s">
+      <c r="C439" s="61"/>
+      <c r="M439" s="50"/>
+    </row>
+    <row r="440" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A440" s="61"/>
+      <c r="B440" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C440" s="66"/>
-      <c r="M440" s="55"/>
+      <c r="C440" s="61"/>
+      <c r="M440" s="50"/>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A441" s="66" t="s">
+      <c r="A441" s="61" t="s">
         <v>735</v>
       </c>
-      <c r="B441" s="66"/>
-      <c r="C441" s="66"/>
-      <c r="M441" s="55"/>
-    </row>
-    <row r="442" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A442" s="66"/>
-      <c r="B442" s="70" t="s">
+      <c r="B441" s="61"/>
+      <c r="C441" s="61"/>
+      <c r="M441" s="50"/>
+    </row>
+    <row r="442" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A442" s="61"/>
+      <c r="B442" s="65" t="s">
         <v>736</v>
       </c>
-      <c r="C442" s="66"/>
-      <c r="M442" s="55"/>
-    </row>
-    <row r="443" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A443" s="66"/>
-      <c r="B443" s="70" t="s">
+      <c r="C442" s="61"/>
+      <c r="M442" s="50"/>
+    </row>
+    <row r="443" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A443" s="61"/>
+      <c r="B443" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C443" s="66"/>
-      <c r="M443" s="55"/>
-    </row>
-    <row r="444" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A444" s="66"/>
-      <c r="B444" s="70" t="s">
+      <c r="C443" s="61"/>
+      <c r="M443" s="50"/>
+    </row>
+    <row r="444" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A444" s="61"/>
+      <c r="B444" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C444" s="66"/>
-      <c r="M444" s="55"/>
-    </row>
-    <row r="445" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A445" s="66"/>
-      <c r="B445" s="70" t="s">
+      <c r="C444" s="61"/>
+      <c r="M444" s="50"/>
+    </row>
+    <row r="445" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A445" s="61"/>
+      <c r="B445" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C445" s="66"/>
-      <c r="M445" s="55"/>
-    </row>
-    <row r="446" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A446" s="66"/>
-      <c r="B446" s="70" t="s">
+      <c r="C445" s="61"/>
+      <c r="M445" s="50"/>
+    </row>
+    <row r="446" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A446" s="61"/>
+      <c r="B446" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C446" s="66"/>
-      <c r="M446" s="55"/>
-    </row>
-    <row r="447" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A447" s="66"/>
-      <c r="B447" s="70" t="s">
+      <c r="C446" s="61"/>
+      <c r="M446" s="50"/>
+    </row>
+    <row r="447" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A447" s="61"/>
+      <c r="B447" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C447" s="66"/>
-      <c r="M447" s="55"/>
-    </row>
-    <row r="448" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A448" s="66"/>
-      <c r="B448" s="70" t="s">
+      <c r="C447" s="61"/>
+      <c r="M447" s="50"/>
+    </row>
+    <row r="448" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A448" s="61"/>
+      <c r="B448" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C448" s="66"/>
-      <c r="M448" s="55"/>
-    </row>
-    <row r="449" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A449" s="66"/>
-      <c r="B449" s="70" t="s">
+      <c r="C448" s="61"/>
+      <c r="M448" s="50"/>
+    </row>
+    <row r="449" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A449" s="61"/>
+      <c r="B449" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C449" s="66"/>
-      <c r="M449" s="55"/>
-    </row>
-    <row r="450" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A450" s="66"/>
-      <c r="B450" s="71" t="s">
+      <c r="C449" s="61"/>
+      <c r="M449" s="50"/>
+    </row>
+    <row r="450" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A450" s="61"/>
+      <c r="B450" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C450" s="66"/>
-      <c r="M450" s="55"/>
-    </row>
-    <row r="451" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A451" s="66"/>
-      <c r="B451" s="71" t="s">
+      <c r="C450" s="61"/>
+      <c r="M450" s="50"/>
+    </row>
+    <row r="451" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A451" s="61"/>
+      <c r="B451" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C451" s="66"/>
-      <c r="M451" s="55"/>
-    </row>
-    <row r="452" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A452" s="66"/>
-      <c r="B452" s="71" t="s">
+      <c r="C451" s="61"/>
+      <c r="M451" s="50"/>
+    </row>
+    <row r="452" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A452" s="61"/>
+      <c r="B452" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C452" s="66"/>
-      <c r="M452" s="55"/>
-    </row>
-    <row r="453" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A453" s="66"/>
-      <c r="B453" s="71" t="s">
+      <c r="C452" s="61"/>
+      <c r="M452" s="50"/>
+    </row>
+    <row r="453" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A453" s="61"/>
+      <c r="B453" s="66" t="s">
         <v>529</v>
       </c>
-      <c r="C453" s="66"/>
-      <c r="M453" s="55"/>
-    </row>
-    <row r="454" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A454" s="66"/>
-      <c r="B454" s="71" t="s">
+      <c r="C453" s="61"/>
+      <c r="M453" s="50"/>
+    </row>
+    <row r="454" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A454" s="61"/>
+      <c r="B454" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C454" s="66"/>
-      <c r="M454" s="55"/>
-    </row>
-    <row r="455" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A455" s="66"/>
-      <c r="B455" s="71" t="s">
+      <c r="C454" s="61"/>
+      <c r="M454" s="50"/>
+    </row>
+    <row r="455" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A455" s="61"/>
+      <c r="B455" s="66" t="s">
         <v>530</v>
       </c>
-      <c r="C455" s="66"/>
-      <c r="M455" s="55"/>
-    </row>
-    <row r="456" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A456" s="66"/>
-      <c r="B456" s="71" t="s">
+      <c r="C455" s="61"/>
+      <c r="M455" s="50"/>
+    </row>
+    <row r="456" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A456" s="61"/>
+      <c r="B456" s="66" t="s">
         <v>531</v>
       </c>
-      <c r="C456" s="66"/>
-      <c r="M456" s="55"/>
-    </row>
-    <row r="457" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A457" s="66"/>
-      <c r="B457" s="71" t="s">
+      <c r="C456" s="61"/>
+      <c r="M456" s="50"/>
+    </row>
+    <row r="457" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A457" s="61"/>
+      <c r="B457" s="66" t="s">
         <v>532</v>
       </c>
-      <c r="C457" s="66"/>
-      <c r="M457" s="55"/>
-    </row>
-    <row r="458" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A458" s="66"/>
-      <c r="B458" s="71" t="s">
+      <c r="C457" s="61"/>
+      <c r="M457" s="50"/>
+    </row>
+    <row r="458" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A458" s="61"/>
+      <c r="B458" s="66" t="s">
         <v>533</v>
       </c>
-      <c r="C458" s="66"/>
-      <c r="M458" s="55"/>
-    </row>
-    <row r="459" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A459" s="66"/>
-      <c r="B459" s="71" t="s">
+      <c r="C458" s="61"/>
+      <c r="M458" s="50"/>
+    </row>
+    <row r="459" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A459" s="61"/>
+      <c r="B459" s="66" t="s">
         <v>534</v>
       </c>
-      <c r="C459" s="66"/>
-      <c r="M459" s="55"/>
-    </row>
-    <row r="460" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A460" s="66"/>
-      <c r="B460" s="71" t="s">
+      <c r="C459" s="61"/>
+      <c r="M459" s="50"/>
+    </row>
+    <row r="460" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A460" s="61"/>
+      <c r="B460" s="66" t="s">
         <v>535</v>
       </c>
-      <c r="C460" s="66"/>
-      <c r="M460" s="55"/>
-    </row>
-    <row r="461" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A461" s="66"/>
-      <c r="B461" s="71" t="s">
+      <c r="C460" s="61"/>
+      <c r="M460" s="50"/>
+    </row>
+    <row r="461" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A461" s="61"/>
+      <c r="B461" s="66" t="s">
         <v>536</v>
       </c>
-      <c r="C461" s="66"/>
-      <c r="M461" s="55"/>
-    </row>
-    <row r="462" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A462" s="66"/>
-      <c r="B462" s="71" t="s">
+      <c r="C461" s="61"/>
+      <c r="M461" s="50"/>
+    </row>
+    <row r="462" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A462" s="61"/>
+      <c r="B462" s="66" t="s">
         <v>537</v>
       </c>
-      <c r="C462" s="66"/>
-      <c r="M462" s="55"/>
-    </row>
-    <row r="463" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A463" s="66"/>
-      <c r="B463" s="71" t="s">
+      <c r="C462" s="61"/>
+      <c r="M462" s="50"/>
+    </row>
+    <row r="463" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A463" s="61"/>
+      <c r="B463" s="66" t="s">
         <v>538</v>
       </c>
-      <c r="C463" s="66"/>
-      <c r="M463" s="55"/>
-    </row>
-    <row r="464" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A464" s="66"/>
-      <c r="B464" s="71" t="s">
+      <c r="C463" s="61"/>
+      <c r="M463" s="50"/>
+    </row>
+    <row r="464" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A464" s="61"/>
+      <c r="B464" s="66" t="s">
         <v>539</v>
       </c>
-      <c r="C464" s="66"/>
-      <c r="M464" s="55"/>
-    </row>
-    <row r="465" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A465" s="66"/>
-      <c r="B465" s="71" t="s">
+      <c r="C464" s="61"/>
+      <c r="M464" s="50"/>
+    </row>
+    <row r="465" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A465" s="61"/>
+      <c r="B465" s="66" t="s">
         <v>540</v>
       </c>
-      <c r="C465" s="66"/>
-      <c r="M465" s="55"/>
-    </row>
-    <row r="466" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A466" s="66"/>
-      <c r="B466" s="71" t="s">
+      <c r="C465" s="61"/>
+      <c r="M465" s="50"/>
+    </row>
+    <row r="466" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="A466" s="61"/>
+      <c r="B466" s="66" t="s">
         <v>541</v>
       </c>
-      <c r="C466" s="66"/>
-      <c r="M466" s="55"/>
+      <c r="C466" s="61"/>
+      <c r="M466" s="50"/>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A467" s="72" t="s">
+      <c r="A467" s="67" t="s">
         <v>737</v>
       </c>
-      <c r="B467" s="66"/>
-      <c r="C467" s="66"/>
-      <c r="M467" s="55"/>
-    </row>
-    <row r="468" spans="1:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A468" s="66"/>
-      <c r="B468" s="66" t="s">
+      <c r="B467" s="61"/>
+      <c r="C467" s="61"/>
+      <c r="M467" s="50"/>
+    </row>
+    <row r="468" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A468" s="61"/>
+      <c r="B468" s="61" t="s">
         <v>738</v>
       </c>
-      <c r="C468" s="66"/>
-      <c r="M468" s="55"/>
+      <c r="C468" s="61"/>
+      <c r="M468" s="50"/>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A469" s="66"/>
-      <c r="B469" s="66"/>
-      <c r="C469" s="66"/>
-      <c r="M469" s="55"/>
+      <c r="A469" s="61"/>
+      <c r="B469" s="61"/>
+      <c r="C469" s="61"/>
+      <c r="M469" s="50"/>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A470" s="66"/>
-      <c r="B470" s="66"/>
-      <c r="C470" s="66"/>
-      <c r="M470" s="55"/>
+      <c r="A470" s="61"/>
+      <c r="B470" s="61"/>
+      <c r="C470" s="61"/>
+      <c r="M470" s="50"/>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A471" s="66"/>
-      <c r="B471" s="66"/>
-      <c r="C471" s="66"/>
-      <c r="M471" s="55"/>
+      <c r="A471" s="61"/>
+      <c r="B471" s="61"/>
+      <c r="C471" s="61"/>
+      <c r="M471" s="50"/>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A472" s="66"/>
-      <c r="B472" s="66"/>
-      <c r="C472" s="66"/>
-      <c r="M472" s="55"/>
+      <c r="A472" s="61"/>
+      <c r="B472" s="61"/>
+      <c r="C472" s="61"/>
+      <c r="M472" s="50"/>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A473" s="66"/>
-      <c r="B473" s="66"/>
-      <c r="C473" s="66"/>
-      <c r="M473" s="55"/>
+      <c r="A473" s="61"/>
+      <c r="B473" s="61"/>
+      <c r="C473" s="61"/>
+      <c r="M473" s="50"/>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A474" s="66"/>
-      <c r="B474" s="66"/>
-      <c r="C474" s="66"/>
-      <c r="M474" s="55"/>
+      <c r="A474" s="61"/>
+      <c r="B474" s="61"/>
+      <c r="C474" s="61"/>
+      <c r="M474" s="50"/>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A475" s="66"/>
-      <c r="B475" s="66"/>
-      <c r="C475" s="66"/>
-      <c r="M475" s="55"/>
+      <c r="A475" s="61"/>
+      <c r="B475" s="61"/>
+      <c r="C475" s="61"/>
+      <c r="M475" s="50"/>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A476" s="66"/>
-      <c r="B476" s="66"/>
-      <c r="C476" s="66"/>
-      <c r="M476" s="55"/>
+      <c r="A476" s="61"/>
+      <c r="B476" s="61"/>
+      <c r="C476" s="61"/>
+      <c r="M476" s="50"/>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A477" s="66"/>
-      <c r="B477" s="66"/>
-      <c r="C477" s="66"/>
-      <c r="M477" s="55"/>
+      <c r="A477" s="61"/>
+      <c r="B477" s="61"/>
+      <c r="C477" s="61"/>
+      <c r="M477" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10137,68 +10127,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1209F63-9D26-47E3-9B22-A0E9D0C538F7}">
-  <dimension ref="A1:BH3"/>
+  <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="9.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="15" max="16" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="26" max="27" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="85" width="10.6640625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="40" max="41" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.453125" customWidth="1"/>
+    <col min="26" max="27" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.6328125" style="80" customWidth="1"/>
+    <col min="30" max="30" width="10.6328125" customWidth="1"/>
+    <col min="31" max="31" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="28.36328125" customWidth="1"/>
+    <col min="42" max="42" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="30" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="29" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>92</v>
       </c>
@@ -10378,83 +10368,22 @@
       </c>
       <c r="BH1" s="20"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C2" t="s">
+        <v>835</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="22" t="s">
-        <v>838</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="28" t="s">
-        <v>835</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="90" t="s">
-        <v>837</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" s="22" t="s">
-        <v>840</v>
-      </c>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="22"/>
-      <c r="BD2" s="22"/>
-      <c r="BE2" s="22"/>
-      <c r="BF2" s="22"/>
-      <c r="BG2" s="22"/>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="AG3" s="89"/>
+      <c r="L2" t="s">
+        <v>836</v>
+      </c>
+      <c r="M2" t="s">
+        <v>836</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -10462,11 +10391,8 @@
       <formula1>"BOM"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{C7F0DED7-74D7-427B-8162-C73523F78DE9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
@@ -10519,33 +10445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9351DC6-7947-4883-99D7-03DA521CFDDE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7F0999-735F-4483-BF36-D5264FA0C061}">
   <dimension ref="E1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
         <v>805</v>
       </c>
@@ -10568,7 +10475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>808</v>
       </c>
@@ -10591,7 +10498,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>811</v>
       </c>
@@ -10614,7 +10521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>813</v>
       </c>
@@ -10634,7 +10541,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>816</v>
       </c>
@@ -10654,7 +10561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
         <v>64</v>
       </c>
@@ -10671,7 +10578,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
         <v>54</v>
       </c>
@@ -10682,7 +10589,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>37</v>
       </c>
@@ -10693,7 +10600,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>40</v>
       </c>
@@ -10704,7 +10611,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
         <v>43</v>
       </c>
@@ -10715,7 +10622,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>529</v>
       </c>
@@ -10726,7 +10633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>49</v>
       </c>
@@ -10737,7 +10644,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>530</v>
       </c>
@@ -10745,62 +10652,62 @@
         <v>832</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F24" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F25" t="s">
         <v>31</v>
       </c>
@@ -10812,6 +10719,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F589723C5CF9BF4888831BB2DC69A718" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d91ee2624ae14a4be9994568eb03d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc0735e1-1781-4e64-a3a6-cf1bacd21285" xmlns:ns3="acee2d6b-dd79-4fb3-8fb4-89e5568edfef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf92cc8814d37b02d77c323fc2a11963" ns2:_="" ns3:_="">
     <xsd:import namespace="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
@@ -10990,15 +10906,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -11006,6 +10913,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{090AF72E-503D-4D63-A8FB-B98DEABA3FFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11020,14 +10935,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Bug.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT_NEW\master\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E633D924-24FB-45E4-B945-D9A51ACFBB2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41AFAAA-51C3-4071-BB43-7E3D0A2B21A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="838">
   <si>
     <t>Title</t>
   </si>
@@ -2582,13 +2582,16 @@
     <t>BOM</t>
   </si>
   <si>
-    <t>BOM-125493</t>
-  </si>
-  <si>
-    <t>Bug_AutomationData</t>
-  </si>
-  <si>
     <t>2021-11-03T06:36:53Z</t>
+  </si>
+  <si>
+    <t>BOM-125890</t>
+  </si>
+  <si>
+    <t>BUG_AUTOMATION</t>
+  </si>
+  <si>
+    <t>Bug_AutomationData_02</t>
   </si>
 </sst>
 </file>
@@ -10130,7 +10133,7 @@
   <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10370,19 +10373,22 @@
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C2" t="s">
-        <v>835</v>
+        <v>837</v>
+      </c>
+      <c r="D2" t="s">
+        <v>836</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>833</v>
       </c>
       <c r="L2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="M2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -10719,12 +10725,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10907,15 +10910,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCECA1-7A17-4605-AE73-73B4F527C894}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10940,18 +10955,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCECA1-7A17-4605-AE73-73B4F527C894}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Bug.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT_NEW\master\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="843">
   <si>
     <t>Title</t>
   </si>
@@ -2592,13 +2592,29 @@
   </si>
   <si>
     <t>Bug_AutomationData_02</t>
+  </si>
+  <si>
+    <t>BOM-47484</t>
+  </si>
+  <si>
+    <t>Bug_AutomationData_GenericUploader</t>
+  </si>
+  <si>
+    <t>Security_AutomationData</t>
+  </si>
+  <si>
+    <t>nagaswetha.korlapati@accenture.com</t>
+  </si>
+  <si>
+    <t>BOM-60108</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3535,11 +3551,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6328125" style="6"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.6328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.36328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.6328125" collapsed="true"/>
+    <col min="5" max="16384" style="6" width="8.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -4044,12 +4060,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6328125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10" style="3" customWidth="1"/>
-    <col min="6" max="11" width="9.36328125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.36328125" style="3"/>
+    <col min="1" max="1" customWidth="true" style="1" width="39.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.36328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="49.6328125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="6" max="11" customWidth="true" style="3" width="9.36328125" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10138,57 +10154,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.453125" customWidth="1"/>
-    <col min="26" max="27" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.6328125" style="80" customWidth="1"/>
-    <col min="30" max="30" width="10.6328125" customWidth="1"/>
-    <col min="31" max="31" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="28.36328125" customWidth="1"/>
-    <col min="42" max="42" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="30" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="29" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="9.6328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.54296875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" width="8.36328125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="80" width="10.6328125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.6328125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="25.54296875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="26.08984375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="40" max="41" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="16.36328125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="15.08984375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="23.6328125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="22.90625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="20.36328125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.35">
@@ -10373,10 +10389,10 @@
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="C2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D2" t="s">
         <v>836</v>
@@ -10384,11 +10400,20 @@
       <c r="E2" s="9" t="s">
         <v>833</v>
       </c>
+      <c r="G2" t="s">
+        <v>841</v>
+      </c>
       <c r="L2" t="s">
         <v>834</v>
       </c>
       <c r="M2" t="s">
         <v>834</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
